--- a/api/2/xlsx/es/SectorCOFOG.xlsx
+++ b/api/2/xlsx/es/SectorCOFOG.xlsx
@@ -22,75 +22,75 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-group</t>
+  </si>
+  <si>
     <t>codeforiati:cofog-class</t>
   </si>
   <si>
-    <t>codeforiati:cofog-group</t>
+    <t>codeforiati:cofog-division</t>
   </si>
   <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
-    <t>codeforiati:cofog-division</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
     <t>active</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>09.8 - Education n.e.c.</t>
+  </si>
+  <si>
     <t>09.8.0 - Education n.e.c. (CS)</t>
   </si>
   <si>
-    <t>09.8 - Education n.e.c.</t>
+    <t>09 - Education</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>09 - Education</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
+    <t>09.6 - Subsidiary services to education</t>
+  </si>
+  <si>
     <t>09.6.0 - Subsidiary services to education (IS)</t>
   </si>
   <si>
-    <t>09.6 - Subsidiary services to education</t>
-  </si>
-  <si>
     <t>11130</t>
   </si>
   <si>
     <t>11182</t>
   </si>
   <si>
+    <t>09.7 - R&amp;D Education</t>
+  </si>
+  <si>
     <t>09.7.0 - R&amp;D Education (CS)</t>
   </si>
   <si>
-    <t>09.7 - R&amp;D Education</t>
-  </si>
-  <si>
     <t>11220</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>09.1 - Pre‐primary and primary education</t>
+  </si>
+  <si>
     <t>09.1.2 - Primary education (IS)</t>
   </si>
   <si>
-    <t>09.1 - Pre‐primary and primary education</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -109,99 +109,99 @@
     <t>11250</t>
   </si>
   <si>
+    <t>07.4 - Public health services</t>
+  </si>
+  <si>
     <t>07.4.0 - Public health services (IS)</t>
   </si>
   <si>
-    <t>07.4 - Public health services</t>
-  </si>
-  <si>
     <t>07 - Health</t>
   </si>
   <si>
     <t>11260</t>
   </si>
   <si>
+    <t>09.2 - Secondary education</t>
+  </si>
+  <si>
     <t>09.2.1 - Lower‐secondary education (IS)</t>
   </si>
   <si>
-    <t>09.2 - Secondary education</t>
-  </si>
-  <si>
     <t>11320</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>09.2.2 - Upper‐secondary education (IS)</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
+    <t>09.5 - Education not definable by level</t>
+  </si>
+  <si>
     <t>09.5.0 - Education not definable by level (IS)</t>
   </si>
   <si>
-    <t>09.5 - Education not definable by level</t>
-  </si>
-  <si>
     <t>11420</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>09.4 - Tertiary education</t>
+  </si>
+  <si>
     <t>09.4.1 - First stage of tertiary education (IS)</t>
   </si>
   <si>
-    <t>09.4 - Tertiary education</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
+    <t>09.3 - Post‐secondary non‐tertiary education</t>
+  </si>
+  <si>
     <t>09.3.0 - Post‐secondary non‐tertiary education (IS)</t>
   </si>
   <si>
-    <t>09.3 - Post‐secondary non‐tertiary education</t>
-  </si>
-  <si>
     <t>12110</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>07.6 - Health n.e.c.</t>
+  </si>
+  <si>
     <t>07.6.0 - Health n.e.c. (CS)</t>
   </si>
   <si>
-    <t>07.6 - Health n.e.c.</t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
     <t>12182</t>
   </si>
   <si>
+    <t>07.5 - R&amp;D Health</t>
+  </si>
+  <si>
     <t>07.5.0 - R&amp;D Health (CS)</t>
   </si>
   <si>
-    <t>07.5 - R&amp;D Health</t>
-  </si>
-  <si>
     <t>12191</t>
   </si>
   <si>
+    <t>07.2 - Outpatient services</t>
+  </si>
+  <si>
     <t>07.2.1 - General medical services (IS)</t>
   </si>
   <si>
-    <t>07.2 - Outpatient services</t>
-  </si>
-  <si>
     <t>12196</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>12230</t>
   </si>
   <si>
+    <t>07.3 - Hospital services</t>
+  </si>
+  <si>
     <t>07.3.1 - General hospital services (IS)</t>
   </si>
   <si>
-    <t>07.3 - Hospital services</t>
-  </si>
-  <si>
     <t>12240</t>
   </si>
   <si>
@@ -286,27 +286,27 @@
     <t>14010</t>
   </si>
   <si>
+    <t>06.3 - Water supply</t>
+  </si>
+  <si>
     <t>06.3.0 - Water supply (CS)</t>
   </si>
   <si>
-    <t>06.3 - Water supply</t>
+    <t>06 - Housing and community amenities</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>06 - Housing and community amenities</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
+    <t>05.6 - Environmental protection n.e.c.</t>
+  </si>
+  <si>
     <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
   </si>
   <si>
-    <t>05.6 - Environmental protection n.e.c.</t>
-  </si>
-  <si>
     <t>05 - Environmental protection</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>14022</t>
   </si>
   <si>
+    <t>05.2 - Waste water management</t>
+  </si>
+  <si>
     <t>05.2.0 - Waste water management (CS)</t>
   </si>
   <si>
-    <t>05.2 - Waste water management</t>
-  </si>
-  <si>
     <t>14030</t>
   </si>
   <si>
@@ -340,60 +340,60 @@
     <t>14050</t>
   </si>
   <si>
+    <t>05.1 - Waste management</t>
+  </si>
+  <si>
     <t>05.1.0 - Waste management (CS)</t>
   </si>
   <si>
-    <t>05.1 - Waste management</t>
-  </si>
-  <si>
     <t>14081</t>
   </si>
   <si>
     <t>15110</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>01.3 - General services</t>
+  </si>
+  <si>
     <t>01.3.1 - General personnel services (CS)</t>
   </si>
   <si>
-    <t>01.3 - General services</t>
+    <t>01 - General public services</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
-    <t>01 - General public services</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
+    <t>01.1 - Executive and legislative organs, financial and fiscal affairs, external affairs</t>
+  </si>
+  <si>
     <t>01.1.2 - Financial and fiscal affairs (CS)</t>
   </si>
   <si>
-    <t>01.1 - Executive and legislative organs, financial and fiscal affairs, external affairs</t>
-  </si>
-  <si>
     <t>15112</t>
   </si>
   <si>
+    <t>01.8 - Transfers of a general character between different levels of government</t>
+  </si>
+  <si>
     <t>01.8.0 - Transfers of a general character between different levels of government (CS)</t>
   </si>
   <si>
-    <t>01.8 - Transfers of a general character between different levels of government</t>
-  </si>
-  <si>
     <t>15113</t>
   </si>
   <si>
+    <t>03.6 - Public order and safety n.e.c.</t>
+  </si>
+  <si>
     <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
   </si>
   <si>
-    <t>03.6 - Public order and safety n.e.c.</t>
-  </si>
-  <si>
     <t>03 - Public order and safety</t>
   </si>
   <si>
@@ -424,12 +424,12 @@
     <t>15123</t>
   </si>
   <si>
+    <t>01.2 - Foreign economic aid</t>
+  </si>
+  <si>
     <t>01.2.2 - Economic aid routed through international organizations (CS)</t>
   </si>
   <si>
-    <t>01.2 - Foreign economic aid</t>
-  </si>
-  <si>
     <t>15124</t>
   </si>
   <si>
@@ -460,30 +460,30 @@
     <t>15131</t>
   </si>
   <si>
+    <t>03.3 - Law courts</t>
+  </si>
+  <si>
     <t>03.3.0 - Law courts (CS)</t>
   </si>
   <si>
-    <t>03.3 - Law courts</t>
-  </si>
-  <si>
     <t>15132</t>
   </si>
   <si>
+    <t>03.1 - Police services</t>
+  </si>
+  <si>
     <t>03.1.0 - Police services (CS)</t>
   </si>
   <si>
-    <t>03.1 - Police services</t>
-  </si>
-  <si>
     <t>15133</t>
   </si>
   <si>
+    <t>03.2 - Fire‐protection services</t>
+  </si>
+  <si>
     <t>03.2.0 - Fire‐protection services (CS)</t>
   </si>
   <si>
-    <t>03.2 - Fire‐protection services</t>
-  </si>
-  <si>
     <t>15134</t>
   </si>
   <si>
@@ -496,21 +496,21 @@
     <t>15137</t>
   </si>
   <si>
+    <t>03.4 - Prisons</t>
+  </si>
+  <si>
     <t>03.4.0 - Prisons (CS)</t>
   </si>
   <si>
-    <t>03.4 - Prisons</t>
-  </si>
-  <si>
     <t>15142</t>
   </si>
   <si>
+    <t>04.1 - General economic, commercial and labour affairs</t>
+  </si>
+  <si>
     <t>04.1.1 - General economic and commercial affairs (CS)</t>
   </si>
   <si>
-    <t>04.1 - General economic, commercial and labour affairs</t>
-  </si>
-  <si>
     <t>04 - Economic affairs</t>
   </si>
   <si>
@@ -526,12 +526,12 @@
     <t>15151</t>
   </si>
   <si>
+    <t>01.6 - General public services n.e.c.</t>
+  </si>
+  <si>
     <t>01.6.0 - General public services n.e.c. (CS)</t>
   </si>
   <si>
-    <t>01.6 - General public services n.e.c.</t>
-  </si>
-  <si>
     <t>15152</t>
   </si>
   <si>
@@ -541,12 +541,12 @@
     <t>15153</t>
   </si>
   <si>
+    <t>04.6 - Communication</t>
+  </si>
+  <si>
     <t>04.6.0 - Communication (CS)</t>
   </si>
   <si>
-    <t>04.6 - Communication</t>
-  </si>
-  <si>
     <t>15154</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>15170</t>
   </si>
   <si>
+    <t>10.7 - Social exclusion n.e.c.</t>
+  </si>
+  <si>
     <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
   </si>
   <si>
-    <t>10.7 - Social exclusion n.e.c.</t>
-  </si>
-  <si>
     <t>10 - Social protection</t>
   </si>
   <si>
@@ -583,12 +583,12 @@
     <t>15196</t>
   </si>
   <si>
+    <t>01.5 - R&amp;D General public services</t>
+  </si>
+  <si>
     <t>01.5.0 - R&amp;D General public services (CS)</t>
   </si>
   <si>
-    <t>01.5 - R&amp;D General public services</t>
-  </si>
-  <si>
     <t>15210</t>
   </si>
   <si>
@@ -601,12 +601,12 @@
     <t>15230</t>
   </si>
   <si>
+    <t>02.3 - Foreign military aid</t>
+  </si>
+  <si>
     <t>02.3.0 - Foreign military aid (CS)</t>
   </si>
   <si>
-    <t>02.3 - Foreign military aid</t>
-  </si>
-  <si>
     <t>02 - Defence</t>
   </si>
   <si>
@@ -622,12 +622,12 @@
     <t>16010</t>
   </si>
   <si>
+    <t>10.9 - Social protection n.e.c.</t>
+  </si>
+  <si>
     <t>10.9.0 - Social protection n.e.c. (CS)</t>
   </si>
   <si>
-    <t>10.9 - Social protection n.e.c.</t>
-  </si>
-  <si>
     <t>160</t>
   </si>
   <si>
@@ -640,12 +640,12 @@
     <t>16013</t>
   </si>
   <si>
+    <t>10.2 - Old age</t>
+  </si>
+  <si>
     <t>10.2.0 - Old age (IS)</t>
   </si>
   <si>
-    <t>10.2 - Old age</t>
-  </si>
-  <si>
     <t>16014</t>
   </si>
   <si>
@@ -655,42 +655,42 @@
     <t>16020</t>
   </si>
   <si>
+    <t>10.5 - Unemployment</t>
+  </si>
+  <si>
     <t>10.5.0 - Unemployment (IS)</t>
   </si>
   <si>
-    <t>10.5 - Unemployment</t>
-  </si>
-  <si>
     <t>16030</t>
   </si>
   <si>
+    <t>06.6 - Housing and community amenities n.e.c.</t>
+  </si>
+  <si>
     <t>06.6.0 - Housing and community amenities n.e.c. (CS)</t>
   </si>
   <si>
-    <t>06.6 - Housing and community amenities n.e.c.</t>
-  </si>
-  <si>
     <t>16040</t>
   </si>
   <si>
+    <t>06.1 - Housing development</t>
+  </si>
+  <si>
     <t>06.1.0 - Housing development (CS)</t>
   </si>
   <si>
-    <t>06.1 - Housing development</t>
-  </si>
-  <si>
     <t>16050</t>
   </si>
   <si>
     <t>16061</t>
   </si>
   <si>
+    <t>08.2 - Cultural services</t>
+  </si>
+  <si>
     <t>08.2.0 - Cultural services (IS)</t>
   </si>
   <si>
-    <t>08.2 - Cultural services</t>
-  </si>
-  <si>
     <t>08 - Recreation, culture and religion</t>
   </si>
   <si>
@@ -706,12 +706,12 @@
     <t>16065</t>
   </si>
   <si>
+    <t>08.1 - Recreational and sporting services</t>
+  </si>
+  <si>
     <t>08.1.0 - Recreational and sporting services (IS)</t>
   </si>
   <si>
-    <t>08.1 - Recreational and sporting services</t>
-  </si>
-  <si>
     <t>16066</t>
   </si>
   <si>
@@ -742,12 +742,12 @@
     <t>21020</t>
   </si>
   <si>
+    <t>04.5 - Transport</t>
+  </si>
+  <si>
     <t>04.5.1 - Road transport (CS)</t>
   </si>
   <si>
-    <t>04.5 - Transport</t>
-  </si>
-  <si>
     <t>21021</t>
   </si>
   <si>
@@ -781,12 +781,12 @@
     <t>21061</t>
   </si>
   <si>
+    <t>04.7 - Other industries</t>
+  </si>
+  <si>
     <t>04.7.1 - Distributive trades, storage and warehousing (CS)</t>
   </si>
   <si>
-    <t>04.7 - Other industries</t>
-  </si>
-  <si>
     <t>21081</t>
   </si>
   <si>
@@ -811,42 +811,42 @@
     <t>22030</t>
   </si>
   <si>
+    <t>08.3 - Broadcasting and publishing services</t>
+  </si>
+  <si>
     <t>08.3.0 - Broadcasting and publishing services (CS)</t>
   </si>
   <si>
-    <t>08.3 - Broadcasting and publishing services</t>
-  </si>
-  <si>
     <t>22040</t>
   </si>
   <si>
     <t>23110</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>04.3 - Fuel and energy</t>
+  </si>
+  <si>
     <t>04.3.5 - Electricity (CS)</t>
   </si>
   <si>
-    <t>04.3 - Fuel and energy</t>
-  </si>
-  <si>
     <t>230</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
     <t>23112</t>
   </si>
   <si>
+    <t>04.8 - R&amp;D Economic affairs</t>
+  </si>
+  <si>
     <t>04.8.3 - R&amp;D Fuel and energy (CS)</t>
   </si>
   <si>
-    <t>04.8 - R&amp;D Economic affairs</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>23510</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>04.3.3 - Nuclear fuel (CS)</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>31110</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
+  </si>
+  <si>
     <t>04.2.1 - Agriculture (CS)</t>
   </si>
   <si>
-    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
-  </si>
-  <si>
     <t>310</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1060,12 +1060,12 @@
     <t>31210</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>04.2.2 - Forestry (CS)</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1084,12 +1084,12 @@
     <t>31310</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>04.2.3 - Fishing and hunting (CS)</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1105,18 +1105,18 @@
     <t>32110</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>04.4 - Mining, manufacturing and construction</t>
+  </si>
+  <si>
     <t>04.4.2 - Manufacturing (CS)</t>
   </si>
   <si>
-    <t>04.4 - Mining, manufacturing and construction</t>
-  </si>
-  <si>
     <t>320</t>
   </si>
   <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1174,12 +1174,12 @@
     <t>32210</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>04.4.1 - Mining of mineral resources other than mineral fuels (CS)</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1210,21 +1210,21 @@
     <t>32310</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>04.4.3 - Construction (CS)</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>330</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1243,12 +1243,12 @@
     <t>33210</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>04.7.3 - Tourism (CS)</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
@@ -1261,12 +1261,12 @@
     <t>41030</t>
   </si>
   <si>
+    <t>05.4 - Protection of biodiversity and landscape</t>
+  </si>
+  <si>
     <t>05.4.0 - Protection of biodiversity and landscape (CS)</t>
   </si>
   <si>
-    <t>05.4 - Protection of biodiversity and landscape</t>
-  </si>
-  <si>
     <t>41040</t>
   </si>
   <si>
@@ -1279,12 +1279,12 @@
     <t>43010</t>
   </si>
   <si>
+    <t>04.9 - Economic affairs n.e.c.</t>
+  </si>
+  <si>
     <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
   </si>
   <si>
-    <t>04.9 - Economic affairs n.e.c.</t>
-  </si>
-  <si>
     <t>430</t>
   </si>
   <si>
@@ -1294,12 +1294,12 @@
     <t>43031</t>
   </si>
   <si>
+    <t>06.2 - Community development</t>
+  </si>
+  <si>
     <t>06.2.0 - Community development (CS)</t>
   </si>
   <si>
-    <t>06.2 - Community development</t>
-  </si>
-  <si>
     <t>43032</t>
   </si>
   <si>
@@ -1318,24 +1318,24 @@
     <t>43060</t>
   </si>
   <si>
+    <t>02.2 - Civil defence</t>
+  </si>
+  <si>
     <t>02.2.0 - Civil defence (CS)</t>
   </si>
   <si>
-    <t>02.2 - Civil defence</t>
-  </si>
-  <si>
     <t>43071</t>
   </si>
   <si>
     <t>43072</t>
   </si>
   <si>
+    <t>10.4 - Family and children</t>
+  </si>
+  <si>
     <t>10.4.0 - Family and children (IS)</t>
   </si>
   <si>
-    <t>10.4 - Family and children</t>
-  </si>
-  <si>
     <t>43073</t>
   </si>
   <si>
@@ -1345,12 +1345,12 @@
     <t>43082</t>
   </si>
   <si>
+    <t>01.4 - Basic research</t>
+  </si>
+  <si>
     <t>01.4.0 - Basic research (CS)</t>
   </si>
   <si>
-    <t>01.4 - Basic research</t>
-  </si>
-  <si>
     <t>51010</t>
   </si>
   <si>
@@ -1375,10 +1375,10 @@
     <t>60010</t>
   </si>
   <si>
+    <t>01.7 - Public debt transactions</t>
+  </si>
+  <si>
     <t>01.7.0 - Public debt transactions (CS)</t>
-  </si>
-  <si>
-    <t>01.7 - Public debt transactions</t>
   </si>
   <si>
     <t>600</t>
@@ -1866,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1912,13 +1912,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1941,13 +1941,13 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1958,7 +1958,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1970,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1987,13 +1987,13 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2010,13 +2010,13 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2027,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2050,19 +2050,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2073,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2099,16 +2099,16 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2119,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2148,13 +2148,13 @@
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2165,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2234,13 +2234,13 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
@@ -2257,13 +2257,13 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
       </c>
       <c r="F20" t="s">
         <v>33</v>
@@ -2303,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
       </c>
       <c r="F22" t="s">
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2326,19 +2326,19 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>67</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
       </c>
       <c r="F23" t="s">
         <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2349,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2372,19 +2372,19 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>53</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2395,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>53</v>
       </c>
       <c r="F26" t="s">
         <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2418,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2441,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2464,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>53</v>
       </c>
       <c r="F29" t="s">
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2487,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
@@ -2499,7 +2499,7 @@
         <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2510,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>32</v>
-      </c>
-      <c r="E31" t="s">
-        <v>53</v>
       </c>
       <c r="F31" t="s">
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2533,19 +2533,19 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>32</v>
-      </c>
-      <c r="E32" t="s">
-        <v>53</v>
       </c>
       <c r="F32" t="s">
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2556,19 +2556,19 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
         <v>31</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>53</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2579,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
         <v>31</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>32</v>
-      </c>
-      <c r="E34" t="s">
-        <v>53</v>
       </c>
       <c r="F34" t="s">
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2602,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
         <v>31</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>53</v>
       </c>
       <c r="F35" t="s">
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2625,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
         <v>57</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>58</v>
-      </c>
-      <c r="E36" t="s">
-        <v>53</v>
       </c>
       <c r="F36" t="s">
         <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2647,17 +2647,17 @@
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>31</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>32</v>
-      </c>
-      <c r="E37" t="s">
-        <v>83</v>
       </c>
       <c r="F37" t="s">
         <v>33</v>
+      </c>
+      <c r="G37" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2667,17 +2667,17 @@
       <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>32</v>
-      </c>
-      <c r="E38" t="s">
-        <v>83</v>
       </c>
       <c r="F38" t="s">
         <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2687,17 +2687,17 @@
       <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>32</v>
-      </c>
-      <c r="E39" t="s">
-        <v>83</v>
       </c>
       <c r="F39" t="s">
         <v>33</v>
+      </c>
+      <c r="G39" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2707,17 +2707,17 @@
       <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>31</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>32</v>
-      </c>
-      <c r="E40" t="s">
-        <v>83</v>
       </c>
       <c r="F40" t="s">
         <v>33</v>
+      </c>
+      <c r="G40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2727,17 +2727,17 @@
       <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
       <c r="D41" t="s">
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
         <v>33</v>
+      </c>
+      <c r="G41" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2747,17 +2747,17 @@
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>57</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>58</v>
-      </c>
-      <c r="E42" t="s">
-        <v>83</v>
       </c>
       <c r="F42" t="s">
         <v>33</v>
+      </c>
+      <c r="G42" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2767,16 +2767,16 @@
       <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>90</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>91</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>92</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2787,17 +2787,17 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>95</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>96</v>
-      </c>
-      <c r="E44" t="s">
-        <v>92</v>
       </c>
       <c r="F44" t="s">
         <v>97</v>
+      </c>
+      <c r="G44" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2807,16 +2807,16 @@
       <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>90</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>91</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>92</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2827,16 +2827,16 @@
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>90</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>91</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>92</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2847,17 +2847,17 @@
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>101</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>102</v>
-      </c>
-      <c r="E47" t="s">
-        <v>92</v>
       </c>
       <c r="F47" t="s">
         <v>97</v>
+      </c>
+      <c r="G47" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2867,16 +2867,16 @@
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>90</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>91</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>92</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2887,16 +2887,16 @@
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>90</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>91</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>92</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2907,17 +2907,17 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>101</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>102</v>
-      </c>
-      <c r="E50" t="s">
-        <v>92</v>
       </c>
       <c r="F50" t="s">
         <v>97</v>
+      </c>
+      <c r="G50" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2927,16 +2927,16 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>90</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>91</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>92</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2947,17 +2947,17 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>108</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>109</v>
-      </c>
-      <c r="E52" t="s">
-        <v>92</v>
       </c>
       <c r="F52" t="s">
         <v>97</v>
+      </c>
+      <c r="G52" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2967,17 +2967,17 @@
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
       <c r="D53" t="s">
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3011,13 +3011,13 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
         <v>118</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>119</v>
-      </c>
-      <c r="E55" t="s">
-        <v>114</v>
       </c>
       <c r="F55" t="s">
         <v>115</v>
@@ -3034,13 +3034,13 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" t="s">
         <v>121</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>122</v>
-      </c>
-      <c r="E56" t="s">
-        <v>114</v>
       </c>
       <c r="F56" t="s">
         <v>115</v>
@@ -3057,13 +3057,13 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" t="s">
         <v>124</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>125</v>
-      </c>
-      <c r="E57" t="s">
-        <v>114</v>
       </c>
       <c r="F57" t="s">
         <v>126</v>
@@ -3080,13 +3080,13 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" t="s">
         <v>118</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>119</v>
-      </c>
-      <c r="E58" t="s">
-        <v>114</v>
       </c>
       <c r="F58" t="s">
         <v>115</v>
@@ -3103,13 +3103,13 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" t="s">
         <v>118</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>119</v>
-      </c>
-      <c r="E59" t="s">
-        <v>114</v>
       </c>
       <c r="F59" t="s">
         <v>115</v>
@@ -3126,13 +3126,13 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" t="s">
         <v>118</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>119</v>
-      </c>
-      <c r="E60" t="s">
-        <v>114</v>
       </c>
       <c r="F60" t="s">
         <v>115</v>
@@ -3149,13 +3149,13 @@
         <v>8</v>
       </c>
       <c r="C61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" t="s">
         <v>118</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>119</v>
-      </c>
-      <c r="E61" t="s">
-        <v>114</v>
       </c>
       <c r="F61" t="s">
         <v>115</v>
@@ -3172,13 +3172,13 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
         <v>118</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>119</v>
-      </c>
-      <c r="E62" t="s">
-        <v>114</v>
       </c>
       <c r="F62" t="s">
         <v>115</v>
@@ -3195,13 +3195,13 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" t="s">
         <v>133</v>
-      </c>
-      <c r="D63" t="s">
-        <v>119</v>
-      </c>
-      <c r="E63" t="s">
-        <v>114</v>
       </c>
       <c r="F63" t="s">
         <v>115</v>
@@ -3218,13 +3218,13 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" t="s">
         <v>133</v>
-      </c>
-      <c r="D64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E64" t="s">
-        <v>114</v>
       </c>
       <c r="F64" t="s">
         <v>115</v>
@@ -3241,13 +3241,13 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" t="s">
         <v>136</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>137</v>
-      </c>
-      <c r="E65" t="s">
-        <v>114</v>
       </c>
       <c r="F65" t="s">
         <v>115</v>
@@ -3287,13 +3287,13 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" t="s">
         <v>118</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>119</v>
-      </c>
-      <c r="E67" t="s">
-        <v>114</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
@@ -3310,13 +3310,13 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
         <v>113</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="F68" t="s">
         <v>115</v>
@@ -3333,13 +3333,13 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D69" t="s">
         <v>113</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="F69" t="s">
         <v>115</v>
@@ -3356,13 +3356,13 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" t="s">
         <v>121</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>122</v>
-      </c>
-      <c r="E70" t="s">
-        <v>114</v>
       </c>
       <c r="F70" t="s">
         <v>115</v>
@@ -3379,13 +3379,13 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" t="s">
         <v>121</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>122</v>
-      </c>
-      <c r="E71" t="s">
-        <v>114</v>
       </c>
       <c r="F71" t="s">
         <v>115</v>
@@ -3425,13 +3425,13 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" t="s">
         <v>148</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>149</v>
-      </c>
-      <c r="E73" t="s">
-        <v>114</v>
       </c>
       <c r="F73" t="s">
         <v>126</v>
@@ -3448,13 +3448,13 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" t="s">
         <v>151</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>152</v>
-      </c>
-      <c r="E74" t="s">
-        <v>114</v>
       </c>
       <c r="F74" t="s">
         <v>126</v>
@@ -3471,13 +3471,13 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" t="s">
         <v>154</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>155</v>
-      </c>
-      <c r="E75" t="s">
-        <v>114</v>
       </c>
       <c r="F75" t="s">
         <v>126</v>
@@ -3494,13 +3494,13 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" t="s">
         <v>148</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>149</v>
-      </c>
-      <c r="E76" t="s">
-        <v>114</v>
       </c>
       <c r="F76" t="s">
         <v>126</v>
@@ -3517,13 +3517,13 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
         <v>148</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>149</v>
-      </c>
-      <c r="E77" t="s">
-        <v>114</v>
       </c>
       <c r="F77" t="s">
         <v>126</v>
@@ -3540,13 +3540,13 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" t="s">
         <v>151</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>152</v>
-      </c>
-      <c r="E78" t="s">
-        <v>114</v>
       </c>
       <c r="F78" t="s">
         <v>126</v>
@@ -3563,13 +3563,13 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" t="s">
         <v>160</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>161</v>
-      </c>
-      <c r="E79" t="s">
-        <v>114</v>
       </c>
       <c r="F79" t="s">
         <v>126</v>
@@ -3586,13 +3586,13 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" t="s">
         <v>163</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>164</v>
-      </c>
-      <c r="E80" t="s">
-        <v>114</v>
       </c>
       <c r="F80" t="s">
         <v>165</v>
@@ -3609,13 +3609,13 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" t="s">
         <v>163</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>164</v>
-      </c>
-      <c r="E81" t="s">
-        <v>114</v>
       </c>
       <c r="F81" t="s">
         <v>165</v>
@@ -3632,13 +3632,13 @@
         <v>8</v>
       </c>
       <c r="C82" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" t="s">
         <v>163</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>164</v>
-      </c>
-      <c r="E82" t="s">
-        <v>114</v>
       </c>
       <c r="F82" t="s">
         <v>165</v>
@@ -3655,13 +3655,13 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
         <v>113</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="F83" t="s">
         <v>115</v>
@@ -3678,13 +3678,13 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" t="s">
         <v>170</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>171</v>
-      </c>
-      <c r="E84" t="s">
-        <v>114</v>
       </c>
       <c r="F84" t="s">
         <v>115</v>
@@ -3701,13 +3701,13 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" t="s">
         <v>173</v>
-      </c>
-      <c r="D85" t="s">
-        <v>119</v>
-      </c>
-      <c r="E85" t="s">
-        <v>114</v>
       </c>
       <c r="F85" t="s">
         <v>115</v>
@@ -3724,13 +3724,13 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" t="s">
         <v>175</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>176</v>
-      </c>
-      <c r="E86" t="s">
-        <v>114</v>
       </c>
       <c r="F86" t="s">
         <v>165</v>
@@ -3747,13 +3747,13 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" t="s">
         <v>173</v>
-      </c>
-      <c r="D87" t="s">
-        <v>119</v>
-      </c>
-      <c r="E87" t="s">
-        <v>114</v>
       </c>
       <c r="F87" t="s">
         <v>115</v>
@@ -3770,13 +3770,13 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" t="s">
         <v>118</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>119</v>
-      </c>
-      <c r="E88" t="s">
-        <v>114</v>
       </c>
       <c r="F88" t="s">
         <v>115</v>
@@ -3793,13 +3793,13 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" t="s">
         <v>118</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>119</v>
-      </c>
-      <c r="E89" t="s">
-        <v>114</v>
       </c>
       <c r="F89" t="s">
         <v>115</v>
@@ -3816,13 +3816,13 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" t="s">
         <v>124</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>125</v>
-      </c>
-      <c r="E90" t="s">
-        <v>114</v>
       </c>
       <c r="F90" t="s">
         <v>126</v>
@@ -3839,13 +3839,13 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" t="s">
         <v>182</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>183</v>
-      </c>
-      <c r="E91" t="s">
-        <v>114</v>
       </c>
       <c r="F91" t="s">
         <v>184</v>
@@ -3862,13 +3862,13 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" t="s">
         <v>124</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>125</v>
-      </c>
-      <c r="E92" t="s">
-        <v>114</v>
       </c>
       <c r="F92" t="s">
         <v>126</v>
@@ -3885,13 +3885,13 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" t="s">
         <v>121</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>122</v>
-      </c>
-      <c r="E93" t="s">
-        <v>114</v>
       </c>
       <c r="F93" t="s">
         <v>115</v>
@@ -3908,13 +3908,13 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" t="s">
         <v>124</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>125</v>
-      </c>
-      <c r="E94" t="s">
-        <v>114</v>
       </c>
       <c r="F94" t="s">
         <v>126</v>
@@ -3931,13 +3931,13 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" t="s">
         <v>189</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>190</v>
-      </c>
-      <c r="E95" t="s">
-        <v>114</v>
       </c>
       <c r="F95" t="s">
         <v>115</v>
@@ -3954,19 +3954,19 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" t="s">
         <v>124</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>125</v>
-      </c>
-      <c r="E96" t="s">
-        <v>114</v>
       </c>
       <c r="F96" t="s">
         <v>126</v>
       </c>
       <c r="G96" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3977,19 +3977,19 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" t="s">
         <v>124</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>125</v>
-      </c>
-      <c r="E97" t="s">
-        <v>114</v>
       </c>
       <c r="F97" t="s">
         <v>126</v>
       </c>
       <c r="G97" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4000,19 +4000,19 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" t="s">
         <v>195</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>196</v>
-      </c>
-      <c r="E98" t="s">
-        <v>114</v>
       </c>
       <c r="F98" t="s">
         <v>197</v>
       </c>
       <c r="G98" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4023,19 +4023,19 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" t="s">
         <v>124</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>125</v>
-      </c>
-      <c r="E99" t="s">
-        <v>114</v>
       </c>
       <c r="F99" t="s">
         <v>126</v>
       </c>
       <c r="G99" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4046,19 +4046,19 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
+        <v>192</v>
+      </c>
+      <c r="D100" t="s">
         <v>154</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>155</v>
-      </c>
-      <c r="E100" t="s">
-        <v>114</v>
       </c>
       <c r="F100" t="s">
         <v>126</v>
       </c>
       <c r="G100" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4069,19 +4069,19 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" t="s">
         <v>124</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>125</v>
-      </c>
-      <c r="E101" t="s">
-        <v>114</v>
       </c>
       <c r="F101" t="s">
         <v>126</v>
       </c>
       <c r="G101" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4091,17 +4091,17 @@
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>202</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>203</v>
-      </c>
-      <c r="E102" t="s">
-        <v>204</v>
       </c>
       <c r="F102" t="s">
         <v>184</v>
+      </c>
+      <c r="G102" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4111,17 +4111,17 @@
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>202</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>203</v>
-      </c>
-      <c r="E103" t="s">
-        <v>204</v>
       </c>
       <c r="F103" t="s">
         <v>184</v>
+      </c>
+      <c r="G103" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4131,17 +4131,17 @@
       <c r="B104" t="s">
         <v>8</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>202</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>203</v>
-      </c>
-      <c r="E104" t="s">
-        <v>204</v>
       </c>
       <c r="F104" t="s">
         <v>184</v>
+      </c>
+      <c r="G104" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4151,17 +4151,17 @@
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>208</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>209</v>
-      </c>
-      <c r="E105" t="s">
-        <v>204</v>
       </c>
       <c r="F105" t="s">
         <v>184</v>
+      </c>
+      <c r="G105" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4171,17 +4171,17 @@
       <c r="B106" t="s">
         <v>8</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>202</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>203</v>
-      </c>
-      <c r="E106" t="s">
-        <v>204</v>
       </c>
       <c r="F106" t="s">
         <v>184</v>
+      </c>
+      <c r="G106" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4191,17 +4191,17 @@
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>182</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>183</v>
-      </c>
-      <c r="E107" t="s">
-        <v>204</v>
       </c>
       <c r="F107" t="s">
         <v>184</v>
+      </c>
+      <c r="G107" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4211,17 +4211,17 @@
       <c r="B108" t="s">
         <v>8</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>213</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>214</v>
-      </c>
-      <c r="E108" t="s">
-        <v>204</v>
       </c>
       <c r="F108" t="s">
         <v>184</v>
+      </c>
+      <c r="G108" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4231,17 +4231,17 @@
       <c r="B109" t="s">
         <v>8</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>216</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>217</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G109" t="s">
         <v>204</v>
-      </c>
-      <c r="F109" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4251,17 +4251,17 @@
       <c r="B110" t="s">
         <v>8</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>219</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>220</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
+        <v>92</v>
+      </c>
+      <c r="G110" t="s">
         <v>204</v>
-      </c>
-      <c r="F110" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4271,17 +4271,17 @@
       <c r="B111" t="s">
         <v>8</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>202</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>203</v>
-      </c>
-      <c r="E111" t="s">
-        <v>204</v>
       </c>
       <c r="F111" t="s">
         <v>184</v>
+      </c>
+      <c r="G111" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4291,337 +4291,337 @@
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>223</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>224</v>
-      </c>
-      <c r="E112" t="s">
-        <v>204</v>
       </c>
       <c r="F112" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>226</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
-      <c r="C113" t="s">
-        <v>143</v>
-      </c>
       <c r="D113" t="s">
         <v>113</v>
       </c>
       <c r="E113" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="F113" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>227</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>151</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>152</v>
-      </c>
-      <c r="E114" t="s">
-        <v>204</v>
       </c>
       <c r="F114" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>228</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>182</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>183</v>
-      </c>
-      <c r="E115" t="s">
-        <v>204</v>
       </c>
       <c r="F115" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>229</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>230</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>231</v>
-      </c>
-      <c r="E116" t="s">
-        <v>204</v>
       </c>
       <c r="F116" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>232</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>223</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>224</v>
-      </c>
-      <c r="E117" t="s">
-        <v>204</v>
       </c>
       <c r="F117" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>233</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>163</v>
+      </c>
+      <c r="E118" t="s">
         <v>234</v>
       </c>
-      <c r="D118" t="s">
-        <v>164</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
+        <v>165</v>
+      </c>
+      <c r="G118" t="s">
         <v>204</v>
       </c>
-      <c r="F118" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>235</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>182</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>183</v>
-      </c>
-      <c r="E119" t="s">
-        <v>204</v>
       </c>
       <c r="F119" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>236</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>170</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>171</v>
-      </c>
-      <c r="E120" t="s">
-        <v>237</v>
       </c>
       <c r="F120" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>238</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
       </c>
-      <c r="C121" t="s">
-        <v>143</v>
-      </c>
       <c r="D121" t="s">
         <v>113</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="F121" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>239</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>170</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>171</v>
-      </c>
-      <c r="E122" t="s">
-        <v>237</v>
       </c>
       <c r="F122" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>240</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>170</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>171</v>
-      </c>
-      <c r="E123" t="s">
-        <v>237</v>
       </c>
       <c r="F123" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>241</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>242</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>243</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
+        <v>165</v>
+      </c>
+      <c r="G124" t="s">
         <v>237</v>
       </c>
-      <c r="F124" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>244</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>242</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>243</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
+        <v>165</v>
+      </c>
+      <c r="G125" t="s">
         <v>237</v>
       </c>
-      <c r="F125" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>245</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>242</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>243</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
+        <v>165</v>
+      </c>
+      <c r="G126" t="s">
         <v>237</v>
       </c>
-      <c r="F126" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>246</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>242</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>243</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
+        <v>165</v>
+      </c>
+      <c r="G127" t="s">
         <v>237</v>
       </c>
-      <c r="F127" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>247</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>242</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>243</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
+        <v>165</v>
+      </c>
+      <c r="G128" t="s">
         <v>237</v>
-      </c>
-      <c r="F128" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4631,17 +4631,17 @@
       <c r="B129" t="s">
         <v>8</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>242</v>
+      </c>
+      <c r="E129" t="s">
         <v>249</v>
       </c>
-      <c r="D129" t="s">
-        <v>243</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
+        <v>165</v>
+      </c>
+      <c r="G129" t="s">
         <v>237</v>
-      </c>
-      <c r="F129" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4651,17 +4651,17 @@
       <c r="B130" t="s">
         <v>8</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>242</v>
+      </c>
+      <c r="E130" t="s">
         <v>251</v>
       </c>
-      <c r="D130" t="s">
-        <v>243</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
+        <v>165</v>
+      </c>
+      <c r="G130" t="s">
         <v>237</v>
-      </c>
-      <c r="F130" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4671,17 +4671,17 @@
       <c r="B131" t="s">
         <v>8</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>242</v>
+      </c>
+      <c r="E131" t="s">
         <v>253</v>
       </c>
-      <c r="D131" t="s">
-        <v>243</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
+        <v>165</v>
+      </c>
+      <c r="G131" t="s">
         <v>237</v>
-      </c>
-      <c r="F131" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4691,17 +4691,17 @@
       <c r="B132" t="s">
         <v>8</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>255</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>256</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
+        <v>165</v>
+      </c>
+      <c r="G132" t="s">
         <v>237</v>
-      </c>
-      <c r="F132" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4711,17 +4711,17 @@
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>189</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>190</v>
-      </c>
-      <c r="E133" t="s">
-        <v>237</v>
       </c>
       <c r="F133" t="s">
         <v>115</v>
+      </c>
+      <c r="G133" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4731,17 +4731,17 @@
       <c r="B134" t="s">
         <v>8</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>175</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>176</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
+        <v>165</v>
+      </c>
+      <c r="G134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4751,17 +4751,17 @@
       <c r="B135" t="s">
         <v>8</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>175</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>176</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
+        <v>165</v>
+      </c>
+      <c r="G135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4771,17 +4771,17 @@
       <c r="B136" t="s">
         <v>8</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>175</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>176</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
+        <v>165</v>
+      </c>
+      <c r="G136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4791,17 +4791,17 @@
       <c r="B137" t="s">
         <v>8</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>175</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>176</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
+        <v>165</v>
+      </c>
+      <c r="G137" t="s">
         <v>259</v>
-      </c>
-      <c r="F137" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4811,17 +4811,17 @@
       <c r="B138" t="s">
         <v>8</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>175</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>176</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
+        <v>165</v>
+      </c>
+      <c r="G138" t="s">
         <v>259</v>
-      </c>
-      <c r="F138" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4831,17 +4831,17 @@
       <c r="B139" t="s">
         <v>8</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>265</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>266</v>
-      </c>
-      <c r="E139" t="s">
-        <v>259</v>
       </c>
       <c r="F139" t="s">
         <v>225</v>
+      </c>
+      <c r="G139" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4851,17 +4851,17 @@
       <c r="B140" t="s">
         <v>8</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>175</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>176</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
+        <v>165</v>
+      </c>
+      <c r="G140" t="s">
         <v>259</v>
-      </c>
-      <c r="F140" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4918,13 +4918,13 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
+        <v>269</v>
+      </c>
+      <c r="D143" t="s">
         <v>275</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>276</v>
-      </c>
-      <c r="E143" t="s">
-        <v>271</v>
       </c>
       <c r="F143" t="s">
         <v>165</v>
@@ -4941,13 +4941,13 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
+        <v>269</v>
+      </c>
+      <c r="D144" t="s">
         <v>275</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>276</v>
-      </c>
-      <c r="E144" t="s">
-        <v>271</v>
       </c>
       <c r="F144" t="s">
         <v>165</v>
@@ -4964,13 +4964,13 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
+        <v>269</v>
+      </c>
+      <c r="D145" t="s">
         <v>275</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>276</v>
-      </c>
-      <c r="E145" t="s">
-        <v>271</v>
       </c>
       <c r="F145" t="s">
         <v>165</v>
@@ -5010,7 +5010,7 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D147" t="s">
         <v>270</v>
@@ -5022,7 +5022,7 @@
         <v>165</v>
       </c>
       <c r="G147" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5033,7 +5033,7 @@
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D148" t="s">
         <v>270</v>
@@ -5045,7 +5045,7 @@
         <v>165</v>
       </c>
       <c r="G148" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5056,7 +5056,7 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D149" t="s">
         <v>270</v>
@@ -5068,7 +5068,7 @@
         <v>165</v>
       </c>
       <c r="G149" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5079,7 +5079,7 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D150" t="s">
         <v>270</v>
@@ -5091,7 +5091,7 @@
         <v>165</v>
       </c>
       <c r="G150" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5102,7 +5102,7 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D151" t="s">
         <v>270</v>
@@ -5114,7 +5114,7 @@
         <v>165</v>
       </c>
       <c r="G151" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5125,7 +5125,7 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D152" t="s">
         <v>270</v>
@@ -5137,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="G152" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5148,7 +5148,7 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D153" t="s">
         <v>270</v>
@@ -5160,7 +5160,7 @@
         <v>165</v>
       </c>
       <c r="G153" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5171,7 +5171,7 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D154" t="s">
         <v>270</v>
@@ -5183,7 +5183,7 @@
         <v>165</v>
       </c>
       <c r="G154" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D155" t="s">
         <v>270</v>
@@ -5206,7 +5206,7 @@
         <v>165</v>
       </c>
       <c r="G155" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5217,7 +5217,7 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D156" t="s">
         <v>270</v>
@@ -5229,7 +5229,7 @@
         <v>165</v>
       </c>
       <c r="G156" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5240,19 +5240,19 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D157" t="s">
         <v>270</v>
       </c>
       <c r="E157" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
         <v>165</v>
       </c>
       <c r="G157" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5263,7 +5263,7 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D158" t="s">
         <v>270</v>
@@ -5275,7 +5275,7 @@
         <v>165</v>
       </c>
       <c r="G158" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5286,7 +5286,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D159" t="s">
         <v>270</v>
@@ -5298,7 +5298,7 @@
         <v>165</v>
       </c>
       <c r="G159" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5309,7 +5309,7 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D160" t="s">
         <v>270</v>
@@ -5321,7 +5321,7 @@
         <v>165</v>
       </c>
       <c r="G160" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5332,7 +5332,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D161" t="s">
         <v>270</v>
@@ -5344,7 +5344,7 @@
         <v>165</v>
       </c>
       <c r="G161" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5355,7 +5355,7 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="D162" t="s">
         <v>270</v>
@@ -5367,7 +5367,7 @@
         <v>165</v>
       </c>
       <c r="G162" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5384,13 +5384,13 @@
         <v>270</v>
       </c>
       <c r="E163" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="F163" t="s">
         <v>165</v>
       </c>
       <c r="G163" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5401,7 +5401,7 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="D164" t="s">
         <v>270</v>
@@ -5413,7 +5413,7 @@
         <v>165</v>
       </c>
       <c r="G164" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5424,7 +5424,7 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="D165" t="s">
         <v>270</v>
@@ -5436,7 +5436,7 @@
         <v>165</v>
       </c>
       <c r="G165" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5447,7 +5447,7 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="D166" t="s">
         <v>270</v>
@@ -5459,7 +5459,7 @@
         <v>165</v>
       </c>
       <c r="G166" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5470,7 +5470,7 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="D167" t="s">
         <v>270</v>
@@ -5482,7 +5482,7 @@
         <v>165</v>
       </c>
       <c r="G167" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5493,19 +5493,19 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D168" t="s">
         <v>270</v>
       </c>
       <c r="E168" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="F168" t="s">
         <v>165</v>
       </c>
       <c r="G168" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5516,19 +5516,19 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D169" t="s">
         <v>270</v>
       </c>
       <c r="E169" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="F169" t="s">
         <v>165</v>
       </c>
       <c r="G169" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5539,7 +5539,7 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="D170" t="s">
         <v>270</v>
@@ -5551,7 +5551,7 @@
         <v>165</v>
       </c>
       <c r="G170" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5561,17 +5561,17 @@
       <c r="B171" t="s">
         <v>8</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>163</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>164</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
+        <v>165</v>
+      </c>
+      <c r="G171" t="s">
         <v>313</v>
-      </c>
-      <c r="F171" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5581,17 +5581,17 @@
       <c r="B172" t="s">
         <v>8</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>118</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>119</v>
-      </c>
-      <c r="E172" t="s">
-        <v>313</v>
       </c>
       <c r="F172" t="s">
         <v>115</v>
+      </c>
+      <c r="G172" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5601,17 +5601,17 @@
       <c r="B173" t="s">
         <v>8</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>163</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>164</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
+        <v>165</v>
+      </c>
+      <c r="G173" t="s">
         <v>313</v>
-      </c>
-      <c r="F173" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5621,17 +5621,17 @@
       <c r="B174" t="s">
         <v>8</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>163</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>164</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
+        <v>165</v>
+      </c>
+      <c r="G174" t="s">
         <v>313</v>
-      </c>
-      <c r="F174" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5641,17 +5641,17 @@
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>163</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>164</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
+        <v>165</v>
+      </c>
+      <c r="G175" t="s">
         <v>313</v>
-      </c>
-      <c r="F175" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5661,17 +5661,17 @@
       <c r="B176" t="s">
         <v>8</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>163</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>164</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
+        <v>165</v>
+      </c>
+      <c r="G176" t="s">
         <v>313</v>
-      </c>
-      <c r="F176" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5681,17 +5681,17 @@
       <c r="B177" t="s">
         <v>8</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>163</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>164</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
+        <v>165</v>
+      </c>
+      <c r="G177" t="s">
         <v>320</v>
-      </c>
-      <c r="F177" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5701,17 +5701,17 @@
       <c r="B178" t="s">
         <v>8</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>163</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>164</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
+        <v>165</v>
+      </c>
+      <c r="G178" t="s">
         <v>320</v>
-      </c>
-      <c r="F178" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5721,17 +5721,17 @@
       <c r="B179" t="s">
         <v>8</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>163</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>164</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
+        <v>165</v>
+      </c>
+      <c r="G179" t="s">
         <v>320</v>
-      </c>
-      <c r="F179" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5741,17 +5741,17 @@
       <c r="B180" t="s">
         <v>8</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>163</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>164</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
+        <v>165</v>
+      </c>
+      <c r="G180" t="s">
         <v>320</v>
-      </c>
-      <c r="F180" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6038,13 +6038,13 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
+        <v>325</v>
+      </c>
+      <c r="D193" t="s">
+        <v>275</v>
+      </c>
+      <c r="E193" t="s">
         <v>341</v>
-      </c>
-      <c r="D193" t="s">
-        <v>276</v>
-      </c>
-      <c r="E193" t="s">
-        <v>327</v>
       </c>
       <c r="F193" t="s">
         <v>165</v>
@@ -6182,13 +6182,13 @@
         <v>326</v>
       </c>
       <c r="E199" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="F199" t="s">
         <v>165</v>
       </c>
       <c r="G199" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6205,13 +6205,13 @@
         <v>326</v>
       </c>
       <c r="E200" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="F200" t="s">
         <v>165</v>
       </c>
       <c r="G200" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6228,13 +6228,13 @@
         <v>326</v>
       </c>
       <c r="E201" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="F201" t="s">
         <v>165</v>
       </c>
       <c r="G201" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6251,13 +6251,13 @@
         <v>326</v>
       </c>
       <c r="E202" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="F202" t="s">
         <v>165</v>
       </c>
       <c r="G202" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6268,19 +6268,19 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
+        <v>348</v>
+      </c>
+      <c r="D203" t="s">
+        <v>275</v>
+      </c>
+      <c r="E203" t="s">
         <v>341</v>
       </c>
-      <c r="D203" t="s">
-        <v>276</v>
-      </c>
-      <c r="E203" t="s">
-        <v>327</v>
-      </c>
       <c r="F203" t="s">
         <v>165</v>
       </c>
       <c r="G203" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6297,13 +6297,13 @@
         <v>326</v>
       </c>
       <c r="E204" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="F204" t="s">
         <v>165</v>
       </c>
       <c r="G204" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6320,13 +6320,13 @@
         <v>326</v>
       </c>
       <c r="E205" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="F205" t="s">
         <v>165</v>
       </c>
       <c r="G205" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6343,13 +6343,13 @@
         <v>326</v>
       </c>
       <c r="E206" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="F206" t="s">
         <v>165</v>
       </c>
       <c r="G206" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6366,13 +6366,13 @@
         <v>326</v>
       </c>
       <c r="E207" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="F207" t="s">
         <v>165</v>
       </c>
       <c r="G207" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6383,19 +6383,19 @@
         <v>8</v>
       </c>
       <c r="C208" t="s">
+        <v>356</v>
+      </c>
+      <c r="D208" t="s">
+        <v>275</v>
+      </c>
+      <c r="E208" t="s">
         <v>341</v>
       </c>
-      <c r="D208" t="s">
-        <v>276</v>
-      </c>
-      <c r="E208" t="s">
-        <v>327</v>
-      </c>
       <c r="F208" t="s">
         <v>165</v>
       </c>
       <c r="G208" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6412,13 +6412,13 @@
         <v>326</v>
       </c>
       <c r="E209" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="F209" t="s">
         <v>165</v>
       </c>
       <c r="G209" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6544,13 +6544,13 @@
         <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D215" t="s">
         <v>326</v>
       </c>
       <c r="E215" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="F215" t="s">
         <v>165</v>
@@ -6659,13 +6659,13 @@
         <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="D220" t="s">
         <v>270</v>
       </c>
       <c r="E220" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="F220" t="s">
         <v>165</v>
@@ -6797,13 +6797,13 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
+        <v>363</v>
+      </c>
+      <c r="D226" t="s">
         <v>275</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>276</v>
-      </c>
-      <c r="E226" t="s">
-        <v>365</v>
       </c>
       <c r="F226" t="s">
         <v>165</v>
@@ -6843,13 +6843,13 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
+        <v>363</v>
+      </c>
+      <c r="D228" t="s">
         <v>163</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>164</v>
-      </c>
-      <c r="E228" t="s">
-        <v>365</v>
       </c>
       <c r="F228" t="s">
         <v>165</v>
@@ -6872,13 +6872,13 @@
         <v>364</v>
       </c>
       <c r="E229" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="F229" t="s">
         <v>165</v>
       </c>
       <c r="G229" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6895,13 +6895,13 @@
         <v>364</v>
       </c>
       <c r="E230" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="F230" t="s">
         <v>165</v>
       </c>
       <c r="G230" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6912,19 +6912,19 @@
         <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="D231" t="s">
         <v>270</v>
       </c>
       <c r="E231" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="F231" t="s">
         <v>165</v>
       </c>
       <c r="G231" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6935,19 +6935,19 @@
         <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="D232" t="s">
         <v>270</v>
       </c>
       <c r="E232" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="F232" t="s">
         <v>165</v>
       </c>
       <c r="G232" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6964,13 +6964,13 @@
         <v>364</v>
       </c>
       <c r="E233" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="F233" t="s">
         <v>165</v>
       </c>
       <c r="G233" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6987,13 +6987,13 @@
         <v>364</v>
       </c>
       <c r="E234" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="F234" t="s">
         <v>165</v>
       </c>
       <c r="G234" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7010,13 +7010,13 @@
         <v>364</v>
       </c>
       <c r="E235" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="F235" t="s">
         <v>165</v>
       </c>
       <c r="G235" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7033,13 +7033,13 @@
         <v>364</v>
       </c>
       <c r="E236" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="F236" t="s">
         <v>165</v>
       </c>
       <c r="G236" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7056,13 +7056,13 @@
         <v>364</v>
       </c>
       <c r="E237" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="F237" t="s">
         <v>165</v>
       </c>
       <c r="G237" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7079,13 +7079,13 @@
         <v>364</v>
       </c>
       <c r="E238" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="F238" t="s">
         <v>165</v>
       </c>
       <c r="G238" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7102,13 +7102,13 @@
         <v>364</v>
       </c>
       <c r="E239" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="F239" t="s">
         <v>165</v>
       </c>
       <c r="G239" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7119,13 +7119,13 @@
         <v>8</v>
       </c>
       <c r="C240" t="s">
+        <v>401</v>
+      </c>
+      <c r="D240" t="s">
         <v>163</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>164</v>
-      </c>
-      <c r="E240" t="s">
-        <v>401</v>
       </c>
       <c r="F240" t="s">
         <v>165</v>
@@ -7142,13 +7142,13 @@
         <v>8</v>
       </c>
       <c r="C241" t="s">
+        <v>401</v>
+      </c>
+      <c r="D241" t="s">
         <v>163</v>
       </c>
-      <c r="D241" t="s">
+      <c r="E241" t="s">
         <v>164</v>
-      </c>
-      <c r="E241" t="s">
-        <v>401</v>
       </c>
       <c r="F241" t="s">
         <v>165</v>
@@ -7165,13 +7165,13 @@
         <v>8</v>
       </c>
       <c r="C242" t="s">
+        <v>401</v>
+      </c>
+      <c r="D242" t="s">
         <v>163</v>
       </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>164</v>
-      </c>
-      <c r="E242" t="s">
-        <v>401</v>
       </c>
       <c r="F242" t="s">
         <v>165</v>
@@ -7188,13 +7188,13 @@
         <v>8</v>
       </c>
       <c r="C243" t="s">
+        <v>401</v>
+      </c>
+      <c r="D243" t="s">
         <v>163</v>
       </c>
-      <c r="D243" t="s">
+      <c r="E243" t="s">
         <v>164</v>
-      </c>
-      <c r="E243" t="s">
-        <v>401</v>
       </c>
       <c r="F243" t="s">
         <v>165</v>
@@ -7211,13 +7211,13 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
+        <v>401</v>
+      </c>
+      <c r="D244" t="s">
         <v>163</v>
       </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>164</v>
-      </c>
-      <c r="E244" t="s">
-        <v>401</v>
       </c>
       <c r="F244" t="s">
         <v>165</v>
@@ -7234,13 +7234,13 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
+        <v>401</v>
+      </c>
+      <c r="D245" t="s">
         <v>163</v>
       </c>
-      <c r="D245" t="s">
+      <c r="E245" t="s">
         <v>164</v>
-      </c>
-      <c r="E245" t="s">
-        <v>401</v>
       </c>
       <c r="F245" t="s">
         <v>165</v>
@@ -7260,16 +7260,16 @@
         <v>409</v>
       </c>
       <c r="D246" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E246" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="F246" t="s">
         <v>165</v>
       </c>
       <c r="G246" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7279,17 +7279,17 @@
       <c r="B247" t="s">
         <v>8</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>95</v>
       </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>96</v>
-      </c>
-      <c r="E247" t="s">
-        <v>412</v>
       </c>
       <c r="F247" t="s">
         <v>97</v>
+      </c>
+      <c r="G247" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7299,17 +7299,17 @@
       <c r="B248" t="s">
         <v>8</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>95</v>
       </c>
-      <c r="D248" t="s">
+      <c r="E248" t="s">
         <v>96</v>
-      </c>
-      <c r="E248" t="s">
-        <v>412</v>
       </c>
       <c r="F248" t="s">
         <v>97</v>
+      </c>
+      <c r="G248" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7319,17 +7319,17 @@
       <c r="B249" t="s">
         <v>8</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>415</v>
       </c>
-      <c r="D249" t="s">
+      <c r="E249" t="s">
         <v>416</v>
-      </c>
-      <c r="E249" t="s">
-        <v>412</v>
       </c>
       <c r="F249" t="s">
         <v>97</v>
+      </c>
+      <c r="G249" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7339,17 +7339,17 @@
       <c r="B250" t="s">
         <v>8</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>95</v>
       </c>
-      <c r="D250" t="s">
+      <c r="E250" t="s">
         <v>96</v>
-      </c>
-      <c r="E250" t="s">
-        <v>412</v>
       </c>
       <c r="F250" t="s">
         <v>97</v>
+      </c>
+      <c r="G250" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7359,17 +7359,17 @@
       <c r="B251" t="s">
         <v>8</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>95</v>
       </c>
-      <c r="D251" t="s">
+      <c r="E251" t="s">
         <v>96</v>
-      </c>
-      <c r="E251" t="s">
-        <v>412</v>
       </c>
       <c r="F251" t="s">
         <v>97</v>
+      </c>
+      <c r="G251" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7379,17 +7379,17 @@
       <c r="B252" t="s">
         <v>8</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>95</v>
       </c>
-      <c r="D252" t="s">
+      <c r="E252" t="s">
         <v>96</v>
-      </c>
-      <c r="E252" t="s">
-        <v>412</v>
       </c>
       <c r="F252" t="s">
         <v>97</v>
+      </c>
+      <c r="G252" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7399,17 +7399,17 @@
       <c r="B253" t="s">
         <v>8</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>421</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>422</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
+        <v>165</v>
+      </c>
+      <c r="G253" t="s">
         <v>423</v>
-      </c>
-      <c r="F253" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7419,17 +7419,17 @@
       <c r="B254" t="s">
         <v>8</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>219</v>
       </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
         <v>220</v>
       </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
+        <v>92</v>
+      </c>
+      <c r="G254" t="s">
         <v>423</v>
-      </c>
-      <c r="F254" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7439,17 +7439,17 @@
       <c r="B255" t="s">
         <v>8</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>426</v>
       </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>427</v>
       </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
+        <v>92</v>
+      </c>
+      <c r="G255" t="s">
         <v>423</v>
-      </c>
-      <c r="F255" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7459,817 +7459,817 @@
       <c r="B256" t="s">
         <v>8</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>426</v>
       </c>
-      <c r="D256" t="s">
+      <c r="E256" t="s">
         <v>427</v>
       </c>
-      <c r="E256" t="s">
+      <c r="F256" t="s">
+        <v>92</v>
+      </c>
+      <c r="G256" t="s">
         <v>423</v>
       </c>
-      <c r="F256" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>429</v>
       </c>
       <c r="B257" t="s">
         <v>8</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>426</v>
       </c>
-      <c r="D257" t="s">
+      <c r="E257" t="s">
         <v>427</v>
       </c>
-      <c r="E257" t="s">
+      <c r="F257" t="s">
+        <v>92</v>
+      </c>
+      <c r="G257" t="s">
         <v>423</v>
       </c>
-      <c r="F257" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>430</v>
       </c>
       <c r="B258" t="s">
         <v>8</v>
       </c>
-      <c r="C258" t="s">
-        <v>325</v>
-      </c>
       <c r="D258" t="s">
         <v>326</v>
       </c>
       <c r="E258" t="s">
+        <v>327</v>
+      </c>
+      <c r="F258" t="s">
+        <v>165</v>
+      </c>
+      <c r="G258" t="s">
         <v>423</v>
       </c>
-      <c r="F258" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>431</v>
       </c>
       <c r="B259" t="s">
         <v>8</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>426</v>
       </c>
-      <c r="D259" t="s">
+      <c r="E259" t="s">
         <v>427</v>
       </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
+        <v>92</v>
+      </c>
+      <c r="G259" t="s">
         <v>423</v>
       </c>
-      <c r="F259" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
         <v>432</v>
       </c>
       <c r="B260" t="s">
         <v>8</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>163</v>
       </c>
-      <c r="D260" t="s">
+      <c r="E260" t="s">
         <v>164</v>
       </c>
-      <c r="E260" t="s">
+      <c r="F260" t="s">
+        <v>165</v>
+      </c>
+      <c r="G260" t="s">
         <v>423</v>
       </c>
-      <c r="F260" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>433</v>
       </c>
       <c r="B261" t="s">
         <v>8</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>434</v>
       </c>
-      <c r="D261" t="s">
+      <c r="E261" t="s">
         <v>435</v>
-      </c>
-      <c r="E261" t="s">
-        <v>423</v>
       </c>
       <c r="F261" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="G261" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>436</v>
       </c>
       <c r="B262" t="s">
         <v>8</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>163</v>
       </c>
-      <c r="D262" t="s">
+      <c r="E262" t="s">
         <v>164</v>
       </c>
-      <c r="E262" t="s">
+      <c r="F262" t="s">
+        <v>165</v>
+      </c>
+      <c r="G262" t="s">
         <v>423</v>
       </c>
-      <c r="F262" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>437</v>
       </c>
       <c r="B263" t="s">
         <v>8</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>438</v>
       </c>
-      <c r="D263" t="s">
+      <c r="E263" t="s">
         <v>439</v>
-      </c>
-      <c r="E263" t="s">
-        <v>423</v>
       </c>
       <c r="F263" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="G263" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>440</v>
       </c>
       <c r="B264" t="s">
         <v>8</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>31</v>
       </c>
-      <c r="D264" t="s">
+      <c r="E264" t="s">
         <v>32</v>
-      </c>
-      <c r="E264" t="s">
-        <v>423</v>
       </c>
       <c r="F264" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="G264" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
         <v>441</v>
       </c>
       <c r="B265" t="s">
         <v>8</v>
       </c>
-      <c r="C265" t="s">
-        <v>9</v>
-      </c>
       <c r="D265" t="s">
         <v>10</v>
       </c>
       <c r="E265" t="s">
-        <v>423</v>
+        <v>11</v>
       </c>
       <c r="F265" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="G265" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>442</v>
       </c>
       <c r="B266" t="s">
         <v>8</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>443</v>
       </c>
-      <c r="D266" t="s">
+      <c r="E266" t="s">
         <v>444</v>
-      </c>
-      <c r="E266" t="s">
-        <v>423</v>
       </c>
       <c r="F266" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="G266" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>445</v>
       </c>
       <c r="B267" t="s">
         <v>8</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>118</v>
       </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>119</v>
-      </c>
-      <c r="E267" t="s">
-        <v>446</v>
       </c>
       <c r="F267" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="G267" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>447</v>
       </c>
       <c r="B268" t="s">
         <v>8</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>202</v>
       </c>
-      <c r="D268" t="s">
+      <c r="E268" t="s">
         <v>203</v>
-      </c>
-      <c r="E268" t="s">
-        <v>448</v>
       </c>
       <c r="F268" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="G268" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>449</v>
       </c>
       <c r="B269" t="s">
         <v>8</v>
       </c>
-      <c r="C269" t="s">
+      <c r="D269" t="s">
         <v>118</v>
       </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
         <v>119</v>
-      </c>
-      <c r="E269" t="s">
-        <v>450</v>
       </c>
       <c r="F269" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="G269" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>451</v>
       </c>
       <c r="B270" t="s">
         <v>8</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>118</v>
       </c>
-      <c r="D270" t="s">
+      <c r="E270" t="s">
         <v>119</v>
-      </c>
-      <c r="E270" t="s">
-        <v>450</v>
       </c>
       <c r="F270" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="G270" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>452</v>
       </c>
       <c r="B271" t="s">
         <v>8</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>453</v>
       </c>
-      <c r="D271" t="s">
+      <c r="E271" t="s">
         <v>454</v>
-      </c>
-      <c r="E271" t="s">
-        <v>455</v>
       </c>
       <c r="F271" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="G271" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>456</v>
       </c>
       <c r="B272" t="s">
         <v>8</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>453</v>
       </c>
-      <c r="D272" t="s">
+      <c r="E272" t="s">
         <v>454</v>
-      </c>
-      <c r="E272" t="s">
-        <v>455</v>
       </c>
       <c r="F272" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="G272" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>457</v>
       </c>
       <c r="B273" t="s">
         <v>8</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>453</v>
       </c>
-      <c r="D273" t="s">
+      <c r="E273" t="s">
         <v>454</v>
-      </c>
-      <c r="E273" t="s">
-        <v>455</v>
       </c>
       <c r="F273" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="G273" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>458</v>
       </c>
       <c r="B274" t="s">
         <v>8</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>453</v>
       </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>454</v>
-      </c>
-      <c r="E274" t="s">
-        <v>455</v>
       </c>
       <c r="F274" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="G274" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>459</v>
       </c>
       <c r="B275" t="s">
         <v>8</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>453</v>
       </c>
-      <c r="D275" t="s">
+      <c r="E275" t="s">
         <v>454</v>
-      </c>
-      <c r="E275" t="s">
-        <v>455</v>
       </c>
       <c r="F275" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="G275" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>460</v>
       </c>
       <c r="B276" t="s">
         <v>8</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>453</v>
       </c>
-      <c r="D276" t="s">
+      <c r="E276" t="s">
         <v>454</v>
-      </c>
-      <c r="E276" t="s">
-        <v>455</v>
       </c>
       <c r="F276" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="G276" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>461</v>
       </c>
       <c r="B277" t="s">
         <v>8</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>453</v>
       </c>
-      <c r="D277" t="s">
+      <c r="E277" t="s">
         <v>454</v>
-      </c>
-      <c r="E277" t="s">
-        <v>455</v>
       </c>
       <c r="F277" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="G277" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>462</v>
       </c>
       <c r="B278" t="s">
         <v>8</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
         <v>202</v>
       </c>
-      <c r="D278" t="s">
+      <c r="E278" t="s">
         <v>203</v>
-      </c>
-      <c r="E278" t="s">
-        <v>463</v>
       </c>
       <c r="F278" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="G278" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>464</v>
       </c>
       <c r="B279" t="s">
         <v>8</v>
       </c>
-      <c r="C279" t="s">
-        <v>51</v>
-      </c>
       <c r="D279" t="s">
         <v>52</v>
       </c>
       <c r="E279" t="s">
-        <v>463</v>
+        <v>53</v>
       </c>
       <c r="F279" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="G279" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>465</v>
       </c>
       <c r="B280" t="s">
         <v>8</v>
       </c>
-      <c r="C280" t="s">
-        <v>9</v>
-      </c>
       <c r="D280" t="s">
         <v>10</v>
       </c>
       <c r="E280" t="s">
-        <v>463</v>
+        <v>11</v>
       </c>
       <c r="F280" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="G280" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>466</v>
       </c>
       <c r="B281" t="s">
         <v>8</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>170</v>
       </c>
-      <c r="D281" t="s">
+      <c r="E281" t="s">
         <v>171</v>
-      </c>
-      <c r="E281" t="s">
-        <v>463</v>
       </c>
       <c r="F281" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="282" spans="1:6">
+      <c r="G281" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>467</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>124</v>
       </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>125</v>
-      </c>
-      <c r="E282" t="s">
-        <v>463</v>
       </c>
       <c r="F282" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="G282" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>468</v>
       </c>
       <c r="B283" t="s">
         <v>8</v>
       </c>
-      <c r="C283" t="s">
-        <v>398</v>
-      </c>
       <c r="D283" t="s">
         <v>364</v>
       </c>
       <c r="E283" t="s">
+        <v>399</v>
+      </c>
+      <c r="F283" t="s">
+        <v>165</v>
+      </c>
+      <c r="G283" t="s">
         <v>469</v>
       </c>
-      <c r="F283" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>470</v>
       </c>
       <c r="B284" t="s">
         <v>8</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>124</v>
       </c>
-      <c r="D284" t="s">
+      <c r="E284" t="s">
         <v>125</v>
-      </c>
-      <c r="E284" t="s">
-        <v>471</v>
       </c>
       <c r="F284" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="G284" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>472</v>
       </c>
       <c r="B285" t="s">
         <v>8</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>170</v>
       </c>
-      <c r="D285" t="s">
+      <c r="E285" t="s">
         <v>171</v>
-      </c>
-      <c r="E285" t="s">
-        <v>473</v>
       </c>
       <c r="F285" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="286" spans="1:6">
+      <c r="G285" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>474</v>
       </c>
       <c r="B286" t="s">
         <v>8</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>438</v>
       </c>
-      <c r="D286" t="s">
+      <c r="E286" t="s">
         <v>439</v>
-      </c>
-      <c r="E286" t="s">
-        <v>475</v>
       </c>
       <c r="F286" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="287" spans="1:6">
+      <c r="G286" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>476</v>
       </c>
       <c r="B287" t="s">
         <v>8</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>438</v>
       </c>
-      <c r="D287" t="s">
+      <c r="E287" t="s">
         <v>439</v>
-      </c>
-      <c r="E287" t="s">
-        <v>475</v>
       </c>
       <c r="F287" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
+      <c r="G287" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>477</v>
       </c>
       <c r="B288" t="s">
         <v>8</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
         <v>41</v>
       </c>
-      <c r="D288" t="s">
+      <c r="E288" t="s">
         <v>42</v>
-      </c>
-      <c r="E288" t="s">
-        <v>475</v>
       </c>
       <c r="F288" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="G288" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>478</v>
       </c>
       <c r="B289" t="s">
         <v>8</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>31</v>
       </c>
-      <c r="D289" t="s">
+      <c r="E289" t="s">
         <v>32</v>
-      </c>
-      <c r="E289" t="s">
-        <v>475</v>
       </c>
       <c r="F289" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="G289" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>479</v>
       </c>
       <c r="B290" t="s">
         <v>8</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>31</v>
       </c>
-      <c r="D290" t="s">
+      <c r="E290" t="s">
         <v>32</v>
-      </c>
-      <c r="E290" t="s">
-        <v>475</v>
       </c>
       <c r="F290" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="G290" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
         <v>480</v>
       </c>
       <c r="B291" t="s">
         <v>8</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>170</v>
       </c>
-      <c r="D291" t="s">
+      <c r="E291" t="s">
         <v>171</v>
-      </c>
-      <c r="E291" t="s">
-        <v>475</v>
       </c>
       <c r="F291" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="G291" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
         <v>481</v>
       </c>
       <c r="B292" t="s">
         <v>8</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>170</v>
       </c>
-      <c r="D292" t="s">
+      <c r="E292" t="s">
         <v>171</v>
-      </c>
-      <c r="E292" t="s">
-        <v>475</v>
       </c>
       <c r="F292" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="G292" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>482</v>
       </c>
       <c r="B293" t="s">
         <v>8</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" t="s">
         <v>170</v>
       </c>
-      <c r="D293" t="s">
+      <c r="E293" t="s">
         <v>171</v>
-      </c>
-      <c r="E293" t="s">
-        <v>475</v>
       </c>
       <c r="F293" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="G293" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>483</v>
       </c>
       <c r="B294" t="s">
         <v>8</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
         <v>170</v>
       </c>
-      <c r="D294" t="s">
+      <c r="E294" t="s">
         <v>171</v>
-      </c>
-      <c r="E294" t="s">
-        <v>475</v>
       </c>
       <c r="F294" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="G294" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>484</v>
       </c>
       <c r="B295" t="s">
         <v>8</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
         <v>170</v>
       </c>
-      <c r="D295" t="s">
+      <c r="E295" t="s">
         <v>171</v>
-      </c>
-      <c r="E295" t="s">
-        <v>485</v>
       </c>
       <c r="F295" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="G295" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>486</v>
       </c>
       <c r="B296" t="s">
         <v>8</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>170</v>
       </c>
-      <c r="D296" t="s">
+      <c r="E296" t="s">
         <v>171</v>
-      </c>
-      <c r="E296" t="s">
-        <v>485</v>
       </c>
       <c r="F296" t="s">
         <v>115</v>
+      </c>
+      <c r="G296" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/api/2/xlsx/es/SectorCOFOG.xlsx
+++ b/api/2/xlsx/es/SectorCOFOG.xlsx
@@ -25,18 +25,18 @@
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:cofog-division</t>
+  </si>
+  <si>
     <t>codeforiati:cofog-group</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:cofog-class</t>
   </si>
   <si>
-    <t>codeforiati:cofog-division</t>
-  </si>
-  <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>111</t>
   </si>
   <si>
+    <t>09 - Education</t>
+  </si>
+  <si>
     <t>09.8 - Education n.e.c.</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>09.8.0 - Education n.e.c. (CS)</t>
   </si>
   <si>
-    <t>09 - Education</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -109,15 +109,15 @@
     <t>11250</t>
   </si>
   <si>
+    <t>07 - Health</t>
+  </si>
+  <si>
     <t>07.4 - Public health services</t>
   </si>
   <si>
     <t>07.4.0 - Public health services (IS)</t>
   </si>
   <si>
-    <t>07 - Health</t>
-  </si>
-  <si>
     <t>11260</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>07.6 - Health n.e.c.</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>07.6.0 - Health n.e.c. (CS)</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -286,30 +286,30 @@
     <t>14010</t>
   </si>
   <si>
+    <t>06 - Housing and community amenities</t>
+  </si>
+  <si>
     <t>06.3 - Water supply</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>06.3.0 - Water supply (CS)</t>
   </si>
   <si>
-    <t>06 - Housing and community amenities</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
+    <t>05 - Environmental protection</t>
+  </si>
+  <si>
     <t>05.6 - Environmental protection n.e.c.</t>
   </si>
   <si>
     <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
   </si>
   <si>
-    <t>05 - Environmental protection</t>
-  </si>
-  <si>
     <t>14020</t>
   </si>
   <si>
@@ -355,18 +355,18 @@
     <t>151</t>
   </si>
   <si>
+    <t>01 - General public services</t>
+  </si>
+  <si>
     <t>01.3 - General services</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>01.3.1 - General personnel services (CS)</t>
   </si>
   <si>
-    <t>01 - General public services</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -388,15 +388,15 @@
     <t>15113</t>
   </si>
   <si>
+    <t>03 - Public order and safety</t>
+  </si>
+  <si>
     <t>03.6 - Public order and safety n.e.c.</t>
   </si>
   <si>
     <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
   </si>
   <si>
-    <t>03 - Public order and safety</t>
-  </si>
-  <si>
     <t>15114</t>
   </si>
   <si>
@@ -505,15 +505,15 @@
     <t>15142</t>
   </si>
   <si>
+    <t>04 - Economic affairs</t>
+  </si>
+  <si>
     <t>04.1 - General economic, commercial and labour affairs</t>
   </si>
   <si>
     <t>04.1.1 - General economic and commercial affairs (CS)</t>
   </si>
   <si>
-    <t>04 - Economic affairs</t>
-  </si>
-  <si>
     <t>15143</t>
   </si>
   <si>
@@ -562,15 +562,15 @@
     <t>15170</t>
   </si>
   <si>
+    <t>10 - Social protection</t>
+  </si>
+  <si>
     <t>10.7 - Social exclusion n.e.c.</t>
   </si>
   <si>
     <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
   </si>
   <si>
-    <t>10 - Social protection</t>
-  </si>
-  <si>
     <t>15180</t>
   </si>
   <si>
@@ -601,15 +601,15 @@
     <t>15230</t>
   </si>
   <si>
+    <t>02 - Defence</t>
+  </si>
+  <si>
     <t>02.3 - Foreign military aid</t>
   </si>
   <si>
     <t>02.3.0 - Foreign military aid (CS)</t>
   </si>
   <si>
-    <t>02 - Defence</t>
-  </si>
-  <si>
     <t>15240</t>
   </si>
   <si>
@@ -625,12 +625,12 @@
     <t>10.9 - Social protection n.e.c.</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>10.9.0 - Social protection n.e.c. (CS)</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16011</t>
   </si>
   <si>
@@ -685,15 +685,15 @@
     <t>16061</t>
   </si>
   <si>
+    <t>08 - Recreation, culture and religion</t>
+  </si>
+  <si>
     <t>08.2 - Cultural services</t>
   </si>
   <si>
     <t>08.2.0 - Cultural services (IS)</t>
   </si>
   <si>
-    <t>08 - Recreation, culture and religion</t>
-  </si>
-  <si>
     <t>16062</t>
   </si>
   <si>
@@ -829,12 +829,12 @@
     <t>04.3 - Fuel and energy</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>04.3.5 - Electricity (CS)</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
@@ -997,12 +997,12 @@
     <t>04.2 - Agriculture, forestry, fishing and hunting</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>04.2.1 - Agriculture (CS)</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1111,12 +1111,12 @@
     <t>04.4 - Mining, manufacturing and construction</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>04.4.2 - Manufacturing (CS)</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1282,12 +1282,12 @@
     <t>04.9 - Economic affairs n.e.c.</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1378,10 +1378,10 @@
     <t>01.7 - Public debt transactions</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>01.7.0 - Public debt transactions (CS)</t>
-  </si>
-  <si>
-    <t>600</t>
   </si>
   <si>
     <t>60020</t>
@@ -1869,16 +1869,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1915,16 +1915,16 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1938,16 +1938,16 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1984,16 +1984,16 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2007,16 +2007,16 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2030,16 +2030,16 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2059,10 +2059,10 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2076,16 +2076,16 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2099,16 +2099,16 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2122,16 +2122,16 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2145,16 +2145,16 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2168,16 +2168,16 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2191,13 +2191,13 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>53</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
@@ -2214,13 +2214,13 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>54</v>
@@ -2237,16 +2237,16 @@
         <v>51</v>
       </c>
       <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
         <v>57</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
         <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2260,16 +2260,16 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
         <v>61</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2283,13 +2283,13 @@
         <v>51</v>
       </c>
       <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>53</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>54</v>
@@ -2312,10 +2312,10 @@
         <v>32</v>
       </c>
       <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
         <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2329,16 +2329,16 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
         <v>66</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
         <v>67</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2358,10 +2358,10 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
         <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2381,10 +2381,10 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
         <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2404,10 +2404,10 @@
         <v>32</v>
       </c>
       <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
         <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2427,10 +2427,10 @@
         <v>32</v>
       </c>
       <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
         <v>33</v>
-      </c>
-      <c r="G27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2450,10 +2450,10 @@
         <v>32</v>
       </c>
       <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
         <v>33</v>
-      </c>
-      <c r="G28" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2473,10 +2473,10 @@
         <v>32</v>
       </c>
       <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
         <v>33</v>
-      </c>
-      <c r="G29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2490,13 +2490,13 @@
         <v>64</v>
       </c>
       <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
         <v>52</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
       </c>
       <c r="G30" t="s">
         <v>54</v>
@@ -2519,10 +2519,10 @@
         <v>32</v>
       </c>
       <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
         <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2542,10 +2542,10 @@
         <v>32</v>
       </c>
       <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
         <v>33</v>
-      </c>
-      <c r="G32" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2565,10 +2565,10 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
         <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2588,10 +2588,10 @@
         <v>32</v>
       </c>
       <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
         <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2611,10 +2611,10 @@
         <v>32</v>
       </c>
       <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
         <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2628,16 +2628,16 @@
         <v>76</v>
       </c>
       <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
         <v>57</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
         <v>58</v>
-      </c>
-      <c r="F36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2654,10 +2654,10 @@
         <v>32</v>
       </c>
       <c r="F37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s">
         <v>33</v>
-      </c>
-      <c r="G37" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2674,10 +2674,10 @@
         <v>32</v>
       </c>
       <c r="F38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s">
         <v>33</v>
-      </c>
-      <c r="G38" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2694,10 +2694,10 @@
         <v>32</v>
       </c>
       <c r="F39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s">
         <v>33</v>
-      </c>
-      <c r="G39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2714,10 +2714,10 @@
         <v>32</v>
       </c>
       <c r="F40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" t="s">
         <v>33</v>
-      </c>
-      <c r="G40" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2728,16 +2728,16 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
         <v>52</v>
       </c>
-      <c r="E41" t="s">
-        <v>53</v>
-      </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2748,16 +2748,16 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
         <v>57</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" t="s">
         <v>58</v>
-      </c>
-      <c r="F42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2794,10 +2794,10 @@
         <v>96</v>
       </c>
       <c r="F44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
         <v>97</v>
-      </c>
-      <c r="G44" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2848,16 +2848,16 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" t="s">
         <v>101</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" t="s">
         <v>102</v>
-      </c>
-      <c r="F47" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2908,16 +2908,16 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" t="s">
         <v>101</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" t="s">
         <v>102</v>
-      </c>
-      <c r="F50" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2948,16 +2948,16 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
         <v>108</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" t="s">
         <v>109</v>
-      </c>
-      <c r="F52" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2974,10 +2974,10 @@
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="G53" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3014,16 +3014,16 @@
         <v>112</v>
       </c>
       <c r="D55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" t="s">
         <v>118</v>
-      </c>
-      <c r="E55" t="s">
-        <v>119</v>
       </c>
       <c r="F55" t="s">
         <v>115</v>
       </c>
       <c r="G55" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3037,16 +3037,16 @@
         <v>112</v>
       </c>
       <c r="D56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" t="s">
         <v>121</v>
-      </c>
-      <c r="E56" t="s">
-        <v>122</v>
       </c>
       <c r="F56" t="s">
         <v>115</v>
       </c>
       <c r="G56" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3066,10 +3066,10 @@
         <v>125</v>
       </c>
       <c r="F57" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" t="s">
         <v>126</v>
-      </c>
-      <c r="G57" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3083,16 +3083,16 @@
         <v>112</v>
       </c>
       <c r="D58" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" t="s">
         <v>118</v>
-      </c>
-      <c r="E58" t="s">
-        <v>119</v>
       </c>
       <c r="F58" t="s">
         <v>115</v>
       </c>
       <c r="G58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3106,16 +3106,16 @@
         <v>112</v>
       </c>
       <c r="D59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" t="s">
         <v>118</v>
-      </c>
-      <c r="E59" t="s">
-        <v>119</v>
       </c>
       <c r="F59" t="s">
         <v>115</v>
       </c>
       <c r="G59" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3129,16 +3129,16 @@
         <v>112</v>
       </c>
       <c r="D60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" t="s">
         <v>118</v>
-      </c>
-      <c r="E60" t="s">
-        <v>119</v>
       </c>
       <c r="F60" t="s">
         <v>115</v>
       </c>
       <c r="G60" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3152,16 +3152,16 @@
         <v>112</v>
       </c>
       <c r="D61" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" t="s">
         <v>118</v>
-      </c>
-      <c r="E61" t="s">
-        <v>119</v>
       </c>
       <c r="F61" t="s">
         <v>115</v>
       </c>
       <c r="G61" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3175,16 +3175,16 @@
         <v>112</v>
       </c>
       <c r="D62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" t="s">
         <v>118</v>
-      </c>
-      <c r="E62" t="s">
-        <v>119</v>
       </c>
       <c r="F62" t="s">
         <v>115</v>
       </c>
       <c r="G62" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3198,16 +3198,16 @@
         <v>112</v>
       </c>
       <c r="D63" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" t="s">
         <v>118</v>
-      </c>
-      <c r="E63" t="s">
-        <v>133</v>
       </c>
       <c r="F63" t="s">
         <v>115</v>
       </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3221,16 +3221,16 @@
         <v>112</v>
       </c>
       <c r="D64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" t="s">
         <v>118</v>
-      </c>
-      <c r="E64" t="s">
-        <v>133</v>
       </c>
       <c r="F64" t="s">
         <v>115</v>
       </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3244,16 +3244,16 @@
         <v>112</v>
       </c>
       <c r="D65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" t="s">
         <v>136</v>
-      </c>
-      <c r="E65" t="s">
-        <v>137</v>
       </c>
       <c r="F65" t="s">
         <v>115</v>
       </c>
       <c r="G65" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3290,16 +3290,16 @@
         <v>112</v>
       </c>
       <c r="D67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" t="s">
         <v>118</v>
-      </c>
-      <c r="E67" t="s">
-        <v>119</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
       </c>
       <c r="G67" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3316,13 +3316,13 @@
         <v>113</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F68" t="s">
         <v>115</v>
       </c>
       <c r="G68" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3339,13 +3339,13 @@
         <v>113</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="F69" t="s">
         <v>115</v>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3359,16 +3359,16 @@
         <v>112</v>
       </c>
       <c r="D70" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" t="s">
         <v>121</v>
-      </c>
-      <c r="E70" t="s">
-        <v>122</v>
       </c>
       <c r="F70" t="s">
         <v>115</v>
       </c>
       <c r="G70" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3382,16 +3382,16 @@
         <v>112</v>
       </c>
       <c r="D71" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" t="s">
         <v>121</v>
-      </c>
-      <c r="E71" t="s">
-        <v>122</v>
       </c>
       <c r="F71" t="s">
         <v>115</v>
       </c>
       <c r="G71" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3428,16 +3428,16 @@
         <v>112</v>
       </c>
       <c r="D73" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" t="s">
         <v>148</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" t="s">
         <v>149</v>
-      </c>
-      <c r="F73" t="s">
-        <v>126</v>
-      </c>
-      <c r="G73" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3451,16 +3451,16 @@
         <v>112</v>
       </c>
       <c r="D74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" t="s">
         <v>151</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" t="s">
         <v>152</v>
-      </c>
-      <c r="F74" t="s">
-        <v>126</v>
-      </c>
-      <c r="G74" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3474,16 +3474,16 @@
         <v>112</v>
       </c>
       <c r="D75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" t="s">
         <v>154</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>115</v>
+      </c>
+      <c r="G75" t="s">
         <v>155</v>
-      </c>
-      <c r="F75" t="s">
-        <v>126</v>
-      </c>
-      <c r="G75" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3497,16 +3497,16 @@
         <v>112</v>
       </c>
       <c r="D76" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" t="s">
         <v>148</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>115</v>
+      </c>
+      <c r="G76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>126</v>
-      </c>
-      <c r="G76" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3520,16 +3520,16 @@
         <v>112</v>
       </c>
       <c r="D77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" t="s">
         <v>148</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>115</v>
+      </c>
+      <c r="G77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>126</v>
-      </c>
-      <c r="G77" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3543,16 +3543,16 @@
         <v>112</v>
       </c>
       <c r="D78" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" t="s">
         <v>151</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>115</v>
+      </c>
+      <c r="G78" t="s">
         <v>152</v>
-      </c>
-      <c r="F78" t="s">
-        <v>126</v>
-      </c>
-      <c r="G78" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3566,16 +3566,16 @@
         <v>112</v>
       </c>
       <c r="D79" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" t="s">
         <v>160</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
+        <v>115</v>
+      </c>
+      <c r="G79" t="s">
         <v>161</v>
-      </c>
-      <c r="F79" t="s">
-        <v>126</v>
-      </c>
-      <c r="G79" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3595,10 +3595,10 @@
         <v>164</v>
       </c>
       <c r="F80" t="s">
+        <v>115</v>
+      </c>
+      <c r="G80" t="s">
         <v>165</v>
-      </c>
-      <c r="G80" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3618,10 +3618,10 @@
         <v>164</v>
       </c>
       <c r="F81" t="s">
+        <v>115</v>
+      </c>
+      <c r="G81" t="s">
         <v>165</v>
-      </c>
-      <c r="G81" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3641,10 +3641,10 @@
         <v>164</v>
       </c>
       <c r="F82" t="s">
+        <v>115</v>
+      </c>
+      <c r="G82" t="s">
         <v>165</v>
-      </c>
-      <c r="G82" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3661,13 +3661,13 @@
         <v>113</v>
       </c>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="F83" t="s">
         <v>115</v>
       </c>
       <c r="G83" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3681,16 +3681,16 @@
         <v>112</v>
       </c>
       <c r="D84" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" t="s">
         <v>170</v>
-      </c>
-      <c r="E84" t="s">
-        <v>171</v>
       </c>
       <c r="F84" t="s">
         <v>115</v>
       </c>
       <c r="G84" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3704,16 +3704,16 @@
         <v>112</v>
       </c>
       <c r="D85" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" t="s">
         <v>118</v>
-      </c>
-      <c r="E85" t="s">
-        <v>173</v>
       </c>
       <c r="F85" t="s">
         <v>115</v>
       </c>
       <c r="G85" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3727,16 +3727,16 @@
         <v>112</v>
       </c>
       <c r="D86" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" t="s">
         <v>175</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
+        <v>115</v>
+      </c>
+      <c r="G86" t="s">
         <v>176</v>
-      </c>
-      <c r="F86" t="s">
-        <v>165</v>
-      </c>
-      <c r="G86" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3750,16 +3750,16 @@
         <v>112</v>
       </c>
       <c r="D87" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" t="s">
         <v>118</v>
-      </c>
-      <c r="E87" t="s">
-        <v>173</v>
       </c>
       <c r="F87" t="s">
         <v>115</v>
       </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3773,16 +3773,16 @@
         <v>112</v>
       </c>
       <c r="D88" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" t="s">
         <v>118</v>
-      </c>
-      <c r="E88" t="s">
-        <v>119</v>
       </c>
       <c r="F88" t="s">
         <v>115</v>
       </c>
       <c r="G88" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3796,16 +3796,16 @@
         <v>112</v>
       </c>
       <c r="D89" t="s">
+        <v>113</v>
+      </c>
+      <c r="E89" t="s">
         <v>118</v>
-      </c>
-      <c r="E89" t="s">
-        <v>119</v>
       </c>
       <c r="F89" t="s">
         <v>115</v>
       </c>
       <c r="G89" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3825,10 +3825,10 @@
         <v>125</v>
       </c>
       <c r="F90" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90" t="s">
         <v>126</v>
-      </c>
-      <c r="G90" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3848,10 +3848,10 @@
         <v>183</v>
       </c>
       <c r="F91" t="s">
+        <v>115</v>
+      </c>
+      <c r="G91" t="s">
         <v>184</v>
-      </c>
-      <c r="G91" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3871,10 +3871,10 @@
         <v>125</v>
       </c>
       <c r="F92" t="s">
+        <v>115</v>
+      </c>
+      <c r="G92" t="s">
         <v>126</v>
-      </c>
-      <c r="G92" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3888,16 +3888,16 @@
         <v>112</v>
       </c>
       <c r="D93" t="s">
+        <v>113</v>
+      </c>
+      <c r="E93" t="s">
         <v>121</v>
-      </c>
-      <c r="E93" t="s">
-        <v>122</v>
       </c>
       <c r="F93" t="s">
         <v>115</v>
       </c>
       <c r="G93" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3917,10 +3917,10 @@
         <v>125</v>
       </c>
       <c r="F94" t="s">
+        <v>115</v>
+      </c>
+      <c r="G94" t="s">
         <v>126</v>
-      </c>
-      <c r="G94" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3934,16 +3934,16 @@
         <v>112</v>
       </c>
       <c r="D95" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" t="s">
         <v>189</v>
-      </c>
-      <c r="E95" t="s">
-        <v>190</v>
       </c>
       <c r="F95" t="s">
         <v>115</v>
       </c>
       <c r="G95" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3963,10 +3963,10 @@
         <v>125</v>
       </c>
       <c r="F96" t="s">
+        <v>115</v>
+      </c>
+      <c r="G96" t="s">
         <v>126</v>
-      </c>
-      <c r="G96" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3986,10 +3986,10 @@
         <v>125</v>
       </c>
       <c r="F97" t="s">
+        <v>115</v>
+      </c>
+      <c r="G97" t="s">
         <v>126</v>
-      </c>
-      <c r="G97" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4009,10 +4009,10 @@
         <v>196</v>
       </c>
       <c r="F98" t="s">
+        <v>115</v>
+      </c>
+      <c r="G98" t="s">
         <v>197</v>
-      </c>
-      <c r="G98" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4032,10 +4032,10 @@
         <v>125</v>
       </c>
       <c r="F99" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" t="s">
         <v>126</v>
-      </c>
-      <c r="G99" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4049,16 +4049,16 @@
         <v>192</v>
       </c>
       <c r="D100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" t="s">
         <v>154</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
+        <v>115</v>
+      </c>
+      <c r="G100" t="s">
         <v>155</v>
-      </c>
-      <c r="F100" t="s">
-        <v>126</v>
-      </c>
-      <c r="G100" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4078,10 +4078,10 @@
         <v>125</v>
       </c>
       <c r="F101" t="s">
+        <v>115</v>
+      </c>
+      <c r="G101" t="s">
         <v>126</v>
-      </c>
-      <c r="G101" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4092,13 +4092,13 @@
         <v>8</v>
       </c>
       <c r="D102" t="s">
+        <v>182</v>
+      </c>
+      <c r="E102" t="s">
         <v>202</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>184</v>
       </c>
       <c r="G102" t="s">
         <v>204</v>
@@ -4112,13 +4112,13 @@
         <v>8</v>
       </c>
       <c r="D103" t="s">
+        <v>182</v>
+      </c>
+      <c r="E103" t="s">
         <v>202</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>184</v>
       </c>
       <c r="G103" t="s">
         <v>204</v>
@@ -4132,13 +4132,13 @@
         <v>8</v>
       </c>
       <c r="D104" t="s">
+        <v>182</v>
+      </c>
+      <c r="E104" t="s">
         <v>202</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>184</v>
       </c>
       <c r="G104" t="s">
         <v>204</v>
@@ -4152,16 +4152,16 @@
         <v>8</v>
       </c>
       <c r="D105" t="s">
+        <v>182</v>
+      </c>
+      <c r="E105" t="s">
         <v>208</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
+        <v>203</v>
+      </c>
+      <c r="G105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>184</v>
-      </c>
-      <c r="G105" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4172,13 +4172,13 @@
         <v>8</v>
       </c>
       <c r="D106" t="s">
+        <v>182</v>
+      </c>
+      <c r="E106" t="s">
         <v>202</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>184</v>
       </c>
       <c r="G106" t="s">
         <v>204</v>
@@ -4198,10 +4198,10 @@
         <v>183</v>
       </c>
       <c r="F107" t="s">
+        <v>203</v>
+      </c>
+      <c r="G107" t="s">
         <v>184</v>
-      </c>
-      <c r="G107" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4212,16 +4212,16 @@
         <v>8</v>
       </c>
       <c r="D108" t="s">
+        <v>182</v>
+      </c>
+      <c r="E108" t="s">
         <v>213</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
+        <v>203</v>
+      </c>
+      <c r="G108" t="s">
         <v>214</v>
-      </c>
-      <c r="F108" t="s">
-        <v>184</v>
-      </c>
-      <c r="G108" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4232,16 +4232,16 @@
         <v>8</v>
       </c>
       <c r="D109" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" t="s">
         <v>216</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
+        <v>203</v>
+      </c>
+      <c r="G109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>92</v>
-      </c>
-      <c r="G109" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4252,16 +4252,16 @@
         <v>8</v>
       </c>
       <c r="D110" t="s">
+        <v>90</v>
+      </c>
+      <c r="E110" t="s">
         <v>219</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
+        <v>203</v>
+      </c>
+      <c r="G110" t="s">
         <v>220</v>
-      </c>
-      <c r="F110" t="s">
-        <v>92</v>
-      </c>
-      <c r="G110" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4272,13 +4272,13 @@
         <v>8</v>
       </c>
       <c r="D111" t="s">
+        <v>182</v>
+      </c>
+      <c r="E111" t="s">
         <v>202</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>203</v>
-      </c>
-      <c r="F111" t="s">
-        <v>184</v>
       </c>
       <c r="G111" t="s">
         <v>204</v>
@@ -4298,10 +4298,10 @@
         <v>224</v>
       </c>
       <c r="F112" t="s">
+        <v>203</v>
+      </c>
+      <c r="G112" t="s">
         <v>225</v>
-      </c>
-      <c r="G112" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4315,13 +4315,13 @@
         <v>113</v>
       </c>
       <c r="E113" t="s">
+        <v>114</v>
+      </c>
+      <c r="F113" t="s">
+        <v>203</v>
+      </c>
+      <c r="G113" t="s">
         <v>143</v>
-      </c>
-      <c r="F113" t="s">
-        <v>115</v>
-      </c>
-      <c r="G113" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4332,16 +4332,16 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" t="s">
         <v>151</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
+        <v>203</v>
+      </c>
+      <c r="G114" t="s">
         <v>152</v>
-      </c>
-      <c r="F114" t="s">
-        <v>126</v>
-      </c>
-      <c r="G114" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4358,10 +4358,10 @@
         <v>183</v>
       </c>
       <c r="F115" t="s">
+        <v>203</v>
+      </c>
+      <c r="G115" t="s">
         <v>184</v>
-      </c>
-      <c r="G115" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4372,16 +4372,16 @@
         <v>8</v>
       </c>
       <c r="D116" t="s">
+        <v>223</v>
+      </c>
+      <c r="E116" t="s">
         <v>230</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
+        <v>203</v>
+      </c>
+      <c r="G116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>225</v>
-      </c>
-      <c r="G116" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4398,10 +4398,10 @@
         <v>224</v>
       </c>
       <c r="F117" t="s">
+        <v>203</v>
+      </c>
+      <c r="G117" t="s">
         <v>225</v>
-      </c>
-      <c r="G117" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4415,13 +4415,13 @@
         <v>163</v>
       </c>
       <c r="E118" t="s">
+        <v>164</v>
+      </c>
+      <c r="F118" t="s">
+        <v>203</v>
+      </c>
+      <c r="G118" t="s">
         <v>234</v>
-      </c>
-      <c r="F118" t="s">
-        <v>165</v>
-      </c>
-      <c r="G118" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4438,10 +4438,10 @@
         <v>183</v>
       </c>
       <c r="F119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G119" t="s">
         <v>184</v>
-      </c>
-      <c r="G119" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4452,16 +4452,16 @@
         <v>8</v>
       </c>
       <c r="D120" t="s">
+        <v>113</v>
+      </c>
+      <c r="E120" t="s">
         <v>170</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
+        <v>237</v>
+      </c>
+      <c r="G120" t="s">
         <v>171</v>
-      </c>
-      <c r="F120" t="s">
-        <v>115</v>
-      </c>
-      <c r="G120" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4475,13 +4475,13 @@
         <v>113</v>
       </c>
       <c r="E121" t="s">
+        <v>114</v>
+      </c>
+      <c r="F121" t="s">
+        <v>237</v>
+      </c>
+      <c r="G121" t="s">
         <v>143</v>
-      </c>
-      <c r="F121" t="s">
-        <v>115</v>
-      </c>
-      <c r="G121" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4492,16 +4492,16 @@
         <v>8</v>
       </c>
       <c r="D122" t="s">
+        <v>113</v>
+      </c>
+      <c r="E122" t="s">
         <v>170</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
+        <v>237</v>
+      </c>
+      <c r="G122" t="s">
         <v>171</v>
-      </c>
-      <c r="F122" t="s">
-        <v>115</v>
-      </c>
-      <c r="G122" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4512,16 +4512,16 @@
         <v>8</v>
       </c>
       <c r="D123" t="s">
+        <v>113</v>
+      </c>
+      <c r="E123" t="s">
         <v>170</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
+        <v>237</v>
+      </c>
+      <c r="G123" t="s">
         <v>171</v>
-      </c>
-      <c r="F123" t="s">
-        <v>115</v>
-      </c>
-      <c r="G123" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4532,16 +4532,16 @@
         <v>8</v>
       </c>
       <c r="D124" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124" t="s">
         <v>242</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
+        <v>237</v>
+      </c>
+      <c r="G124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>165</v>
-      </c>
-      <c r="G124" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4552,16 +4552,16 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
+        <v>163</v>
+      </c>
+      <c r="E125" t="s">
         <v>242</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
+        <v>237</v>
+      </c>
+      <c r="G125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>165</v>
-      </c>
-      <c r="G125" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4572,16 +4572,16 @@
         <v>8</v>
       </c>
       <c r="D126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E126" t="s">
         <v>242</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
+        <v>237</v>
+      </c>
+      <c r="G126" t="s">
         <v>243</v>
-      </c>
-      <c r="F126" t="s">
-        <v>165</v>
-      </c>
-      <c r="G126" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4592,16 +4592,16 @@
         <v>8</v>
       </c>
       <c r="D127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E127" t="s">
         <v>242</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
+        <v>237</v>
+      </c>
+      <c r="G127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>165</v>
-      </c>
-      <c r="G127" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4612,16 +4612,16 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
+        <v>163</v>
+      </c>
+      <c r="E128" t="s">
         <v>242</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
+        <v>237</v>
+      </c>
+      <c r="G128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>165</v>
-      </c>
-      <c r="G128" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4632,16 +4632,16 @@
         <v>8</v>
       </c>
       <c r="D129" t="s">
+        <v>163</v>
+      </c>
+      <c r="E129" t="s">
         <v>242</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
+        <v>237</v>
+      </c>
+      <c r="G129" t="s">
         <v>249</v>
-      </c>
-      <c r="F129" t="s">
-        <v>165</v>
-      </c>
-      <c r="G129" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4652,16 +4652,16 @@
         <v>8</v>
       </c>
       <c r="D130" t="s">
+        <v>163</v>
+      </c>
+      <c r="E130" t="s">
         <v>242</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
+        <v>237</v>
+      </c>
+      <c r="G130" t="s">
         <v>251</v>
-      </c>
-      <c r="F130" t="s">
-        <v>165</v>
-      </c>
-      <c r="G130" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4672,16 +4672,16 @@
         <v>8</v>
       </c>
       <c r="D131" t="s">
+        <v>163</v>
+      </c>
+      <c r="E131" t="s">
         <v>242</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
+        <v>237</v>
+      </c>
+      <c r="G131" t="s">
         <v>253</v>
-      </c>
-      <c r="F131" t="s">
-        <v>165</v>
-      </c>
-      <c r="G131" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4692,16 +4692,16 @@
         <v>8</v>
       </c>
       <c r="D132" t="s">
+        <v>163</v>
+      </c>
+      <c r="E132" t="s">
         <v>255</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
+        <v>237</v>
+      </c>
+      <c r="G132" t="s">
         <v>256</v>
-      </c>
-      <c r="F132" t="s">
-        <v>165</v>
-      </c>
-      <c r="G132" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4712,16 +4712,16 @@
         <v>8</v>
       </c>
       <c r="D133" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133" t="s">
         <v>189</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
+        <v>237</v>
+      </c>
+      <c r="G133" t="s">
         <v>190</v>
-      </c>
-      <c r="F133" t="s">
-        <v>115</v>
-      </c>
-      <c r="G133" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4732,16 +4732,16 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
+        <v>163</v>
+      </c>
+      <c r="E134" t="s">
         <v>175</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
+        <v>259</v>
+      </c>
+      <c r="G134" t="s">
         <v>176</v>
-      </c>
-      <c r="F134" t="s">
-        <v>165</v>
-      </c>
-      <c r="G134" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4752,16 +4752,16 @@
         <v>8</v>
       </c>
       <c r="D135" t="s">
+        <v>163</v>
+      </c>
+      <c r="E135" t="s">
         <v>175</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
+        <v>259</v>
+      </c>
+      <c r="G135" t="s">
         <v>176</v>
-      </c>
-      <c r="F135" t="s">
-        <v>165</v>
-      </c>
-      <c r="G135" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4772,16 +4772,16 @@
         <v>8</v>
       </c>
       <c r="D136" t="s">
+        <v>163</v>
+      </c>
+      <c r="E136" t="s">
         <v>175</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
+        <v>259</v>
+      </c>
+      <c r="G136" t="s">
         <v>176</v>
-      </c>
-      <c r="F136" t="s">
-        <v>165</v>
-      </c>
-      <c r="G136" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4792,16 +4792,16 @@
         <v>8</v>
       </c>
       <c r="D137" t="s">
+        <v>163</v>
+      </c>
+      <c r="E137" t="s">
         <v>175</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
+        <v>259</v>
+      </c>
+      <c r="G137" t="s">
         <v>176</v>
-      </c>
-      <c r="F137" t="s">
-        <v>165</v>
-      </c>
-      <c r="G137" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4812,16 +4812,16 @@
         <v>8</v>
       </c>
       <c r="D138" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" t="s">
         <v>175</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
+        <v>259</v>
+      </c>
+      <c r="G138" t="s">
         <v>176</v>
-      </c>
-      <c r="F138" t="s">
-        <v>165</v>
-      </c>
-      <c r="G138" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4832,16 +4832,16 @@
         <v>8</v>
       </c>
       <c r="D139" t="s">
+        <v>223</v>
+      </c>
+      <c r="E139" t="s">
         <v>265</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
+        <v>259</v>
+      </c>
+      <c r="G139" t="s">
         <v>266</v>
-      </c>
-      <c r="F139" t="s">
-        <v>225</v>
-      </c>
-      <c r="G139" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4852,16 +4852,16 @@
         <v>8</v>
       </c>
       <c r="D140" t="s">
+        <v>163</v>
+      </c>
+      <c r="E140" t="s">
         <v>175</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
+        <v>259</v>
+      </c>
+      <c r="G140" t="s">
         <v>176</v>
-      </c>
-      <c r="F140" t="s">
-        <v>165</v>
-      </c>
-      <c r="G140" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4875,13 +4875,13 @@
         <v>269</v>
       </c>
       <c r="D141" t="s">
+        <v>163</v>
+      </c>
+      <c r="E141" t="s">
         <v>270</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>165</v>
       </c>
       <c r="G141" t="s">
         <v>272</v>
@@ -4898,13 +4898,13 @@
         <v>269</v>
       </c>
       <c r="D142" t="s">
+        <v>163</v>
+      </c>
+      <c r="E142" t="s">
         <v>270</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>165</v>
       </c>
       <c r="G142" t="s">
         <v>272</v>
@@ -4921,16 +4921,16 @@
         <v>269</v>
       </c>
       <c r="D143" t="s">
+        <v>163</v>
+      </c>
+      <c r="E143" t="s">
         <v>275</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
+        <v>271</v>
+      </c>
+      <c r="G143" t="s">
         <v>276</v>
-      </c>
-      <c r="F143" t="s">
-        <v>165</v>
-      </c>
-      <c r="G143" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4944,16 +4944,16 @@
         <v>269</v>
       </c>
       <c r="D144" t="s">
+        <v>163</v>
+      </c>
+      <c r="E144" t="s">
         <v>275</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
+        <v>271</v>
+      </c>
+      <c r="G144" t="s">
         <v>276</v>
-      </c>
-      <c r="F144" t="s">
-        <v>165</v>
-      </c>
-      <c r="G144" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4967,16 +4967,16 @@
         <v>269</v>
       </c>
       <c r="D145" t="s">
+        <v>163</v>
+      </c>
+      <c r="E145" t="s">
         <v>275</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
+        <v>271</v>
+      </c>
+      <c r="G145" t="s">
         <v>276</v>
-      </c>
-      <c r="F145" t="s">
-        <v>165</v>
-      </c>
-      <c r="G145" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4990,13 +4990,13 @@
         <v>269</v>
       </c>
       <c r="D146" t="s">
+        <v>163</v>
+      </c>
+      <c r="E146" t="s">
         <v>270</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>271</v>
-      </c>
-      <c r="F146" t="s">
-        <v>165</v>
       </c>
       <c r="G146" t="s">
         <v>272</v>
@@ -5013,13 +5013,13 @@
         <v>281</v>
       </c>
       <c r="D147" t="s">
+        <v>163</v>
+      </c>
+      <c r="E147" t="s">
         <v>270</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>271</v>
-      </c>
-      <c r="F147" t="s">
-        <v>165</v>
       </c>
       <c r="G147" t="s">
         <v>272</v>
@@ -5036,13 +5036,13 @@
         <v>281</v>
       </c>
       <c r="D148" t="s">
+        <v>163</v>
+      </c>
+      <c r="E148" t="s">
         <v>270</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>271</v>
-      </c>
-      <c r="F148" t="s">
-        <v>165</v>
       </c>
       <c r="G148" t="s">
         <v>272</v>
@@ -5059,13 +5059,13 @@
         <v>281</v>
       </c>
       <c r="D149" t="s">
+        <v>163</v>
+      </c>
+      <c r="E149" t="s">
         <v>270</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>271</v>
-      </c>
-      <c r="F149" t="s">
-        <v>165</v>
       </c>
       <c r="G149" t="s">
         <v>272</v>
@@ -5082,13 +5082,13 @@
         <v>281</v>
       </c>
       <c r="D150" t="s">
+        <v>163</v>
+      </c>
+      <c r="E150" t="s">
         <v>270</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>271</v>
-      </c>
-      <c r="F150" t="s">
-        <v>165</v>
       </c>
       <c r="G150" t="s">
         <v>272</v>
@@ -5105,13 +5105,13 @@
         <v>281</v>
       </c>
       <c r="D151" t="s">
+        <v>163</v>
+      </c>
+      <c r="E151" t="s">
         <v>270</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>271</v>
-      </c>
-      <c r="F151" t="s">
-        <v>165</v>
       </c>
       <c r="G151" t="s">
         <v>272</v>
@@ -5128,13 +5128,13 @@
         <v>281</v>
       </c>
       <c r="D152" t="s">
+        <v>163</v>
+      </c>
+      <c r="E152" t="s">
         <v>270</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>271</v>
-      </c>
-      <c r="F152" t="s">
-        <v>165</v>
       </c>
       <c r="G152" t="s">
         <v>272</v>
@@ -5151,13 +5151,13 @@
         <v>281</v>
       </c>
       <c r="D153" t="s">
+        <v>163</v>
+      </c>
+      <c r="E153" t="s">
         <v>270</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>271</v>
-      </c>
-      <c r="F153" t="s">
-        <v>165</v>
       </c>
       <c r="G153" t="s">
         <v>272</v>
@@ -5174,13 +5174,13 @@
         <v>281</v>
       </c>
       <c r="D154" t="s">
+        <v>163</v>
+      </c>
+      <c r="E154" t="s">
         <v>270</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>271</v>
-      </c>
-      <c r="F154" t="s">
-        <v>165</v>
       </c>
       <c r="G154" t="s">
         <v>272</v>
@@ -5197,13 +5197,13 @@
         <v>281</v>
       </c>
       <c r="D155" t="s">
+        <v>163</v>
+      </c>
+      <c r="E155" t="s">
         <v>270</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>271</v>
-      </c>
-      <c r="F155" t="s">
-        <v>165</v>
       </c>
       <c r="G155" t="s">
         <v>272</v>
@@ -5220,13 +5220,13 @@
         <v>291</v>
       </c>
       <c r="D156" t="s">
+        <v>163</v>
+      </c>
+      <c r="E156" t="s">
         <v>270</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>271</v>
-      </c>
-      <c r="F156" t="s">
-        <v>165</v>
       </c>
       <c r="G156" t="s">
         <v>272</v>
@@ -5243,16 +5243,16 @@
         <v>291</v>
       </c>
       <c r="D157" t="s">
+        <v>163</v>
+      </c>
+      <c r="E157" t="s">
         <v>270</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
+        <v>271</v>
+      </c>
+      <c r="G157" t="s">
         <v>293</v>
-      </c>
-      <c r="F157" t="s">
-        <v>165</v>
-      </c>
-      <c r="G157" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5266,13 +5266,13 @@
         <v>291</v>
       </c>
       <c r="D158" t="s">
+        <v>163</v>
+      </c>
+      <c r="E158" t="s">
         <v>270</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>271</v>
-      </c>
-      <c r="F158" t="s">
-        <v>165</v>
       </c>
       <c r="G158" t="s">
         <v>272</v>
@@ -5289,13 +5289,13 @@
         <v>291</v>
       </c>
       <c r="D159" t="s">
+        <v>163</v>
+      </c>
+      <c r="E159" t="s">
         <v>270</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>271</v>
-      </c>
-      <c r="F159" t="s">
-        <v>165</v>
       </c>
       <c r="G159" t="s">
         <v>272</v>
@@ -5312,13 +5312,13 @@
         <v>291</v>
       </c>
       <c r="D160" t="s">
+        <v>163</v>
+      </c>
+      <c r="E160" t="s">
         <v>270</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>271</v>
-      </c>
-      <c r="F160" t="s">
-        <v>165</v>
       </c>
       <c r="G160" t="s">
         <v>272</v>
@@ -5335,13 +5335,13 @@
         <v>291</v>
       </c>
       <c r="D161" t="s">
+        <v>163</v>
+      </c>
+      <c r="E161" t="s">
         <v>270</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>271</v>
-      </c>
-      <c r="F161" t="s">
-        <v>165</v>
       </c>
       <c r="G161" t="s">
         <v>272</v>
@@ -5358,13 +5358,13 @@
         <v>299</v>
       </c>
       <c r="D162" t="s">
+        <v>163</v>
+      </c>
+      <c r="E162" t="s">
         <v>270</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>271</v>
-      </c>
-      <c r="F162" t="s">
-        <v>165</v>
       </c>
       <c r="G162" t="s">
         <v>272</v>
@@ -5381,16 +5381,16 @@
         <v>301</v>
       </c>
       <c r="D163" t="s">
+        <v>163</v>
+      </c>
+      <c r="E163" t="s">
         <v>270</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
+        <v>271</v>
+      </c>
+      <c r="G163" t="s">
         <v>302</v>
-      </c>
-      <c r="F163" t="s">
-        <v>165</v>
-      </c>
-      <c r="G163" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5404,13 +5404,13 @@
         <v>304</v>
       </c>
       <c r="D164" t="s">
+        <v>163</v>
+      </c>
+      <c r="E164" t="s">
         <v>270</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>271</v>
-      </c>
-      <c r="F164" t="s">
-        <v>165</v>
       </c>
       <c r="G164" t="s">
         <v>272</v>
@@ -5427,13 +5427,13 @@
         <v>304</v>
       </c>
       <c r="D165" t="s">
+        <v>163</v>
+      </c>
+      <c r="E165" t="s">
         <v>270</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>271</v>
-      </c>
-      <c r="F165" t="s">
-        <v>165</v>
       </c>
       <c r="G165" t="s">
         <v>272</v>
@@ -5450,13 +5450,13 @@
         <v>304</v>
       </c>
       <c r="D166" t="s">
+        <v>163</v>
+      </c>
+      <c r="E166" t="s">
         <v>270</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>271</v>
-      </c>
-      <c r="F166" t="s">
-        <v>165</v>
       </c>
       <c r="G166" t="s">
         <v>272</v>
@@ -5473,13 +5473,13 @@
         <v>304</v>
       </c>
       <c r="D167" t="s">
+        <v>163</v>
+      </c>
+      <c r="E167" t="s">
         <v>270</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>271</v>
-      </c>
-      <c r="F167" t="s">
-        <v>165</v>
       </c>
       <c r="G167" t="s">
         <v>272</v>
@@ -5496,16 +5496,16 @@
         <v>304</v>
       </c>
       <c r="D168" t="s">
+        <v>163</v>
+      </c>
+      <c r="E168" t="s">
         <v>270</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
+        <v>271</v>
+      </c>
+      <c r="G168" t="s">
         <v>309</v>
-      </c>
-      <c r="F168" t="s">
-        <v>165</v>
-      </c>
-      <c r="G168" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5519,16 +5519,16 @@
         <v>304</v>
       </c>
       <c r="D169" t="s">
+        <v>163</v>
+      </c>
+      <c r="E169" t="s">
         <v>270</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
+        <v>271</v>
+      </c>
+      <c r="G169" t="s">
         <v>309</v>
-      </c>
-      <c r="F169" t="s">
-        <v>165</v>
-      </c>
-      <c r="G169" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5542,13 +5542,13 @@
         <v>304</v>
       </c>
       <c r="D170" t="s">
+        <v>163</v>
+      </c>
+      <c r="E170" t="s">
         <v>270</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>271</v>
-      </c>
-      <c r="F170" t="s">
-        <v>165</v>
       </c>
       <c r="G170" t="s">
         <v>272</v>
@@ -5568,10 +5568,10 @@
         <v>164</v>
       </c>
       <c r="F171" t="s">
+        <v>313</v>
+      </c>
+      <c r="G171" t="s">
         <v>165</v>
-      </c>
-      <c r="G171" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5582,16 +5582,16 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
+        <v>113</v>
+      </c>
+      <c r="E172" t="s">
         <v>118</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
+        <v>313</v>
+      </c>
+      <c r="G172" t="s">
         <v>119</v>
-      </c>
-      <c r="F172" t="s">
-        <v>115</v>
-      </c>
-      <c r="G172" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5608,10 +5608,10 @@
         <v>164</v>
       </c>
       <c r="F173" t="s">
+        <v>313</v>
+      </c>
+      <c r="G173" t="s">
         <v>165</v>
-      </c>
-      <c r="G173" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5628,10 +5628,10 @@
         <v>164</v>
       </c>
       <c r="F174" t="s">
+        <v>313</v>
+      </c>
+      <c r="G174" t="s">
         <v>165</v>
-      </c>
-      <c r="G174" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5648,10 +5648,10 @@
         <v>164</v>
       </c>
       <c r="F175" t="s">
+        <v>313</v>
+      </c>
+      <c r="G175" t="s">
         <v>165</v>
-      </c>
-      <c r="G175" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5668,10 +5668,10 @@
         <v>164</v>
       </c>
       <c r="F176" t="s">
+        <v>313</v>
+      </c>
+      <c r="G176" t="s">
         <v>165</v>
-      </c>
-      <c r="G176" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5688,10 +5688,10 @@
         <v>164</v>
       </c>
       <c r="F177" t="s">
+        <v>320</v>
+      </c>
+      <c r="G177" t="s">
         <v>165</v>
-      </c>
-      <c r="G177" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5708,10 +5708,10 @@
         <v>164</v>
       </c>
       <c r="F178" t="s">
+        <v>320</v>
+      </c>
+      <c r="G178" t="s">
         <v>165</v>
-      </c>
-      <c r="G178" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>164</v>
       </c>
       <c r="F179" t="s">
+        <v>320</v>
+      </c>
+      <c r="G179" t="s">
         <v>165</v>
-      </c>
-      <c r="G179" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5748,10 +5748,10 @@
         <v>164</v>
       </c>
       <c r="F180" t="s">
+        <v>320</v>
+      </c>
+      <c r="G180" t="s">
         <v>165</v>
-      </c>
-      <c r="G180" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5765,13 +5765,13 @@
         <v>325</v>
       </c>
       <c r="D181" t="s">
+        <v>163</v>
+      </c>
+      <c r="E181" t="s">
         <v>326</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>327</v>
-      </c>
-      <c r="F181" t="s">
-        <v>165</v>
       </c>
       <c r="G181" t="s">
         <v>328</v>
@@ -5788,13 +5788,13 @@
         <v>325</v>
       </c>
       <c r="D182" t="s">
+        <v>163</v>
+      </c>
+      <c r="E182" t="s">
         <v>326</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>327</v>
-      </c>
-      <c r="F182" t="s">
-        <v>165</v>
       </c>
       <c r="G182" t="s">
         <v>328</v>
@@ -5811,13 +5811,13 @@
         <v>325</v>
       </c>
       <c r="D183" t="s">
+        <v>163</v>
+      </c>
+      <c r="E183" t="s">
         <v>326</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>327</v>
-      </c>
-      <c r="F183" t="s">
-        <v>165</v>
       </c>
       <c r="G183" t="s">
         <v>328</v>
@@ -5834,13 +5834,13 @@
         <v>325</v>
       </c>
       <c r="D184" t="s">
+        <v>163</v>
+      </c>
+      <c r="E184" t="s">
         <v>326</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>327</v>
-      </c>
-      <c r="F184" t="s">
-        <v>165</v>
       </c>
       <c r="G184" t="s">
         <v>328</v>
@@ -5857,13 +5857,13 @@
         <v>325</v>
       </c>
       <c r="D185" t="s">
+        <v>163</v>
+      </c>
+      <c r="E185" t="s">
         <v>326</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>327</v>
-      </c>
-      <c r="F185" t="s">
-        <v>165</v>
       </c>
       <c r="G185" t="s">
         <v>328</v>
@@ -5880,13 +5880,13 @@
         <v>325</v>
       </c>
       <c r="D186" t="s">
+        <v>163</v>
+      </c>
+      <c r="E186" t="s">
         <v>326</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>327</v>
-      </c>
-      <c r="F186" t="s">
-        <v>165</v>
       </c>
       <c r="G186" t="s">
         <v>328</v>
@@ -5903,13 +5903,13 @@
         <v>325</v>
       </c>
       <c r="D187" t="s">
+        <v>163</v>
+      </c>
+      <c r="E187" t="s">
         <v>326</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>327</v>
-      </c>
-      <c r="F187" t="s">
-        <v>165</v>
       </c>
       <c r="G187" t="s">
         <v>328</v>
@@ -5926,13 +5926,13 @@
         <v>325</v>
       </c>
       <c r="D188" t="s">
+        <v>163</v>
+      </c>
+      <c r="E188" t="s">
         <v>326</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>327</v>
-      </c>
-      <c r="F188" t="s">
-        <v>165</v>
       </c>
       <c r="G188" t="s">
         <v>328</v>
@@ -5949,13 +5949,13 @@
         <v>325</v>
       </c>
       <c r="D189" t="s">
+        <v>163</v>
+      </c>
+      <c r="E189" t="s">
         <v>326</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>327</v>
-      </c>
-      <c r="F189" t="s">
-        <v>165</v>
       </c>
       <c r="G189" t="s">
         <v>328</v>
@@ -5972,13 +5972,13 @@
         <v>325</v>
       </c>
       <c r="D190" t="s">
+        <v>163</v>
+      </c>
+      <c r="E190" t="s">
         <v>326</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>327</v>
-      </c>
-      <c r="F190" t="s">
-        <v>165</v>
       </c>
       <c r="G190" t="s">
         <v>328</v>
@@ -5995,13 +5995,13 @@
         <v>325</v>
       </c>
       <c r="D191" t="s">
+        <v>163</v>
+      </c>
+      <c r="E191" t="s">
         <v>326</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>327</v>
-      </c>
-      <c r="F191" t="s">
-        <v>165</v>
       </c>
       <c r="G191" t="s">
         <v>328</v>
@@ -6018,13 +6018,13 @@
         <v>325</v>
       </c>
       <c r="D192" t="s">
+        <v>163</v>
+      </c>
+      <c r="E192" t="s">
         <v>326</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>327</v>
-      </c>
-      <c r="F192" t="s">
-        <v>165</v>
       </c>
       <c r="G192" t="s">
         <v>328</v>
@@ -6041,16 +6041,16 @@
         <v>325</v>
       </c>
       <c r="D193" t="s">
+        <v>163</v>
+      </c>
+      <c r="E193" t="s">
         <v>275</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
+        <v>327</v>
+      </c>
+      <c r="G193" t="s">
         <v>341</v>
-      </c>
-      <c r="F193" t="s">
-        <v>165</v>
-      </c>
-      <c r="G193" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6064,13 +6064,13 @@
         <v>325</v>
       </c>
       <c r="D194" t="s">
+        <v>163</v>
+      </c>
+      <c r="E194" t="s">
         <v>326</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>327</v>
-      </c>
-      <c r="F194" t="s">
-        <v>165</v>
       </c>
       <c r="G194" t="s">
         <v>328</v>
@@ -6087,13 +6087,13 @@
         <v>325</v>
       </c>
       <c r="D195" t="s">
+        <v>163</v>
+      </c>
+      <c r="E195" t="s">
         <v>326</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>327</v>
-      </c>
-      <c r="F195" t="s">
-        <v>165</v>
       </c>
       <c r="G195" t="s">
         <v>328</v>
@@ -6110,13 +6110,13 @@
         <v>325</v>
       </c>
       <c r="D196" t="s">
+        <v>163</v>
+      </c>
+      <c r="E196" t="s">
         <v>326</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
         <v>327</v>
-      </c>
-      <c r="F196" t="s">
-        <v>165</v>
       </c>
       <c r="G196" t="s">
         <v>328</v>
@@ -6133,13 +6133,13 @@
         <v>325</v>
       </c>
       <c r="D197" t="s">
+        <v>163</v>
+      </c>
+      <c r="E197" t="s">
         <v>326</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
         <v>327</v>
-      </c>
-      <c r="F197" t="s">
-        <v>165</v>
       </c>
       <c r="G197" t="s">
         <v>328</v>
@@ -6156,13 +6156,13 @@
         <v>325</v>
       </c>
       <c r="D198" t="s">
+        <v>163</v>
+      </c>
+      <c r="E198" t="s">
         <v>326</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>327</v>
-      </c>
-      <c r="F198" t="s">
-        <v>165</v>
       </c>
       <c r="G198" t="s">
         <v>328</v>
@@ -6179,16 +6179,16 @@
         <v>348</v>
       </c>
       <c r="D199" t="s">
+        <v>163</v>
+      </c>
+      <c r="E199" t="s">
         <v>326</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" t="s">
+        <v>327</v>
+      </c>
+      <c r="G199" t="s">
         <v>349</v>
-      </c>
-      <c r="F199" t="s">
-        <v>165</v>
-      </c>
-      <c r="G199" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6202,16 +6202,16 @@
         <v>348</v>
       </c>
       <c r="D200" t="s">
+        <v>163</v>
+      </c>
+      <c r="E200" t="s">
         <v>326</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
+        <v>327</v>
+      </c>
+      <c r="G200" t="s">
         <v>349</v>
-      </c>
-      <c r="F200" t="s">
-        <v>165</v>
-      </c>
-      <c r="G200" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6225,16 +6225,16 @@
         <v>348</v>
       </c>
       <c r="D201" t="s">
+        <v>163</v>
+      </c>
+      <c r="E201" t="s">
         <v>326</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
+        <v>327</v>
+      </c>
+      <c r="G201" t="s">
         <v>349</v>
-      </c>
-      <c r="F201" t="s">
-        <v>165</v>
-      </c>
-      <c r="G201" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6248,16 +6248,16 @@
         <v>348</v>
       </c>
       <c r="D202" t="s">
+        <v>163</v>
+      </c>
+      <c r="E202" t="s">
         <v>326</v>
       </c>
-      <c r="E202" t="s">
+      <c r="F202" t="s">
+        <v>327</v>
+      </c>
+      <c r="G202" t="s">
         <v>349</v>
-      </c>
-      <c r="F202" t="s">
-        <v>165</v>
-      </c>
-      <c r="G202" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6271,16 +6271,16 @@
         <v>348</v>
       </c>
       <c r="D203" t="s">
+        <v>163</v>
+      </c>
+      <c r="E203" t="s">
         <v>275</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
+        <v>327</v>
+      </c>
+      <c r="G203" t="s">
         <v>341</v>
-      </c>
-      <c r="F203" t="s">
-        <v>165</v>
-      </c>
-      <c r="G203" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6294,16 +6294,16 @@
         <v>348</v>
       </c>
       <c r="D204" t="s">
+        <v>163</v>
+      </c>
+      <c r="E204" t="s">
         <v>326</v>
       </c>
-      <c r="E204" t="s">
+      <c r="F204" t="s">
+        <v>327</v>
+      </c>
+      <c r="G204" t="s">
         <v>349</v>
-      </c>
-      <c r="F204" t="s">
-        <v>165</v>
-      </c>
-      <c r="G204" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6317,16 +6317,16 @@
         <v>356</v>
       </c>
       <c r="D205" t="s">
+        <v>163</v>
+      </c>
+      <c r="E205" t="s">
         <v>326</v>
       </c>
-      <c r="E205" t="s">
+      <c r="F205" t="s">
+        <v>327</v>
+      </c>
+      <c r="G205" t="s">
         <v>357</v>
-      </c>
-      <c r="F205" t="s">
-        <v>165</v>
-      </c>
-      <c r="G205" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6340,16 +6340,16 @@
         <v>356</v>
       </c>
       <c r="D206" t="s">
+        <v>163</v>
+      </c>
+      <c r="E206" t="s">
         <v>326</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
+        <v>327</v>
+      </c>
+      <c r="G206" t="s">
         <v>357</v>
-      </c>
-      <c r="F206" t="s">
-        <v>165</v>
-      </c>
-      <c r="G206" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6363,16 +6363,16 @@
         <v>356</v>
       </c>
       <c r="D207" t="s">
+        <v>163</v>
+      </c>
+      <c r="E207" t="s">
         <v>326</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
+        <v>327</v>
+      </c>
+      <c r="G207" t="s">
         <v>357</v>
-      </c>
-      <c r="F207" t="s">
-        <v>165</v>
-      </c>
-      <c r="G207" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6386,16 +6386,16 @@
         <v>356</v>
       </c>
       <c r="D208" t="s">
+        <v>163</v>
+      </c>
+      <c r="E208" t="s">
         <v>275</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
+        <v>327</v>
+      </c>
+      <c r="G208" t="s">
         <v>341</v>
-      </c>
-      <c r="F208" t="s">
-        <v>165</v>
-      </c>
-      <c r="G208" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6409,16 +6409,16 @@
         <v>356</v>
       </c>
       <c r="D209" t="s">
+        <v>163</v>
+      </c>
+      <c r="E209" t="s">
         <v>326</v>
       </c>
-      <c r="E209" t="s">
+      <c r="F209" t="s">
+        <v>327</v>
+      </c>
+      <c r="G209" t="s">
         <v>357</v>
-      </c>
-      <c r="F209" t="s">
-        <v>165</v>
-      </c>
-      <c r="G209" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6432,13 +6432,13 @@
         <v>363</v>
       </c>
       <c r="D210" t="s">
+        <v>163</v>
+      </c>
+      <c r="E210" t="s">
         <v>364</v>
       </c>
-      <c r="E210" t="s">
+      <c r="F210" t="s">
         <v>365</v>
-      </c>
-      <c r="F210" t="s">
-        <v>165</v>
       </c>
       <c r="G210" t="s">
         <v>366</v>
@@ -6455,13 +6455,13 @@
         <v>363</v>
       </c>
       <c r="D211" t="s">
+        <v>163</v>
+      </c>
+      <c r="E211" t="s">
         <v>364</v>
       </c>
-      <c r="E211" t="s">
+      <c r="F211" t="s">
         <v>365</v>
-      </c>
-      <c r="F211" t="s">
-        <v>165</v>
       </c>
       <c r="G211" t="s">
         <v>366</v>
@@ -6478,13 +6478,13 @@
         <v>363</v>
       </c>
       <c r="D212" t="s">
+        <v>163</v>
+      </c>
+      <c r="E212" t="s">
         <v>364</v>
       </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>365</v>
-      </c>
-      <c r="F212" t="s">
-        <v>165</v>
       </c>
       <c r="G212" t="s">
         <v>366</v>
@@ -6501,13 +6501,13 @@
         <v>363</v>
       </c>
       <c r="D213" t="s">
+        <v>163</v>
+      </c>
+      <c r="E213" t="s">
         <v>364</v>
       </c>
-      <c r="E213" t="s">
+      <c r="F213" t="s">
         <v>365</v>
-      </c>
-      <c r="F213" t="s">
-        <v>165</v>
       </c>
       <c r="G213" t="s">
         <v>366</v>
@@ -6524,13 +6524,13 @@
         <v>363</v>
       </c>
       <c r="D214" t="s">
+        <v>163</v>
+      </c>
+      <c r="E214" t="s">
         <v>364</v>
       </c>
-      <c r="E214" t="s">
+      <c r="F214" t="s">
         <v>365</v>
-      </c>
-      <c r="F214" t="s">
-        <v>165</v>
       </c>
       <c r="G214" t="s">
         <v>366</v>
@@ -6547,16 +6547,16 @@
         <v>363</v>
       </c>
       <c r="D215" t="s">
+        <v>163</v>
+      </c>
+      <c r="E215" t="s">
         <v>326</v>
       </c>
-      <c r="E215" t="s">
+      <c r="F215" t="s">
+        <v>365</v>
+      </c>
+      <c r="G215" t="s">
         <v>349</v>
-      </c>
-      <c r="F215" t="s">
-        <v>165</v>
-      </c>
-      <c r="G215" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6570,13 +6570,13 @@
         <v>363</v>
       </c>
       <c r="D216" t="s">
+        <v>163</v>
+      </c>
+      <c r="E216" t="s">
         <v>364</v>
       </c>
-      <c r="E216" t="s">
+      <c r="F216" t="s">
         <v>365</v>
-      </c>
-      <c r="F216" t="s">
-        <v>165</v>
       </c>
       <c r="G216" t="s">
         <v>366</v>
@@ -6593,13 +6593,13 @@
         <v>363</v>
       </c>
       <c r="D217" t="s">
+        <v>163</v>
+      </c>
+      <c r="E217" t="s">
         <v>364</v>
       </c>
-      <c r="E217" t="s">
+      <c r="F217" t="s">
         <v>365</v>
-      </c>
-      <c r="F217" t="s">
-        <v>165</v>
       </c>
       <c r="G217" t="s">
         <v>366</v>
@@ -6616,13 +6616,13 @@
         <v>363</v>
       </c>
       <c r="D218" t="s">
+        <v>163</v>
+      </c>
+      <c r="E218" t="s">
         <v>364</v>
       </c>
-      <c r="E218" t="s">
+      <c r="F218" t="s">
         <v>365</v>
-      </c>
-      <c r="F218" t="s">
-        <v>165</v>
       </c>
       <c r="G218" t="s">
         <v>366</v>
@@ -6639,13 +6639,13 @@
         <v>363</v>
       </c>
       <c r="D219" t="s">
+        <v>163</v>
+      </c>
+      <c r="E219" t="s">
         <v>364</v>
       </c>
-      <c r="E219" t="s">
+      <c r="F219" t="s">
         <v>365</v>
-      </c>
-      <c r="F219" t="s">
-        <v>165</v>
       </c>
       <c r="G219" t="s">
         <v>366</v>
@@ -6662,16 +6662,16 @@
         <v>363</v>
       </c>
       <c r="D220" t="s">
+        <v>163</v>
+      </c>
+      <c r="E220" t="s">
         <v>270</v>
       </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
+        <v>365</v>
+      </c>
+      <c r="G220" t="s">
         <v>309</v>
-      </c>
-      <c r="F220" t="s">
-        <v>165</v>
-      </c>
-      <c r="G220" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6685,13 +6685,13 @@
         <v>363</v>
       </c>
       <c r="D221" t="s">
+        <v>163</v>
+      </c>
+      <c r="E221" t="s">
         <v>364</v>
       </c>
-      <c r="E221" t="s">
+      <c r="F221" t="s">
         <v>365</v>
-      </c>
-      <c r="F221" t="s">
-        <v>165</v>
       </c>
       <c r="G221" t="s">
         <v>366</v>
@@ -6708,13 +6708,13 @@
         <v>363</v>
       </c>
       <c r="D222" t="s">
+        <v>163</v>
+      </c>
+      <c r="E222" t="s">
         <v>364</v>
       </c>
-      <c r="E222" t="s">
+      <c r="F222" t="s">
         <v>365</v>
-      </c>
-      <c r="F222" t="s">
-        <v>165</v>
       </c>
       <c r="G222" t="s">
         <v>366</v>
@@ -6731,13 +6731,13 @@
         <v>363</v>
       </c>
       <c r="D223" t="s">
+        <v>163</v>
+      </c>
+      <c r="E223" t="s">
         <v>364</v>
       </c>
-      <c r="E223" t="s">
+      <c r="F223" t="s">
         <v>365</v>
-      </c>
-      <c r="F223" t="s">
-        <v>165</v>
       </c>
       <c r="G223" t="s">
         <v>366</v>
@@ -6754,13 +6754,13 @@
         <v>363</v>
       </c>
       <c r="D224" t="s">
+        <v>163</v>
+      </c>
+      <c r="E224" t="s">
         <v>364</v>
       </c>
-      <c r="E224" t="s">
+      <c r="F224" t="s">
         <v>365</v>
-      </c>
-      <c r="F224" t="s">
-        <v>165</v>
       </c>
       <c r="G224" t="s">
         <v>366</v>
@@ -6777,13 +6777,13 @@
         <v>363</v>
       </c>
       <c r="D225" t="s">
+        <v>163</v>
+      </c>
+      <c r="E225" t="s">
         <v>364</v>
       </c>
-      <c r="E225" t="s">
+      <c r="F225" t="s">
         <v>365</v>
-      </c>
-      <c r="F225" t="s">
-        <v>165</v>
       </c>
       <c r="G225" t="s">
         <v>366</v>
@@ -6800,16 +6800,16 @@
         <v>363</v>
       </c>
       <c r="D226" t="s">
+        <v>163</v>
+      </c>
+      <c r="E226" t="s">
         <v>275</v>
       </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
+        <v>365</v>
+      </c>
+      <c r="G226" t="s">
         <v>276</v>
-      </c>
-      <c r="F226" t="s">
-        <v>165</v>
-      </c>
-      <c r="G226" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6823,13 +6823,13 @@
         <v>363</v>
       </c>
       <c r="D227" t="s">
+        <v>163</v>
+      </c>
+      <c r="E227" t="s">
         <v>364</v>
       </c>
-      <c r="E227" t="s">
+      <c r="F227" t="s">
         <v>365</v>
-      </c>
-      <c r="F227" t="s">
-        <v>165</v>
       </c>
       <c r="G227" t="s">
         <v>366</v>
@@ -6852,10 +6852,10 @@
         <v>164</v>
       </c>
       <c r="F228" t="s">
+        <v>365</v>
+      </c>
+      <c r="G228" t="s">
         <v>165</v>
-      </c>
-      <c r="G228" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6869,16 +6869,16 @@
         <v>386</v>
       </c>
       <c r="D229" t="s">
+        <v>163</v>
+      </c>
+      <c r="E229" t="s">
         <v>364</v>
       </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
+        <v>365</v>
+      </c>
+      <c r="G229" t="s">
         <v>387</v>
-      </c>
-      <c r="F229" t="s">
-        <v>165</v>
-      </c>
-      <c r="G229" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6892,16 +6892,16 @@
         <v>386</v>
       </c>
       <c r="D230" t="s">
+        <v>163</v>
+      </c>
+      <c r="E230" t="s">
         <v>364</v>
       </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
+        <v>365</v>
+      </c>
+      <c r="G230" t="s">
         <v>387</v>
-      </c>
-      <c r="F230" t="s">
-        <v>165</v>
-      </c>
-      <c r="G230" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6915,16 +6915,16 @@
         <v>386</v>
       </c>
       <c r="D231" t="s">
+        <v>163</v>
+      </c>
+      <c r="E231" t="s">
         <v>270</v>
       </c>
-      <c r="E231" t="s">
+      <c r="F231" t="s">
+        <v>365</v>
+      </c>
+      <c r="G231" t="s">
         <v>293</v>
-      </c>
-      <c r="F231" t="s">
-        <v>165</v>
-      </c>
-      <c r="G231" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6938,16 +6938,16 @@
         <v>386</v>
       </c>
       <c r="D232" t="s">
+        <v>163</v>
+      </c>
+      <c r="E232" t="s">
         <v>270</v>
       </c>
-      <c r="E232" t="s">
+      <c r="F232" t="s">
+        <v>365</v>
+      </c>
+      <c r="G232" t="s">
         <v>309</v>
-      </c>
-      <c r="F232" t="s">
-        <v>165</v>
-      </c>
-      <c r="G232" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6961,16 +6961,16 @@
         <v>386</v>
       </c>
       <c r="D233" t="s">
+        <v>163</v>
+      </c>
+      <c r="E233" t="s">
         <v>364</v>
       </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
+        <v>365</v>
+      </c>
+      <c r="G233" t="s">
         <v>387</v>
-      </c>
-      <c r="F233" t="s">
-        <v>165</v>
-      </c>
-      <c r="G233" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6984,16 +6984,16 @@
         <v>386</v>
       </c>
       <c r="D234" t="s">
+        <v>163</v>
+      </c>
+      <c r="E234" t="s">
         <v>364</v>
       </c>
-      <c r="E234" t="s">
+      <c r="F234" t="s">
+        <v>365</v>
+      </c>
+      <c r="G234" t="s">
         <v>387</v>
-      </c>
-      <c r="F234" t="s">
-        <v>165</v>
-      </c>
-      <c r="G234" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7007,16 +7007,16 @@
         <v>386</v>
       </c>
       <c r="D235" t="s">
+        <v>163</v>
+      </c>
+      <c r="E235" t="s">
         <v>364</v>
       </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
+        <v>365</v>
+      </c>
+      <c r="G235" t="s">
         <v>387</v>
-      </c>
-      <c r="F235" t="s">
-        <v>165</v>
-      </c>
-      <c r="G235" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7030,16 +7030,16 @@
         <v>386</v>
       </c>
       <c r="D236" t="s">
+        <v>163</v>
+      </c>
+      <c r="E236" t="s">
         <v>364</v>
       </c>
-      <c r="E236" t="s">
+      <c r="F236" t="s">
+        <v>365</v>
+      </c>
+      <c r="G236" t="s">
         <v>387</v>
-      </c>
-      <c r="F236" t="s">
-        <v>165</v>
-      </c>
-      <c r="G236" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7053,16 +7053,16 @@
         <v>386</v>
       </c>
       <c r="D237" t="s">
+        <v>163</v>
+      </c>
+      <c r="E237" t="s">
         <v>364</v>
       </c>
-      <c r="E237" t="s">
+      <c r="F237" t="s">
+        <v>365</v>
+      </c>
+      <c r="G237" t="s">
         <v>387</v>
-      </c>
-      <c r="F237" t="s">
-        <v>165</v>
-      </c>
-      <c r="G237" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7076,16 +7076,16 @@
         <v>386</v>
       </c>
       <c r="D238" t="s">
+        <v>163</v>
+      </c>
+      <c r="E238" t="s">
         <v>364</v>
       </c>
-      <c r="E238" t="s">
+      <c r="F238" t="s">
+        <v>365</v>
+      </c>
+      <c r="G238" t="s">
         <v>387</v>
-      </c>
-      <c r="F238" t="s">
-        <v>165</v>
-      </c>
-      <c r="G238" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7099,16 +7099,16 @@
         <v>398</v>
       </c>
       <c r="D239" t="s">
+        <v>163</v>
+      </c>
+      <c r="E239" t="s">
         <v>364</v>
       </c>
-      <c r="E239" t="s">
+      <c r="F239" t="s">
+        <v>365</v>
+      </c>
+      <c r="G239" t="s">
         <v>399</v>
-      </c>
-      <c r="F239" t="s">
-        <v>165</v>
-      </c>
-      <c r="G239" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7128,10 +7128,10 @@
         <v>164</v>
       </c>
       <c r="F240" t="s">
+        <v>402</v>
+      </c>
+      <c r="G240" t="s">
         <v>165</v>
-      </c>
-      <c r="G240" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7151,10 +7151,10 @@
         <v>164</v>
       </c>
       <c r="F241" t="s">
+        <v>402</v>
+      </c>
+      <c r="G241" t="s">
         <v>165</v>
-      </c>
-      <c r="G241" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7174,10 +7174,10 @@
         <v>164</v>
       </c>
       <c r="F242" t="s">
+        <v>402</v>
+      </c>
+      <c r="G242" t="s">
         <v>165</v>
-      </c>
-      <c r="G242" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7197,10 +7197,10 @@
         <v>164</v>
       </c>
       <c r="F243" t="s">
+        <v>402</v>
+      </c>
+      <c r="G243" t="s">
         <v>165</v>
-      </c>
-      <c r="G243" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7220,10 +7220,10 @@
         <v>164</v>
       </c>
       <c r="F244" t="s">
+        <v>402</v>
+      </c>
+      <c r="G244" t="s">
         <v>165</v>
-      </c>
-      <c r="G244" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7243,10 +7243,10 @@
         <v>164</v>
       </c>
       <c r="F245" t="s">
+        <v>402</v>
+      </c>
+      <c r="G245" t="s">
         <v>165</v>
-      </c>
-      <c r="G245" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7260,16 +7260,16 @@
         <v>409</v>
       </c>
       <c r="D246" t="s">
+        <v>163</v>
+      </c>
+      <c r="E246" t="s">
         <v>255</v>
       </c>
-      <c r="E246" t="s">
+      <c r="F246" t="s">
+        <v>402</v>
+      </c>
+      <c r="G246" t="s">
         <v>410</v>
-      </c>
-      <c r="F246" t="s">
-        <v>165</v>
-      </c>
-      <c r="G246" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7286,10 +7286,10 @@
         <v>96</v>
       </c>
       <c r="F247" t="s">
+        <v>412</v>
+      </c>
+      <c r="G247" t="s">
         <v>97</v>
-      </c>
-      <c r="G247" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7306,10 +7306,10 @@
         <v>96</v>
       </c>
       <c r="F248" t="s">
+        <v>412</v>
+      </c>
+      <c r="G248" t="s">
         <v>97</v>
-      </c>
-      <c r="G248" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7320,16 +7320,16 @@
         <v>8</v>
       </c>
       <c r="D249" t="s">
+        <v>95</v>
+      </c>
+      <c r="E249" t="s">
         <v>415</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
+        <v>412</v>
+      </c>
+      <c r="G249" t="s">
         <v>416</v>
-      </c>
-      <c r="F249" t="s">
-        <v>97</v>
-      </c>
-      <c r="G249" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7346,10 +7346,10 @@
         <v>96</v>
       </c>
       <c r="F250" t="s">
+        <v>412</v>
+      </c>
+      <c r="G250" t="s">
         <v>97</v>
-      </c>
-      <c r="G250" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7366,10 +7366,10 @@
         <v>96</v>
       </c>
       <c r="F251" t="s">
+        <v>412</v>
+      </c>
+      <c r="G251" t="s">
         <v>97</v>
-      </c>
-      <c r="G251" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7386,10 +7386,10 @@
         <v>96</v>
       </c>
       <c r="F252" t="s">
+        <v>412</v>
+      </c>
+      <c r="G252" t="s">
         <v>97</v>
-      </c>
-      <c r="G252" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7400,13 +7400,13 @@
         <v>8</v>
       </c>
       <c r="D253" t="s">
+        <v>163</v>
+      </c>
+      <c r="E253" t="s">
         <v>421</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>422</v>
-      </c>
-      <c r="F253" t="s">
-        <v>165</v>
       </c>
       <c r="G253" t="s">
         <v>423</v>
@@ -7420,16 +7420,16 @@
         <v>8</v>
       </c>
       <c r="D254" t="s">
+        <v>90</v>
+      </c>
+      <c r="E254" t="s">
         <v>219</v>
       </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
+        <v>422</v>
+      </c>
+      <c r="G254" t="s">
         <v>220</v>
-      </c>
-      <c r="F254" t="s">
-        <v>92</v>
-      </c>
-      <c r="G254" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7440,16 +7440,16 @@
         <v>8</v>
       </c>
       <c r="D255" t="s">
+        <v>90</v>
+      </c>
+      <c r="E255" t="s">
         <v>426</v>
       </c>
-      <c r="E255" t="s">
+      <c r="F255" t="s">
+        <v>422</v>
+      </c>
+      <c r="G255" t="s">
         <v>427</v>
-      </c>
-      <c r="F255" t="s">
-        <v>92</v>
-      </c>
-      <c r="G255" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7460,16 +7460,16 @@
         <v>8</v>
       </c>
       <c r="D256" t="s">
+        <v>90</v>
+      </c>
+      <c r="E256" t="s">
         <v>426</v>
       </c>
-      <c r="E256" t="s">
+      <c r="F256" t="s">
+        <v>422</v>
+      </c>
+      <c r="G256" t="s">
         <v>427</v>
-      </c>
-      <c r="F256" t="s">
-        <v>92</v>
-      </c>
-      <c r="G256" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7480,16 +7480,16 @@
         <v>8</v>
       </c>
       <c r="D257" t="s">
+        <v>90</v>
+      </c>
+      <c r="E257" t="s">
         <v>426</v>
       </c>
-      <c r="E257" t="s">
+      <c r="F257" t="s">
+        <v>422</v>
+      </c>
+      <c r="G257" t="s">
         <v>427</v>
-      </c>
-      <c r="F257" t="s">
-        <v>92</v>
-      </c>
-      <c r="G257" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7500,16 +7500,16 @@
         <v>8</v>
       </c>
       <c r="D258" t="s">
+        <v>163</v>
+      </c>
+      <c r="E258" t="s">
         <v>326</v>
       </c>
-      <c r="E258" t="s">
-        <v>327</v>
-      </c>
       <c r="F258" t="s">
-        <v>165</v>
+        <v>422</v>
       </c>
       <c r="G258" t="s">
-        <v>423</v>
+        <v>328</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7520,16 +7520,16 @@
         <v>8</v>
       </c>
       <c r="D259" t="s">
+        <v>90</v>
+      </c>
+      <c r="E259" t="s">
         <v>426</v>
       </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
+        <v>422</v>
+      </c>
+      <c r="G259" t="s">
         <v>427</v>
-      </c>
-      <c r="F259" t="s">
-        <v>92</v>
-      </c>
-      <c r="G259" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7546,10 +7546,10 @@
         <v>164</v>
       </c>
       <c r="F260" t="s">
+        <v>422</v>
+      </c>
+      <c r="G260" t="s">
         <v>165</v>
-      </c>
-      <c r="G260" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7560,16 +7560,16 @@
         <v>8</v>
       </c>
       <c r="D261" t="s">
+        <v>195</v>
+      </c>
+      <c r="E261" t="s">
         <v>434</v>
       </c>
-      <c r="E261" t="s">
+      <c r="F261" t="s">
+        <v>422</v>
+      </c>
+      <c r="G261" t="s">
         <v>435</v>
-      </c>
-      <c r="F261" t="s">
-        <v>197</v>
-      </c>
-      <c r="G261" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7586,10 +7586,10 @@
         <v>164</v>
       </c>
       <c r="F262" t="s">
+        <v>422</v>
+      </c>
+      <c r="G262" t="s">
         <v>165</v>
-      </c>
-      <c r="G262" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7600,16 +7600,16 @@
         <v>8</v>
       </c>
       <c r="D263" t="s">
+        <v>182</v>
+      </c>
+      <c r="E263" t="s">
         <v>438</v>
       </c>
-      <c r="E263" t="s">
+      <c r="F263" t="s">
+        <v>422</v>
+      </c>
+      <c r="G263" t="s">
         <v>439</v>
-      </c>
-      <c r="F263" t="s">
-        <v>184</v>
-      </c>
-      <c r="G263" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7626,10 +7626,10 @@
         <v>32</v>
       </c>
       <c r="F264" t="s">
+        <v>422</v>
+      </c>
+      <c r="G264" t="s">
         <v>33</v>
-      </c>
-      <c r="G264" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7646,10 +7646,10 @@
         <v>11</v>
       </c>
       <c r="F265" t="s">
-        <v>12</v>
+        <v>422</v>
       </c>
       <c r="G265" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7660,16 +7660,16 @@
         <v>8</v>
       </c>
       <c r="D266" t="s">
+        <v>113</v>
+      </c>
+      <c r="E266" t="s">
         <v>443</v>
       </c>
-      <c r="E266" t="s">
+      <c r="F266" t="s">
+        <v>422</v>
+      </c>
+      <c r="G266" t="s">
         <v>444</v>
-      </c>
-      <c r="F266" t="s">
-        <v>115</v>
-      </c>
-      <c r="G266" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7680,16 +7680,16 @@
         <v>8</v>
       </c>
       <c r="D267" t="s">
+        <v>113</v>
+      </c>
+      <c r="E267" t="s">
         <v>118</v>
       </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
+        <v>446</v>
+      </c>
+      <c r="G267" t="s">
         <v>119</v>
-      </c>
-      <c r="F267" t="s">
-        <v>115</v>
-      </c>
-      <c r="G267" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7700,16 +7700,16 @@
         <v>8</v>
       </c>
       <c r="D268" t="s">
+        <v>182</v>
+      </c>
+      <c r="E268" t="s">
         <v>202</v>
       </c>
-      <c r="E268" t="s">
-        <v>203</v>
-      </c>
       <c r="F268" t="s">
-        <v>184</v>
+        <v>448</v>
       </c>
       <c r="G268" t="s">
-        <v>448</v>
+        <v>204</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -7720,16 +7720,16 @@
         <v>8</v>
       </c>
       <c r="D269" t="s">
+        <v>113</v>
+      </c>
+      <c r="E269" t="s">
         <v>118</v>
       </c>
-      <c r="E269" t="s">
+      <c r="F269" t="s">
+        <v>450</v>
+      </c>
+      <c r="G269" t="s">
         <v>119</v>
-      </c>
-      <c r="F269" t="s">
-        <v>115</v>
-      </c>
-      <c r="G269" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7740,16 +7740,16 @@
         <v>8</v>
       </c>
       <c r="D270" t="s">
+        <v>113</v>
+      </c>
+      <c r="E270" t="s">
         <v>118</v>
       </c>
-      <c r="E270" t="s">
+      <c r="F270" t="s">
+        <v>450</v>
+      </c>
+      <c r="G270" t="s">
         <v>119</v>
-      </c>
-      <c r="F270" t="s">
-        <v>115</v>
-      </c>
-      <c r="G270" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -7760,13 +7760,13 @@
         <v>8</v>
       </c>
       <c r="D271" t="s">
+        <v>113</v>
+      </c>
+      <c r="E271" t="s">
         <v>453</v>
       </c>
-      <c r="E271" t="s">
+      <c r="F271" t="s">
         <v>454</v>
-      </c>
-      <c r="F271" t="s">
-        <v>115</v>
       </c>
       <c r="G271" t="s">
         <v>455</v>
@@ -7780,13 +7780,13 @@
         <v>8</v>
       </c>
       <c r="D272" t="s">
+        <v>113</v>
+      </c>
+      <c r="E272" t="s">
         <v>453</v>
       </c>
-      <c r="E272" t="s">
+      <c r="F272" t="s">
         <v>454</v>
-      </c>
-      <c r="F272" t="s">
-        <v>115</v>
       </c>
       <c r="G272" t="s">
         <v>455</v>
@@ -7800,13 +7800,13 @@
         <v>8</v>
       </c>
       <c r="D273" t="s">
+        <v>113</v>
+      </c>
+      <c r="E273" t="s">
         <v>453</v>
       </c>
-      <c r="E273" t="s">
+      <c r="F273" t="s">
         <v>454</v>
-      </c>
-      <c r="F273" t="s">
-        <v>115</v>
       </c>
       <c r="G273" t="s">
         <v>455</v>
@@ -7820,13 +7820,13 @@
         <v>8</v>
       </c>
       <c r="D274" t="s">
+        <v>113</v>
+      </c>
+      <c r="E274" t="s">
         <v>453</v>
       </c>
-      <c r="E274" t="s">
+      <c r="F274" t="s">
         <v>454</v>
-      </c>
-      <c r="F274" t="s">
-        <v>115</v>
       </c>
       <c r="G274" t="s">
         <v>455</v>
@@ -7840,13 +7840,13 @@
         <v>8</v>
       </c>
       <c r="D275" t="s">
+        <v>113</v>
+      </c>
+      <c r="E275" t="s">
         <v>453</v>
       </c>
-      <c r="E275" t="s">
+      <c r="F275" t="s">
         <v>454</v>
-      </c>
-      <c r="F275" t="s">
-        <v>115</v>
       </c>
       <c r="G275" t="s">
         <v>455</v>
@@ -7860,13 +7860,13 @@
         <v>8</v>
       </c>
       <c r="D276" t="s">
+        <v>113</v>
+      </c>
+      <c r="E276" t="s">
         <v>453</v>
       </c>
-      <c r="E276" t="s">
+      <c r="F276" t="s">
         <v>454</v>
-      </c>
-      <c r="F276" t="s">
-        <v>115</v>
       </c>
       <c r="G276" t="s">
         <v>455</v>
@@ -7880,13 +7880,13 @@
         <v>8</v>
       </c>
       <c r="D277" t="s">
+        <v>113</v>
+      </c>
+      <c r="E277" t="s">
         <v>453</v>
       </c>
-      <c r="E277" t="s">
+      <c r="F277" t="s">
         <v>454</v>
-      </c>
-      <c r="F277" t="s">
-        <v>115</v>
       </c>
       <c r="G277" t="s">
         <v>455</v>
@@ -7900,16 +7900,16 @@
         <v>8</v>
       </c>
       <c r="D278" t="s">
+        <v>182</v>
+      </c>
+      <c r="E278" t="s">
         <v>202</v>
       </c>
-      <c r="E278" t="s">
-        <v>203</v>
-      </c>
       <c r="F278" t="s">
-        <v>184</v>
+        <v>463</v>
       </c>
       <c r="G278" t="s">
-        <v>463</v>
+        <v>204</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7920,16 +7920,16 @@
         <v>8</v>
       </c>
       <c r="D279" t="s">
+        <v>31</v>
+      </c>
+      <c r="E279" t="s">
         <v>52</v>
       </c>
-      <c r="E279" t="s">
-        <v>53</v>
-      </c>
       <c r="F279" t="s">
-        <v>33</v>
+        <v>463</v>
       </c>
       <c r="G279" t="s">
-        <v>463</v>
+        <v>54</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7946,10 +7946,10 @@
         <v>11</v>
       </c>
       <c r="F280" t="s">
-        <v>12</v>
+        <v>463</v>
       </c>
       <c r="G280" t="s">
-        <v>463</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -7960,16 +7960,16 @@
         <v>8</v>
       </c>
       <c r="D281" t="s">
+        <v>113</v>
+      </c>
+      <c r="E281" t="s">
         <v>170</v>
       </c>
-      <c r="E281" t="s">
+      <c r="F281" t="s">
+        <v>463</v>
+      </c>
+      <c r="G281" t="s">
         <v>171</v>
-      </c>
-      <c r="F281" t="s">
-        <v>115</v>
-      </c>
-      <c r="G281" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -7986,10 +7986,10 @@
         <v>125</v>
       </c>
       <c r="F282" t="s">
+        <v>463</v>
+      </c>
+      <c r="G282" t="s">
         <v>126</v>
-      </c>
-      <c r="G282" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8000,16 +8000,16 @@
         <v>8</v>
       </c>
       <c r="D283" t="s">
+        <v>163</v>
+      </c>
+      <c r="E283" t="s">
         <v>364</v>
       </c>
-      <c r="E283" t="s">
+      <c r="F283" t="s">
+        <v>469</v>
+      </c>
+      <c r="G283" t="s">
         <v>399</v>
-      </c>
-      <c r="F283" t="s">
-        <v>165</v>
-      </c>
-      <c r="G283" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8026,10 +8026,10 @@
         <v>125</v>
       </c>
       <c r="F284" t="s">
+        <v>471</v>
+      </c>
+      <c r="G284" t="s">
         <v>126</v>
-      </c>
-      <c r="G284" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8040,16 +8040,16 @@
         <v>8</v>
       </c>
       <c r="D285" t="s">
+        <v>113</v>
+      </c>
+      <c r="E285" t="s">
         <v>170</v>
       </c>
-      <c r="E285" t="s">
+      <c r="F285" t="s">
+        <v>473</v>
+      </c>
+      <c r="G285" t="s">
         <v>171</v>
-      </c>
-      <c r="F285" t="s">
-        <v>115</v>
-      </c>
-      <c r="G285" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8060,16 +8060,16 @@
         <v>8</v>
       </c>
       <c r="D286" t="s">
+        <v>182</v>
+      </c>
+      <c r="E286" t="s">
         <v>438</v>
       </c>
-      <c r="E286" t="s">
+      <c r="F286" t="s">
+        <v>475</v>
+      </c>
+      <c r="G286" t="s">
         <v>439</v>
-      </c>
-      <c r="F286" t="s">
-        <v>184</v>
-      </c>
-      <c r="G286" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8080,16 +8080,16 @@
         <v>8</v>
       </c>
       <c r="D287" t="s">
+        <v>182</v>
+      </c>
+      <c r="E287" t="s">
         <v>438</v>
       </c>
-      <c r="E287" t="s">
+      <c r="F287" t="s">
+        <v>475</v>
+      </c>
+      <c r="G287" t="s">
         <v>439</v>
-      </c>
-      <c r="F287" t="s">
-        <v>184</v>
-      </c>
-      <c r="G287" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8100,16 +8100,16 @@
         <v>8</v>
       </c>
       <c r="D288" t="s">
+        <v>10</v>
+      </c>
+      <c r="E288" t="s">
         <v>41</v>
       </c>
-      <c r="E288" t="s">
+      <c r="F288" t="s">
+        <v>475</v>
+      </c>
+      <c r="G288" t="s">
         <v>42</v>
-      </c>
-      <c r="F288" t="s">
-        <v>12</v>
-      </c>
-      <c r="G288" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8126,10 +8126,10 @@
         <v>32</v>
       </c>
       <c r="F289" t="s">
+        <v>475</v>
+      </c>
+      <c r="G289" t="s">
         <v>33</v>
-      </c>
-      <c r="G289" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -8146,10 +8146,10 @@
         <v>32</v>
       </c>
       <c r="F290" t="s">
+        <v>475</v>
+      </c>
+      <c r="G290" t="s">
         <v>33</v>
-      </c>
-      <c r="G290" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8160,16 +8160,16 @@
         <v>8</v>
       </c>
       <c r="D291" t="s">
+        <v>113</v>
+      </c>
+      <c r="E291" t="s">
         <v>170</v>
       </c>
-      <c r="E291" t="s">
+      <c r="F291" t="s">
+        <v>475</v>
+      </c>
+      <c r="G291" t="s">
         <v>171</v>
-      </c>
-      <c r="F291" t="s">
-        <v>115</v>
-      </c>
-      <c r="G291" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8180,16 +8180,16 @@
         <v>8</v>
       </c>
       <c r="D292" t="s">
+        <v>113</v>
+      </c>
+      <c r="E292" t="s">
         <v>170</v>
       </c>
-      <c r="E292" t="s">
+      <c r="F292" t="s">
+        <v>475</v>
+      </c>
+      <c r="G292" t="s">
         <v>171</v>
-      </c>
-      <c r="F292" t="s">
-        <v>115</v>
-      </c>
-      <c r="G292" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8200,16 +8200,16 @@
         <v>8</v>
       </c>
       <c r="D293" t="s">
+        <v>113</v>
+      </c>
+      <c r="E293" t="s">
         <v>170</v>
       </c>
-      <c r="E293" t="s">
+      <c r="F293" t="s">
+        <v>475</v>
+      </c>
+      <c r="G293" t="s">
         <v>171</v>
-      </c>
-      <c r="F293" t="s">
-        <v>115</v>
-      </c>
-      <c r="G293" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8220,16 +8220,16 @@
         <v>8</v>
       </c>
       <c r="D294" t="s">
+        <v>113</v>
+      </c>
+      <c r="E294" t="s">
         <v>170</v>
       </c>
-      <c r="E294" t="s">
+      <c r="F294" t="s">
+        <v>475</v>
+      </c>
+      <c r="G294" t="s">
         <v>171</v>
-      </c>
-      <c r="F294" t="s">
-        <v>115</v>
-      </c>
-      <c r="G294" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8240,16 +8240,16 @@
         <v>8</v>
       </c>
       <c r="D295" t="s">
+        <v>113</v>
+      </c>
+      <c r="E295" t="s">
         <v>170</v>
       </c>
-      <c r="E295" t="s">
+      <c r="F295" t="s">
+        <v>485</v>
+      </c>
+      <c r="G295" t="s">
         <v>171</v>
-      </c>
-      <c r="F295" t="s">
-        <v>115</v>
-      </c>
-      <c r="G295" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -8260,16 +8260,16 @@
         <v>8</v>
       </c>
       <c r="D296" t="s">
+        <v>113</v>
+      </c>
+      <c r="E296" t="s">
         <v>170</v>
       </c>
-      <c r="E296" t="s">
+      <c r="F296" t="s">
+        <v>485</v>
+      </c>
+      <c r="G296" t="s">
         <v>171</v>
-      </c>
-      <c r="F296" t="s">
-        <v>115</v>
-      </c>
-      <c r="G296" t="s">
-        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/api/2/xlsx/es/SectorCOFOG.xlsx
+++ b/api/2/xlsx/es/SectorCOFOG.xlsx
@@ -22,18 +22,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:cofog-division</t>
+  </si>
+  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
-    <t>codeforiati:cofog-division</t>
+    <t>codeforiati:group-code</t>
   </si>
   <si>
     <t>codeforiati:cofog-group</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>codeforiati:cofog-class</t>
   </si>
   <si>
@@ -43,18 +43,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>09 - Education</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
-    <t>09 - Education</t>
+    <t>110</t>
   </si>
   <si>
     <t>09.8 - Education n.e.c.</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>09.8.0 - Education n.e.c. (CS)</t>
   </si>
   <si>
@@ -172,12 +172,12 @@
     <t>121</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>07.6 - Health n.e.c.</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>07.6.0 - Health n.e.c. (CS)</t>
   </si>
   <si>
@@ -289,12 +289,12 @@
     <t>06 - Housing and community amenities</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>06.3 - Water supply</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>06.3.0 - Water supply (CS)</t>
   </si>
   <si>
@@ -352,18 +352,18 @@
     <t>15110</t>
   </si>
   <si>
+    <t>01 - General public services</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
-    <t>01 - General public services</t>
+    <t>150</t>
   </si>
   <si>
     <t>01.3 - General services</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>01.3.1 - General personnel services (CS)</t>
   </si>
   <si>
@@ -622,12 +622,12 @@
     <t>16010</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>10.9 - Social protection n.e.c.</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>10.9.0 - Social protection n.e.c. (CS)</t>
   </si>
   <si>
@@ -826,12 +826,12 @@
     <t>231</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>04.3 - Fuel and energy</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>04.3.5 - Electricity (CS)</t>
   </si>
   <si>
@@ -994,12 +994,12 @@
     <t>311</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>04.2 - Agriculture, forestry, fishing and hunting</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>04.2.1 - Agriculture (CS)</t>
   </si>
   <si>
@@ -1108,12 +1108,12 @@
     <t>321</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>04.4 - Mining, manufacturing and construction</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
     <t>04.4.2 - Manufacturing (CS)</t>
   </si>
   <si>
@@ -1279,12 +1279,12 @@
     <t>43010</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>04.9 - Economic affairs n.e.c.</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
   </si>
   <si>
@@ -1375,10 +1375,10 @@
     <t>60010</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>01.7 - Public debt transactions</t>
-  </si>
-  <si>
-    <t>600</t>
   </si>
   <si>
     <t>01.7.0 - Public debt transactions (CS)</t>
@@ -1872,10 +1872,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -1918,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1935,16 +1935,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1958,10 +1958,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1981,16 +1981,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -2004,16 +2004,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -2027,16 +2027,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -2050,16 +2050,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -2073,16 +2073,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
       <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -2096,16 +2096,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
       <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -2119,16 +2119,16 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
       <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
         <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
@@ -2142,16 +2142,16 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
       <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2165,16 +2165,16 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
       <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
         <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>49</v>
@@ -2188,10 +2188,10 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>52</v>
@@ -2211,10 +2211,10 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -2234,16 +2234,16 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
       <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
         <v>57</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
       </c>
       <c r="G19" t="s">
         <v>58</v>
@@ -2257,16 +2257,16 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
       <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
       </c>
       <c r="G20" t="s">
         <v>61</v>
@@ -2280,10 +2280,10 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
         <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
       </c>
       <c r="E21" t="s">
         <v>52</v>
@@ -2303,16 +2303,16 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
       <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
         <v>32</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -2326,16 +2326,16 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
       <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
         <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
       </c>
       <c r="G23" t="s">
         <v>67</v>
@@ -2349,16 +2349,16 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
       <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
         <v>32</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -2372,16 +2372,16 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
         <v>64</v>
       </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
       <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
         <v>32</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -2395,16 +2395,16 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
         <v>64</v>
       </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
       <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>53</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2418,16 +2418,16 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>53</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -2441,16 +2441,16 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
         <v>64</v>
       </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>32</v>
-      </c>
-      <c r="F28" t="s">
-        <v>53</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -2464,16 +2464,16 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
         <v>64</v>
       </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
       <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -2487,10 +2487,10 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
       </c>
       <c r="E30" t="s">
         <v>52</v>
@@ -2510,16 +2510,16 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
         <v>76</v>
       </c>
-      <c r="D31" t="s">
-        <v>31</v>
-      </c>
       <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
         <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>53</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -2533,16 +2533,16 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
         <v>76</v>
       </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
       <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>53</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
@@ -2556,16 +2556,16 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
         <v>76</v>
       </c>
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
       <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
         <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -2579,16 +2579,16 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
         <v>76</v>
       </c>
-      <c r="D34" t="s">
-        <v>31</v>
-      </c>
       <c r="E34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
         <v>32</v>
-      </c>
-      <c r="F34" t="s">
-        <v>53</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -2602,16 +2602,16 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
       <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
         <v>32</v>
-      </c>
-      <c r="F35" t="s">
-        <v>53</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
@@ -2625,16 +2625,16 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
         <v>76</v>
       </c>
-      <c r="D36" t="s">
-        <v>31</v>
-      </c>
       <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
         <v>57</v>
-      </c>
-      <c r="F36" t="s">
-        <v>53</v>
       </c>
       <c r="G36" t="s">
         <v>58</v>
@@ -2647,14 +2647,14 @@
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>31</v>
       </c>
       <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
         <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>83</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
@@ -2667,14 +2667,14 @@
       <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>31</v>
       </c>
       <c r="E38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
         <v>32</v>
-      </c>
-      <c r="F38" t="s">
-        <v>83</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
@@ -2687,14 +2687,14 @@
       <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C39" t="s">
         <v>31</v>
       </c>
       <c r="E39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" t="s">
         <v>32</v>
-      </c>
-      <c r="F39" t="s">
-        <v>83</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -2707,14 +2707,14 @@
       <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>31</v>
       </c>
       <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
         <v>32</v>
-      </c>
-      <c r="F40" t="s">
-        <v>83</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -2727,14 +2727,14 @@
       <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s">
         <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
         <v>54</v>
@@ -2747,14 +2747,14 @@
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C42" t="s">
         <v>31</v>
       </c>
       <c r="E42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" t="s">
         <v>57</v>
-      </c>
-      <c r="F42" t="s">
-        <v>83</v>
       </c>
       <c r="G42" t="s">
         <v>58</v>
@@ -2767,7 +2767,7 @@
       <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s">
         <v>90</v>
       </c>
       <c r="E43" t="s">
@@ -2787,14 +2787,14 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C44" t="s">
         <v>95</v>
       </c>
       <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
         <v>96</v>
-      </c>
-      <c r="F44" t="s">
-        <v>92</v>
       </c>
       <c r="G44" t="s">
         <v>97</v>
@@ -2807,7 +2807,7 @@
       <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C45" t="s">
         <v>90</v>
       </c>
       <c r="E45" t="s">
@@ -2827,7 +2827,7 @@
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s">
         <v>90</v>
       </c>
       <c r="E46" t="s">
@@ -2847,14 +2847,14 @@
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>95</v>
       </c>
       <c r="E47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" t="s">
         <v>101</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="s">
         <v>102</v>
@@ -2867,7 +2867,7 @@
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C48" t="s">
         <v>90</v>
       </c>
       <c r="E48" t="s">
@@ -2887,7 +2887,7 @@
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C49" t="s">
         <v>90</v>
       </c>
       <c r="E49" t="s">
@@ -2907,14 +2907,14 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C50" t="s">
         <v>95</v>
       </c>
       <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" t="s">
         <v>101</v>
-      </c>
-      <c r="F50" t="s">
-        <v>92</v>
       </c>
       <c r="G50" t="s">
         <v>102</v>
@@ -2927,7 +2927,7 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>90</v>
       </c>
       <c r="E51" t="s">
@@ -2947,14 +2947,14 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
         <v>95</v>
       </c>
       <c r="E52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" t="s">
         <v>108</v>
-      </c>
-      <c r="F52" t="s">
-        <v>92</v>
       </c>
       <c r="G52" t="s">
         <v>109</v>
@@ -2967,14 +2967,14 @@
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="D53" t="s">
-        <v>10</v>
+      <c r="C53" t="s">
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
@@ -3017,10 +3017,10 @@
         <v>113</v>
       </c>
       <c r="E55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" t="s">
         <v>118</v>
-      </c>
-      <c r="F55" t="s">
-        <v>115</v>
       </c>
       <c r="G55" t="s">
         <v>119</v>
@@ -3040,10 +3040,10 @@
         <v>113</v>
       </c>
       <c r="E56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" t="s">
         <v>121</v>
-      </c>
-      <c r="F56" t="s">
-        <v>115</v>
       </c>
       <c r="G56" t="s">
         <v>122</v>
@@ -3057,16 +3057,16 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" t="s">
         <v>125</v>
-      </c>
-      <c r="F57" t="s">
-        <v>115</v>
       </c>
       <c r="G57" t="s">
         <v>126</v>
@@ -3086,10 +3086,10 @@
         <v>113</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>118</v>
-      </c>
-      <c r="F58" t="s">
-        <v>115</v>
       </c>
       <c r="G58" t="s">
         <v>119</v>
@@ -3109,10 +3109,10 @@
         <v>113</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>118</v>
-      </c>
-      <c r="F59" t="s">
-        <v>115</v>
       </c>
       <c r="G59" t="s">
         <v>119</v>
@@ -3132,10 +3132,10 @@
         <v>113</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>118</v>
-      </c>
-      <c r="F60" t="s">
-        <v>115</v>
       </c>
       <c r="G60" t="s">
         <v>119</v>
@@ -3155,10 +3155,10 @@
         <v>113</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>118</v>
-      </c>
-      <c r="F61" t="s">
-        <v>115</v>
       </c>
       <c r="G61" t="s">
         <v>119</v>
@@ -3178,10 +3178,10 @@
         <v>113</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>118</v>
-      </c>
-      <c r="F62" t="s">
-        <v>115</v>
       </c>
       <c r="G62" t="s">
         <v>119</v>
@@ -3201,10 +3201,10 @@
         <v>113</v>
       </c>
       <c r="E63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" t="s">
         <v>118</v>
-      </c>
-      <c r="F63" t="s">
-        <v>115</v>
       </c>
       <c r="G63" t="s">
         <v>133</v>
@@ -3224,10 +3224,10 @@
         <v>113</v>
       </c>
       <c r="E64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" t="s">
         <v>118</v>
-      </c>
-      <c r="F64" t="s">
-        <v>115</v>
       </c>
       <c r="G64" t="s">
         <v>133</v>
@@ -3247,10 +3247,10 @@
         <v>113</v>
       </c>
       <c r="E65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" t="s">
         <v>136</v>
-      </c>
-      <c r="F65" t="s">
-        <v>115</v>
       </c>
       <c r="G65" t="s">
         <v>137</v>
@@ -3293,10 +3293,10 @@
         <v>113</v>
       </c>
       <c r="E67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" t="s">
         <v>118</v>
-      </c>
-      <c r="F67" t="s">
-        <v>115</v>
       </c>
       <c r="G67" t="s">
         <v>119</v>
@@ -3362,10 +3362,10 @@
         <v>113</v>
       </c>
       <c r="E70" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" t="s">
         <v>121</v>
-      </c>
-      <c r="F70" t="s">
-        <v>115</v>
       </c>
       <c r="G70" t="s">
         <v>122</v>
@@ -3385,10 +3385,10 @@
         <v>113</v>
       </c>
       <c r="E71" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" t="s">
         <v>121</v>
-      </c>
-      <c r="F71" t="s">
-        <v>115</v>
       </c>
       <c r="G71" t="s">
         <v>122</v>
@@ -3425,16 +3425,16 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E73" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" t="s">
         <v>148</v>
-      </c>
-      <c r="F73" t="s">
-        <v>115</v>
       </c>
       <c r="G73" t="s">
         <v>149</v>
@@ -3448,16 +3448,16 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E74" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" t="s">
         <v>151</v>
-      </c>
-      <c r="F74" t="s">
-        <v>115</v>
       </c>
       <c r="G74" t="s">
         <v>152</v>
@@ -3471,16 +3471,16 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E75" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" t="s">
         <v>154</v>
-      </c>
-      <c r="F75" t="s">
-        <v>115</v>
       </c>
       <c r="G75" t="s">
         <v>155</v>
@@ -3494,16 +3494,16 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D76" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E76" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" t="s">
         <v>148</v>
-      </c>
-      <c r="F76" t="s">
-        <v>115</v>
       </c>
       <c r="G76" t="s">
         <v>149</v>
@@ -3517,16 +3517,16 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E77" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" t="s">
         <v>148</v>
-      </c>
-      <c r="F77" t="s">
-        <v>115</v>
       </c>
       <c r="G77" t="s">
         <v>149</v>
@@ -3540,16 +3540,16 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E78" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>115</v>
       </c>
       <c r="G78" t="s">
         <v>152</v>
@@ -3563,16 +3563,16 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E79" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" t="s">
         <v>160</v>
-      </c>
-      <c r="F79" t="s">
-        <v>115</v>
       </c>
       <c r="G79" t="s">
         <v>161</v>
@@ -3586,16 +3586,16 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="E80" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80" t="s">
         <v>164</v>
-      </c>
-      <c r="F80" t="s">
-        <v>115</v>
       </c>
       <c r="G80" t="s">
         <v>165</v>
@@ -3609,16 +3609,16 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="E81" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" t="s">
         <v>164</v>
-      </c>
-      <c r="F81" t="s">
-        <v>115</v>
       </c>
       <c r="G81" t="s">
         <v>165</v>
@@ -3632,16 +3632,16 @@
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="E82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F82" t="s">
         <v>164</v>
-      </c>
-      <c r="F82" t="s">
-        <v>115</v>
       </c>
       <c r="G82" t="s">
         <v>165</v>
@@ -3684,10 +3684,10 @@
         <v>113</v>
       </c>
       <c r="E84" t="s">
+        <v>114</v>
+      </c>
+      <c r="F84" t="s">
         <v>170</v>
-      </c>
-      <c r="F84" t="s">
-        <v>115</v>
       </c>
       <c r="G84" t="s">
         <v>171</v>
@@ -3707,10 +3707,10 @@
         <v>113</v>
       </c>
       <c r="E85" t="s">
+        <v>114</v>
+      </c>
+      <c r="F85" t="s">
         <v>118</v>
-      </c>
-      <c r="F85" t="s">
-        <v>115</v>
       </c>
       <c r="G85" t="s">
         <v>173</v>
@@ -3724,16 +3724,16 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="E86" t="s">
+        <v>114</v>
+      </c>
+      <c r="F86" t="s">
         <v>175</v>
-      </c>
-      <c r="F86" t="s">
-        <v>115</v>
       </c>
       <c r="G86" t="s">
         <v>176</v>
@@ -3753,10 +3753,10 @@
         <v>113</v>
       </c>
       <c r="E87" t="s">
+        <v>114</v>
+      </c>
+      <c r="F87" t="s">
         <v>118</v>
-      </c>
-      <c r="F87" t="s">
-        <v>115</v>
       </c>
       <c r="G87" t="s">
         <v>173</v>
@@ -3776,10 +3776,10 @@
         <v>113</v>
       </c>
       <c r="E88" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" t="s">
         <v>118</v>
-      </c>
-      <c r="F88" t="s">
-        <v>115</v>
       </c>
       <c r="G88" t="s">
         <v>119</v>
@@ -3799,10 +3799,10 @@
         <v>113</v>
       </c>
       <c r="E89" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" t="s">
         <v>118</v>
-      </c>
-      <c r="F89" t="s">
-        <v>115</v>
       </c>
       <c r="G89" t="s">
         <v>119</v>
@@ -3816,16 +3816,16 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E90" t="s">
+        <v>114</v>
+      </c>
+      <c r="F90" t="s">
         <v>125</v>
-      </c>
-      <c r="F90" t="s">
-        <v>115</v>
       </c>
       <c r="G90" t="s">
         <v>126</v>
@@ -3839,16 +3839,16 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="E91" t="s">
+        <v>114</v>
+      </c>
+      <c r="F91" t="s">
         <v>183</v>
-      </c>
-      <c r="F91" t="s">
-        <v>115</v>
       </c>
       <c r="G91" t="s">
         <v>184</v>
@@ -3862,16 +3862,16 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E92" t="s">
+        <v>114</v>
+      </c>
+      <c r="F92" t="s">
         <v>125</v>
-      </c>
-      <c r="F92" t="s">
-        <v>115</v>
       </c>
       <c r="G92" t="s">
         <v>126</v>
@@ -3891,10 +3891,10 @@
         <v>113</v>
       </c>
       <c r="E93" t="s">
+        <v>114</v>
+      </c>
+      <c r="F93" t="s">
         <v>121</v>
-      </c>
-      <c r="F93" t="s">
-        <v>115</v>
       </c>
       <c r="G93" t="s">
         <v>122</v>
@@ -3908,16 +3908,16 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E94" t="s">
+        <v>114</v>
+      </c>
+      <c r="F94" t="s">
         <v>125</v>
-      </c>
-      <c r="F94" t="s">
-        <v>115</v>
       </c>
       <c r="G94" t="s">
         <v>126</v>
@@ -3937,10 +3937,10 @@
         <v>113</v>
       </c>
       <c r="E95" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>115</v>
       </c>
       <c r="G95" t="s">
         <v>190</v>
@@ -3954,16 +3954,16 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" t="s">
         <v>192</v>
       </c>
-      <c r="D96" t="s">
-        <v>124</v>
-      </c>
       <c r="E96" t="s">
+        <v>114</v>
+      </c>
+      <c r="F96" t="s">
         <v>125</v>
-      </c>
-      <c r="F96" t="s">
-        <v>115</v>
       </c>
       <c r="G96" t="s">
         <v>126</v>
@@ -3977,16 +3977,16 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" t="s">
         <v>192</v>
       </c>
-      <c r="D97" t="s">
-        <v>124</v>
-      </c>
       <c r="E97" t="s">
+        <v>114</v>
+      </c>
+      <c r="F97" t="s">
         <v>125</v>
-      </c>
-      <c r="F97" t="s">
-        <v>115</v>
       </c>
       <c r="G97" t="s">
         <v>126</v>
@@ -4000,16 +4000,16 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" t="s">
         <v>192</v>
       </c>
-      <c r="D98" t="s">
-        <v>195</v>
-      </c>
       <c r="E98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" t="s">
         <v>196</v>
-      </c>
-      <c r="F98" t="s">
-        <v>115</v>
       </c>
       <c r="G98" t="s">
         <v>197</v>
@@ -4023,16 +4023,16 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" t="s">
         <v>192</v>
       </c>
-      <c r="D99" t="s">
-        <v>124</v>
-      </c>
       <c r="E99" t="s">
+        <v>114</v>
+      </c>
+      <c r="F99" t="s">
         <v>125</v>
-      </c>
-      <c r="F99" t="s">
-        <v>115</v>
       </c>
       <c r="G99" t="s">
         <v>126</v>
@@ -4046,16 +4046,16 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" t="s">
         <v>192</v>
       </c>
-      <c r="D100" t="s">
-        <v>124</v>
-      </c>
       <c r="E100" t="s">
+        <v>114</v>
+      </c>
+      <c r="F100" t="s">
         <v>154</v>
-      </c>
-      <c r="F100" t="s">
-        <v>115</v>
       </c>
       <c r="G100" t="s">
         <v>155</v>
@@ -4069,16 +4069,16 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" t="s">
         <v>192</v>
       </c>
-      <c r="D101" t="s">
-        <v>124</v>
-      </c>
       <c r="E101" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101" t="s">
         <v>125</v>
-      </c>
-      <c r="F101" t="s">
-        <v>115</v>
       </c>
       <c r="G101" t="s">
         <v>126</v>
@@ -4091,7 +4091,7 @@
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="D102" t="s">
+      <c r="C102" t="s">
         <v>182</v>
       </c>
       <c r="E102" t="s">
@@ -4111,7 +4111,7 @@
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="D103" t="s">
+      <c r="C103" t="s">
         <v>182</v>
       </c>
       <c r="E103" t="s">
@@ -4131,7 +4131,7 @@
       <c r="B104" t="s">
         <v>8</v>
       </c>
-      <c r="D104" t="s">
+      <c r="C104" t="s">
         <v>182</v>
       </c>
       <c r="E104" t="s">
@@ -4151,14 +4151,14 @@
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="D105" t="s">
+      <c r="C105" t="s">
         <v>182</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>208</v>
-      </c>
-      <c r="F105" t="s">
-        <v>203</v>
       </c>
       <c r="G105" t="s">
         <v>209</v>
@@ -4171,7 +4171,7 @@
       <c r="B106" t="s">
         <v>8</v>
       </c>
-      <c r="D106" t="s">
+      <c r="C106" t="s">
         <v>182</v>
       </c>
       <c r="E106" t="s">
@@ -4191,14 +4191,14 @@
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="D107" t="s">
+      <c r="C107" t="s">
         <v>182</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>183</v>
-      </c>
-      <c r="F107" t="s">
-        <v>203</v>
       </c>
       <c r="G107" t="s">
         <v>184</v>
@@ -4211,14 +4211,14 @@
       <c r="B108" t="s">
         <v>8</v>
       </c>
-      <c r="D108" t="s">
+      <c r="C108" t="s">
         <v>182</v>
       </c>
       <c r="E108" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>203</v>
       </c>
       <c r="G108" t="s">
         <v>214</v>
@@ -4231,14 +4231,14 @@
       <c r="B109" t="s">
         <v>8</v>
       </c>
-      <c r="D109" t="s">
+      <c r="C109" t="s">
         <v>90</v>
       </c>
       <c r="E109" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" t="s">
         <v>216</v>
-      </c>
-      <c r="F109" t="s">
-        <v>203</v>
       </c>
       <c r="G109" t="s">
         <v>217</v>
@@ -4251,14 +4251,14 @@
       <c r="B110" t="s">
         <v>8</v>
       </c>
-      <c r="D110" t="s">
+      <c r="C110" t="s">
         <v>90</v>
       </c>
       <c r="E110" t="s">
+        <v>202</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>203</v>
       </c>
       <c r="G110" t="s">
         <v>220</v>
@@ -4271,7 +4271,7 @@
       <c r="B111" t="s">
         <v>8</v>
       </c>
-      <c r="D111" t="s">
+      <c r="C111" t="s">
         <v>182</v>
       </c>
       <c r="E111" t="s">
@@ -4291,14 +4291,14 @@
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="D112" t="s">
+      <c r="C112" t="s">
         <v>223</v>
       </c>
       <c r="E112" t="s">
+        <v>202</v>
+      </c>
+      <c r="F112" t="s">
         <v>224</v>
-      </c>
-      <c r="F112" t="s">
-        <v>203</v>
       </c>
       <c r="G112" t="s">
         <v>225</v>
@@ -4311,14 +4311,14 @@
       <c r="B113" t="s">
         <v>8</v>
       </c>
-      <c r="D113" t="s">
-        <v>113</v>
+      <c r="C113" t="s">
+        <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="F113" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="G113" t="s">
         <v>143</v>
@@ -4331,14 +4331,14 @@
       <c r="B114" t="s">
         <v>8</v>
       </c>
-      <c r="D114" t="s">
+      <c r="C114" t="s">
         <v>124</v>
       </c>
       <c r="E114" t="s">
+        <v>202</v>
+      </c>
+      <c r="F114" t="s">
         <v>151</v>
-      </c>
-      <c r="F114" t="s">
-        <v>203</v>
       </c>
       <c r="G114" t="s">
         <v>152</v>
@@ -4351,14 +4351,14 @@
       <c r="B115" t="s">
         <v>8</v>
       </c>
-      <c r="D115" t="s">
+      <c r="C115" t="s">
         <v>182</v>
       </c>
       <c r="E115" t="s">
+        <v>202</v>
+      </c>
+      <c r="F115" t="s">
         <v>183</v>
-      </c>
-      <c r="F115" t="s">
-        <v>203</v>
       </c>
       <c r="G115" t="s">
         <v>184</v>
@@ -4371,14 +4371,14 @@
       <c r="B116" t="s">
         <v>8</v>
       </c>
-      <c r="D116" t="s">
+      <c r="C116" t="s">
         <v>223</v>
       </c>
       <c r="E116" t="s">
+        <v>202</v>
+      </c>
+      <c r="F116" t="s">
         <v>230</v>
-      </c>
-      <c r="F116" t="s">
-        <v>203</v>
       </c>
       <c r="G116" t="s">
         <v>231</v>
@@ -4391,14 +4391,14 @@
       <c r="B117" t="s">
         <v>8</v>
       </c>
-      <c r="D117" t="s">
+      <c r="C117" t="s">
         <v>223</v>
       </c>
       <c r="E117" t="s">
+        <v>202</v>
+      </c>
+      <c r="F117" t="s">
         <v>224</v>
-      </c>
-      <c r="F117" t="s">
-        <v>203</v>
       </c>
       <c r="G117" t="s">
         <v>225</v>
@@ -4411,14 +4411,14 @@
       <c r="B118" t="s">
         <v>8</v>
       </c>
-      <c r="D118" t="s">
+      <c r="C118" t="s">
         <v>163</v>
       </c>
       <c r="E118" t="s">
+        <v>202</v>
+      </c>
+      <c r="F118" t="s">
         <v>164</v>
-      </c>
-      <c r="F118" t="s">
-        <v>203</v>
       </c>
       <c r="G118" t="s">
         <v>234</v>
@@ -4431,14 +4431,14 @@
       <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="D119" t="s">
+      <c r="C119" t="s">
         <v>182</v>
       </c>
       <c r="E119" t="s">
+        <v>202</v>
+      </c>
+      <c r="F119" t="s">
         <v>183</v>
-      </c>
-      <c r="F119" t="s">
-        <v>203</v>
       </c>
       <c r="G119" t="s">
         <v>184</v>
@@ -4451,14 +4451,14 @@
       <c r="B120" t="s">
         <v>8</v>
       </c>
-      <c r="D120" t="s">
-        <v>113</v>
+      <c r="C120" t="s">
+        <v>112</v>
       </c>
       <c r="E120" t="s">
+        <v>237</v>
+      </c>
+      <c r="F120" t="s">
         <v>170</v>
-      </c>
-      <c r="F120" t="s">
-        <v>237</v>
       </c>
       <c r="G120" t="s">
         <v>171</v>
@@ -4471,14 +4471,14 @@
       <c r="B121" t="s">
         <v>8</v>
       </c>
-      <c r="D121" t="s">
-        <v>113</v>
+      <c r="C121" t="s">
+        <v>112</v>
       </c>
       <c r="E121" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="G121" t="s">
         <v>143</v>
@@ -4491,14 +4491,14 @@
       <c r="B122" t="s">
         <v>8</v>
       </c>
-      <c r="D122" t="s">
-        <v>113</v>
+      <c r="C122" t="s">
+        <v>112</v>
       </c>
       <c r="E122" t="s">
+        <v>237</v>
+      </c>
+      <c r="F122" t="s">
         <v>170</v>
-      </c>
-      <c r="F122" t="s">
-        <v>237</v>
       </c>
       <c r="G122" t="s">
         <v>171</v>
@@ -4511,14 +4511,14 @@
       <c r="B123" t="s">
         <v>8</v>
       </c>
-      <c r="D123" t="s">
-        <v>113</v>
+      <c r="C123" t="s">
+        <v>112</v>
       </c>
       <c r="E123" t="s">
+        <v>237</v>
+      </c>
+      <c r="F123" t="s">
         <v>170</v>
-      </c>
-      <c r="F123" t="s">
-        <v>237</v>
       </c>
       <c r="G123" t="s">
         <v>171</v>
@@ -4531,14 +4531,14 @@
       <c r="B124" t="s">
         <v>8</v>
       </c>
-      <c r="D124" t="s">
+      <c r="C124" t="s">
         <v>163</v>
       </c>
       <c r="E124" t="s">
+        <v>237</v>
+      </c>
+      <c r="F124" t="s">
         <v>242</v>
-      </c>
-      <c r="F124" t="s">
-        <v>237</v>
       </c>
       <c r="G124" t="s">
         <v>243</v>
@@ -4551,14 +4551,14 @@
       <c r="B125" t="s">
         <v>8</v>
       </c>
-      <c r="D125" t="s">
+      <c r="C125" t="s">
         <v>163</v>
       </c>
       <c r="E125" t="s">
+        <v>237</v>
+      </c>
+      <c r="F125" t="s">
         <v>242</v>
-      </c>
-      <c r="F125" t="s">
-        <v>237</v>
       </c>
       <c r="G125" t="s">
         <v>243</v>
@@ -4571,14 +4571,14 @@
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="D126" t="s">
+      <c r="C126" t="s">
         <v>163</v>
       </c>
       <c r="E126" t="s">
+        <v>237</v>
+      </c>
+      <c r="F126" t="s">
         <v>242</v>
-      </c>
-      <c r="F126" t="s">
-        <v>237</v>
       </c>
       <c r="G126" t="s">
         <v>243</v>
@@ -4591,14 +4591,14 @@
       <c r="B127" t="s">
         <v>8</v>
       </c>
-      <c r="D127" t="s">
+      <c r="C127" t="s">
         <v>163</v>
       </c>
       <c r="E127" t="s">
+        <v>237</v>
+      </c>
+      <c r="F127" t="s">
         <v>242</v>
-      </c>
-      <c r="F127" t="s">
-        <v>237</v>
       </c>
       <c r="G127" t="s">
         <v>243</v>
@@ -4611,14 +4611,14 @@
       <c r="B128" t="s">
         <v>8</v>
       </c>
-      <c r="D128" t="s">
+      <c r="C128" t="s">
         <v>163</v>
       </c>
       <c r="E128" t="s">
+        <v>237</v>
+      </c>
+      <c r="F128" t="s">
         <v>242</v>
-      </c>
-      <c r="F128" t="s">
-        <v>237</v>
       </c>
       <c r="G128" t="s">
         <v>243</v>
@@ -4631,14 +4631,14 @@
       <c r="B129" t="s">
         <v>8</v>
       </c>
-      <c r="D129" t="s">
+      <c r="C129" t="s">
         <v>163</v>
       </c>
       <c r="E129" t="s">
+        <v>237</v>
+      </c>
+      <c r="F129" t="s">
         <v>242</v>
-      </c>
-      <c r="F129" t="s">
-        <v>237</v>
       </c>
       <c r="G129" t="s">
         <v>249</v>
@@ -4651,14 +4651,14 @@
       <c r="B130" t="s">
         <v>8</v>
       </c>
-      <c r="D130" t="s">
+      <c r="C130" t="s">
         <v>163</v>
       </c>
       <c r="E130" t="s">
+        <v>237</v>
+      </c>
+      <c r="F130" t="s">
         <v>242</v>
-      </c>
-      <c r="F130" t="s">
-        <v>237</v>
       </c>
       <c r="G130" t="s">
         <v>251</v>
@@ -4671,14 +4671,14 @@
       <c r="B131" t="s">
         <v>8</v>
       </c>
-      <c r="D131" t="s">
+      <c r="C131" t="s">
         <v>163</v>
       </c>
       <c r="E131" t="s">
+        <v>237</v>
+      </c>
+      <c r="F131" t="s">
         <v>242</v>
-      </c>
-      <c r="F131" t="s">
-        <v>237</v>
       </c>
       <c r="G131" t="s">
         <v>253</v>
@@ -4691,14 +4691,14 @@
       <c r="B132" t="s">
         <v>8</v>
       </c>
-      <c r="D132" t="s">
+      <c r="C132" t="s">
         <v>163</v>
       </c>
       <c r="E132" t="s">
+        <v>237</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
-      </c>
-      <c r="F132" t="s">
-        <v>237</v>
       </c>
       <c r="G132" t="s">
         <v>256</v>
@@ -4711,14 +4711,14 @@
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="D133" t="s">
-        <v>113</v>
+      <c r="C133" t="s">
+        <v>112</v>
       </c>
       <c r="E133" t="s">
+        <v>237</v>
+      </c>
+      <c r="F133" t="s">
         <v>189</v>
-      </c>
-      <c r="F133" t="s">
-        <v>237</v>
       </c>
       <c r="G133" t="s">
         <v>190</v>
@@ -4731,14 +4731,14 @@
       <c r="B134" t="s">
         <v>8</v>
       </c>
-      <c r="D134" t="s">
+      <c r="C134" t="s">
         <v>163</v>
       </c>
       <c r="E134" t="s">
+        <v>259</v>
+      </c>
+      <c r="F134" t="s">
         <v>175</v>
-      </c>
-      <c r="F134" t="s">
-        <v>259</v>
       </c>
       <c r="G134" t="s">
         <v>176</v>
@@ -4751,14 +4751,14 @@
       <c r="B135" t="s">
         <v>8</v>
       </c>
-      <c r="D135" t="s">
+      <c r="C135" t="s">
         <v>163</v>
       </c>
       <c r="E135" t="s">
+        <v>259</v>
+      </c>
+      <c r="F135" t="s">
         <v>175</v>
-      </c>
-      <c r="F135" t="s">
-        <v>259</v>
       </c>
       <c r="G135" t="s">
         <v>176</v>
@@ -4771,14 +4771,14 @@
       <c r="B136" t="s">
         <v>8</v>
       </c>
-      <c r="D136" t="s">
+      <c r="C136" t="s">
         <v>163</v>
       </c>
       <c r="E136" t="s">
+        <v>259</v>
+      </c>
+      <c r="F136" t="s">
         <v>175</v>
-      </c>
-      <c r="F136" t="s">
-        <v>259</v>
       </c>
       <c r="G136" t="s">
         <v>176</v>
@@ -4791,14 +4791,14 @@
       <c r="B137" t="s">
         <v>8</v>
       </c>
-      <c r="D137" t="s">
+      <c r="C137" t="s">
         <v>163</v>
       </c>
       <c r="E137" t="s">
+        <v>259</v>
+      </c>
+      <c r="F137" t="s">
         <v>175</v>
-      </c>
-      <c r="F137" t="s">
-        <v>259</v>
       </c>
       <c r="G137" t="s">
         <v>176</v>
@@ -4811,14 +4811,14 @@
       <c r="B138" t="s">
         <v>8</v>
       </c>
-      <c r="D138" t="s">
+      <c r="C138" t="s">
         <v>163</v>
       </c>
       <c r="E138" t="s">
+        <v>259</v>
+      </c>
+      <c r="F138" t="s">
         <v>175</v>
-      </c>
-      <c r="F138" t="s">
-        <v>259</v>
       </c>
       <c r="G138" t="s">
         <v>176</v>
@@ -4831,14 +4831,14 @@
       <c r="B139" t="s">
         <v>8</v>
       </c>
-      <c r="D139" t="s">
+      <c r="C139" t="s">
         <v>223</v>
       </c>
       <c r="E139" t="s">
+        <v>259</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>259</v>
       </c>
       <c r="G139" t="s">
         <v>266</v>
@@ -4851,14 +4851,14 @@
       <c r="B140" t="s">
         <v>8</v>
       </c>
-      <c r="D140" t="s">
+      <c r="C140" t="s">
         <v>163</v>
       </c>
       <c r="E140" t="s">
+        <v>259</v>
+      </c>
+      <c r="F140" t="s">
         <v>175</v>
-      </c>
-      <c r="F140" t="s">
-        <v>259</v>
       </c>
       <c r="G140" t="s">
         <v>176</v>
@@ -4872,10 +4872,10 @@
         <v>8</v>
       </c>
       <c r="C141" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141" t="s">
         <v>269</v>
-      </c>
-      <c r="D141" t="s">
-        <v>163</v>
       </c>
       <c r="E141" t="s">
         <v>270</v>
@@ -4895,10 +4895,10 @@
         <v>8</v>
       </c>
       <c r="C142" t="s">
+        <v>163</v>
+      </c>
+      <c r="D142" t="s">
         <v>269</v>
-      </c>
-      <c r="D142" t="s">
-        <v>163</v>
       </c>
       <c r="E142" t="s">
         <v>270</v>
@@ -4918,16 +4918,16 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
+        <v>163</v>
+      </c>
+      <c r="D143" t="s">
         <v>269</v>
       </c>
-      <c r="D143" t="s">
-        <v>163</v>
-      </c>
       <c r="E143" t="s">
+        <v>270</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
-      </c>
-      <c r="F143" t="s">
-        <v>271</v>
       </c>
       <c r="G143" t="s">
         <v>276</v>
@@ -4941,16 +4941,16 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
+        <v>163</v>
+      </c>
+      <c r="D144" t="s">
         <v>269</v>
       </c>
-      <c r="D144" t="s">
-        <v>163</v>
-      </c>
       <c r="E144" t="s">
+        <v>270</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>271</v>
       </c>
       <c r="G144" t="s">
         <v>276</v>
@@ -4964,16 +4964,16 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
+        <v>163</v>
+      </c>
+      <c r="D145" t="s">
         <v>269</v>
       </c>
-      <c r="D145" t="s">
-        <v>163</v>
-      </c>
       <c r="E145" t="s">
+        <v>270</v>
+      </c>
+      <c r="F145" t="s">
         <v>275</v>
-      </c>
-      <c r="F145" t="s">
-        <v>271</v>
       </c>
       <c r="G145" t="s">
         <v>276</v>
@@ -4987,10 +4987,10 @@
         <v>8</v>
       </c>
       <c r="C146" t="s">
+        <v>163</v>
+      </c>
+      <c r="D146" t="s">
         <v>269</v>
-      </c>
-      <c r="D146" t="s">
-        <v>163</v>
       </c>
       <c r="E146" t="s">
         <v>270</v>
@@ -5010,10 +5010,10 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
+        <v>163</v>
+      </c>
+      <c r="D147" t="s">
         <v>281</v>
-      </c>
-      <c r="D147" t="s">
-        <v>163</v>
       </c>
       <c r="E147" t="s">
         <v>270</v>
@@ -5033,10 +5033,10 @@
         <v>8</v>
       </c>
       <c r="C148" t="s">
+        <v>163</v>
+      </c>
+      <c r="D148" t="s">
         <v>281</v>
-      </c>
-      <c r="D148" t="s">
-        <v>163</v>
       </c>
       <c r="E148" t="s">
         <v>270</v>
@@ -5056,10 +5056,10 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
+        <v>163</v>
+      </c>
+      <c r="D149" t="s">
         <v>281</v>
-      </c>
-      <c r="D149" t="s">
-        <v>163</v>
       </c>
       <c r="E149" t="s">
         <v>270</v>
@@ -5079,10 +5079,10 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" t="s">
         <v>281</v>
-      </c>
-      <c r="D150" t="s">
-        <v>163</v>
       </c>
       <c r="E150" t="s">
         <v>270</v>
@@ -5102,10 +5102,10 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
+        <v>163</v>
+      </c>
+      <c r="D151" t="s">
         <v>281</v>
-      </c>
-      <c r="D151" t="s">
-        <v>163</v>
       </c>
       <c r="E151" t="s">
         <v>270</v>
@@ -5125,10 +5125,10 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
+        <v>163</v>
+      </c>
+      <c r="D152" t="s">
         <v>281</v>
-      </c>
-      <c r="D152" t="s">
-        <v>163</v>
       </c>
       <c r="E152" t="s">
         <v>270</v>
@@ -5148,10 +5148,10 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
+        <v>163</v>
+      </c>
+      <c r="D153" t="s">
         <v>281</v>
-      </c>
-      <c r="D153" t="s">
-        <v>163</v>
       </c>
       <c r="E153" t="s">
         <v>270</v>
@@ -5171,10 +5171,10 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
+        <v>163</v>
+      </c>
+      <c r="D154" t="s">
         <v>281</v>
-      </c>
-      <c r="D154" t="s">
-        <v>163</v>
       </c>
       <c r="E154" t="s">
         <v>270</v>
@@ -5194,10 +5194,10 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
+        <v>163</v>
+      </c>
+      <c r="D155" t="s">
         <v>281</v>
-      </c>
-      <c r="D155" t="s">
-        <v>163</v>
       </c>
       <c r="E155" t="s">
         <v>270</v>
@@ -5217,10 +5217,10 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
+        <v>163</v>
+      </c>
+      <c r="D156" t="s">
         <v>291</v>
-      </c>
-      <c r="D156" t="s">
-        <v>163</v>
       </c>
       <c r="E156" t="s">
         <v>270</v>
@@ -5240,10 +5240,10 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
+        <v>163</v>
+      </c>
+      <c r="D157" t="s">
         <v>291</v>
-      </c>
-      <c r="D157" t="s">
-        <v>163</v>
       </c>
       <c r="E157" t="s">
         <v>270</v>
@@ -5263,10 +5263,10 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
+        <v>163</v>
+      </c>
+      <c r="D158" t="s">
         <v>291</v>
-      </c>
-      <c r="D158" t="s">
-        <v>163</v>
       </c>
       <c r="E158" t="s">
         <v>270</v>
@@ -5286,10 +5286,10 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
+        <v>163</v>
+      </c>
+      <c r="D159" t="s">
         <v>291</v>
-      </c>
-      <c r="D159" t="s">
-        <v>163</v>
       </c>
       <c r="E159" t="s">
         <v>270</v>
@@ -5309,10 +5309,10 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160" t="s">
         <v>291</v>
-      </c>
-      <c r="D160" t="s">
-        <v>163</v>
       </c>
       <c r="E160" t="s">
         <v>270</v>
@@ -5332,10 +5332,10 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
+        <v>163</v>
+      </c>
+      <c r="D161" t="s">
         <v>291</v>
-      </c>
-      <c r="D161" t="s">
-        <v>163</v>
       </c>
       <c r="E161" t="s">
         <v>270</v>
@@ -5355,10 +5355,10 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
+        <v>163</v>
+      </c>
+      <c r="D162" t="s">
         <v>299</v>
-      </c>
-      <c r="D162" t="s">
-        <v>163</v>
       </c>
       <c r="E162" t="s">
         <v>270</v>
@@ -5378,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
+        <v>163</v>
+      </c>
+      <c r="D163" t="s">
         <v>301</v>
-      </c>
-      <c r="D163" t="s">
-        <v>163</v>
       </c>
       <c r="E163" t="s">
         <v>270</v>
@@ -5401,10 +5401,10 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
+        <v>163</v>
+      </c>
+      <c r="D164" t="s">
         <v>304</v>
-      </c>
-      <c r="D164" t="s">
-        <v>163</v>
       </c>
       <c r="E164" t="s">
         <v>270</v>
@@ -5424,10 +5424,10 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
+        <v>163</v>
+      </c>
+      <c r="D165" t="s">
         <v>304</v>
-      </c>
-      <c r="D165" t="s">
-        <v>163</v>
       </c>
       <c r="E165" t="s">
         <v>270</v>
@@ -5447,10 +5447,10 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166" t="s">
         <v>304</v>
-      </c>
-      <c r="D166" t="s">
-        <v>163</v>
       </c>
       <c r="E166" t="s">
         <v>270</v>
@@ -5470,10 +5470,10 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
+        <v>163</v>
+      </c>
+      <c r="D167" t="s">
         <v>304</v>
-      </c>
-      <c r="D167" t="s">
-        <v>163</v>
       </c>
       <c r="E167" t="s">
         <v>270</v>
@@ -5493,10 +5493,10 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
+        <v>163</v>
+      </c>
+      <c r="D168" t="s">
         <v>304</v>
-      </c>
-      <c r="D168" t="s">
-        <v>163</v>
       </c>
       <c r="E168" t="s">
         <v>270</v>
@@ -5516,10 +5516,10 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
+        <v>163</v>
+      </c>
+      <c r="D169" t="s">
         <v>304</v>
-      </c>
-      <c r="D169" t="s">
-        <v>163</v>
       </c>
       <c r="E169" t="s">
         <v>270</v>
@@ -5539,10 +5539,10 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
+        <v>163</v>
+      </c>
+      <c r="D170" t="s">
         <v>304</v>
-      </c>
-      <c r="D170" t="s">
-        <v>163</v>
       </c>
       <c r="E170" t="s">
         <v>270</v>
@@ -5561,14 +5561,14 @@
       <c r="B171" t="s">
         <v>8</v>
       </c>
-      <c r="D171" t="s">
+      <c r="C171" t="s">
         <v>163</v>
       </c>
       <c r="E171" t="s">
+        <v>313</v>
+      </c>
+      <c r="F171" t="s">
         <v>164</v>
-      </c>
-      <c r="F171" t="s">
-        <v>313</v>
       </c>
       <c r="G171" t="s">
         <v>165</v>
@@ -5581,14 +5581,14 @@
       <c r="B172" t="s">
         <v>8</v>
       </c>
-      <c r="D172" t="s">
-        <v>113</v>
+      <c r="C172" t="s">
+        <v>112</v>
       </c>
       <c r="E172" t="s">
+        <v>313</v>
+      </c>
+      <c r="F172" t="s">
         <v>118</v>
-      </c>
-      <c r="F172" t="s">
-        <v>313</v>
       </c>
       <c r="G172" t="s">
         <v>119</v>
@@ -5601,14 +5601,14 @@
       <c r="B173" t="s">
         <v>8</v>
       </c>
-      <c r="D173" t="s">
+      <c r="C173" t="s">
         <v>163</v>
       </c>
       <c r="E173" t="s">
+        <v>313</v>
+      </c>
+      <c r="F173" t="s">
         <v>164</v>
-      </c>
-      <c r="F173" t="s">
-        <v>313</v>
       </c>
       <c r="G173" t="s">
         <v>165</v>
@@ -5621,14 +5621,14 @@
       <c r="B174" t="s">
         <v>8</v>
       </c>
-      <c r="D174" t="s">
+      <c r="C174" t="s">
         <v>163</v>
       </c>
       <c r="E174" t="s">
+        <v>313</v>
+      </c>
+      <c r="F174" t="s">
         <v>164</v>
-      </c>
-      <c r="F174" t="s">
-        <v>313</v>
       </c>
       <c r="G174" t="s">
         <v>165</v>
@@ -5641,14 +5641,14 @@
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="D175" t="s">
+      <c r="C175" t="s">
         <v>163</v>
       </c>
       <c r="E175" t="s">
+        <v>313</v>
+      </c>
+      <c r="F175" t="s">
         <v>164</v>
-      </c>
-      <c r="F175" t="s">
-        <v>313</v>
       </c>
       <c r="G175" t="s">
         <v>165</v>
@@ -5661,14 +5661,14 @@
       <c r="B176" t="s">
         <v>8</v>
       </c>
-      <c r="D176" t="s">
+      <c r="C176" t="s">
         <v>163</v>
       </c>
       <c r="E176" t="s">
+        <v>313</v>
+      </c>
+      <c r="F176" t="s">
         <v>164</v>
-      </c>
-      <c r="F176" t="s">
-        <v>313</v>
       </c>
       <c r="G176" t="s">
         <v>165</v>
@@ -5681,14 +5681,14 @@
       <c r="B177" t="s">
         <v>8</v>
       </c>
-      <c r="D177" t="s">
+      <c r="C177" t="s">
         <v>163</v>
       </c>
       <c r="E177" t="s">
+        <v>320</v>
+      </c>
+      <c r="F177" t="s">
         <v>164</v>
-      </c>
-      <c r="F177" t="s">
-        <v>320</v>
       </c>
       <c r="G177" t="s">
         <v>165</v>
@@ -5701,14 +5701,14 @@
       <c r="B178" t="s">
         <v>8</v>
       </c>
-      <c r="D178" t="s">
+      <c r="C178" t="s">
         <v>163</v>
       </c>
       <c r="E178" t="s">
+        <v>320</v>
+      </c>
+      <c r="F178" t="s">
         <v>164</v>
-      </c>
-      <c r="F178" t="s">
-        <v>320</v>
       </c>
       <c r="G178" t="s">
         <v>165</v>
@@ -5721,14 +5721,14 @@
       <c r="B179" t="s">
         <v>8</v>
       </c>
-      <c r="D179" t="s">
+      <c r="C179" t="s">
         <v>163</v>
       </c>
       <c r="E179" t="s">
+        <v>320</v>
+      </c>
+      <c r="F179" t="s">
         <v>164</v>
-      </c>
-      <c r="F179" t="s">
-        <v>320</v>
       </c>
       <c r="G179" t="s">
         <v>165</v>
@@ -5741,14 +5741,14 @@
       <c r="B180" t="s">
         <v>8</v>
       </c>
-      <c r="D180" t="s">
+      <c r="C180" t="s">
         <v>163</v>
       </c>
       <c r="E180" t="s">
+        <v>320</v>
+      </c>
+      <c r="F180" t="s">
         <v>164</v>
-      </c>
-      <c r="F180" t="s">
-        <v>320</v>
       </c>
       <c r="G180" t="s">
         <v>165</v>
@@ -5762,10 +5762,10 @@
         <v>8</v>
       </c>
       <c r="C181" t="s">
+        <v>163</v>
+      </c>
+      <c r="D181" t="s">
         <v>325</v>
-      </c>
-      <c r="D181" t="s">
-        <v>163</v>
       </c>
       <c r="E181" t="s">
         <v>326</v>
@@ -5785,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="C182" t="s">
+        <v>163</v>
+      </c>
+      <c r="D182" t="s">
         <v>325</v>
-      </c>
-      <c r="D182" t="s">
-        <v>163</v>
       </c>
       <c r="E182" t="s">
         <v>326</v>
@@ -5808,10 +5808,10 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
+        <v>163</v>
+      </c>
+      <c r="D183" t="s">
         <v>325</v>
-      </c>
-      <c r="D183" t="s">
-        <v>163</v>
       </c>
       <c r="E183" t="s">
         <v>326</v>
@@ -5831,10 +5831,10 @@
         <v>8</v>
       </c>
       <c r="C184" t="s">
+        <v>163</v>
+      </c>
+      <c r="D184" t="s">
         <v>325</v>
-      </c>
-      <c r="D184" t="s">
-        <v>163</v>
       </c>
       <c r="E184" t="s">
         <v>326</v>
@@ -5854,10 +5854,10 @@
         <v>8</v>
       </c>
       <c r="C185" t="s">
+        <v>163</v>
+      </c>
+      <c r="D185" t="s">
         <v>325</v>
-      </c>
-      <c r="D185" t="s">
-        <v>163</v>
       </c>
       <c r="E185" t="s">
         <v>326</v>
@@ -5877,10 +5877,10 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
+        <v>163</v>
+      </c>
+      <c r="D186" t="s">
         <v>325</v>
-      </c>
-      <c r="D186" t="s">
-        <v>163</v>
       </c>
       <c r="E186" t="s">
         <v>326</v>
@@ -5900,10 +5900,10 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
+        <v>163</v>
+      </c>
+      <c r="D187" t="s">
         <v>325</v>
-      </c>
-      <c r="D187" t="s">
-        <v>163</v>
       </c>
       <c r="E187" t="s">
         <v>326</v>
@@ -5923,10 +5923,10 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
+        <v>163</v>
+      </c>
+      <c r="D188" t="s">
         <v>325</v>
-      </c>
-      <c r="D188" t="s">
-        <v>163</v>
       </c>
       <c r="E188" t="s">
         <v>326</v>
@@ -5946,10 +5946,10 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
+        <v>163</v>
+      </c>
+      <c r="D189" t="s">
         <v>325</v>
-      </c>
-      <c r="D189" t="s">
-        <v>163</v>
       </c>
       <c r="E189" t="s">
         <v>326</v>
@@ -5969,10 +5969,10 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
+        <v>163</v>
+      </c>
+      <c r="D190" t="s">
         <v>325</v>
-      </c>
-      <c r="D190" t="s">
-        <v>163</v>
       </c>
       <c r="E190" t="s">
         <v>326</v>
@@ -5992,10 +5992,10 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
+        <v>163</v>
+      </c>
+      <c r="D191" t="s">
         <v>325</v>
-      </c>
-      <c r="D191" t="s">
-        <v>163</v>
       </c>
       <c r="E191" t="s">
         <v>326</v>
@@ -6015,10 +6015,10 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
+        <v>163</v>
+      </c>
+      <c r="D192" t="s">
         <v>325</v>
-      </c>
-      <c r="D192" t="s">
-        <v>163</v>
       </c>
       <c r="E192" t="s">
         <v>326</v>
@@ -6038,16 +6038,16 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
+        <v>163</v>
+      </c>
+      <c r="D193" t="s">
         <v>325</v>
       </c>
-      <c r="D193" t="s">
-        <v>163</v>
-      </c>
       <c r="E193" t="s">
+        <v>326</v>
+      </c>
+      <c r="F193" t="s">
         <v>275</v>
-      </c>
-      <c r="F193" t="s">
-        <v>327</v>
       </c>
       <c r="G193" t="s">
         <v>341</v>
@@ -6061,10 +6061,10 @@
         <v>8</v>
       </c>
       <c r="C194" t="s">
+        <v>163</v>
+      </c>
+      <c r="D194" t="s">
         <v>325</v>
-      </c>
-      <c r="D194" t="s">
-        <v>163</v>
       </c>
       <c r="E194" t="s">
         <v>326</v>
@@ -6084,10 +6084,10 @@
         <v>8</v>
       </c>
       <c r="C195" t="s">
+        <v>163</v>
+      </c>
+      <c r="D195" t="s">
         <v>325</v>
-      </c>
-      <c r="D195" t="s">
-        <v>163</v>
       </c>
       <c r="E195" t="s">
         <v>326</v>
@@ -6107,10 +6107,10 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
+        <v>163</v>
+      </c>
+      <c r="D196" t="s">
         <v>325</v>
-      </c>
-      <c r="D196" t="s">
-        <v>163</v>
       </c>
       <c r="E196" t="s">
         <v>326</v>
@@ -6130,10 +6130,10 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
+        <v>163</v>
+      </c>
+      <c r="D197" t="s">
         <v>325</v>
-      </c>
-      <c r="D197" t="s">
-        <v>163</v>
       </c>
       <c r="E197" t="s">
         <v>326</v>
@@ -6153,10 +6153,10 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
+        <v>163</v>
+      </c>
+      <c r="D198" t="s">
         <v>325</v>
-      </c>
-      <c r="D198" t="s">
-        <v>163</v>
       </c>
       <c r="E198" t="s">
         <v>326</v>
@@ -6176,10 +6176,10 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
+        <v>163</v>
+      </c>
+      <c r="D199" t="s">
         <v>348</v>
-      </c>
-      <c r="D199" t="s">
-        <v>163</v>
       </c>
       <c r="E199" t="s">
         <v>326</v>
@@ -6199,10 +6199,10 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
+        <v>163</v>
+      </c>
+      <c r="D200" t="s">
         <v>348</v>
-      </c>
-      <c r="D200" t="s">
-        <v>163</v>
       </c>
       <c r="E200" t="s">
         <v>326</v>
@@ -6222,10 +6222,10 @@
         <v>8</v>
       </c>
       <c r="C201" t="s">
+        <v>163</v>
+      </c>
+      <c r="D201" t="s">
         <v>348</v>
-      </c>
-      <c r="D201" t="s">
-        <v>163</v>
       </c>
       <c r="E201" t="s">
         <v>326</v>
@@ -6245,10 +6245,10 @@
         <v>8</v>
       </c>
       <c r="C202" t="s">
+        <v>163</v>
+      </c>
+      <c r="D202" t="s">
         <v>348</v>
-      </c>
-      <c r="D202" t="s">
-        <v>163</v>
       </c>
       <c r="E202" t="s">
         <v>326</v>
@@ -6268,16 +6268,16 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
+        <v>163</v>
+      </c>
+      <c r="D203" t="s">
         <v>348</v>
       </c>
-      <c r="D203" t="s">
-        <v>163</v>
-      </c>
       <c r="E203" t="s">
+        <v>326</v>
+      </c>
+      <c r="F203" t="s">
         <v>275</v>
-      </c>
-      <c r="F203" t="s">
-        <v>327</v>
       </c>
       <c r="G203" t="s">
         <v>341</v>
@@ -6291,10 +6291,10 @@
         <v>8</v>
       </c>
       <c r="C204" t="s">
+        <v>163</v>
+      </c>
+      <c r="D204" t="s">
         <v>348</v>
-      </c>
-      <c r="D204" t="s">
-        <v>163</v>
       </c>
       <c r="E204" t="s">
         <v>326</v>
@@ -6314,10 +6314,10 @@
         <v>8</v>
       </c>
       <c r="C205" t="s">
+        <v>163</v>
+      </c>
+      <c r="D205" t="s">
         <v>356</v>
-      </c>
-      <c r="D205" t="s">
-        <v>163</v>
       </c>
       <c r="E205" t="s">
         <v>326</v>
@@ -6337,10 +6337,10 @@
         <v>8</v>
       </c>
       <c r="C206" t="s">
+        <v>163</v>
+      </c>
+      <c r="D206" t="s">
         <v>356</v>
-      </c>
-      <c r="D206" t="s">
-        <v>163</v>
       </c>
       <c r="E206" t="s">
         <v>326</v>
@@ -6360,10 +6360,10 @@
         <v>8</v>
       </c>
       <c r="C207" t="s">
+        <v>163</v>
+      </c>
+      <c r="D207" t="s">
         <v>356</v>
-      </c>
-      <c r="D207" t="s">
-        <v>163</v>
       </c>
       <c r="E207" t="s">
         <v>326</v>
@@ -6383,16 +6383,16 @@
         <v>8</v>
       </c>
       <c r="C208" t="s">
+        <v>163</v>
+      </c>
+      <c r="D208" t="s">
         <v>356</v>
       </c>
-      <c r="D208" t="s">
-        <v>163</v>
-      </c>
       <c r="E208" t="s">
+        <v>326</v>
+      </c>
+      <c r="F208" t="s">
         <v>275</v>
-      </c>
-      <c r="F208" t="s">
-        <v>327</v>
       </c>
       <c r="G208" t="s">
         <v>341</v>
@@ -6406,10 +6406,10 @@
         <v>8</v>
       </c>
       <c r="C209" t="s">
+        <v>163</v>
+      </c>
+      <c r="D209" t="s">
         <v>356</v>
-      </c>
-      <c r="D209" t="s">
-        <v>163</v>
       </c>
       <c r="E209" t="s">
         <v>326</v>
@@ -6429,10 +6429,10 @@
         <v>8</v>
       </c>
       <c r="C210" t="s">
+        <v>163</v>
+      </c>
+      <c r="D210" t="s">
         <v>363</v>
-      </c>
-      <c r="D210" t="s">
-        <v>163</v>
       </c>
       <c r="E210" t="s">
         <v>364</v>
@@ -6452,10 +6452,10 @@
         <v>8</v>
       </c>
       <c r="C211" t="s">
+        <v>163</v>
+      </c>
+      <c r="D211" t="s">
         <v>363</v>
-      </c>
-      <c r="D211" t="s">
-        <v>163</v>
       </c>
       <c r="E211" t="s">
         <v>364</v>
@@ -6475,10 +6475,10 @@
         <v>8</v>
       </c>
       <c r="C212" t="s">
+        <v>163</v>
+      </c>
+      <c r="D212" t="s">
         <v>363</v>
-      </c>
-      <c r="D212" t="s">
-        <v>163</v>
       </c>
       <c r="E212" t="s">
         <v>364</v>
@@ -6498,10 +6498,10 @@
         <v>8</v>
       </c>
       <c r="C213" t="s">
+        <v>163</v>
+      </c>
+      <c r="D213" t="s">
         <v>363</v>
-      </c>
-      <c r="D213" t="s">
-        <v>163</v>
       </c>
       <c r="E213" t="s">
         <v>364</v>
@@ -6521,10 +6521,10 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
+        <v>163</v>
+      </c>
+      <c r="D214" t="s">
         <v>363</v>
-      </c>
-      <c r="D214" t="s">
-        <v>163</v>
       </c>
       <c r="E214" t="s">
         <v>364</v>
@@ -6544,16 +6544,16 @@
         <v>8</v>
       </c>
       <c r="C215" t="s">
+        <v>163</v>
+      </c>
+      <c r="D215" t="s">
         <v>363</v>
       </c>
-      <c r="D215" t="s">
-        <v>163</v>
-      </c>
       <c r="E215" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="F215" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="G215" t="s">
         <v>349</v>
@@ -6567,10 +6567,10 @@
         <v>8</v>
       </c>
       <c r="C216" t="s">
+        <v>163</v>
+      </c>
+      <c r="D216" t="s">
         <v>363</v>
-      </c>
-      <c r="D216" t="s">
-        <v>163</v>
       </c>
       <c r="E216" t="s">
         <v>364</v>
@@ -6590,10 +6590,10 @@
         <v>8</v>
       </c>
       <c r="C217" t="s">
+        <v>163</v>
+      </c>
+      <c r="D217" t="s">
         <v>363</v>
-      </c>
-      <c r="D217" t="s">
-        <v>163</v>
       </c>
       <c r="E217" t="s">
         <v>364</v>
@@ -6613,10 +6613,10 @@
         <v>8</v>
       </c>
       <c r="C218" t="s">
+        <v>163</v>
+      </c>
+      <c r="D218" t="s">
         <v>363</v>
-      </c>
-      <c r="D218" t="s">
-        <v>163</v>
       </c>
       <c r="E218" t="s">
         <v>364</v>
@@ -6636,10 +6636,10 @@
         <v>8</v>
       </c>
       <c r="C219" t="s">
+        <v>163</v>
+      </c>
+      <c r="D219" t="s">
         <v>363</v>
-      </c>
-      <c r="D219" t="s">
-        <v>163</v>
       </c>
       <c r="E219" t="s">
         <v>364</v>
@@ -6659,16 +6659,16 @@
         <v>8</v>
       </c>
       <c r="C220" t="s">
+        <v>163</v>
+      </c>
+      <c r="D220" t="s">
         <v>363</v>
       </c>
-      <c r="D220" t="s">
-        <v>163</v>
-      </c>
       <c r="E220" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="F220" t="s">
-        <v>365</v>
+        <v>271</v>
       </c>
       <c r="G220" t="s">
         <v>309</v>
@@ -6682,10 +6682,10 @@
         <v>8</v>
       </c>
       <c r="C221" t="s">
+        <v>163</v>
+      </c>
+      <c r="D221" t="s">
         <v>363</v>
-      </c>
-      <c r="D221" t="s">
-        <v>163</v>
       </c>
       <c r="E221" t="s">
         <v>364</v>
@@ -6705,10 +6705,10 @@
         <v>8</v>
       </c>
       <c r="C222" t="s">
+        <v>163</v>
+      </c>
+      <c r="D222" t="s">
         <v>363</v>
-      </c>
-      <c r="D222" t="s">
-        <v>163</v>
       </c>
       <c r="E222" t="s">
         <v>364</v>
@@ -6728,10 +6728,10 @@
         <v>8</v>
       </c>
       <c r="C223" t="s">
+        <v>163</v>
+      </c>
+      <c r="D223" t="s">
         <v>363</v>
-      </c>
-      <c r="D223" t="s">
-        <v>163</v>
       </c>
       <c r="E223" t="s">
         <v>364</v>
@@ -6751,10 +6751,10 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
+        <v>163</v>
+      </c>
+      <c r="D224" t="s">
         <v>363</v>
-      </c>
-      <c r="D224" t="s">
-        <v>163</v>
       </c>
       <c r="E224" t="s">
         <v>364</v>
@@ -6774,10 +6774,10 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
+        <v>163</v>
+      </c>
+      <c r="D225" t="s">
         <v>363</v>
-      </c>
-      <c r="D225" t="s">
-        <v>163</v>
       </c>
       <c r="E225" t="s">
         <v>364</v>
@@ -6797,16 +6797,16 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
+        <v>163</v>
+      </c>
+      <c r="D226" t="s">
         <v>363</v>
       </c>
-      <c r="D226" t="s">
-        <v>163</v>
-      </c>
       <c r="E226" t="s">
+        <v>364</v>
+      </c>
+      <c r="F226" t="s">
         <v>275</v>
-      </c>
-      <c r="F226" t="s">
-        <v>365</v>
       </c>
       <c r="G226" t="s">
         <v>276</v>
@@ -6820,10 +6820,10 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
+        <v>163</v>
+      </c>
+      <c r="D227" t="s">
         <v>363</v>
-      </c>
-      <c r="D227" t="s">
-        <v>163</v>
       </c>
       <c r="E227" t="s">
         <v>364</v>
@@ -6843,16 +6843,16 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
+        <v>163</v>
+      </c>
+      <c r="D228" t="s">
         <v>363</v>
       </c>
-      <c r="D228" t="s">
-        <v>163</v>
-      </c>
       <c r="E228" t="s">
+        <v>364</v>
+      </c>
+      <c r="F228" t="s">
         <v>164</v>
-      </c>
-      <c r="F228" t="s">
-        <v>365</v>
       </c>
       <c r="G228" t="s">
         <v>165</v>
@@ -6866,10 +6866,10 @@
         <v>8</v>
       </c>
       <c r="C229" t="s">
+        <v>163</v>
+      </c>
+      <c r="D229" t="s">
         <v>386</v>
-      </c>
-      <c r="D229" t="s">
-        <v>163</v>
       </c>
       <c r="E229" t="s">
         <v>364</v>
@@ -6889,10 +6889,10 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
+        <v>163</v>
+      </c>
+      <c r="D230" t="s">
         <v>386</v>
-      </c>
-      <c r="D230" t="s">
-        <v>163</v>
       </c>
       <c r="E230" t="s">
         <v>364</v>
@@ -6912,16 +6912,16 @@
         <v>8</v>
       </c>
       <c r="C231" t="s">
+        <v>163</v>
+      </c>
+      <c r="D231" t="s">
         <v>386</v>
       </c>
-      <c r="D231" t="s">
-        <v>163</v>
-      </c>
       <c r="E231" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="F231" t="s">
-        <v>365</v>
+        <v>271</v>
       </c>
       <c r="G231" t="s">
         <v>293</v>
@@ -6935,16 +6935,16 @@
         <v>8</v>
       </c>
       <c r="C232" t="s">
+        <v>163</v>
+      </c>
+      <c r="D232" t="s">
         <v>386</v>
       </c>
-      <c r="D232" t="s">
-        <v>163</v>
-      </c>
       <c r="E232" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="F232" t="s">
-        <v>365</v>
+        <v>271</v>
       </c>
       <c r="G232" t="s">
         <v>309</v>
@@ -6958,10 +6958,10 @@
         <v>8</v>
       </c>
       <c r="C233" t="s">
+        <v>163</v>
+      </c>
+      <c r="D233" t="s">
         <v>386</v>
-      </c>
-      <c r="D233" t="s">
-        <v>163</v>
       </c>
       <c r="E233" t="s">
         <v>364</v>
@@ -6981,10 +6981,10 @@
         <v>8</v>
       </c>
       <c r="C234" t="s">
+        <v>163</v>
+      </c>
+      <c r="D234" t="s">
         <v>386</v>
-      </c>
-      <c r="D234" t="s">
-        <v>163</v>
       </c>
       <c r="E234" t="s">
         <v>364</v>
@@ -7004,10 +7004,10 @@
         <v>8</v>
       </c>
       <c r="C235" t="s">
+        <v>163</v>
+      </c>
+      <c r="D235" t="s">
         <v>386</v>
-      </c>
-      <c r="D235" t="s">
-        <v>163</v>
       </c>
       <c r="E235" t="s">
         <v>364</v>
@@ -7027,10 +7027,10 @@
         <v>8</v>
       </c>
       <c r="C236" t="s">
+        <v>163</v>
+      </c>
+      <c r="D236" t="s">
         <v>386</v>
-      </c>
-      <c r="D236" t="s">
-        <v>163</v>
       </c>
       <c r="E236" t="s">
         <v>364</v>
@@ -7050,10 +7050,10 @@
         <v>8</v>
       </c>
       <c r="C237" t="s">
+        <v>163</v>
+      </c>
+      <c r="D237" t="s">
         <v>386</v>
-      </c>
-      <c r="D237" t="s">
-        <v>163</v>
       </c>
       <c r="E237" t="s">
         <v>364</v>
@@ -7073,10 +7073,10 @@
         <v>8</v>
       </c>
       <c r="C238" t="s">
+        <v>163</v>
+      </c>
+      <c r="D238" t="s">
         <v>386</v>
-      </c>
-      <c r="D238" t="s">
-        <v>163</v>
       </c>
       <c r="E238" t="s">
         <v>364</v>
@@ -7096,10 +7096,10 @@
         <v>8</v>
       </c>
       <c r="C239" t="s">
+        <v>163</v>
+      </c>
+      <c r="D239" t="s">
         <v>398</v>
-      </c>
-      <c r="D239" t="s">
-        <v>163</v>
       </c>
       <c r="E239" t="s">
         <v>364</v>
@@ -7119,16 +7119,16 @@
         <v>8</v>
       </c>
       <c r="C240" t="s">
+        <v>163</v>
+      </c>
+      <c r="D240" t="s">
         <v>401</v>
       </c>
-      <c r="D240" t="s">
-        <v>163</v>
-      </c>
       <c r="E240" t="s">
+        <v>402</v>
+      </c>
+      <c r="F240" t="s">
         <v>164</v>
-      </c>
-      <c r="F240" t="s">
-        <v>402</v>
       </c>
       <c r="G240" t="s">
         <v>165</v>
@@ -7142,16 +7142,16 @@
         <v>8</v>
       </c>
       <c r="C241" t="s">
+        <v>163</v>
+      </c>
+      <c r="D241" t="s">
         <v>401</v>
       </c>
-      <c r="D241" t="s">
-        <v>163</v>
-      </c>
       <c r="E241" t="s">
+        <v>402</v>
+      </c>
+      <c r="F241" t="s">
         <v>164</v>
-      </c>
-      <c r="F241" t="s">
-        <v>402</v>
       </c>
       <c r="G241" t="s">
         <v>165</v>
@@ -7165,16 +7165,16 @@
         <v>8</v>
       </c>
       <c r="C242" t="s">
+        <v>163</v>
+      </c>
+      <c r="D242" t="s">
         <v>401</v>
       </c>
-      <c r="D242" t="s">
-        <v>163</v>
-      </c>
       <c r="E242" t="s">
+        <v>402</v>
+      </c>
+      <c r="F242" t="s">
         <v>164</v>
-      </c>
-      <c r="F242" t="s">
-        <v>402</v>
       </c>
       <c r="G242" t="s">
         <v>165</v>
@@ -7188,16 +7188,16 @@
         <v>8</v>
       </c>
       <c r="C243" t="s">
+        <v>163</v>
+      </c>
+      <c r="D243" t="s">
         <v>401</v>
       </c>
-      <c r="D243" t="s">
-        <v>163</v>
-      </c>
       <c r="E243" t="s">
+        <v>402</v>
+      </c>
+      <c r="F243" t="s">
         <v>164</v>
-      </c>
-      <c r="F243" t="s">
-        <v>402</v>
       </c>
       <c r="G243" t="s">
         <v>165</v>
@@ -7211,16 +7211,16 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
+        <v>163</v>
+      </c>
+      <c r="D244" t="s">
         <v>401</v>
       </c>
-      <c r="D244" t="s">
-        <v>163</v>
-      </c>
       <c r="E244" t="s">
+        <v>402</v>
+      </c>
+      <c r="F244" t="s">
         <v>164</v>
-      </c>
-      <c r="F244" t="s">
-        <v>402</v>
       </c>
       <c r="G244" t="s">
         <v>165</v>
@@ -7234,16 +7234,16 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
+        <v>163</v>
+      </c>
+      <c r="D245" t="s">
         <v>401</v>
       </c>
-      <c r="D245" t="s">
-        <v>163</v>
-      </c>
       <c r="E245" t="s">
+        <v>402</v>
+      </c>
+      <c r="F245" t="s">
         <v>164</v>
-      </c>
-      <c r="F245" t="s">
-        <v>402</v>
       </c>
       <c r="G245" t="s">
         <v>165</v>
@@ -7257,16 +7257,16 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
+        <v>163</v>
+      </c>
+      <c r="D246" t="s">
         <v>409</v>
       </c>
-      <c r="D246" t="s">
-        <v>163</v>
-      </c>
       <c r="E246" t="s">
+        <v>402</v>
+      </c>
+      <c r="F246" t="s">
         <v>255</v>
-      </c>
-      <c r="F246" t="s">
-        <v>402</v>
       </c>
       <c r="G246" t="s">
         <v>410</v>
@@ -7279,14 +7279,14 @@
       <c r="B247" t="s">
         <v>8</v>
       </c>
-      <c r="D247" t="s">
+      <c r="C247" t="s">
         <v>95</v>
       </c>
       <c r="E247" t="s">
+        <v>412</v>
+      </c>
+      <c r="F247" t="s">
         <v>96</v>
-      </c>
-      <c r="F247" t="s">
-        <v>412</v>
       </c>
       <c r="G247" t="s">
         <v>97</v>
@@ -7299,14 +7299,14 @@
       <c r="B248" t="s">
         <v>8</v>
       </c>
-      <c r="D248" t="s">
+      <c r="C248" t="s">
         <v>95</v>
       </c>
       <c r="E248" t="s">
+        <v>412</v>
+      </c>
+      <c r="F248" t="s">
         <v>96</v>
-      </c>
-      <c r="F248" t="s">
-        <v>412</v>
       </c>
       <c r="G248" t="s">
         <v>97</v>
@@ -7319,14 +7319,14 @@
       <c r="B249" t="s">
         <v>8</v>
       </c>
-      <c r="D249" t="s">
+      <c r="C249" t="s">
         <v>95</v>
       </c>
       <c r="E249" t="s">
+        <v>412</v>
+      </c>
+      <c r="F249" t="s">
         <v>415</v>
-      </c>
-      <c r="F249" t="s">
-        <v>412</v>
       </c>
       <c r="G249" t="s">
         <v>416</v>
@@ -7339,14 +7339,14 @@
       <c r="B250" t="s">
         <v>8</v>
       </c>
-      <c r="D250" t="s">
+      <c r="C250" t="s">
         <v>95</v>
       </c>
       <c r="E250" t="s">
+        <v>412</v>
+      </c>
+      <c r="F250" t="s">
         <v>96</v>
-      </c>
-      <c r="F250" t="s">
-        <v>412</v>
       </c>
       <c r="G250" t="s">
         <v>97</v>
@@ -7359,14 +7359,14 @@
       <c r="B251" t="s">
         <v>8</v>
       </c>
-      <c r="D251" t="s">
+      <c r="C251" t="s">
         <v>95</v>
       </c>
       <c r="E251" t="s">
+        <v>412</v>
+      </c>
+      <c r="F251" t="s">
         <v>96</v>
-      </c>
-      <c r="F251" t="s">
-        <v>412</v>
       </c>
       <c r="G251" t="s">
         <v>97</v>
@@ -7379,14 +7379,14 @@
       <c r="B252" t="s">
         <v>8</v>
       </c>
-      <c r="D252" t="s">
+      <c r="C252" t="s">
         <v>95</v>
       </c>
       <c r="E252" t="s">
+        <v>412</v>
+      </c>
+      <c r="F252" t="s">
         <v>96</v>
-      </c>
-      <c r="F252" t="s">
-        <v>412</v>
       </c>
       <c r="G252" t="s">
         <v>97</v>
@@ -7399,7 +7399,7 @@
       <c r="B253" t="s">
         <v>8</v>
       </c>
-      <c r="D253" t="s">
+      <c r="C253" t="s">
         <v>163</v>
       </c>
       <c r="E253" t="s">
@@ -7419,14 +7419,14 @@
       <c r="B254" t="s">
         <v>8</v>
       </c>
-      <c r="D254" t="s">
+      <c r="C254" t="s">
         <v>90</v>
       </c>
       <c r="E254" t="s">
+        <v>421</v>
+      </c>
+      <c r="F254" t="s">
         <v>219</v>
-      </c>
-      <c r="F254" t="s">
-        <v>422</v>
       </c>
       <c r="G254" t="s">
         <v>220</v>
@@ -7439,14 +7439,14 @@
       <c r="B255" t="s">
         <v>8</v>
       </c>
-      <c r="D255" t="s">
+      <c r="C255" t="s">
         <v>90</v>
       </c>
       <c r="E255" t="s">
+        <v>421</v>
+      </c>
+      <c r="F255" t="s">
         <v>426</v>
-      </c>
-      <c r="F255" t="s">
-        <v>422</v>
       </c>
       <c r="G255" t="s">
         <v>427</v>
@@ -7459,14 +7459,14 @@
       <c r="B256" t="s">
         <v>8</v>
       </c>
-      <c r="D256" t="s">
+      <c r="C256" t="s">
         <v>90</v>
       </c>
       <c r="E256" t="s">
+        <v>421</v>
+      </c>
+      <c r="F256" t="s">
         <v>426</v>
-      </c>
-      <c r="F256" t="s">
-        <v>422</v>
       </c>
       <c r="G256" t="s">
         <v>427</v>
@@ -7479,14 +7479,14 @@
       <c r="B257" t="s">
         <v>8</v>
       </c>
-      <c r="D257" t="s">
+      <c r="C257" t="s">
         <v>90</v>
       </c>
       <c r="E257" t="s">
+        <v>421</v>
+      </c>
+      <c r="F257" t="s">
         <v>426</v>
-      </c>
-      <c r="F257" t="s">
-        <v>422</v>
       </c>
       <c r="G257" t="s">
         <v>427</v>
@@ -7499,14 +7499,14 @@
       <c r="B258" t="s">
         <v>8</v>
       </c>
-      <c r="D258" t="s">
+      <c r="C258" t="s">
         <v>163</v>
       </c>
       <c r="E258" t="s">
-        <v>326</v>
+        <v>421</v>
       </c>
       <c r="F258" t="s">
-        <v>422</v>
+        <v>327</v>
       </c>
       <c r="G258" t="s">
         <v>328</v>
@@ -7519,14 +7519,14 @@
       <c r="B259" t="s">
         <v>8</v>
       </c>
-      <c r="D259" t="s">
+      <c r="C259" t="s">
         <v>90</v>
       </c>
       <c r="E259" t="s">
+        <v>421</v>
+      </c>
+      <c r="F259" t="s">
         <v>426</v>
-      </c>
-      <c r="F259" t="s">
-        <v>422</v>
       </c>
       <c r="G259" t="s">
         <v>427</v>
@@ -7539,14 +7539,14 @@
       <c r="B260" t="s">
         <v>8</v>
       </c>
-      <c r="D260" t="s">
+      <c r="C260" t="s">
         <v>163</v>
       </c>
       <c r="E260" t="s">
+        <v>421</v>
+      </c>
+      <c r="F260" t="s">
         <v>164</v>
-      </c>
-      <c r="F260" t="s">
-        <v>422</v>
       </c>
       <c r="G260" t="s">
         <v>165</v>
@@ -7559,14 +7559,14 @@
       <c r="B261" t="s">
         <v>8</v>
       </c>
-      <c r="D261" t="s">
+      <c r="C261" t="s">
         <v>195</v>
       </c>
       <c r="E261" t="s">
+        <v>421</v>
+      </c>
+      <c r="F261" t="s">
         <v>434</v>
-      </c>
-      <c r="F261" t="s">
-        <v>422</v>
       </c>
       <c r="G261" t="s">
         <v>435</v>
@@ -7579,14 +7579,14 @@
       <c r="B262" t="s">
         <v>8</v>
       </c>
-      <c r="D262" t="s">
+      <c r="C262" t="s">
         <v>163</v>
       </c>
       <c r="E262" t="s">
+        <v>421</v>
+      </c>
+      <c r="F262" t="s">
         <v>164</v>
-      </c>
-      <c r="F262" t="s">
-        <v>422</v>
       </c>
       <c r="G262" t="s">
         <v>165</v>
@@ -7599,14 +7599,14 @@
       <c r="B263" t="s">
         <v>8</v>
       </c>
-      <c r="D263" t="s">
+      <c r="C263" t="s">
         <v>182</v>
       </c>
       <c r="E263" t="s">
+        <v>421</v>
+      </c>
+      <c r="F263" t="s">
         <v>438</v>
-      </c>
-      <c r="F263" t="s">
-        <v>422</v>
       </c>
       <c r="G263" t="s">
         <v>439</v>
@@ -7619,14 +7619,14 @@
       <c r="B264" t="s">
         <v>8</v>
       </c>
-      <c r="D264" t="s">
+      <c r="C264" t="s">
         <v>31</v>
       </c>
       <c r="E264" t="s">
+        <v>421</v>
+      </c>
+      <c r="F264" t="s">
         <v>32</v>
-      </c>
-      <c r="F264" t="s">
-        <v>422</v>
       </c>
       <c r="G264" t="s">
         <v>33</v>
@@ -7639,14 +7639,14 @@
       <c r="B265" t="s">
         <v>8</v>
       </c>
-      <c r="D265" t="s">
-        <v>10</v>
+      <c r="C265" t="s">
+        <v>9</v>
       </c>
       <c r="E265" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="F265" t="s">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="G265" t="s">
         <v>13</v>
@@ -7659,14 +7659,14 @@
       <c r="B266" t="s">
         <v>8</v>
       </c>
-      <c r="D266" t="s">
-        <v>113</v>
+      <c r="C266" t="s">
+        <v>112</v>
       </c>
       <c r="E266" t="s">
+        <v>421</v>
+      </c>
+      <c r="F266" t="s">
         <v>443</v>
-      </c>
-      <c r="F266" t="s">
-        <v>422</v>
       </c>
       <c r="G266" t="s">
         <v>444</v>
@@ -7679,14 +7679,14 @@
       <c r="B267" t="s">
         <v>8</v>
       </c>
-      <c r="D267" t="s">
-        <v>113</v>
+      <c r="C267" t="s">
+        <v>112</v>
       </c>
       <c r="E267" t="s">
+        <v>446</v>
+      </c>
+      <c r="F267" t="s">
         <v>118</v>
-      </c>
-      <c r="F267" t="s">
-        <v>446</v>
       </c>
       <c r="G267" t="s">
         <v>119</v>
@@ -7699,14 +7699,14 @@
       <c r="B268" t="s">
         <v>8</v>
       </c>
-      <c r="D268" t="s">
+      <c r="C268" t="s">
         <v>182</v>
       </c>
       <c r="E268" t="s">
-        <v>202</v>
+        <v>448</v>
       </c>
       <c r="F268" t="s">
-        <v>448</v>
+        <v>203</v>
       </c>
       <c r="G268" t="s">
         <v>204</v>
@@ -7719,14 +7719,14 @@
       <c r="B269" t="s">
         <v>8</v>
       </c>
-      <c r="D269" t="s">
-        <v>113</v>
+      <c r="C269" t="s">
+        <v>112</v>
       </c>
       <c r="E269" t="s">
+        <v>450</v>
+      </c>
+      <c r="F269" t="s">
         <v>118</v>
-      </c>
-      <c r="F269" t="s">
-        <v>450</v>
       </c>
       <c r="G269" t="s">
         <v>119</v>
@@ -7739,14 +7739,14 @@
       <c r="B270" t="s">
         <v>8</v>
       </c>
-      <c r="D270" t="s">
-        <v>113</v>
+      <c r="C270" t="s">
+        <v>112</v>
       </c>
       <c r="E270" t="s">
+        <v>450</v>
+      </c>
+      <c r="F270" t="s">
         <v>118</v>
-      </c>
-      <c r="F270" t="s">
-        <v>450</v>
       </c>
       <c r="G270" t="s">
         <v>119</v>
@@ -7759,8 +7759,8 @@
       <c r="B271" t="s">
         <v>8</v>
       </c>
-      <c r="D271" t="s">
-        <v>113</v>
+      <c r="C271" t="s">
+        <v>112</v>
       </c>
       <c r="E271" t="s">
         <v>453</v>
@@ -7779,8 +7779,8 @@
       <c r="B272" t="s">
         <v>8</v>
       </c>
-      <c r="D272" t="s">
-        <v>113</v>
+      <c r="C272" t="s">
+        <v>112</v>
       </c>
       <c r="E272" t="s">
         <v>453</v>
@@ -7799,8 +7799,8 @@
       <c r="B273" t="s">
         <v>8</v>
       </c>
-      <c r="D273" t="s">
-        <v>113</v>
+      <c r="C273" t="s">
+        <v>112</v>
       </c>
       <c r="E273" t="s">
         <v>453</v>
@@ -7819,8 +7819,8 @@
       <c r="B274" t="s">
         <v>8</v>
       </c>
-      <c r="D274" t="s">
-        <v>113</v>
+      <c r="C274" t="s">
+        <v>112</v>
       </c>
       <c r="E274" t="s">
         <v>453</v>
@@ -7839,8 +7839,8 @@
       <c r="B275" t="s">
         <v>8</v>
       </c>
-      <c r="D275" t="s">
-        <v>113</v>
+      <c r="C275" t="s">
+        <v>112</v>
       </c>
       <c r="E275" t="s">
         <v>453</v>
@@ -7859,8 +7859,8 @@
       <c r="B276" t="s">
         <v>8</v>
       </c>
-      <c r="D276" t="s">
-        <v>113</v>
+      <c r="C276" t="s">
+        <v>112</v>
       </c>
       <c r="E276" t="s">
         <v>453</v>
@@ -7879,8 +7879,8 @@
       <c r="B277" t="s">
         <v>8</v>
       </c>
-      <c r="D277" t="s">
-        <v>113</v>
+      <c r="C277" t="s">
+        <v>112</v>
       </c>
       <c r="E277" t="s">
         <v>453</v>
@@ -7899,14 +7899,14 @@
       <c r="B278" t="s">
         <v>8</v>
       </c>
-      <c r="D278" t="s">
+      <c r="C278" t="s">
         <v>182</v>
       </c>
       <c r="E278" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
       <c r="F278" t="s">
-        <v>463</v>
+        <v>203</v>
       </c>
       <c r="G278" t="s">
         <v>204</v>
@@ -7919,14 +7919,14 @@
       <c r="B279" t="s">
         <v>8</v>
       </c>
-      <c r="D279" t="s">
+      <c r="C279" t="s">
         <v>31</v>
       </c>
       <c r="E279" t="s">
-        <v>52</v>
+        <v>463</v>
       </c>
       <c r="F279" t="s">
-        <v>463</v>
+        <v>53</v>
       </c>
       <c r="G279" t="s">
         <v>54</v>
@@ -7939,14 +7939,14 @@
       <c r="B280" t="s">
         <v>8</v>
       </c>
-      <c r="D280" t="s">
-        <v>10</v>
+      <c r="C280" t="s">
+        <v>9</v>
       </c>
       <c r="E280" t="s">
-        <v>11</v>
+        <v>463</v>
       </c>
       <c r="F280" t="s">
-        <v>463</v>
+        <v>12</v>
       </c>
       <c r="G280" t="s">
         <v>13</v>
@@ -7959,14 +7959,14 @@
       <c r="B281" t="s">
         <v>8</v>
       </c>
-      <c r="D281" t="s">
-        <v>113</v>
+      <c r="C281" t="s">
+        <v>112</v>
       </c>
       <c r="E281" t="s">
+        <v>463</v>
+      </c>
+      <c r="F281" t="s">
         <v>170</v>
-      </c>
-      <c r="F281" t="s">
-        <v>463</v>
       </c>
       <c r="G281" t="s">
         <v>171</v>
@@ -7979,14 +7979,14 @@
       <c r="B282" t="s">
         <v>8</v>
       </c>
-      <c r="D282" t="s">
+      <c r="C282" t="s">
         <v>124</v>
       </c>
       <c r="E282" t="s">
+        <v>463</v>
+      </c>
+      <c r="F282" t="s">
         <v>125</v>
-      </c>
-      <c r="F282" t="s">
-        <v>463</v>
       </c>
       <c r="G282" t="s">
         <v>126</v>
@@ -7999,14 +7999,14 @@
       <c r="B283" t="s">
         <v>8</v>
       </c>
-      <c r="D283" t="s">
+      <c r="C283" t="s">
         <v>163</v>
       </c>
       <c r="E283" t="s">
-        <v>364</v>
+        <v>469</v>
       </c>
       <c r="F283" t="s">
-        <v>469</v>
+        <v>365</v>
       </c>
       <c r="G283" t="s">
         <v>399</v>
@@ -8019,14 +8019,14 @@
       <c r="B284" t="s">
         <v>8</v>
       </c>
-      <c r="D284" t="s">
+      <c r="C284" t="s">
         <v>124</v>
       </c>
       <c r="E284" t="s">
+        <v>471</v>
+      </c>
+      <c r="F284" t="s">
         <v>125</v>
-      </c>
-      <c r="F284" t="s">
-        <v>471</v>
       </c>
       <c r="G284" t="s">
         <v>126</v>
@@ -8039,14 +8039,14 @@
       <c r="B285" t="s">
         <v>8</v>
       </c>
-      <c r="D285" t="s">
-        <v>113</v>
+      <c r="C285" t="s">
+        <v>112</v>
       </c>
       <c r="E285" t="s">
+        <v>473</v>
+      </c>
+      <c r="F285" t="s">
         <v>170</v>
-      </c>
-      <c r="F285" t="s">
-        <v>473</v>
       </c>
       <c r="G285" t="s">
         <v>171</v>
@@ -8059,14 +8059,14 @@
       <c r="B286" t="s">
         <v>8</v>
       </c>
-      <c r="D286" t="s">
+      <c r="C286" t="s">
         <v>182</v>
       </c>
       <c r="E286" t="s">
+        <v>475</v>
+      </c>
+      <c r="F286" t="s">
         <v>438</v>
-      </c>
-      <c r="F286" t="s">
-        <v>475</v>
       </c>
       <c r="G286" t="s">
         <v>439</v>
@@ -8079,14 +8079,14 @@
       <c r="B287" t="s">
         <v>8</v>
       </c>
-      <c r="D287" t="s">
+      <c r="C287" t="s">
         <v>182</v>
       </c>
       <c r="E287" t="s">
+        <v>475</v>
+      </c>
+      <c r="F287" t="s">
         <v>438</v>
-      </c>
-      <c r="F287" t="s">
-        <v>475</v>
       </c>
       <c r="G287" t="s">
         <v>439</v>
@@ -8099,14 +8099,14 @@
       <c r="B288" t="s">
         <v>8</v>
       </c>
-      <c r="D288" t="s">
-        <v>10</v>
+      <c r="C288" t="s">
+        <v>9</v>
       </c>
       <c r="E288" t="s">
+        <v>475</v>
+      </c>
+      <c r="F288" t="s">
         <v>41</v>
-      </c>
-      <c r="F288" t="s">
-        <v>475</v>
       </c>
       <c r="G288" t="s">
         <v>42</v>
@@ -8119,14 +8119,14 @@
       <c r="B289" t="s">
         <v>8</v>
       </c>
-      <c r="D289" t="s">
+      <c r="C289" t="s">
         <v>31</v>
       </c>
       <c r="E289" t="s">
+        <v>475</v>
+      </c>
+      <c r="F289" t="s">
         <v>32</v>
-      </c>
-      <c r="F289" t="s">
-        <v>475</v>
       </c>
       <c r="G289" t="s">
         <v>33</v>
@@ -8139,14 +8139,14 @@
       <c r="B290" t="s">
         <v>8</v>
       </c>
-      <c r="D290" t="s">
+      <c r="C290" t="s">
         <v>31</v>
       </c>
       <c r="E290" t="s">
+        <v>475</v>
+      </c>
+      <c r="F290" t="s">
         <v>32</v>
-      </c>
-      <c r="F290" t="s">
-        <v>475</v>
       </c>
       <c r="G290" t="s">
         <v>33</v>
@@ -8159,14 +8159,14 @@
       <c r="B291" t="s">
         <v>8</v>
       </c>
-      <c r="D291" t="s">
-        <v>113</v>
+      <c r="C291" t="s">
+        <v>112</v>
       </c>
       <c r="E291" t="s">
+        <v>475</v>
+      </c>
+      <c r="F291" t="s">
         <v>170</v>
-      </c>
-      <c r="F291" t="s">
-        <v>475</v>
       </c>
       <c r="G291" t="s">
         <v>171</v>
@@ -8179,14 +8179,14 @@
       <c r="B292" t="s">
         <v>8</v>
       </c>
-      <c r="D292" t="s">
-        <v>113</v>
+      <c r="C292" t="s">
+        <v>112</v>
       </c>
       <c r="E292" t="s">
+        <v>475</v>
+      </c>
+      <c r="F292" t="s">
         <v>170</v>
-      </c>
-      <c r="F292" t="s">
-        <v>475</v>
       </c>
       <c r="G292" t="s">
         <v>171</v>
@@ -8199,14 +8199,14 @@
       <c r="B293" t="s">
         <v>8</v>
       </c>
-      <c r="D293" t="s">
-        <v>113</v>
+      <c r="C293" t="s">
+        <v>112</v>
       </c>
       <c r="E293" t="s">
+        <v>475</v>
+      </c>
+      <c r="F293" t="s">
         <v>170</v>
-      </c>
-      <c r="F293" t="s">
-        <v>475</v>
       </c>
       <c r="G293" t="s">
         <v>171</v>
@@ -8219,14 +8219,14 @@
       <c r="B294" t="s">
         <v>8</v>
       </c>
-      <c r="D294" t="s">
-        <v>113</v>
+      <c r="C294" t="s">
+        <v>112</v>
       </c>
       <c r="E294" t="s">
+        <v>475</v>
+      </c>
+      <c r="F294" t="s">
         <v>170</v>
-      </c>
-      <c r="F294" t="s">
-        <v>475</v>
       </c>
       <c r="G294" t="s">
         <v>171</v>
@@ -8239,14 +8239,14 @@
       <c r="B295" t="s">
         <v>8</v>
       </c>
-      <c r="D295" t="s">
-        <v>113</v>
+      <c r="C295" t="s">
+        <v>112</v>
       </c>
       <c r="E295" t="s">
+        <v>485</v>
+      </c>
+      <c r="F295" t="s">
         <v>170</v>
-      </c>
-      <c r="F295" t="s">
-        <v>485</v>
       </c>
       <c r="G295" t="s">
         <v>171</v>
@@ -8259,14 +8259,14 @@
       <c r="B296" t="s">
         <v>8</v>
       </c>
-      <c r="D296" t="s">
-        <v>113</v>
+      <c r="C296" t="s">
+        <v>112</v>
       </c>
       <c r="E296" t="s">
+        <v>485</v>
+      </c>
+      <c r="F296" t="s">
         <v>170</v>
-      </c>
-      <c r="F296" t="s">
-        <v>485</v>
       </c>
       <c r="G296" t="s">
         <v>171</v>

--- a/api/2/xlsx/es/SectorCOFOG.xlsx
+++ b/api/2/xlsx/es/SectorCOFOG.xlsx
@@ -22,75 +22,75 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:cofog-class</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-group</t>
+  </si>
+  <si>
     <t>codeforiati:cofog-division</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-group</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-class</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
     <t>active</t>
   </si>
   <si>
+    <t>09.8.0 - Education n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>09.8 - Education n.e.c.</t>
+  </si>
+  <si>
     <t>09 - Education</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>09.8 - Education n.e.c.</t>
-  </si>
-  <si>
-    <t>09.8.0 - Education n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
+    <t>09.6.0 - Subsidiary services to education (IS)</t>
+  </si>
+  <si>
     <t>09.6 - Subsidiary services to education</t>
   </si>
   <si>
-    <t>09.6.0 - Subsidiary services to education (IS)</t>
-  </si>
-  <si>
     <t>11130</t>
   </si>
   <si>
     <t>11182</t>
   </si>
   <si>
+    <t>09.7.0 - R&amp;D Education (CS)</t>
+  </si>
+  <si>
     <t>09.7 - R&amp;D Education</t>
   </si>
   <si>
-    <t>09.7.0 - R&amp;D Education (CS)</t>
-  </si>
-  <si>
     <t>11220</t>
   </si>
   <si>
+    <t>09.1.2 - Primary education (IS)</t>
+  </si>
+  <si>
+    <t>09.1 - Pre‐primary and primary education</t>
+  </si>
+  <si>
     <t>112</t>
   </si>
   <si>
-    <t>09.1 - Pre‐primary and primary education</t>
-  </si>
-  <si>
-    <t>09.1.2 - Primary education (IS)</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -109,99 +109,99 @@
     <t>11250</t>
   </si>
   <si>
+    <t>07.4.0 - Public health services (IS)</t>
+  </si>
+  <si>
+    <t>07.4 - Public health services</t>
+  </si>
+  <si>
     <t>07 - Health</t>
   </si>
   <si>
-    <t>07.4 - Public health services</t>
-  </si>
-  <si>
-    <t>07.4.0 - Public health services (IS)</t>
-  </si>
-  <si>
     <t>11260</t>
   </si>
   <si>
+    <t>09.2.1 - Lower‐secondary education (IS)</t>
+  </si>
+  <si>
     <t>09.2 - Secondary education</t>
   </si>
   <si>
-    <t>09.2.1 - Lower‐secondary education (IS)</t>
-  </si>
-  <si>
     <t>11320</t>
   </si>
   <si>
+    <t>09.2.2 - Upper‐secondary education (IS)</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
-    <t>09.2.2 - Upper‐secondary education (IS)</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
+    <t>09.5.0 - Education not definable by level (IS)</t>
+  </si>
+  <si>
     <t>09.5 - Education not definable by level</t>
   </si>
   <si>
-    <t>09.5.0 - Education not definable by level (IS)</t>
-  </si>
-  <si>
     <t>11420</t>
   </si>
   <si>
+    <t>09.4.1 - First stage of tertiary education (IS)</t>
+  </si>
+  <si>
+    <t>09.4 - Tertiary education</t>
+  </si>
+  <si>
     <t>114</t>
   </si>
   <si>
-    <t>09.4 - Tertiary education</t>
-  </si>
-  <si>
-    <t>09.4.1 - First stage of tertiary education (IS)</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
+    <t>09.3.0 - Post‐secondary non‐tertiary education (IS)</t>
+  </si>
+  <si>
     <t>09.3 - Post‐secondary non‐tertiary education</t>
   </si>
   <si>
-    <t>09.3.0 - Post‐secondary non‐tertiary education (IS)</t>
-  </si>
-  <si>
     <t>12110</t>
   </si>
   <si>
+    <t>07.6.0 - Health n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>07.6 - Health n.e.c.</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>121</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>07.6 - Health n.e.c.</t>
-  </si>
-  <si>
-    <t>07.6.0 - Health n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
     <t>12182</t>
   </si>
   <si>
+    <t>07.5.0 - R&amp;D Health (CS)</t>
+  </si>
+  <si>
     <t>07.5 - R&amp;D Health</t>
   </si>
   <si>
-    <t>07.5.0 - R&amp;D Health (CS)</t>
-  </si>
-  <si>
     <t>12191</t>
   </si>
   <si>
+    <t>07.2.1 - General medical services (IS)</t>
+  </si>
+  <si>
     <t>07.2 - Outpatient services</t>
   </si>
   <si>
-    <t>07.2.1 - General medical services (IS)</t>
-  </si>
-  <si>
     <t>12196</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>12230</t>
   </si>
   <si>
+    <t>07.3.1 - General hospital services (IS)</t>
+  </si>
+  <si>
     <t>07.3 - Hospital services</t>
   </si>
   <si>
-    <t>07.3.1 - General hospital services (IS)</t>
-  </si>
-  <si>
     <t>12240</t>
   </si>
   <si>
@@ -286,30 +286,30 @@
     <t>14010</t>
   </si>
   <si>
+    <t>06.3.0 - Water supply (CS)</t>
+  </si>
+  <si>
+    <t>06.3 - Water supply</t>
+  </si>
+  <si>
     <t>06 - Housing and community amenities</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>06.3 - Water supply</t>
-  </si>
-  <si>
-    <t>06.3.0 - Water supply (CS)</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
+    <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>05.6 - Environmental protection n.e.c.</t>
+  </si>
+  <si>
     <t>05 - Environmental protection</t>
   </si>
   <si>
-    <t>05.6 - Environmental protection n.e.c.</t>
-  </si>
-  <si>
-    <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>14020</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>14022</t>
   </si>
   <si>
+    <t>05.2.0 - Waste water management (CS)</t>
+  </si>
+  <si>
     <t>05.2 - Waste water management</t>
   </si>
   <si>
-    <t>05.2.0 - Waste water management (CS)</t>
-  </si>
-  <si>
     <t>14030</t>
   </si>
   <si>
@@ -340,63 +340,63 @@
     <t>14050</t>
   </si>
   <si>
+    <t>05.1.0 - Waste management (CS)</t>
+  </si>
+  <si>
     <t>05.1 - Waste management</t>
   </si>
   <si>
-    <t>05.1.0 - Waste management (CS)</t>
-  </si>
-  <si>
     <t>14081</t>
   </si>
   <si>
     <t>15110</t>
   </si>
   <si>
+    <t>01.3.1 - General personnel services (CS)</t>
+  </si>
+  <si>
+    <t>01.3 - General services</t>
+  </si>
+  <si>
     <t>01 - General public services</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>01.3 - General services</t>
-  </si>
-  <si>
-    <t>01.3.1 - General personnel services (CS)</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
+    <t>01.1.2 - Financial and fiscal affairs (CS)</t>
+  </si>
+  <si>
     <t>01.1 - Executive and legislative organs, financial and fiscal affairs, external affairs</t>
   </si>
   <si>
-    <t>01.1.2 - Financial and fiscal affairs (CS)</t>
-  </si>
-  <si>
     <t>15112</t>
   </si>
   <si>
+    <t>01.8.0 - Transfers of a general character between different levels of government (CS)</t>
+  </si>
+  <si>
     <t>01.8 - Transfers of a general character between different levels of government</t>
   </si>
   <si>
-    <t>01.8.0 - Transfers of a general character between different levels of government (CS)</t>
-  </si>
-  <si>
     <t>15113</t>
   </si>
   <si>
+    <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>03.6 - Public order and safety n.e.c.</t>
+  </si>
+  <si>
     <t>03 - Public order and safety</t>
   </si>
   <si>
-    <t>03.6 - Public order and safety n.e.c.</t>
-  </si>
-  <si>
-    <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>15114</t>
   </si>
   <si>
@@ -424,12 +424,12 @@
     <t>15123</t>
   </si>
   <si>
+    <t>01.2.2 - Economic aid routed through international organizations (CS)</t>
+  </si>
+  <si>
     <t>01.2 - Foreign economic aid</t>
   </si>
   <si>
-    <t>01.2.2 - Economic aid routed through international organizations (CS)</t>
-  </si>
-  <si>
     <t>15124</t>
   </si>
   <si>
@@ -460,30 +460,30 @@
     <t>15131</t>
   </si>
   <si>
+    <t>03.3.0 - Law courts (CS)</t>
+  </si>
+  <si>
     <t>03.3 - Law courts</t>
   </si>
   <si>
-    <t>03.3.0 - Law courts (CS)</t>
-  </si>
-  <si>
     <t>15132</t>
   </si>
   <si>
+    <t>03.1.0 - Police services (CS)</t>
+  </si>
+  <si>
     <t>03.1 - Police services</t>
   </si>
   <si>
-    <t>03.1.0 - Police services (CS)</t>
-  </si>
-  <si>
     <t>15133</t>
   </si>
   <si>
+    <t>03.2.0 - Fire‐protection services (CS)</t>
+  </si>
+  <si>
     <t>03.2 - Fire‐protection services</t>
   </si>
   <si>
-    <t>03.2.0 - Fire‐protection services (CS)</t>
-  </si>
-  <si>
     <t>15134</t>
   </si>
   <si>
@@ -496,24 +496,24 @@
     <t>15137</t>
   </si>
   <si>
+    <t>03.4.0 - Prisons (CS)</t>
+  </si>
+  <si>
     <t>03.4 - Prisons</t>
   </si>
   <si>
-    <t>03.4.0 - Prisons (CS)</t>
-  </si>
-  <si>
     <t>15142</t>
   </si>
   <si>
+    <t>04.1.1 - General economic and commercial affairs (CS)</t>
+  </si>
+  <si>
+    <t>04.1 - General economic, commercial and labour affairs</t>
+  </si>
+  <si>
     <t>04 - Economic affairs</t>
   </si>
   <si>
-    <t>04.1 - General economic, commercial and labour affairs</t>
-  </si>
-  <si>
-    <t>04.1.1 - General economic and commercial affairs (CS)</t>
-  </si>
-  <si>
     <t>15143</t>
   </si>
   <si>
@@ -526,12 +526,12 @@
     <t>15151</t>
   </si>
   <si>
+    <t>01.6.0 - General public services n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>01.6 - General public services n.e.c.</t>
   </si>
   <si>
-    <t>01.6.0 - General public services n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>15152</t>
   </si>
   <si>
@@ -541,12 +541,12 @@
     <t>15153</t>
   </si>
   <si>
+    <t>04.6.0 - Communication (CS)</t>
+  </si>
+  <si>
     <t>04.6 - Communication</t>
   </si>
   <si>
-    <t>04.6.0 - Communication (CS)</t>
-  </si>
-  <si>
     <t>15154</t>
   </si>
   <si>
@@ -562,15 +562,15 @@
     <t>15170</t>
   </si>
   <si>
+    <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
+  </si>
+  <si>
+    <t>10.7 - Social exclusion n.e.c.</t>
+  </si>
+  <si>
     <t>10 - Social protection</t>
   </si>
   <si>
-    <t>10.7 - Social exclusion n.e.c.</t>
-  </si>
-  <si>
-    <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
-  </si>
-  <si>
     <t>15180</t>
   </si>
   <si>
@@ -583,12 +583,12 @@
     <t>15196</t>
   </si>
   <si>
+    <t>01.5.0 - R&amp;D General public services (CS)</t>
+  </si>
+  <si>
     <t>01.5 - R&amp;D General public services</t>
   </si>
   <si>
-    <t>01.5.0 - R&amp;D General public services (CS)</t>
-  </si>
-  <si>
     <t>15210</t>
   </si>
   <si>
@@ -601,15 +601,15 @@
     <t>15230</t>
   </si>
   <si>
+    <t>02.3.0 - Foreign military aid (CS)</t>
+  </si>
+  <si>
+    <t>02.3 - Foreign military aid</t>
+  </si>
+  <si>
     <t>02 - Defence</t>
   </si>
   <si>
-    <t>02.3 - Foreign military aid</t>
-  </si>
-  <si>
-    <t>02.3.0 - Foreign military aid (CS)</t>
-  </si>
-  <si>
     <t>15240</t>
   </si>
   <si>
@@ -622,15 +622,15 @@
     <t>16010</t>
   </si>
   <si>
+    <t>10.9.0 - Social protection n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>10.9 - Social protection n.e.c.</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
-    <t>10.9 - Social protection n.e.c.</t>
-  </si>
-  <si>
-    <t>10.9.0 - Social protection n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>16011</t>
   </si>
   <si>
@@ -640,12 +640,12 @@
     <t>16013</t>
   </si>
   <si>
+    <t>10.2.0 - Old age (IS)</t>
+  </si>
+  <si>
     <t>10.2 - Old age</t>
   </si>
   <si>
-    <t>10.2.0 - Old age (IS)</t>
-  </si>
-  <si>
     <t>16014</t>
   </si>
   <si>
@@ -655,45 +655,45 @@
     <t>16020</t>
   </si>
   <si>
+    <t>10.5.0 - Unemployment (IS)</t>
+  </si>
+  <si>
     <t>10.5 - Unemployment</t>
   </si>
   <si>
-    <t>10.5.0 - Unemployment (IS)</t>
-  </si>
-  <si>
     <t>16030</t>
   </si>
   <si>
+    <t>06.6.0 - Housing and community amenities n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>06.6 - Housing and community amenities n.e.c.</t>
   </si>
   <si>
-    <t>06.6.0 - Housing and community amenities n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>16040</t>
   </si>
   <si>
+    <t>06.1.0 - Housing development (CS)</t>
+  </si>
+  <si>
     <t>06.1 - Housing development</t>
   </si>
   <si>
-    <t>06.1.0 - Housing development (CS)</t>
-  </si>
-  <si>
     <t>16050</t>
   </si>
   <si>
     <t>16061</t>
   </si>
   <si>
+    <t>08.2.0 - Cultural services (IS)</t>
+  </si>
+  <si>
+    <t>08.2 - Cultural services</t>
+  </si>
+  <si>
     <t>08 - Recreation, culture and religion</t>
   </si>
   <si>
-    <t>08.2 - Cultural services</t>
-  </si>
-  <si>
-    <t>08.2.0 - Cultural services (IS)</t>
-  </si>
-  <si>
     <t>16062</t>
   </si>
   <si>
@@ -706,12 +706,12 @@
     <t>16065</t>
   </si>
   <si>
+    <t>08.1.0 - Recreational and sporting services (IS)</t>
+  </si>
+  <si>
     <t>08.1 - Recreational and sporting services</t>
   </si>
   <si>
-    <t>08.1.0 - Recreational and sporting services (IS)</t>
-  </si>
-  <si>
     <t>16066</t>
   </si>
   <si>
@@ -742,12 +742,12 @@
     <t>21020</t>
   </si>
   <si>
+    <t>04.5.1 - Road transport (CS)</t>
+  </si>
+  <si>
     <t>04.5 - Transport</t>
   </si>
   <si>
-    <t>04.5.1 - Road transport (CS)</t>
-  </si>
-  <si>
     <t>21021</t>
   </si>
   <si>
@@ -781,12 +781,12 @@
     <t>21061</t>
   </si>
   <si>
+    <t>04.7.1 - Distributive trades, storage and warehousing (CS)</t>
+  </si>
+  <si>
     <t>04.7 - Other industries</t>
   </si>
   <si>
-    <t>04.7.1 - Distributive trades, storage and warehousing (CS)</t>
-  </si>
-  <si>
     <t>21081</t>
   </si>
   <si>
@@ -811,42 +811,42 @@
     <t>22030</t>
   </si>
   <si>
+    <t>08.3.0 - Broadcasting and publishing services (CS)</t>
+  </si>
+  <si>
     <t>08.3 - Broadcasting and publishing services</t>
   </si>
   <si>
-    <t>08.3.0 - Broadcasting and publishing services (CS)</t>
-  </si>
-  <si>
     <t>22040</t>
   </si>
   <si>
     <t>23110</t>
   </si>
   <si>
+    <t>04.3.5 - Electricity (CS)</t>
+  </si>
+  <si>
+    <t>04.3 - Fuel and energy</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>231</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>04.3 - Fuel and energy</t>
-  </si>
-  <si>
-    <t>04.3.5 - Electricity (CS)</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
     <t>23112</t>
   </si>
   <si>
+    <t>04.8.3 - R&amp;D Fuel and energy (CS)</t>
+  </si>
+  <si>
     <t>04.8 - R&amp;D Economic affairs</t>
   </si>
   <si>
-    <t>04.8.3 - R&amp;D Fuel and energy (CS)</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>23510</t>
   </si>
   <si>
+    <t>04.3.3 - Nuclear fuel (CS)</t>
+  </si>
+  <si>
     <t>235</t>
   </si>
   <si>
-    <t>04.3.3 - Nuclear fuel (CS)</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>31110</t>
   </si>
   <si>
+    <t>04.2.1 - Agriculture (CS)</t>
+  </si>
+  <si>
+    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>311</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
-  </si>
-  <si>
-    <t>04.2.1 - Agriculture (CS)</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1060,12 +1060,12 @@
     <t>31210</t>
   </si>
   <si>
+    <t>04.2.2 - Forestry (CS)</t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
-    <t>04.2.2 - Forestry (CS)</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1084,12 +1084,12 @@
     <t>31310</t>
   </si>
   <si>
+    <t>04.2.3 - Fishing and hunting (CS)</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
-    <t>04.2.3 - Fishing and hunting (CS)</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1105,18 +1105,18 @@
     <t>32110</t>
   </si>
   <si>
+    <t>04.4.2 - Manufacturing (CS)</t>
+  </si>
+  <si>
+    <t>04.4 - Mining, manufacturing and construction</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>321</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>04.4 - Mining, manufacturing and construction</t>
-  </si>
-  <si>
-    <t>04.4.2 - Manufacturing (CS)</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1174,12 +1174,12 @@
     <t>32210</t>
   </si>
   <si>
+    <t>04.4.1 - Mining of mineral resources other than mineral fuels (CS)</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
-    <t>04.4.1 - Mining of mineral resources other than mineral fuels (CS)</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1210,21 +1210,21 @@
     <t>32310</t>
   </si>
   <si>
+    <t>04.4.3 - Construction (CS)</t>
+  </si>
+  <si>
     <t>323</t>
   </si>
   <si>
-    <t>04.4.3 - Construction (CS)</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
+    <t>330</t>
+  </si>
+  <si>
     <t>331</t>
   </si>
   <si>
-    <t>330</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1243,12 +1243,12 @@
     <t>33210</t>
   </si>
   <si>
+    <t>04.7.3 - Tourism (CS)</t>
+  </si>
+  <si>
     <t>332</t>
   </si>
   <si>
-    <t>04.7.3 - Tourism (CS)</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
@@ -1261,12 +1261,12 @@
     <t>41030</t>
   </si>
   <si>
+    <t>05.4.0 - Protection of biodiversity and landscape (CS)</t>
+  </si>
+  <si>
     <t>05.4 - Protection of biodiversity and landscape</t>
   </si>
   <si>
-    <t>05.4.0 - Protection of biodiversity and landscape (CS)</t>
-  </si>
-  <si>
     <t>41040</t>
   </si>
   <si>
@@ -1279,27 +1279,27 @@
     <t>43010</t>
   </si>
   <si>
+    <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
+  </si>
+  <si>
+    <t>04.9 - Economic affairs n.e.c.</t>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
-    <t>04.9 - Economic affairs n.e.c.</t>
-  </si>
-  <si>
-    <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
     <t>43031</t>
   </si>
   <si>
+    <t>06.2.0 - Community development (CS)</t>
+  </si>
+  <si>
     <t>06.2 - Community development</t>
   </si>
   <si>
-    <t>06.2.0 - Community development (CS)</t>
-  </si>
-  <si>
     <t>43032</t>
   </si>
   <si>
@@ -1318,24 +1318,24 @@
     <t>43060</t>
   </si>
   <si>
+    <t>02.2.0 - Civil defence (CS)</t>
+  </si>
+  <si>
     <t>02.2 - Civil defence</t>
   </si>
   <si>
-    <t>02.2.0 - Civil defence (CS)</t>
-  </si>
-  <si>
     <t>43071</t>
   </si>
   <si>
     <t>43072</t>
   </si>
   <si>
+    <t>10.4.0 - Family and children (IS)</t>
+  </si>
+  <si>
     <t>10.4 - Family and children</t>
   </si>
   <si>
-    <t>10.4.0 - Family and children (IS)</t>
-  </si>
-  <si>
     <t>43073</t>
   </si>
   <si>
@@ -1345,12 +1345,12 @@
     <t>43082</t>
   </si>
   <si>
+    <t>01.4.0 - Basic research (CS)</t>
+  </si>
+  <si>
     <t>01.4 - Basic research</t>
   </si>
   <si>
-    <t>01.4.0 - Basic research (CS)</t>
-  </si>
-  <si>
     <t>51010</t>
   </si>
   <si>
@@ -1375,13 +1375,13 @@
     <t>60010</t>
   </si>
   <si>
+    <t>01.7.0 - Public debt transactions (CS)</t>
+  </si>
+  <si>
+    <t>01.7 - Public debt transactions</t>
+  </si>
+  <si>
     <t>600</t>
-  </si>
-  <si>
-    <t>01.7 - Public debt transactions</t>
-  </si>
-  <si>
-    <t>01.7.0 - Public debt transactions (CS)</t>
   </si>
   <si>
     <t>60020</t>
@@ -1866,19 +1866,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1912,19 +1912,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1935,16 +1935,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1961,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1970,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1981,16 +1981,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -2004,16 +2004,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -2027,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2053,16 +2053,16 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2073,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2096,16 +2096,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -2119,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2142,16 +2142,16 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2165,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2188,13 +2188,13 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
@@ -2211,13 +2211,13 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
@@ -2234,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2257,19 +2257,19 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2280,13 +2280,13 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
@@ -2306,16 +2306,16 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
         <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2326,19 +2326,19 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
         <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2352,16 +2352,16 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
         <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2375,16 +2375,16 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
         <v>64</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2398,16 +2398,16 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
         <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2421,16 +2421,16 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
         <v>64</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2444,16 +2444,16 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
         <v>64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2467,16 +2467,16 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
         <v>64</v>
-      </c>
-      <c r="E29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2487,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2513,16 +2513,16 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
         <v>76</v>
-      </c>
-      <c r="E31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2536,16 +2536,16 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
         <v>76</v>
-      </c>
-      <c r="E32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2559,16 +2559,16 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
         <v>76</v>
-      </c>
-      <c r="E33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2582,16 +2582,16 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
         <v>76</v>
-      </c>
-      <c r="E34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2605,16 +2605,16 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
         <v>76</v>
-      </c>
-      <c r="E35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2625,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
         <v>76</v>
-      </c>
-      <c r="E36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2650,14 +2650,14 @@
       <c r="C37" t="s">
         <v>31</v>
       </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
       <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
         <v>83</v>
-      </c>
-      <c r="F37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2670,14 +2670,14 @@
       <c r="C38" t="s">
         <v>31</v>
       </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
       <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
         <v>83</v>
-      </c>
-      <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2690,14 +2690,14 @@
       <c r="C39" t="s">
         <v>31</v>
       </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
       <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
         <v>83</v>
-      </c>
-      <c r="F39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2710,14 +2710,14 @@
       <c r="C40" t="s">
         <v>31</v>
       </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
       <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
         <v>83</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2728,16 +2728,16 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
       </c>
       <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
         <v>83</v>
-      </c>
-      <c r="F41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2748,16 +2748,16 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
       </c>
       <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2770,13 +2770,13 @@
       <c r="C43" t="s">
         <v>90</v>
       </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2790,14 +2790,14 @@
       <c r="C44" t="s">
         <v>95</v>
       </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2810,13 +2810,13 @@
       <c r="C45" t="s">
         <v>90</v>
       </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
-      </c>
-      <c r="G45" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2830,13 +2830,13 @@
       <c r="C46" t="s">
         <v>90</v>
       </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2848,16 +2848,16 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2870,13 +2870,13 @@
       <c r="C48" t="s">
         <v>90</v>
       </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2890,13 +2890,13 @@
       <c r="C49" t="s">
         <v>90</v>
       </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2908,16 +2908,16 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2930,13 +2930,13 @@
       <c r="C51" t="s">
         <v>90</v>
       </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2948,16 +2948,16 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2970,14 +2970,14 @@
       <c r="C53" t="s">
         <v>9</v>
       </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3011,19 +3011,19 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E55" t="s">
         <v>114</v>
       </c>
       <c r="F55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3034,19 +3034,19 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
         <v>114</v>
       </c>
       <c r="F56" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3060,16 +3060,16 @@
         <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G57" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3080,19 +3080,19 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E58" t="s">
         <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3103,19 +3103,19 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
         <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3126,19 +3126,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
         <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3149,19 +3149,19 @@
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
         <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3172,19 +3172,19 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
         <v>114</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3195,19 +3195,19 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E63" t="s">
         <v>114</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G63" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3218,19 +3218,19 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E64" t="s">
         <v>114</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G64" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3241,19 +3241,19 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="E65" t="s">
         <v>114</v>
       </c>
       <c r="F65" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="G65" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3287,19 +3287,19 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
         <v>114</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3310,7 +3310,7 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
         <v>113</v>
@@ -3322,7 +3322,7 @@
         <v>115</v>
       </c>
       <c r="G68" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3333,7 +3333,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D69" t="s">
         <v>113</v>
@@ -3345,7 +3345,7 @@
         <v>115</v>
       </c>
       <c r="G69" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3356,19 +3356,19 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E70" t="s">
         <v>114</v>
       </c>
       <c r="F70" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G70" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3379,19 +3379,19 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
         <v>114</v>
       </c>
       <c r="F71" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G71" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3425,19 +3425,19 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E73" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F73" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="G73" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3448,19 +3448,19 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="E74" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F74" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="G74" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3471,19 +3471,19 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="G75" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3494,19 +3494,19 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E76" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="G76" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3517,19 +3517,19 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E77" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="G77" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3540,19 +3540,19 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="D78" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F78" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="G78" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3563,19 +3563,19 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="D79" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F79" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="G79" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3589,16 +3589,16 @@
         <v>163</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="G80" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3612,16 +3612,16 @@
         <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="F81" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="G81" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3635,16 +3635,16 @@
         <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="E82" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="G82" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3655,7 +3655,7 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D83" t="s">
         <v>113</v>
@@ -3667,7 +3667,7 @@
         <v>115</v>
       </c>
       <c r="G83" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3678,19 +3678,19 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="D84" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="E84" t="s">
         <v>114</v>
       </c>
       <c r="F84" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="G84" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3701,19 +3701,19 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E85" t="s">
         <v>114</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G85" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3724,19 +3724,19 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="E86" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="G86" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3747,19 +3747,19 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="D87" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E87" t="s">
         <v>114</v>
       </c>
       <c r="F87" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G87" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3770,19 +3770,19 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D88" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E88" t="s">
         <v>114</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3793,19 +3793,19 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E89" t="s">
         <v>114</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3819,16 +3819,16 @@
         <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E90" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G90" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3842,16 +3842,16 @@
         <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="F91" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="G91" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3865,16 +3865,16 @@
         <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G92" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3885,19 +3885,19 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E93" t="s">
         <v>114</v>
       </c>
       <c r="F93" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G93" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3911,16 +3911,16 @@
         <v>124</v>
       </c>
       <c r="D94" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E94" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F94" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G94" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3931,19 +3931,19 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="D95" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="E95" t="s">
         <v>114</v>
       </c>
       <c r="F95" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="G95" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3957,16 +3957,16 @@
         <v>124</v>
       </c>
       <c r="D96" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" t="s">
+        <v>115</v>
+      </c>
+      <c r="G96" t="s">
         <v>192</v>
-      </c>
-      <c r="E96" t="s">
-        <v>114</v>
-      </c>
-      <c r="F96" t="s">
-        <v>125</v>
-      </c>
-      <c r="G96" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3980,16 +3980,16 @@
         <v>124</v>
       </c>
       <c r="D97" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" t="s">
+        <v>115</v>
+      </c>
+      <c r="G97" t="s">
         <v>192</v>
-      </c>
-      <c r="E97" t="s">
-        <v>114</v>
-      </c>
-      <c r="F97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G97" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4003,16 +4003,16 @@
         <v>195</v>
       </c>
       <c r="D98" t="s">
+        <v>196</v>
+      </c>
+      <c r="E98" t="s">
+        <v>197</v>
+      </c>
+      <c r="F98" t="s">
+        <v>115</v>
+      </c>
+      <c r="G98" t="s">
         <v>192</v>
-      </c>
-      <c r="E98" t="s">
-        <v>114</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
-      </c>
-      <c r="G98" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4026,16 +4026,16 @@
         <v>124</v>
       </c>
       <c r="D99" t="s">
+        <v>125</v>
+      </c>
+      <c r="E99" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" t="s">
         <v>192</v>
-      </c>
-      <c r="E99" t="s">
-        <v>114</v>
-      </c>
-      <c r="F99" t="s">
-        <v>125</v>
-      </c>
-      <c r="G99" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4046,19 +4046,19 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="D100" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" t="s">
+        <v>115</v>
+      </c>
+      <c r="G100" t="s">
         <v>192</v>
-      </c>
-      <c r="E100" t="s">
-        <v>114</v>
-      </c>
-      <c r="F100" t="s">
-        <v>154</v>
-      </c>
-      <c r="G100" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4072,16 +4072,16 @@
         <v>124</v>
       </c>
       <c r="D101" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" t="s">
+        <v>115</v>
+      </c>
+      <c r="G101" t="s">
         <v>192</v>
-      </c>
-      <c r="E101" t="s">
-        <v>114</v>
-      </c>
-      <c r="F101" t="s">
-        <v>125</v>
-      </c>
-      <c r="G101" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4092,15 +4092,15 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>202</v>
+      </c>
+      <c r="D102" t="s">
+        <v>203</v>
       </c>
       <c r="E102" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F102" t="s">
-        <v>203</v>
-      </c>
-      <c r="G102" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4112,15 +4112,15 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>182</v>
+        <v>202</v>
+      </c>
+      <c r="D103" t="s">
+        <v>203</v>
       </c>
       <c r="E103" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F103" t="s">
-        <v>203</v>
-      </c>
-      <c r="G103" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4132,15 +4132,15 @@
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>182</v>
+        <v>202</v>
+      </c>
+      <c r="D104" t="s">
+        <v>203</v>
       </c>
       <c r="E104" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F104" t="s">
-        <v>203</v>
-      </c>
-      <c r="G104" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4152,16 +4152,16 @@
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>182</v>
+        <v>208</v>
+      </c>
+      <c r="D105" t="s">
+        <v>209</v>
       </c>
       <c r="E105" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
-      </c>
-      <c r="G105" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4172,15 +4172,15 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>182</v>
+        <v>202</v>
+      </c>
+      <c r="D106" t="s">
+        <v>203</v>
       </c>
       <c r="E106" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F106" t="s">
-        <v>203</v>
-      </c>
-      <c r="G106" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4194,14 +4194,14 @@
       <c r="C107" t="s">
         <v>182</v>
       </c>
+      <c r="D107" t="s">
+        <v>183</v>
+      </c>
       <c r="E107" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F107" t="s">
-        <v>183</v>
-      </c>
-      <c r="G107" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4212,16 +4212,16 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>182</v>
+        <v>213</v>
+      </c>
+      <c r="D108" t="s">
+        <v>214</v>
       </c>
       <c r="E108" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F108" t="s">
-        <v>213</v>
-      </c>
-      <c r="G108" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4232,16 +4232,16 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>90</v>
+        <v>216</v>
+      </c>
+      <c r="D109" t="s">
+        <v>217</v>
       </c>
       <c r="E109" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
-      </c>
-      <c r="G109" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4252,16 +4252,16 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>219</v>
+      </c>
+      <c r="D110" t="s">
+        <v>220</v>
       </c>
       <c r="E110" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="F110" t="s">
-        <v>219</v>
-      </c>
-      <c r="G110" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4272,15 +4272,15 @@
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>182</v>
+        <v>202</v>
+      </c>
+      <c r="D111" t="s">
+        <v>203</v>
       </c>
       <c r="E111" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F111" t="s">
-        <v>203</v>
-      </c>
-      <c r="G111" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4294,17 +4294,17 @@
       <c r="C112" t="s">
         <v>223</v>
       </c>
+      <c r="D112" t="s">
+        <v>224</v>
+      </c>
       <c r="E112" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
-      </c>
-      <c r="G112" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>226</v>
       </c>
@@ -4312,19 +4312,19 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>112</v>
+        <v>143</v>
+      </c>
+      <c r="D113" t="s">
+        <v>113</v>
       </c>
       <c r="E113" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="F113" t="s">
-        <v>115</v>
-      </c>
-      <c r="G113" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -4332,19 +4332,19 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>151</v>
+      </c>
+      <c r="D114" t="s">
+        <v>152</v>
       </c>
       <c r="E114" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="F114" t="s">
-        <v>151</v>
-      </c>
-      <c r="G114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -4354,17 +4354,17 @@
       <c r="C115" t="s">
         <v>182</v>
       </c>
+      <c r="D115" t="s">
+        <v>183</v>
+      </c>
       <c r="E115" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F115" t="s">
-        <v>183</v>
-      </c>
-      <c r="G115" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -4372,19 +4372,19 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>223</v>
+        <v>230</v>
+      </c>
+      <c r="D116" t="s">
+        <v>231</v>
       </c>
       <c r="E116" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
-      </c>
-      <c r="G116" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -4394,17 +4394,17 @@
       <c r="C117" t="s">
         <v>223</v>
       </c>
+      <c r="D117" t="s">
+        <v>224</v>
+      </c>
       <c r="E117" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
-      </c>
-      <c r="G117" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -4412,19 +4412,19 @@
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>163</v>
+        <v>234</v>
+      </c>
+      <c r="D118" t="s">
+        <v>164</v>
       </c>
       <c r="E118" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="F118" t="s">
-        <v>164</v>
-      </c>
-      <c r="G118" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -4434,17 +4434,17 @@
       <c r="C119" t="s">
         <v>182</v>
       </c>
+      <c r="D119" t="s">
+        <v>183</v>
+      </c>
       <c r="E119" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F119" t="s">
-        <v>183</v>
-      </c>
-      <c r="G119" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>236</v>
       </c>
@@ -4452,19 +4452,19 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="D120" t="s">
+        <v>171</v>
       </c>
       <c r="E120" t="s">
+        <v>114</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
       </c>
-      <c r="F120" t="s">
-        <v>170</v>
-      </c>
-      <c r="G120" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>238</v>
       </c>
@@ -4472,19 +4472,19 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>112</v>
+        <v>143</v>
+      </c>
+      <c r="D121" t="s">
+        <v>113</v>
       </c>
       <c r="E121" t="s">
+        <v>114</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
       </c>
-      <c r="F121" t="s">
-        <v>115</v>
-      </c>
-      <c r="G121" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>239</v>
       </c>
@@ -4492,19 +4492,19 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="D122" t="s">
+        <v>171</v>
       </c>
       <c r="E122" t="s">
+        <v>114</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
       </c>
-      <c r="F122" t="s">
-        <v>170</v>
-      </c>
-      <c r="G122" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>240</v>
       </c>
@@ -4512,19 +4512,19 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="D123" t="s">
+        <v>171</v>
       </c>
       <c r="E123" t="s">
+        <v>114</v>
+      </c>
+      <c r="F123" t="s">
         <v>237</v>
       </c>
-      <c r="F123" t="s">
-        <v>170</v>
-      </c>
-      <c r="G123" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>241</v>
       </c>
@@ -4532,19 +4532,19 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>163</v>
+        <v>242</v>
+      </c>
+      <c r="D124" t="s">
+        <v>243</v>
       </c>
       <c r="E124" t="s">
+        <v>165</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
       </c>
-      <c r="F124" t="s">
-        <v>242</v>
-      </c>
-      <c r="G124" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>244</v>
       </c>
@@ -4552,19 +4552,19 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>163</v>
+        <v>242</v>
+      </c>
+      <c r="D125" t="s">
+        <v>243</v>
       </c>
       <c r="E125" t="s">
+        <v>165</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
       </c>
-      <c r="F125" t="s">
-        <v>242</v>
-      </c>
-      <c r="G125" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>245</v>
       </c>
@@ -4572,19 +4572,19 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>242</v>
+      </c>
+      <c r="D126" t="s">
+        <v>243</v>
       </c>
       <c r="E126" t="s">
+        <v>165</v>
+      </c>
+      <c r="F126" t="s">
         <v>237</v>
       </c>
-      <c r="F126" t="s">
-        <v>242</v>
-      </c>
-      <c r="G126" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>246</v>
       </c>
@@ -4592,19 +4592,19 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>163</v>
+        <v>242</v>
+      </c>
+      <c r="D127" t="s">
+        <v>243</v>
       </c>
       <c r="E127" t="s">
+        <v>165</v>
+      </c>
+      <c r="F127" t="s">
         <v>237</v>
       </c>
-      <c r="F127" t="s">
-        <v>242</v>
-      </c>
-      <c r="G127" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>247</v>
       </c>
@@ -4612,16 +4612,16 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>163</v>
+        <v>242</v>
+      </c>
+      <c r="D128" t="s">
+        <v>243</v>
       </c>
       <c r="E128" t="s">
+        <v>165</v>
+      </c>
+      <c r="F128" t="s">
         <v>237</v>
-      </c>
-      <c r="F128" t="s">
-        <v>242</v>
-      </c>
-      <c r="G128" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4632,16 +4632,16 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>163</v>
+        <v>249</v>
+      </c>
+      <c r="D129" t="s">
+        <v>243</v>
       </c>
       <c r="E129" t="s">
+        <v>165</v>
+      </c>
+      <c r="F129" t="s">
         <v>237</v>
-      </c>
-      <c r="F129" t="s">
-        <v>242</v>
-      </c>
-      <c r="G129" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4652,16 +4652,16 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>163</v>
+        <v>251</v>
+      </c>
+      <c r="D130" t="s">
+        <v>243</v>
       </c>
       <c r="E130" t="s">
+        <v>165</v>
+      </c>
+      <c r="F130" t="s">
         <v>237</v>
-      </c>
-      <c r="F130" t="s">
-        <v>242</v>
-      </c>
-      <c r="G130" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4672,16 +4672,16 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>163</v>
+        <v>253</v>
+      </c>
+      <c r="D131" t="s">
+        <v>243</v>
       </c>
       <c r="E131" t="s">
+        <v>165</v>
+      </c>
+      <c r="F131" t="s">
         <v>237</v>
-      </c>
-      <c r="F131" t="s">
-        <v>242</v>
-      </c>
-      <c r="G131" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4692,16 +4692,16 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>163</v>
+        <v>255</v>
+      </c>
+      <c r="D132" t="s">
+        <v>256</v>
       </c>
       <c r="E132" t="s">
+        <v>165</v>
+      </c>
+      <c r="F132" t="s">
         <v>237</v>
-      </c>
-      <c r="F132" t="s">
-        <v>255</v>
-      </c>
-      <c r="G132" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4712,16 +4712,16 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>112</v>
+        <v>189</v>
+      </c>
+      <c r="D133" t="s">
+        <v>190</v>
       </c>
       <c r="E133" t="s">
+        <v>114</v>
+      </c>
+      <c r="F133" t="s">
         <v>237</v>
-      </c>
-      <c r="F133" t="s">
-        <v>189</v>
-      </c>
-      <c r="G133" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4732,16 +4732,16 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="D134" t="s">
+        <v>176</v>
       </c>
       <c r="E134" t="s">
+        <v>165</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>175</v>
-      </c>
-      <c r="G134" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4752,16 +4752,16 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="D135" t="s">
+        <v>176</v>
       </c>
       <c r="E135" t="s">
+        <v>165</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>175</v>
-      </c>
-      <c r="G135" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4772,16 +4772,16 @@
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="D136" t="s">
+        <v>176</v>
       </c>
       <c r="E136" t="s">
+        <v>165</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>175</v>
-      </c>
-      <c r="G136" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4792,16 +4792,16 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="D137" t="s">
+        <v>176</v>
       </c>
       <c r="E137" t="s">
+        <v>165</v>
+      </c>
+      <c r="F137" t="s">
         <v>259</v>
-      </c>
-      <c r="F137" t="s">
-        <v>175</v>
-      </c>
-      <c r="G137" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4812,16 +4812,16 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="D138" t="s">
+        <v>176</v>
       </c>
       <c r="E138" t="s">
+        <v>165</v>
+      </c>
+      <c r="F138" t="s">
         <v>259</v>
-      </c>
-      <c r="F138" t="s">
-        <v>175</v>
-      </c>
-      <c r="G138" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4832,16 +4832,16 @@
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>223</v>
+        <v>265</v>
+      </c>
+      <c r="D139" t="s">
+        <v>266</v>
       </c>
       <c r="E139" t="s">
+        <v>225</v>
+      </c>
+      <c r="F139" t="s">
         <v>259</v>
-      </c>
-      <c r="F139" t="s">
-        <v>265</v>
-      </c>
-      <c r="G139" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4852,16 +4852,16 @@
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="D140" t="s">
+        <v>176</v>
       </c>
       <c r="E140" t="s">
+        <v>165</v>
+      </c>
+      <c r="F140" t="s">
         <v>259</v>
-      </c>
-      <c r="F140" t="s">
-        <v>175</v>
-      </c>
-      <c r="G140" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4872,13 +4872,13 @@
         <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D141" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E141" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F141" t="s">
         <v>271</v>
@@ -4895,13 +4895,13 @@
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D142" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E142" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F142" t="s">
         <v>271</v>
@@ -4918,19 +4918,19 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="D143" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E143" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F143" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G143" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4941,19 +4941,19 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="D144" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E144" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F144" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G144" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4964,19 +4964,19 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="D145" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E145" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F145" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G145" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4987,13 +4987,13 @@
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D146" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E146" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F146" t="s">
         <v>271</v>
@@ -5010,19 +5010,19 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D147" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E147" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F147" t="s">
         <v>271</v>
       </c>
       <c r="G147" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5033,19 +5033,19 @@
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D148" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E148" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F148" t="s">
         <v>271</v>
       </c>
       <c r="G148" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5056,19 +5056,19 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D149" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E149" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F149" t="s">
         <v>271</v>
       </c>
       <c r="G149" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5079,19 +5079,19 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D150" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E150" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F150" t="s">
         <v>271</v>
       </c>
       <c r="G150" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5102,19 +5102,19 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D151" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E151" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F151" t="s">
         <v>271</v>
       </c>
       <c r="G151" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5125,19 +5125,19 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D152" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E152" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F152" t="s">
         <v>271</v>
       </c>
       <c r="G152" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5148,19 +5148,19 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D153" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E153" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F153" t="s">
         <v>271</v>
       </c>
       <c r="G153" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5171,19 +5171,19 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D154" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E154" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F154" t="s">
         <v>271</v>
       </c>
       <c r="G154" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5194,19 +5194,19 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D155" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E155" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F155" t="s">
         <v>271</v>
       </c>
       <c r="G155" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5217,19 +5217,19 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D156" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E156" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F156" t="s">
         <v>271</v>
       </c>
       <c r="G156" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5240,19 +5240,19 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="D157" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E157" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F157" t="s">
         <v>271</v>
       </c>
       <c r="G157" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5263,19 +5263,19 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D158" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E158" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F158" t="s">
         <v>271</v>
       </c>
       <c r="G158" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5286,19 +5286,19 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D159" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E159" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F159" t="s">
         <v>271</v>
       </c>
       <c r="G159" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5309,19 +5309,19 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D160" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E160" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F160" t="s">
         <v>271</v>
       </c>
       <c r="G160" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5332,19 +5332,19 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D161" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E161" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F161" t="s">
         <v>271</v>
       </c>
       <c r="G161" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5355,19 +5355,19 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D162" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="E162" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F162" t="s">
         <v>271</v>
       </c>
       <c r="G162" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5378,13 +5378,13 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="D163" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="E163" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F163" t="s">
         <v>271</v>
@@ -5401,19 +5401,19 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D164" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="E164" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F164" t="s">
         <v>271</v>
       </c>
       <c r="G164" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5424,19 +5424,19 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D165" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="E165" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F165" t="s">
         <v>271</v>
       </c>
       <c r="G165" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5447,19 +5447,19 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D166" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="E166" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F166" t="s">
         <v>271</v>
       </c>
       <c r="G166" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5470,19 +5470,19 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D167" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="E167" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F167" t="s">
         <v>271</v>
       </c>
       <c r="G167" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5493,19 +5493,19 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="D168" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="E168" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F168" t="s">
         <v>271</v>
       </c>
       <c r="G168" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5516,19 +5516,19 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="D169" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="E169" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F169" t="s">
         <v>271</v>
       </c>
       <c r="G169" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5539,19 +5539,19 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="D170" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="E170" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="F170" t="s">
         <v>271</v>
       </c>
       <c r="G170" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5564,14 +5564,14 @@
       <c r="C171" t="s">
         <v>163</v>
       </c>
+      <c r="D171" t="s">
+        <v>164</v>
+      </c>
       <c r="E171" t="s">
+        <v>165</v>
+      </c>
+      <c r="F171" t="s">
         <v>313</v>
-      </c>
-      <c r="F171" t="s">
-        <v>164</v>
-      </c>
-      <c r="G171" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5582,16 +5582,16 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="D172" t="s">
+        <v>119</v>
       </c>
       <c r="E172" t="s">
+        <v>114</v>
+      </c>
+      <c r="F172" t="s">
         <v>313</v>
-      </c>
-      <c r="F172" t="s">
-        <v>118</v>
-      </c>
-      <c r="G172" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5604,14 +5604,14 @@
       <c r="C173" t="s">
         <v>163</v>
       </c>
+      <c r="D173" t="s">
+        <v>164</v>
+      </c>
       <c r="E173" t="s">
+        <v>165</v>
+      </c>
+      <c r="F173" t="s">
         <v>313</v>
-      </c>
-      <c r="F173" t="s">
-        <v>164</v>
-      </c>
-      <c r="G173" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5624,14 +5624,14 @@
       <c r="C174" t="s">
         <v>163</v>
       </c>
+      <c r="D174" t="s">
+        <v>164</v>
+      </c>
       <c r="E174" t="s">
+        <v>165</v>
+      </c>
+      <c r="F174" t="s">
         <v>313</v>
-      </c>
-      <c r="F174" t="s">
-        <v>164</v>
-      </c>
-      <c r="G174" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5644,14 +5644,14 @@
       <c r="C175" t="s">
         <v>163</v>
       </c>
+      <c r="D175" t="s">
+        <v>164</v>
+      </c>
       <c r="E175" t="s">
+        <v>165</v>
+      </c>
+      <c r="F175" t="s">
         <v>313</v>
-      </c>
-      <c r="F175" t="s">
-        <v>164</v>
-      </c>
-      <c r="G175" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5664,14 +5664,14 @@
       <c r="C176" t="s">
         <v>163</v>
       </c>
+      <c r="D176" t="s">
+        <v>164</v>
+      </c>
       <c r="E176" t="s">
+        <v>165</v>
+      </c>
+      <c r="F176" t="s">
         <v>313</v>
-      </c>
-      <c r="F176" t="s">
-        <v>164</v>
-      </c>
-      <c r="G176" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5684,14 +5684,14 @@
       <c r="C177" t="s">
         <v>163</v>
       </c>
+      <c r="D177" t="s">
+        <v>164</v>
+      </c>
       <c r="E177" t="s">
+        <v>165</v>
+      </c>
+      <c r="F177" t="s">
         <v>320</v>
-      </c>
-      <c r="F177" t="s">
-        <v>164</v>
-      </c>
-      <c r="G177" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5704,14 +5704,14 @@
       <c r="C178" t="s">
         <v>163</v>
       </c>
+      <c r="D178" t="s">
+        <v>164</v>
+      </c>
       <c r="E178" t="s">
+        <v>165</v>
+      </c>
+      <c r="F178" t="s">
         <v>320</v>
-      </c>
-      <c r="F178" t="s">
-        <v>164</v>
-      </c>
-      <c r="G178" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5724,14 +5724,14 @@
       <c r="C179" t="s">
         <v>163</v>
       </c>
+      <c r="D179" t="s">
+        <v>164</v>
+      </c>
       <c r="E179" t="s">
+        <v>165</v>
+      </c>
+      <c r="F179" t="s">
         <v>320</v>
-      </c>
-      <c r="F179" t="s">
-        <v>164</v>
-      </c>
-      <c r="G179" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5744,14 +5744,14 @@
       <c r="C180" t="s">
         <v>163</v>
       </c>
+      <c r="D180" t="s">
+        <v>164</v>
+      </c>
       <c r="E180" t="s">
+        <v>165</v>
+      </c>
+      <c r="F180" t="s">
         <v>320</v>
-      </c>
-      <c r="F180" t="s">
-        <v>164</v>
-      </c>
-      <c r="G180" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5762,13 +5762,13 @@
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D181" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E181" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F181" t="s">
         <v>327</v>
@@ -5785,13 +5785,13 @@
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D182" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E182" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F182" t="s">
         <v>327</v>
@@ -5808,13 +5808,13 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D183" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E183" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F183" t="s">
         <v>327</v>
@@ -5831,13 +5831,13 @@
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D184" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E184" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F184" t="s">
         <v>327</v>
@@ -5854,13 +5854,13 @@
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D185" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E185" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F185" t="s">
         <v>327</v>
@@ -5877,13 +5877,13 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D186" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E186" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F186" t="s">
         <v>327</v>
@@ -5900,13 +5900,13 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D187" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E187" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F187" t="s">
         <v>327</v>
@@ -5923,13 +5923,13 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D188" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E188" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F188" t="s">
         <v>327</v>
@@ -5946,13 +5946,13 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D189" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E189" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F189" t="s">
         <v>327</v>
@@ -5969,13 +5969,13 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D190" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E190" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F190" t="s">
         <v>327</v>
@@ -5992,13 +5992,13 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D191" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E191" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F191" t="s">
         <v>327</v>
@@ -6015,13 +6015,13 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D192" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E192" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F192" t="s">
         <v>327</v>
@@ -6038,19 +6038,19 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="D193" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="E193" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F193" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="G193" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6061,13 +6061,13 @@
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D194" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E194" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F194" t="s">
         <v>327</v>
@@ -6084,13 +6084,13 @@
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D195" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E195" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F195" t="s">
         <v>327</v>
@@ -6107,13 +6107,13 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D196" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E196" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F196" t="s">
         <v>327</v>
@@ -6130,13 +6130,13 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D197" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E197" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F197" t="s">
         <v>327</v>
@@ -6153,13 +6153,13 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="D198" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E198" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F198" t="s">
         <v>327</v>
@@ -6176,13 +6176,13 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="D199" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="E199" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F199" t="s">
         <v>327</v>
@@ -6199,13 +6199,13 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="D200" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="E200" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F200" t="s">
         <v>327</v>
@@ -6222,13 +6222,13 @@
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="D201" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="E201" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F201" t="s">
         <v>327</v>
@@ -6245,13 +6245,13 @@
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="D202" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="E202" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F202" t="s">
         <v>327</v>
@@ -6268,19 +6268,19 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="D203" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="E203" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F203" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="G203" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6291,13 +6291,13 @@
         <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="D204" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="E204" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F204" t="s">
         <v>327</v>
@@ -6314,13 +6314,13 @@
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>163</v>
+        <v>356</v>
       </c>
       <c r="D205" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="E205" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F205" t="s">
         <v>327</v>
@@ -6337,13 +6337,13 @@
         <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>163</v>
+        <v>356</v>
       </c>
       <c r="D206" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="E206" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F206" t="s">
         <v>327</v>
@@ -6360,13 +6360,13 @@
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>163</v>
+        <v>356</v>
       </c>
       <c r="D207" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="E207" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F207" t="s">
         <v>327</v>
@@ -6383,19 +6383,19 @@
         <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="D208" t="s">
-        <v>356</v>
+        <v>276</v>
       </c>
       <c r="E208" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F208" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="G208" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6406,13 +6406,13 @@
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>163</v>
+        <v>356</v>
       </c>
       <c r="D209" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="E209" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F209" t="s">
         <v>327</v>
@@ -6429,13 +6429,13 @@
         <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D210" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E210" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F210" t="s">
         <v>365</v>
@@ -6452,13 +6452,13 @@
         <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D211" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E211" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F211" t="s">
         <v>365</v>
@@ -6475,13 +6475,13 @@
         <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D212" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E212" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F212" t="s">
         <v>365</v>
@@ -6498,13 +6498,13 @@
         <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D213" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E213" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F213" t="s">
         <v>365</v>
@@ -6521,13 +6521,13 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D214" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E214" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F214" t="s">
         <v>365</v>
@@ -6544,19 +6544,19 @@
         <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="D215" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="E215" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F215" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="G215" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6567,13 +6567,13 @@
         <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D216" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E216" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F216" t="s">
         <v>365</v>
@@ -6590,13 +6590,13 @@
         <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D217" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E217" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F217" t="s">
         <v>365</v>
@@ -6613,13 +6613,13 @@
         <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D218" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E218" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F218" t="s">
         <v>365</v>
@@ -6636,13 +6636,13 @@
         <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D219" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E219" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F219" t="s">
         <v>365</v>
@@ -6659,19 +6659,19 @@
         <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="D220" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
       <c r="E220" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F220" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="G220" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6682,13 +6682,13 @@
         <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D221" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E221" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F221" t="s">
         <v>365</v>
@@ -6705,13 +6705,13 @@
         <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D222" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E222" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F222" t="s">
         <v>365</v>
@@ -6728,13 +6728,13 @@
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D223" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E223" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F223" t="s">
         <v>365</v>
@@ -6751,13 +6751,13 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D224" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E224" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F224" t="s">
         <v>365</v>
@@ -6774,13 +6774,13 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D225" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E225" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F225" t="s">
         <v>365</v>
@@ -6797,19 +6797,19 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="D226" t="s">
-        <v>363</v>
+        <v>276</v>
       </c>
       <c r="E226" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F226" t="s">
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="G226" t="s">
-        <v>276</v>
+        <v>366</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6820,13 +6820,13 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D227" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E227" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F227" t="s">
         <v>365</v>
@@ -6846,16 +6846,16 @@
         <v>163</v>
       </c>
       <c r="D228" t="s">
-        <v>363</v>
+        <v>164</v>
       </c>
       <c r="E228" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F228" t="s">
-        <v>164</v>
+        <v>365</v>
       </c>
       <c r="G228" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6866,13 +6866,13 @@
         <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="D229" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E229" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F229" t="s">
         <v>365</v>
@@ -6889,13 +6889,13 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="D230" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E230" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F230" t="s">
         <v>365</v>
@@ -6912,19 +6912,19 @@
         <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="D231" t="s">
-        <v>386</v>
+        <v>270</v>
       </c>
       <c r="E231" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F231" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="G231" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6935,19 +6935,19 @@
         <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="D232" t="s">
-        <v>386</v>
+        <v>270</v>
       </c>
       <c r="E232" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F232" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="G232" t="s">
-        <v>309</v>
+        <v>387</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6958,13 +6958,13 @@
         <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="D233" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E233" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F233" t="s">
         <v>365</v>
@@ -6981,13 +6981,13 @@
         <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="D234" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E234" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F234" t="s">
         <v>365</v>
@@ -7004,13 +7004,13 @@
         <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="D235" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E235" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F235" t="s">
         <v>365</v>
@@ -7027,13 +7027,13 @@
         <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="D236" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E236" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F236" t="s">
         <v>365</v>
@@ -7050,13 +7050,13 @@
         <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="D237" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E237" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F237" t="s">
         <v>365</v>
@@ -7073,13 +7073,13 @@
         <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="D238" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E238" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F238" t="s">
         <v>365</v>
@@ -7096,13 +7096,13 @@
         <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>163</v>
+        <v>398</v>
       </c>
       <c r="D239" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="E239" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="F239" t="s">
         <v>365</v>
@@ -7122,16 +7122,16 @@
         <v>163</v>
       </c>
       <c r="D240" t="s">
+        <v>164</v>
+      </c>
+      <c r="E240" t="s">
+        <v>165</v>
+      </c>
+      <c r="F240" t="s">
         <v>401</v>
       </c>
-      <c r="E240" t="s">
+      <c r="G240" t="s">
         <v>402</v>
-      </c>
-      <c r="F240" t="s">
-        <v>164</v>
-      </c>
-      <c r="G240" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7145,16 +7145,16 @@
         <v>163</v>
       </c>
       <c r="D241" t="s">
+        <v>164</v>
+      </c>
+      <c r="E241" t="s">
+        <v>165</v>
+      </c>
+      <c r="F241" t="s">
         <v>401</v>
       </c>
-      <c r="E241" t="s">
+      <c r="G241" t="s">
         <v>402</v>
-      </c>
-      <c r="F241" t="s">
-        <v>164</v>
-      </c>
-      <c r="G241" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7168,16 +7168,16 @@
         <v>163</v>
       </c>
       <c r="D242" t="s">
+        <v>164</v>
+      </c>
+      <c r="E242" t="s">
+        <v>165</v>
+      </c>
+      <c r="F242" t="s">
         <v>401</v>
       </c>
-      <c r="E242" t="s">
+      <c r="G242" t="s">
         <v>402</v>
-      </c>
-      <c r="F242" t="s">
-        <v>164</v>
-      </c>
-      <c r="G242" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7191,16 +7191,16 @@
         <v>163</v>
       </c>
       <c r="D243" t="s">
+        <v>164</v>
+      </c>
+      <c r="E243" t="s">
+        <v>165</v>
+      </c>
+      <c r="F243" t="s">
         <v>401</v>
       </c>
-      <c r="E243" t="s">
+      <c r="G243" t="s">
         <v>402</v>
-      </c>
-      <c r="F243" t="s">
-        <v>164</v>
-      </c>
-      <c r="G243" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7214,16 +7214,16 @@
         <v>163</v>
       </c>
       <c r="D244" t="s">
+        <v>164</v>
+      </c>
+      <c r="E244" t="s">
+        <v>165</v>
+      </c>
+      <c r="F244" t="s">
         <v>401</v>
       </c>
-      <c r="E244" t="s">
+      <c r="G244" t="s">
         <v>402</v>
-      </c>
-      <c r="F244" t="s">
-        <v>164</v>
-      </c>
-      <c r="G244" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7237,16 +7237,16 @@
         <v>163</v>
       </c>
       <c r="D245" t="s">
+        <v>164</v>
+      </c>
+      <c r="E245" t="s">
+        <v>165</v>
+      </c>
+      <c r="F245" t="s">
         <v>401</v>
       </c>
-      <c r="E245" t="s">
+      <c r="G245" t="s">
         <v>402</v>
-      </c>
-      <c r="F245" t="s">
-        <v>164</v>
-      </c>
-      <c r="G245" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7257,16 +7257,16 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>163</v>
+        <v>409</v>
       </c>
       <c r="D246" t="s">
-        <v>409</v>
+        <v>256</v>
       </c>
       <c r="E246" t="s">
-        <v>402</v>
+        <v>165</v>
       </c>
       <c r="F246" t="s">
-        <v>255</v>
+        <v>401</v>
       </c>
       <c r="G246" t="s">
         <v>410</v>
@@ -7282,14 +7282,14 @@
       <c r="C247" t="s">
         <v>95</v>
       </c>
+      <c r="D247" t="s">
+        <v>96</v>
+      </c>
       <c r="E247" t="s">
+        <v>97</v>
+      </c>
+      <c r="F247" t="s">
         <v>412</v>
-      </c>
-      <c r="F247" t="s">
-        <v>96</v>
-      </c>
-      <c r="G247" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7302,14 +7302,14 @@
       <c r="C248" t="s">
         <v>95</v>
       </c>
+      <c r="D248" t="s">
+        <v>96</v>
+      </c>
       <c r="E248" t="s">
+        <v>97</v>
+      </c>
+      <c r="F248" t="s">
         <v>412</v>
-      </c>
-      <c r="F248" t="s">
-        <v>96</v>
-      </c>
-      <c r="G248" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7320,16 +7320,16 @@
         <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>95</v>
+        <v>415</v>
+      </c>
+      <c r="D249" t="s">
+        <v>416</v>
       </c>
       <c r="E249" t="s">
+        <v>97</v>
+      </c>
+      <c r="F249" t="s">
         <v>412</v>
-      </c>
-      <c r="F249" t="s">
-        <v>415</v>
-      </c>
-      <c r="G249" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7342,14 +7342,14 @@
       <c r="C250" t="s">
         <v>95</v>
       </c>
+      <c r="D250" t="s">
+        <v>96</v>
+      </c>
       <c r="E250" t="s">
+        <v>97</v>
+      </c>
+      <c r="F250" t="s">
         <v>412</v>
-      </c>
-      <c r="F250" t="s">
-        <v>96</v>
-      </c>
-      <c r="G250" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7362,14 +7362,14 @@
       <c r="C251" t="s">
         <v>95</v>
       </c>
+      <c r="D251" t="s">
+        <v>96</v>
+      </c>
       <c r="E251" t="s">
+        <v>97</v>
+      </c>
+      <c r="F251" t="s">
         <v>412</v>
-      </c>
-      <c r="F251" t="s">
-        <v>96</v>
-      </c>
-      <c r="G251" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7382,14 +7382,14 @@
       <c r="C252" t="s">
         <v>95</v>
       </c>
+      <c r="D252" t="s">
+        <v>96</v>
+      </c>
       <c r="E252" t="s">
+        <v>97</v>
+      </c>
+      <c r="F252" t="s">
         <v>412</v>
-      </c>
-      <c r="F252" t="s">
-        <v>96</v>
-      </c>
-      <c r="G252" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7400,15 +7400,15 @@
         <v>8</v>
       </c>
       <c r="C253" t="s">
-        <v>163</v>
+        <v>421</v>
+      </c>
+      <c r="D253" t="s">
+        <v>422</v>
       </c>
       <c r="E253" t="s">
-        <v>421</v>
+        <v>165</v>
       </c>
       <c r="F253" t="s">
-        <v>422</v>
-      </c>
-      <c r="G253" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7420,16 +7420,16 @@
         <v>8</v>
       </c>
       <c r="C254" t="s">
-        <v>90</v>
+        <v>219</v>
+      </c>
+      <c r="D254" t="s">
+        <v>220</v>
       </c>
       <c r="E254" t="s">
-        <v>421</v>
+        <v>92</v>
       </c>
       <c r="F254" t="s">
-        <v>219</v>
-      </c>
-      <c r="G254" t="s">
-        <v>220</v>
+        <v>423</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7440,16 +7440,16 @@
         <v>8</v>
       </c>
       <c r="C255" t="s">
-        <v>90</v>
+        <v>426</v>
+      </c>
+      <c r="D255" t="s">
+        <v>427</v>
       </c>
       <c r="E255" t="s">
-        <v>421</v>
+        <v>92</v>
       </c>
       <c r="F255" t="s">
-        <v>426</v>
-      </c>
-      <c r="G255" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7460,19 +7460,19 @@
         <v>8</v>
       </c>
       <c r="C256" t="s">
-        <v>90</v>
+        <v>426</v>
+      </c>
+      <c r="D256" t="s">
+        <v>427</v>
       </c>
       <c r="E256" t="s">
-        <v>421</v>
+        <v>92</v>
       </c>
       <c r="F256" t="s">
-        <v>426</v>
-      </c>
-      <c r="G256" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
         <v>429</v>
       </c>
@@ -7480,19 +7480,19 @@
         <v>8</v>
       </c>
       <c r="C257" t="s">
-        <v>90</v>
+        <v>426</v>
+      </c>
+      <c r="D257" t="s">
+        <v>427</v>
       </c>
       <c r="E257" t="s">
-        <v>421</v>
+        <v>92</v>
       </c>
       <c r="F257" t="s">
-        <v>426</v>
-      </c>
-      <c r="G257" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>430</v>
       </c>
@@ -7500,19 +7500,19 @@
         <v>8</v>
       </c>
       <c r="C258" t="s">
-        <v>163</v>
+        <v>325</v>
+      </c>
+      <c r="D258" t="s">
+        <v>326</v>
       </c>
       <c r="E258" t="s">
-        <v>421</v>
+        <v>165</v>
       </c>
       <c r="F258" t="s">
-        <v>327</v>
-      </c>
-      <c r="G258" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>431</v>
       </c>
@@ -7520,19 +7520,19 @@
         <v>8</v>
       </c>
       <c r="C259" t="s">
-        <v>90</v>
+        <v>426</v>
+      </c>
+      <c r="D259" t="s">
+        <v>427</v>
       </c>
       <c r="E259" t="s">
-        <v>421</v>
+        <v>92</v>
       </c>
       <c r="F259" t="s">
-        <v>426</v>
-      </c>
-      <c r="G259" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>432</v>
       </c>
@@ -7542,17 +7542,17 @@
       <c r="C260" t="s">
         <v>163</v>
       </c>
+      <c r="D260" t="s">
+        <v>164</v>
+      </c>
       <c r="E260" t="s">
-        <v>421</v>
+        <v>165</v>
       </c>
       <c r="F260" t="s">
-        <v>164</v>
-      </c>
-      <c r="G260" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>433</v>
       </c>
@@ -7560,19 +7560,19 @@
         <v>8</v>
       </c>
       <c r="C261" t="s">
-        <v>195</v>
+        <v>434</v>
+      </c>
+      <c r="D261" t="s">
+        <v>435</v>
       </c>
       <c r="E261" t="s">
-        <v>421</v>
+        <v>197</v>
       </c>
       <c r="F261" t="s">
-        <v>434</v>
-      </c>
-      <c r="G261" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>436</v>
       </c>
@@ -7582,17 +7582,17 @@
       <c r="C262" t="s">
         <v>163</v>
       </c>
+      <c r="D262" t="s">
+        <v>164</v>
+      </c>
       <c r="E262" t="s">
-        <v>421</v>
+        <v>165</v>
       </c>
       <c r="F262" t="s">
-        <v>164</v>
-      </c>
-      <c r="G262" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>437</v>
       </c>
@@ -7600,19 +7600,19 @@
         <v>8</v>
       </c>
       <c r="C263" t="s">
-        <v>182</v>
+        <v>438</v>
+      </c>
+      <c r="D263" t="s">
+        <v>439</v>
       </c>
       <c r="E263" t="s">
-        <v>421</v>
+        <v>184</v>
       </c>
       <c r="F263" t="s">
-        <v>438</v>
-      </c>
-      <c r="G263" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>440</v>
       </c>
@@ -7622,17 +7622,17 @@
       <c r="C264" t="s">
         <v>31</v>
       </c>
+      <c r="D264" t="s">
+        <v>32</v>
+      </c>
       <c r="E264" t="s">
-        <v>421</v>
+        <v>33</v>
       </c>
       <c r="F264" t="s">
-        <v>32</v>
-      </c>
-      <c r="G264" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>441</v>
       </c>
@@ -7642,17 +7642,17 @@
       <c r="C265" t="s">
         <v>9</v>
       </c>
+      <c r="D265" t="s">
+        <v>10</v>
+      </c>
       <c r="E265" t="s">
-        <v>421</v>
+        <v>11</v>
       </c>
       <c r="F265" t="s">
-        <v>12</v>
-      </c>
-      <c r="G265" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>442</v>
       </c>
@@ -7660,19 +7660,19 @@
         <v>8</v>
       </c>
       <c r="C266" t="s">
-        <v>112</v>
+        <v>443</v>
+      </c>
+      <c r="D266" t="s">
+        <v>444</v>
       </c>
       <c r="E266" t="s">
-        <v>421</v>
+        <v>114</v>
       </c>
       <c r="F266" t="s">
-        <v>443</v>
-      </c>
-      <c r="G266" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>445</v>
       </c>
@@ -7680,19 +7680,19 @@
         <v>8</v>
       </c>
       <c r="C267" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="D267" t="s">
+        <v>119</v>
       </c>
       <c r="E267" t="s">
+        <v>114</v>
+      </c>
+      <c r="F267" t="s">
         <v>446</v>
       </c>
-      <c r="F267" t="s">
-        <v>118</v>
-      </c>
-      <c r="G267" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>447</v>
       </c>
@@ -7700,19 +7700,19 @@
         <v>8</v>
       </c>
       <c r="C268" t="s">
-        <v>182</v>
+        <v>202</v>
+      </c>
+      <c r="D268" t="s">
+        <v>203</v>
       </c>
       <c r="E268" t="s">
+        <v>184</v>
+      </c>
+      <c r="F268" t="s">
         <v>448</v>
       </c>
-      <c r="F268" t="s">
-        <v>203</v>
-      </c>
-      <c r="G268" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>449</v>
       </c>
@@ -7720,19 +7720,19 @@
         <v>8</v>
       </c>
       <c r="C269" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="D269" t="s">
+        <v>119</v>
       </c>
       <c r="E269" t="s">
+        <v>114</v>
+      </c>
+      <c r="F269" t="s">
         <v>450</v>
       </c>
-      <c r="F269" t="s">
-        <v>118</v>
-      </c>
-      <c r="G269" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>451</v>
       </c>
@@ -7740,19 +7740,19 @@
         <v>8</v>
       </c>
       <c r="C270" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="D270" t="s">
+        <v>119</v>
       </c>
       <c r="E270" t="s">
+        <v>114</v>
+      </c>
+      <c r="F270" t="s">
         <v>450</v>
       </c>
-      <c r="F270" t="s">
-        <v>118</v>
-      </c>
-      <c r="G270" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>452</v>
       </c>
@@ -7760,19 +7760,19 @@
         <v>8</v>
       </c>
       <c r="C271" t="s">
-        <v>112</v>
+        <v>453</v>
+      </c>
+      <c r="D271" t="s">
+        <v>454</v>
       </c>
       <c r="E271" t="s">
-        <v>453</v>
+        <v>114</v>
       </c>
       <c r="F271" t="s">
-        <v>454</v>
-      </c>
-      <c r="G271" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>456</v>
       </c>
@@ -7780,19 +7780,19 @@
         <v>8</v>
       </c>
       <c r="C272" t="s">
-        <v>112</v>
+        <v>453</v>
+      </c>
+      <c r="D272" t="s">
+        <v>454</v>
       </c>
       <c r="E272" t="s">
-        <v>453</v>
+        <v>114</v>
       </c>
       <c r="F272" t="s">
-        <v>454</v>
-      </c>
-      <c r="G272" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>457</v>
       </c>
@@ -7800,19 +7800,19 @@
         <v>8</v>
       </c>
       <c r="C273" t="s">
-        <v>112</v>
+        <v>453</v>
+      </c>
+      <c r="D273" t="s">
+        <v>454</v>
       </c>
       <c r="E273" t="s">
-        <v>453</v>
+        <v>114</v>
       </c>
       <c r="F273" t="s">
-        <v>454</v>
-      </c>
-      <c r="G273" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>458</v>
       </c>
@@ -7820,19 +7820,19 @@
         <v>8</v>
       </c>
       <c r="C274" t="s">
-        <v>112</v>
+        <v>453</v>
+      </c>
+      <c r="D274" t="s">
+        <v>454</v>
       </c>
       <c r="E274" t="s">
-        <v>453</v>
+        <v>114</v>
       </c>
       <c r="F274" t="s">
-        <v>454</v>
-      </c>
-      <c r="G274" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>459</v>
       </c>
@@ -7840,19 +7840,19 @@
         <v>8</v>
       </c>
       <c r="C275" t="s">
-        <v>112</v>
+        <v>453</v>
+      </c>
+      <c r="D275" t="s">
+        <v>454</v>
       </c>
       <c r="E275" t="s">
-        <v>453</v>
+        <v>114</v>
       </c>
       <c r="F275" t="s">
-        <v>454</v>
-      </c>
-      <c r="G275" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>460</v>
       </c>
@@ -7860,19 +7860,19 @@
         <v>8</v>
       </c>
       <c r="C276" t="s">
-        <v>112</v>
+        <v>453</v>
+      </c>
+      <c r="D276" t="s">
+        <v>454</v>
       </c>
       <c r="E276" t="s">
-        <v>453</v>
+        <v>114</v>
       </c>
       <c r="F276" t="s">
-        <v>454</v>
-      </c>
-      <c r="G276" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>461</v>
       </c>
@@ -7880,19 +7880,19 @@
         <v>8</v>
       </c>
       <c r="C277" t="s">
-        <v>112</v>
+        <v>453</v>
+      </c>
+      <c r="D277" t="s">
+        <v>454</v>
       </c>
       <c r="E277" t="s">
-        <v>453</v>
+        <v>114</v>
       </c>
       <c r="F277" t="s">
-        <v>454</v>
-      </c>
-      <c r="G277" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>462</v>
       </c>
@@ -7900,19 +7900,19 @@
         <v>8</v>
       </c>
       <c r="C278" t="s">
-        <v>182</v>
+        <v>202</v>
+      </c>
+      <c r="D278" t="s">
+        <v>203</v>
       </c>
       <c r="E278" t="s">
+        <v>184</v>
+      </c>
+      <c r="F278" t="s">
         <v>463</v>
       </c>
-      <c r="F278" t="s">
-        <v>203</v>
-      </c>
-      <c r="G278" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>464</v>
       </c>
@@ -7920,19 +7920,19 @@
         <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="D279" t="s">
+        <v>52</v>
       </c>
       <c r="E279" t="s">
+        <v>33</v>
+      </c>
+      <c r="F279" t="s">
         <v>463</v>
       </c>
-      <c r="F279" t="s">
-        <v>53</v>
-      </c>
-      <c r="G279" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>465</v>
       </c>
@@ -7942,17 +7942,17 @@
       <c r="C280" t="s">
         <v>9</v>
       </c>
+      <c r="D280" t="s">
+        <v>10</v>
+      </c>
       <c r="E280" t="s">
+        <v>11</v>
+      </c>
+      <c r="F280" t="s">
         <v>463</v>
       </c>
-      <c r="F280" t="s">
-        <v>12</v>
-      </c>
-      <c r="G280" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>466</v>
       </c>
@@ -7960,19 +7960,19 @@
         <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="D281" t="s">
+        <v>171</v>
       </c>
       <c r="E281" t="s">
+        <v>114</v>
+      </c>
+      <c r="F281" t="s">
         <v>463</v>
       </c>
-      <c r="F281" t="s">
-        <v>170</v>
-      </c>
-      <c r="G281" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>467</v>
       </c>
@@ -7982,17 +7982,17 @@
       <c r="C282" t="s">
         <v>124</v>
       </c>
+      <c r="D282" t="s">
+        <v>125</v>
+      </c>
       <c r="E282" t="s">
+        <v>126</v>
+      </c>
+      <c r="F282" t="s">
         <v>463</v>
       </c>
-      <c r="F282" t="s">
-        <v>125</v>
-      </c>
-      <c r="G282" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>468</v>
       </c>
@@ -8000,19 +8000,19 @@
         <v>8</v>
       </c>
       <c r="C283" t="s">
-        <v>163</v>
+        <v>398</v>
+      </c>
+      <c r="D283" t="s">
+        <v>364</v>
       </c>
       <c r="E283" t="s">
+        <v>165</v>
+      </c>
+      <c r="F283" t="s">
         <v>469</v>
       </c>
-      <c r="F283" t="s">
-        <v>365</v>
-      </c>
-      <c r="G283" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>470</v>
       </c>
@@ -8022,17 +8022,17 @@
       <c r="C284" t="s">
         <v>124</v>
       </c>
+      <c r="D284" t="s">
+        <v>125</v>
+      </c>
       <c r="E284" t="s">
+        <v>126</v>
+      </c>
+      <c r="F284" t="s">
         <v>471</v>
       </c>
-      <c r="F284" t="s">
-        <v>125</v>
-      </c>
-      <c r="G284" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>472</v>
       </c>
@@ -8040,19 +8040,19 @@
         <v>8</v>
       </c>
       <c r="C285" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="D285" t="s">
+        <v>171</v>
       </c>
       <c r="E285" t="s">
+        <v>114</v>
+      </c>
+      <c r="F285" t="s">
         <v>473</v>
       </c>
-      <c r="F285" t="s">
-        <v>170</v>
-      </c>
-      <c r="G285" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>474</v>
       </c>
@@ -8060,19 +8060,19 @@
         <v>8</v>
       </c>
       <c r="C286" t="s">
-        <v>182</v>
+        <v>438</v>
+      </c>
+      <c r="D286" t="s">
+        <v>439</v>
       </c>
       <c r="E286" t="s">
+        <v>184</v>
+      </c>
+      <c r="F286" t="s">
         <v>475</v>
       </c>
-      <c r="F286" t="s">
-        <v>438</v>
-      </c>
-      <c r="G286" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>476</v>
       </c>
@@ -8080,19 +8080,19 @@
         <v>8</v>
       </c>
       <c r="C287" t="s">
-        <v>182</v>
+        <v>438</v>
+      </c>
+      <c r="D287" t="s">
+        <v>439</v>
       </c>
       <c r="E287" t="s">
+        <v>184</v>
+      </c>
+      <c r="F287" t="s">
         <v>475</v>
       </c>
-      <c r="F287" t="s">
-        <v>438</v>
-      </c>
-      <c r="G287" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>477</v>
       </c>
@@ -8100,19 +8100,19 @@
         <v>8</v>
       </c>
       <c r="C288" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="D288" t="s">
+        <v>42</v>
       </c>
       <c r="E288" t="s">
+        <v>11</v>
+      </c>
+      <c r="F288" t="s">
         <v>475</v>
       </c>
-      <c r="F288" t="s">
-        <v>41</v>
-      </c>
-      <c r="G288" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>478</v>
       </c>
@@ -8122,17 +8122,17 @@
       <c r="C289" t="s">
         <v>31</v>
       </c>
+      <c r="D289" t="s">
+        <v>32</v>
+      </c>
       <c r="E289" t="s">
+        <v>33</v>
+      </c>
+      <c r="F289" t="s">
         <v>475</v>
       </c>
-      <c r="F289" t="s">
-        <v>32</v>
-      </c>
-      <c r="G289" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" t="s">
         <v>479</v>
       </c>
@@ -8142,17 +8142,17 @@
       <c r="C290" t="s">
         <v>31</v>
       </c>
+      <c r="D290" t="s">
+        <v>32</v>
+      </c>
       <c r="E290" t="s">
+        <v>33</v>
+      </c>
+      <c r="F290" t="s">
         <v>475</v>
       </c>
-      <c r="F290" t="s">
-        <v>32</v>
-      </c>
-      <c r="G290" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
         <v>480</v>
       </c>
@@ -8160,19 +8160,19 @@
         <v>8</v>
       </c>
       <c r="C291" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="D291" t="s">
+        <v>171</v>
       </c>
       <c r="E291" t="s">
+        <v>114</v>
+      </c>
+      <c r="F291" t="s">
         <v>475</v>
       </c>
-      <c r="F291" t="s">
-        <v>170</v>
-      </c>
-      <c r="G291" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
         <v>481</v>
       </c>
@@ -8180,19 +8180,19 @@
         <v>8</v>
       </c>
       <c r="C292" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="D292" t="s">
+        <v>171</v>
       </c>
       <c r="E292" t="s">
+        <v>114</v>
+      </c>
+      <c r="F292" t="s">
         <v>475</v>
       </c>
-      <c r="F292" t="s">
-        <v>170</v>
-      </c>
-      <c r="G292" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
         <v>482</v>
       </c>
@@ -8200,19 +8200,19 @@
         <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="D293" t="s">
+        <v>171</v>
       </c>
       <c r="E293" t="s">
+        <v>114</v>
+      </c>
+      <c r="F293" t="s">
         <v>475</v>
       </c>
-      <c r="F293" t="s">
-        <v>170</v>
-      </c>
-      <c r="G293" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" t="s">
         <v>483</v>
       </c>
@@ -8220,19 +8220,19 @@
         <v>8</v>
       </c>
       <c r="C294" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="D294" t="s">
+        <v>171</v>
       </c>
       <c r="E294" t="s">
+        <v>114</v>
+      </c>
+      <c r="F294" t="s">
         <v>475</v>
       </c>
-      <c r="F294" t="s">
-        <v>170</v>
-      </c>
-      <c r="G294" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" t="s">
         <v>484</v>
       </c>
@@ -8240,19 +8240,19 @@
         <v>8</v>
       </c>
       <c r="C295" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="D295" t="s">
+        <v>171</v>
       </c>
       <c r="E295" t="s">
+        <v>114</v>
+      </c>
+      <c r="F295" t="s">
         <v>485</v>
       </c>
-      <c r="F295" t="s">
-        <v>170</v>
-      </c>
-      <c r="G295" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" t="s">
         <v>486</v>
       </c>
@@ -8260,16 +8260,16 @@
         <v>8</v>
       </c>
       <c r="C296" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="D296" t="s">
+        <v>171</v>
       </c>
       <c r="E296" t="s">
+        <v>114</v>
+      </c>
+      <c r="F296" t="s">
         <v>485</v>
-      </c>
-      <c r="F296" t="s">
-        <v>170</v>
-      </c>
-      <c r="G296" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/api/2/xlsx/es/SectorCOFOG.xlsx
+++ b/api/2/xlsx/es/SectorCOFOG.xlsx
@@ -22,75 +22,75 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-division</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-group</t>
+  </si>
+  <si>
     <t>codeforiati:cofog-class</t>
   </si>
   <si>
-    <t>codeforiati:cofog-group</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-division</t>
-  </si>
-  <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
     <t>active</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>09 - Education</t>
+  </si>
+  <si>
+    <t>09.8 - Education n.e.c.</t>
+  </si>
+  <si>
     <t>09.8.0 - Education n.e.c. (CS)</t>
   </si>
   <si>
-    <t>09.8 - Education n.e.c.</t>
-  </si>
-  <si>
-    <t>09 - Education</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
+    <t>09.6 - Subsidiary services to education</t>
+  </si>
+  <si>
     <t>09.6.0 - Subsidiary services to education (IS)</t>
   </si>
   <si>
-    <t>09.6 - Subsidiary services to education</t>
-  </si>
-  <si>
     <t>11130</t>
   </si>
   <si>
     <t>11182</t>
   </si>
   <si>
+    <t>09.7 - R&amp;D Education</t>
+  </si>
+  <si>
     <t>09.7.0 - R&amp;D Education (CS)</t>
   </si>
   <si>
-    <t>09.7 - R&amp;D Education</t>
-  </si>
-  <si>
     <t>11220</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>09.1 - Pre‐primary and primary education</t>
+  </si>
+  <si>
     <t>09.1.2 - Primary education (IS)</t>
   </si>
   <si>
-    <t>09.1 - Pre‐primary and primary education</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -109,99 +109,99 @@
     <t>11250</t>
   </si>
   <si>
+    <t>07 - Health</t>
+  </si>
+  <si>
+    <t>07.4 - Public health services</t>
+  </si>
+  <si>
     <t>07.4.0 - Public health services (IS)</t>
   </si>
   <si>
-    <t>07.4 - Public health services</t>
-  </si>
-  <si>
-    <t>07 - Health</t>
-  </si>
-  <si>
     <t>11260</t>
   </si>
   <si>
+    <t>09.2 - Secondary education</t>
+  </si>
+  <si>
     <t>09.2.1 - Lower‐secondary education (IS)</t>
   </si>
   <si>
-    <t>09.2 - Secondary education</t>
-  </si>
-  <si>
     <t>11320</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>09.2.2 - Upper‐secondary education (IS)</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
+    <t>09.5 - Education not definable by level</t>
+  </si>
+  <si>
     <t>09.5.0 - Education not definable by level (IS)</t>
   </si>
   <si>
-    <t>09.5 - Education not definable by level</t>
-  </si>
-  <si>
     <t>11420</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>09.4 - Tertiary education</t>
+  </si>
+  <si>
     <t>09.4.1 - First stage of tertiary education (IS)</t>
   </si>
   <si>
-    <t>09.4 - Tertiary education</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
+    <t>09.3 - Post‐secondary non‐tertiary education</t>
+  </si>
+  <si>
     <t>09.3.0 - Post‐secondary non‐tertiary education (IS)</t>
   </si>
   <si>
-    <t>09.3 - Post‐secondary non‐tertiary education</t>
-  </si>
-  <si>
     <t>12110</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>07.6 - Health n.e.c.</t>
+  </si>
+  <si>
     <t>07.6.0 - Health n.e.c. (CS)</t>
   </si>
   <si>
-    <t>07.6 - Health n.e.c.</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
     <t>12182</t>
   </si>
   <si>
+    <t>07.5 - R&amp;D Health</t>
+  </si>
+  <si>
     <t>07.5.0 - R&amp;D Health (CS)</t>
   </si>
   <si>
-    <t>07.5 - R&amp;D Health</t>
-  </si>
-  <si>
     <t>12191</t>
   </si>
   <si>
+    <t>07.2 - Outpatient services</t>
+  </si>
+  <si>
     <t>07.2.1 - General medical services (IS)</t>
   </si>
   <si>
-    <t>07.2 - Outpatient services</t>
-  </si>
-  <si>
     <t>12196</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>12230</t>
   </si>
   <si>
+    <t>07.3 - Hospital services</t>
+  </si>
+  <si>
     <t>07.3.1 - General hospital services (IS)</t>
   </si>
   <si>
-    <t>07.3 - Hospital services</t>
-  </si>
-  <si>
     <t>12240</t>
   </si>
   <si>
@@ -286,30 +286,30 @@
     <t>14010</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>06 - Housing and community amenities</t>
+  </si>
+  <si>
+    <t>06.3 - Water supply</t>
+  </si>
+  <si>
     <t>06.3.0 - Water supply (CS)</t>
   </si>
   <si>
-    <t>06.3 - Water supply</t>
-  </si>
-  <si>
-    <t>06 - Housing and community amenities</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
+    <t>05 - Environmental protection</t>
+  </si>
+  <si>
+    <t>05.6 - Environmental protection n.e.c.</t>
+  </si>
+  <si>
     <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
   </si>
   <si>
-    <t>05.6 - Environmental protection n.e.c.</t>
-  </si>
-  <si>
-    <t>05 - Environmental protection</t>
-  </si>
-  <si>
     <t>14020</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>14022</t>
   </si>
   <si>
+    <t>05.2 - Waste water management</t>
+  </si>
+  <si>
     <t>05.2.0 - Waste water management (CS)</t>
   </si>
   <si>
-    <t>05.2 - Waste water management</t>
-  </si>
-  <si>
     <t>14030</t>
   </si>
   <si>
@@ -340,63 +340,63 @@
     <t>14050</t>
   </si>
   <si>
+    <t>05.1 - Waste management</t>
+  </si>
+  <si>
     <t>05.1.0 - Waste management (CS)</t>
   </si>
   <si>
-    <t>05.1 - Waste management</t>
-  </si>
-  <si>
     <t>14081</t>
   </si>
   <si>
     <t>15110</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>01 - General public services</t>
+  </si>
+  <si>
+    <t>01.3 - General services</t>
+  </si>
+  <si>
     <t>01.3.1 - General personnel services (CS)</t>
   </si>
   <si>
-    <t>01.3 - General services</t>
-  </si>
-  <si>
-    <t>01 - General public services</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
+    <t>01.1 - Executive and legislative organs, financial and fiscal affairs, external affairs</t>
+  </si>
+  <si>
     <t>01.1.2 - Financial and fiscal affairs (CS)</t>
   </si>
   <si>
-    <t>01.1 - Executive and legislative organs, financial and fiscal affairs, external affairs</t>
-  </si>
-  <si>
     <t>15112</t>
   </si>
   <si>
+    <t>01.8 - Transfers of a general character between different levels of government</t>
+  </si>
+  <si>
     <t>01.8.0 - Transfers of a general character between different levels of government (CS)</t>
   </si>
   <si>
-    <t>01.8 - Transfers of a general character between different levels of government</t>
-  </si>
-  <si>
     <t>15113</t>
   </si>
   <si>
+    <t>03 - Public order and safety</t>
+  </si>
+  <si>
+    <t>03.6 - Public order and safety n.e.c.</t>
+  </si>
+  <si>
     <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
   </si>
   <si>
-    <t>03.6 - Public order and safety n.e.c.</t>
-  </si>
-  <si>
-    <t>03 - Public order and safety</t>
-  </si>
-  <si>
     <t>15114</t>
   </si>
   <si>
@@ -424,12 +424,12 @@
     <t>15123</t>
   </si>
   <si>
+    <t>01.2 - Foreign economic aid</t>
+  </si>
+  <si>
     <t>01.2.2 - Economic aid routed through international organizations (CS)</t>
   </si>
   <si>
-    <t>01.2 - Foreign economic aid</t>
-  </si>
-  <si>
     <t>15124</t>
   </si>
   <si>
@@ -460,30 +460,30 @@
     <t>15131</t>
   </si>
   <si>
+    <t>03.3 - Law courts</t>
+  </si>
+  <si>
     <t>03.3.0 - Law courts (CS)</t>
   </si>
   <si>
-    <t>03.3 - Law courts</t>
-  </si>
-  <si>
     <t>15132</t>
   </si>
   <si>
+    <t>03.1 - Police services</t>
+  </si>
+  <si>
     <t>03.1.0 - Police services (CS)</t>
   </si>
   <si>
-    <t>03.1 - Police services</t>
-  </si>
-  <si>
     <t>15133</t>
   </si>
   <si>
+    <t>03.2 - Fire‐protection services</t>
+  </si>
+  <si>
     <t>03.2.0 - Fire‐protection services (CS)</t>
   </si>
   <si>
-    <t>03.2 - Fire‐protection services</t>
-  </si>
-  <si>
     <t>15134</t>
   </si>
   <si>
@@ -496,24 +496,24 @@
     <t>15137</t>
   </si>
   <si>
+    <t>03.4 - Prisons</t>
+  </si>
+  <si>
     <t>03.4.0 - Prisons (CS)</t>
   </si>
   <si>
-    <t>03.4 - Prisons</t>
-  </si>
-  <si>
     <t>15142</t>
   </si>
   <si>
+    <t>04 - Economic affairs</t>
+  </si>
+  <si>
+    <t>04.1 - General economic, commercial and labour affairs</t>
+  </si>
+  <si>
     <t>04.1.1 - General economic and commercial affairs (CS)</t>
   </si>
   <si>
-    <t>04.1 - General economic, commercial and labour affairs</t>
-  </si>
-  <si>
-    <t>04 - Economic affairs</t>
-  </si>
-  <si>
     <t>15143</t>
   </si>
   <si>
@@ -526,12 +526,12 @@
     <t>15151</t>
   </si>
   <si>
+    <t>01.6 - General public services n.e.c.</t>
+  </si>
+  <si>
     <t>01.6.0 - General public services n.e.c. (CS)</t>
   </si>
   <si>
-    <t>01.6 - General public services n.e.c.</t>
-  </si>
-  <si>
     <t>15152</t>
   </si>
   <si>
@@ -541,12 +541,12 @@
     <t>15153</t>
   </si>
   <si>
+    <t>04.6 - Communication</t>
+  </si>
+  <si>
     <t>04.6.0 - Communication (CS)</t>
   </si>
   <si>
-    <t>04.6 - Communication</t>
-  </si>
-  <si>
     <t>15154</t>
   </si>
   <si>
@@ -562,15 +562,15 @@
     <t>15170</t>
   </si>
   <si>
+    <t>10 - Social protection</t>
+  </si>
+  <si>
+    <t>10.7 - Social exclusion n.e.c.</t>
+  </si>
+  <si>
     <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
   </si>
   <si>
-    <t>10.7 - Social exclusion n.e.c.</t>
-  </si>
-  <si>
-    <t>10 - Social protection</t>
-  </si>
-  <si>
     <t>15180</t>
   </si>
   <si>
@@ -583,12 +583,12 @@
     <t>15196</t>
   </si>
   <si>
+    <t>01.5 - R&amp;D General public services</t>
+  </si>
+  <si>
     <t>01.5.0 - R&amp;D General public services (CS)</t>
   </si>
   <si>
-    <t>01.5 - R&amp;D General public services</t>
-  </si>
-  <si>
     <t>15210</t>
   </si>
   <si>
@@ -601,15 +601,15 @@
     <t>15230</t>
   </si>
   <si>
+    <t>02 - Defence</t>
+  </si>
+  <si>
+    <t>02.3 - Foreign military aid</t>
+  </si>
+  <si>
     <t>02.3.0 - Foreign military aid (CS)</t>
   </si>
   <si>
-    <t>02.3 - Foreign military aid</t>
-  </si>
-  <si>
-    <t>02 - Defence</t>
-  </si>
-  <si>
     <t>15240</t>
   </si>
   <si>
@@ -622,15 +622,15 @@
     <t>16010</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>10.9 - Social protection n.e.c.</t>
+  </si>
+  <si>
     <t>10.9.0 - Social protection n.e.c. (CS)</t>
   </si>
   <si>
-    <t>10.9 - Social protection n.e.c.</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16011</t>
   </si>
   <si>
@@ -640,12 +640,12 @@
     <t>16013</t>
   </si>
   <si>
+    <t>10.2 - Old age</t>
+  </si>
+  <si>
     <t>10.2.0 - Old age (IS)</t>
   </si>
   <si>
-    <t>10.2 - Old age</t>
-  </si>
-  <si>
     <t>16014</t>
   </si>
   <si>
@@ -655,45 +655,45 @@
     <t>16020</t>
   </si>
   <si>
+    <t>10.5 - Unemployment</t>
+  </si>
+  <si>
     <t>10.5.0 - Unemployment (IS)</t>
   </si>
   <si>
-    <t>10.5 - Unemployment</t>
-  </si>
-  <si>
     <t>16030</t>
   </si>
   <si>
+    <t>06.6 - Housing and community amenities n.e.c.</t>
+  </si>
+  <si>
     <t>06.6.0 - Housing and community amenities n.e.c. (CS)</t>
   </si>
   <si>
-    <t>06.6 - Housing and community amenities n.e.c.</t>
-  </si>
-  <si>
     <t>16040</t>
   </si>
   <si>
+    <t>06.1 - Housing development</t>
+  </si>
+  <si>
     <t>06.1.0 - Housing development (CS)</t>
   </si>
   <si>
-    <t>06.1 - Housing development</t>
-  </si>
-  <si>
     <t>16050</t>
   </si>
   <si>
     <t>16061</t>
   </si>
   <si>
+    <t>08 - Recreation, culture and religion</t>
+  </si>
+  <si>
+    <t>08.2 - Cultural services</t>
+  </si>
+  <si>
     <t>08.2.0 - Cultural services (IS)</t>
   </si>
   <si>
-    <t>08.2 - Cultural services</t>
-  </si>
-  <si>
-    <t>08 - Recreation, culture and religion</t>
-  </si>
-  <si>
     <t>16062</t>
   </si>
   <si>
@@ -706,12 +706,12 @@
     <t>16065</t>
   </si>
   <si>
+    <t>08.1 - Recreational and sporting services</t>
+  </si>
+  <si>
     <t>08.1.0 - Recreational and sporting services (IS)</t>
   </si>
   <si>
-    <t>08.1 - Recreational and sporting services</t>
-  </si>
-  <si>
     <t>16066</t>
   </si>
   <si>
@@ -742,12 +742,12 @@
     <t>21020</t>
   </si>
   <si>
+    <t>04.5 - Transport</t>
+  </si>
+  <si>
     <t>04.5.1 - Road transport (CS)</t>
   </si>
   <si>
-    <t>04.5 - Transport</t>
-  </si>
-  <si>
     <t>21021</t>
   </si>
   <si>
@@ -781,12 +781,12 @@
     <t>21061</t>
   </si>
   <si>
+    <t>04.7 - Other industries</t>
+  </si>
+  <si>
     <t>04.7.1 - Distributive trades, storage and warehousing (CS)</t>
   </si>
   <si>
-    <t>04.7 - Other industries</t>
-  </si>
-  <si>
     <t>21081</t>
   </si>
   <si>
@@ -811,42 +811,42 @@
     <t>22030</t>
   </si>
   <si>
+    <t>08.3 - Broadcasting and publishing services</t>
+  </si>
+  <si>
     <t>08.3.0 - Broadcasting and publishing services (CS)</t>
   </si>
   <si>
-    <t>08.3 - Broadcasting and publishing services</t>
-  </si>
-  <si>
     <t>22040</t>
   </si>
   <si>
     <t>23110</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>04.3 - Fuel and energy</t>
+  </si>
+  <si>
     <t>04.3.5 - Electricity (CS)</t>
   </si>
   <si>
-    <t>04.3 - Fuel and energy</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
     <t>23112</t>
   </si>
   <si>
+    <t>04.8 - R&amp;D Economic affairs</t>
+  </si>
+  <si>
     <t>04.8.3 - R&amp;D Fuel and energy (CS)</t>
   </si>
   <si>
-    <t>04.8 - R&amp;D Economic affairs</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>23510</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>04.3.3 - Nuclear fuel (CS)</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
@@ -991,18 +991,18 @@
     <t>31110</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
+  </si>
+  <si>
     <t>04.2.1 - Agriculture (CS)</t>
   </si>
   <si>
-    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1060,12 +1060,12 @@
     <t>31210</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>04.2.2 - Forestry (CS)</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1084,12 +1084,12 @@
     <t>31310</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>04.2.3 - Fishing and hunting (CS)</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1105,18 +1105,18 @@
     <t>32110</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>04.4 - Mining, manufacturing and construction</t>
+  </si>
+  <si>
     <t>04.4.2 - Manufacturing (CS)</t>
   </si>
   <si>
-    <t>04.4 - Mining, manufacturing and construction</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1174,12 +1174,12 @@
     <t>32210</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>04.4.1 - Mining of mineral resources other than mineral fuels (CS)</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1210,21 +1210,21 @@
     <t>32310</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>04.4.3 - Construction (CS)</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>330</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1243,12 +1243,12 @@
     <t>33210</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>04.7.3 - Tourism (CS)</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
@@ -1261,12 +1261,12 @@
     <t>41030</t>
   </si>
   <si>
+    <t>05.4 - Protection of biodiversity and landscape</t>
+  </si>
+  <si>
     <t>05.4.0 - Protection of biodiversity and landscape (CS)</t>
   </si>
   <si>
-    <t>05.4 - Protection of biodiversity and landscape</t>
-  </si>
-  <si>
     <t>41040</t>
   </si>
   <si>
@@ -1279,27 +1279,27 @@
     <t>43010</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>04.9 - Economic affairs n.e.c.</t>
+  </si>
+  <si>
     <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
   </si>
   <si>
-    <t>04.9 - Economic affairs n.e.c.</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
     <t>43031</t>
   </si>
   <si>
+    <t>06.2 - Community development</t>
+  </si>
+  <si>
     <t>06.2.0 - Community development (CS)</t>
   </si>
   <si>
-    <t>06.2 - Community development</t>
-  </si>
-  <si>
     <t>43032</t>
   </si>
   <si>
@@ -1318,24 +1318,24 @@
     <t>43060</t>
   </si>
   <si>
+    <t>02.2 - Civil defence</t>
+  </si>
+  <si>
     <t>02.2.0 - Civil defence (CS)</t>
   </si>
   <si>
-    <t>02.2 - Civil defence</t>
-  </si>
-  <si>
     <t>43071</t>
   </si>
   <si>
     <t>43072</t>
   </si>
   <si>
+    <t>10.4 - Family and children</t>
+  </si>
+  <si>
     <t>10.4.0 - Family and children (IS)</t>
   </si>
   <si>
-    <t>10.4 - Family and children</t>
-  </si>
-  <si>
     <t>43073</t>
   </si>
   <si>
@@ -1345,12 +1345,12 @@
     <t>43082</t>
   </si>
   <si>
+    <t>01.4 - Basic research</t>
+  </si>
+  <si>
     <t>01.4.0 - Basic research (CS)</t>
   </si>
   <si>
-    <t>01.4 - Basic research</t>
-  </si>
-  <si>
     <t>51010</t>
   </si>
   <si>
@@ -1375,13 +1375,13 @@
     <t>60010</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>01.7 - Public debt transactions</t>
+  </si>
+  <si>
     <t>01.7.0 - Public debt transactions (CS)</t>
-  </si>
-  <si>
-    <t>01.7 - Public debt transactions</t>
-  </si>
-  <si>
-    <t>600</t>
   </si>
   <si>
     <t>60020</t>
@@ -1866,19 +1866,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1912,19 +1912,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1938,13 +1938,13 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1958,7 +1958,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1970,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1984,13 +1984,13 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -2007,13 +2007,13 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -2027,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2050,19 +2050,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2073,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2099,13 +2099,13 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -2119,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2145,13 +2145,13 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2165,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2194,7 +2194,7 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
@@ -2217,7 +2217,7 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
@@ -2234,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2257,19 +2257,19 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2286,7 +2286,7 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
@@ -2303,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2326,19 +2326,19 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
         <v>66</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>67</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2349,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>32</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2372,19 +2372,19 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
         <v>31</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>32</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>33</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2395,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
         <v>31</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>32</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2418,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
         <v>31</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>32</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>33</v>
-      </c>
-      <c r="F27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2441,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>32</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>33</v>
-      </c>
-      <c r="F28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2464,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>33</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2487,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2510,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
         <v>31</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>32</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>33</v>
-      </c>
-      <c r="F31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2533,19 +2533,19 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>32</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2556,19 +2556,19 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
         <v>31</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>32</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>33</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2579,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
         <v>31</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>32</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>33</v>
-      </c>
-      <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2602,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
         <v>31</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>32</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>33</v>
-      </c>
-      <c r="F35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2625,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
         <v>57</v>
       </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
         <v>58</v>
-      </c>
-      <c r="E36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2647,17 +2647,17 @@
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" t="s">
         <v>31</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>32</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>33</v>
-      </c>
-      <c r="F37" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2667,17 +2667,17 @@
       <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
         <v>31</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>32</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>33</v>
-      </c>
-      <c r="F38" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2687,17 +2687,17 @@
       <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" t="s">
         <v>31</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>32</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>33</v>
-      </c>
-      <c r="F39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2707,17 +2707,17 @@
       <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" t="s">
         <v>31</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>32</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>33</v>
-      </c>
-      <c r="F40" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2727,17 +2727,17 @@
       <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>53</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2747,17 +2747,17 @@
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
         <v>57</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
         <v>58</v>
-      </c>
-      <c r="E42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2767,16 +2767,16 @@
       <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>90</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>91</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>92</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2787,17 +2787,17 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" t="s">
         <v>95</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>96</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>97</v>
-      </c>
-      <c r="F44" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2807,16 +2807,16 @@
       <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>90</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>91</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>92</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2827,16 +2827,16 @@
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>90</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>91</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>92</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2847,17 +2847,17 @@
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" t="s">
         <v>101</v>
       </c>
-      <c r="D47" t="s">
+      <c r="G47" t="s">
         <v>102</v>
-      </c>
-      <c r="E47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2867,16 +2867,16 @@
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>90</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>91</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>92</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2887,16 +2887,16 @@
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>90</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>91</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>92</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2907,17 +2907,17 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" t="s">
         <v>101</v>
       </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
         <v>102</v>
-      </c>
-      <c r="E50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2927,16 +2927,16 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>90</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>91</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>92</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2947,17 +2947,17 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" t="s">
         <v>108</v>
       </c>
-      <c r="D52" t="s">
+      <c r="G52" t="s">
         <v>109</v>
-      </c>
-      <c r="E52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2967,17 +2967,17 @@
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3011,19 +3011,19 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E55" t="s">
         <v>114</v>
       </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G55" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3034,19 +3034,19 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
         <v>114</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G56" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3057,19 +3057,19 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" t="s">
         <v>124</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>125</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>126</v>
-      </c>
-      <c r="F57" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3080,19 +3080,19 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3103,19 +3103,19 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G59" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3126,19 +3126,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G60" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3149,19 +3149,19 @@
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G61" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3172,19 +3172,19 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>114</v>
       </c>
       <c r="F62" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G62" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3195,19 +3195,19 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>114</v>
       </c>
       <c r="F63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3218,19 +3218,19 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
         <v>114</v>
       </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3241,19 +3241,19 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E65" t="s">
         <v>114</v>
       </c>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G65" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3287,19 +3287,19 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
         <v>114</v>
       </c>
       <c r="F67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G67" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3310,7 +3310,7 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
         <v>113</v>
@@ -3322,7 +3322,7 @@
         <v>115</v>
       </c>
       <c r="G68" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3333,7 +3333,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D69" t="s">
         <v>113</v>
@@ -3345,7 +3345,7 @@
         <v>115</v>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3356,19 +3356,19 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E70" t="s">
         <v>114</v>
       </c>
       <c r="F70" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G70" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3379,19 +3379,19 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E71" t="s">
         <v>114</v>
       </c>
       <c r="F71" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G71" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3425,19 +3425,19 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" t="s">
         <v>148</v>
       </c>
-      <c r="D73" t="s">
+      <c r="G73" t="s">
         <v>149</v>
-      </c>
-      <c r="E73" t="s">
-        <v>126</v>
-      </c>
-      <c r="F73" t="s">
-        <v>115</v>
-      </c>
-      <c r="G73" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3448,19 +3448,19 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" t="s">
         <v>151</v>
       </c>
-      <c r="D74" t="s">
+      <c r="G74" t="s">
         <v>152</v>
-      </c>
-      <c r="E74" t="s">
-        <v>126</v>
-      </c>
-      <c r="F74" t="s">
-        <v>115</v>
-      </c>
-      <c r="G74" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3471,19 +3471,19 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" t="s">
         <v>154</v>
       </c>
-      <c r="D75" t="s">
+      <c r="G75" t="s">
         <v>155</v>
-      </c>
-      <c r="E75" t="s">
-        <v>126</v>
-      </c>
-      <c r="F75" t="s">
-        <v>115</v>
-      </c>
-      <c r="G75" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3494,19 +3494,19 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" t="s">
         <v>148</v>
       </c>
-      <c r="D76" t="s">
+      <c r="G76" t="s">
         <v>149</v>
-      </c>
-      <c r="E76" t="s">
-        <v>126</v>
-      </c>
-      <c r="F76" t="s">
-        <v>115</v>
-      </c>
-      <c r="G76" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3517,19 +3517,19 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" t="s">
         <v>148</v>
       </c>
-      <c r="D77" t="s">
+      <c r="G77" t="s">
         <v>149</v>
-      </c>
-      <c r="E77" t="s">
-        <v>126</v>
-      </c>
-      <c r="F77" t="s">
-        <v>115</v>
-      </c>
-      <c r="G77" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3540,19 +3540,19 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
       </c>
-      <c r="D78" t="s">
+      <c r="G78" t="s">
         <v>152</v>
-      </c>
-      <c r="E78" t="s">
-        <v>126</v>
-      </c>
-      <c r="F78" t="s">
-        <v>115</v>
-      </c>
-      <c r="G78" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3563,19 +3563,19 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" t="s">
         <v>160</v>
       </c>
-      <c r="D79" t="s">
+      <c r="G79" t="s">
         <v>161</v>
-      </c>
-      <c r="E79" t="s">
-        <v>126</v>
-      </c>
-      <c r="F79" t="s">
-        <v>115</v>
-      </c>
-      <c r="G79" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3586,19 +3586,19 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="D80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" t="s">
+        <v>163</v>
+      </c>
+      <c r="F80" t="s">
         <v>164</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G80" t="s">
         <v>165</v>
-      </c>
-      <c r="F80" t="s">
-        <v>115</v>
-      </c>
-      <c r="G80" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3609,19 +3609,19 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" t="s">
+        <v>163</v>
+      </c>
+      <c r="F81" t="s">
         <v>164</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>165</v>
-      </c>
-      <c r="F81" t="s">
-        <v>115</v>
-      </c>
-      <c r="G81" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3632,19 +3632,19 @@
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" t="s">
+        <v>163</v>
+      </c>
+      <c r="F82" t="s">
         <v>164</v>
       </c>
-      <c r="E82" t="s">
+      <c r="G82" t="s">
         <v>165</v>
-      </c>
-      <c r="F82" t="s">
-        <v>115</v>
-      </c>
-      <c r="G82" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3655,7 +3655,7 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
         <v>113</v>
@@ -3667,7 +3667,7 @@
         <v>115</v>
       </c>
       <c r="G83" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3678,19 +3678,19 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="E84" t="s">
         <v>114</v>
       </c>
       <c r="F84" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="G84" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3701,19 +3701,19 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D85" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E85" t="s">
         <v>114</v>
       </c>
       <c r="F85" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G85" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3724,19 +3724,19 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" t="s">
+        <v>163</v>
+      </c>
+      <c r="F86" t="s">
         <v>175</v>
       </c>
-      <c r="D86" t="s">
+      <c r="G86" t="s">
         <v>176</v>
-      </c>
-      <c r="E86" t="s">
-        <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>115</v>
-      </c>
-      <c r="G86" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3747,19 +3747,19 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D87" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E87" t="s">
         <v>114</v>
       </c>
       <c r="F87" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3770,19 +3770,19 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E88" t="s">
         <v>114</v>
       </c>
       <c r="F88" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G88" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3793,19 +3793,19 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E89" t="s">
         <v>114</v>
       </c>
       <c r="F89" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G89" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3816,19 +3816,19 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" t="s">
+        <v>113</v>
+      </c>
+      <c r="E90" t="s">
         <v>124</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>125</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>126</v>
-      </c>
-      <c r="F90" t="s">
-        <v>115</v>
-      </c>
-      <c r="G90" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3839,19 +3839,19 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" t="s">
         <v>182</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>183</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>184</v>
-      </c>
-      <c r="F91" t="s">
-        <v>115</v>
-      </c>
-      <c r="G91" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3862,19 +3862,19 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" t="s">
+        <v>113</v>
+      </c>
+      <c r="E92" t="s">
         <v>124</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>125</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" t="s">
         <v>126</v>
-      </c>
-      <c r="F92" t="s">
-        <v>115</v>
-      </c>
-      <c r="G92" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3885,19 +3885,19 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E93" t="s">
         <v>114</v>
       </c>
       <c r="F93" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G93" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3908,19 +3908,19 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" t="s">
         <v>124</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>125</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>126</v>
-      </c>
-      <c r="F94" t="s">
-        <v>115</v>
-      </c>
-      <c r="G94" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3931,19 +3931,19 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="E95" t="s">
         <v>114</v>
       </c>
       <c r="F95" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="G95" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3954,19 +3954,19 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96" t="s">
         <v>124</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>125</v>
       </c>
-      <c r="E96" t="s">
+      <c r="G96" t="s">
         <v>126</v>
-      </c>
-      <c r="F96" t="s">
-        <v>115</v>
-      </c>
-      <c r="G96" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3977,19 +3977,19 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E97" t="s">
         <v>124</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
         <v>125</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G97" t="s">
         <v>126</v>
-      </c>
-      <c r="F97" t="s">
-        <v>115</v>
-      </c>
-      <c r="G97" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4000,19 +4000,19 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" t="s">
         <v>195</v>
       </c>
-      <c r="D98" t="s">
+      <c r="F98" t="s">
         <v>196</v>
       </c>
-      <c r="E98" t="s">
+      <c r="G98" t="s">
         <v>197</v>
-      </c>
-      <c r="F98" t="s">
-        <v>115</v>
-      </c>
-      <c r="G98" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4023,19 +4023,19 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" t="s">
         <v>124</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
         <v>125</v>
       </c>
-      <c r="E99" t="s">
+      <c r="G99" t="s">
         <v>126</v>
-      </c>
-      <c r="F99" t="s">
-        <v>115</v>
-      </c>
-      <c r="G99" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4046,19 +4046,19 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
+        <v>192</v>
+      </c>
+      <c r="D100" t="s">
+        <v>113</v>
+      </c>
+      <c r="E100" t="s">
+        <v>124</v>
+      </c>
+      <c r="F100" t="s">
         <v>154</v>
       </c>
-      <c r="D100" t="s">
+      <c r="G100" t="s">
         <v>155</v>
-      </c>
-      <c r="E100" t="s">
-        <v>126</v>
-      </c>
-      <c r="F100" t="s">
-        <v>115</v>
-      </c>
-      <c r="G100" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4069,19 +4069,19 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" t="s">
         <v>124</v>
       </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
         <v>125</v>
       </c>
-      <c r="E101" t="s">
+      <c r="G101" t="s">
         <v>126</v>
-      </c>
-      <c r="F101" t="s">
-        <v>115</v>
-      </c>
-      <c r="G101" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4091,16 +4091,16 @@
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>202</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
+        <v>182</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
       </c>
-      <c r="E102" t="s">
-        <v>184</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4111,16 +4111,16 @@
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>202</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
+        <v>182</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
       </c>
-      <c r="E103" t="s">
-        <v>184</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4131,16 +4131,16 @@
       <c r="B104" t="s">
         <v>8</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>202</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
+        <v>182</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
       </c>
-      <c r="E104" t="s">
-        <v>184</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4151,17 +4151,17 @@
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>202</v>
+      </c>
+      <c r="E105" t="s">
+        <v>182</v>
+      </c>
+      <c r="F105" t="s">
         <v>208</v>
       </c>
-      <c r="D105" t="s">
+      <c r="G105" t="s">
         <v>209</v>
-      </c>
-      <c r="E105" t="s">
-        <v>184</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4171,16 +4171,16 @@
       <c r="B106" t="s">
         <v>8</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>202</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
+        <v>182</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
       </c>
-      <c r="E106" t="s">
-        <v>184</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4191,17 +4191,17 @@
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>202</v>
+      </c>
+      <c r="E107" t="s">
         <v>182</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
         <v>183</v>
       </c>
-      <c r="E107" t="s">
+      <c r="G107" t="s">
         <v>184</v>
-      </c>
-      <c r="F107" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4211,17 +4211,17 @@
       <c r="B108" t="s">
         <v>8</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108" t="s">
+        <v>182</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
       </c>
-      <c r="D108" t="s">
+      <c r="G108" t="s">
         <v>214</v>
-      </c>
-      <c r="E108" t="s">
-        <v>184</v>
-      </c>
-      <c r="F108" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4231,17 +4231,17 @@
       <c r="B109" t="s">
         <v>8</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>202</v>
+      </c>
+      <c r="E109" t="s">
+        <v>91</v>
+      </c>
+      <c r="F109" t="s">
         <v>216</v>
       </c>
-      <c r="D109" t="s">
+      <c r="G109" t="s">
         <v>217</v>
-      </c>
-      <c r="E109" t="s">
-        <v>92</v>
-      </c>
-      <c r="F109" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4251,17 +4251,17 @@
       <c r="B110" t="s">
         <v>8</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>202</v>
+      </c>
+      <c r="E110" t="s">
+        <v>91</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
       </c>
-      <c r="D110" t="s">
+      <c r="G110" t="s">
         <v>220</v>
-      </c>
-      <c r="E110" t="s">
-        <v>92</v>
-      </c>
-      <c r="F110" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4271,16 +4271,16 @@
       <c r="B111" t="s">
         <v>8</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>202</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
+        <v>182</v>
+      </c>
+      <c r="F111" t="s">
         <v>203</v>
       </c>
-      <c r="E111" t="s">
-        <v>184</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4291,337 +4291,337 @@
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>202</v>
+      </c>
+      <c r="E112" t="s">
         <v>223</v>
       </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
         <v>224</v>
       </c>
-      <c r="E112" t="s">
+      <c r="G112" t="s">
         <v>225</v>
       </c>
-      <c r="F112" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>226</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
-      <c r="C113" t="s">
-        <v>143</v>
-      </c>
       <c r="D113" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="E113" t="s">
         <v>114</v>
       </c>
       <c r="F113" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>115</v>
+      </c>
+      <c r="G113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>227</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>202</v>
+      </c>
+      <c r="E114" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" t="s">
         <v>151</v>
       </c>
-      <c r="D114" t="s">
+      <c r="G114" t="s">
         <v>152</v>
       </c>
-      <c r="E114" t="s">
-        <v>126</v>
-      </c>
-      <c r="F114" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>228</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>202</v>
+      </c>
+      <c r="E115" t="s">
         <v>182</v>
       </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
         <v>183</v>
       </c>
-      <c r="E115" t="s">
+      <c r="G115" t="s">
         <v>184</v>
       </c>
-      <c r="F115" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>229</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>202</v>
+      </c>
+      <c r="E116" t="s">
+        <v>223</v>
+      </c>
+      <c r="F116" t="s">
         <v>230</v>
       </c>
-      <c r="D116" t="s">
+      <c r="G116" t="s">
         <v>231</v>
       </c>
-      <c r="E116" t="s">
-        <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>232</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>202</v>
+      </c>
+      <c r="E117" t="s">
         <v>223</v>
       </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
         <v>224</v>
       </c>
-      <c r="E117" t="s">
+      <c r="G117" t="s">
         <v>225</v>
       </c>
-      <c r="F117" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>233</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>202</v>
+      </c>
+      <c r="E118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F118" t="s">
+        <v>164</v>
+      </c>
+      <c r="G118" t="s">
         <v>234</v>
       </c>
-      <c r="D118" t="s">
-        <v>164</v>
-      </c>
-      <c r="E118" t="s">
-        <v>165</v>
-      </c>
-      <c r="F118" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>235</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>202</v>
+      </c>
+      <c r="E119" t="s">
         <v>182</v>
       </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
         <v>183</v>
       </c>
-      <c r="E119" t="s">
+      <c r="G119" t="s">
         <v>184</v>
       </c>
-      <c r="F119" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>236</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
       </c>
-      <c r="C120" t="s">
-        <v>170</v>
-      </c>
       <c r="D120" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="E120" t="s">
         <v>114</v>
       </c>
       <c r="F120" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="G120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>238</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
       </c>
-      <c r="C121" t="s">
-        <v>143</v>
-      </c>
       <c r="D121" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="E121" t="s">
         <v>114</v>
       </c>
       <c r="F121" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>115</v>
+      </c>
+      <c r="G121" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>239</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
       </c>
-      <c r="C122" t="s">
-        <v>170</v>
-      </c>
       <c r="D122" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="E122" t="s">
         <v>114</v>
       </c>
       <c r="F122" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="G122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>240</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
-      <c r="C123" t="s">
-        <v>170</v>
-      </c>
       <c r="D123" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="E123" t="s">
         <v>114</v>
       </c>
       <c r="F123" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="G123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>241</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>237</v>
+      </c>
+      <c r="E124" t="s">
+        <v>163</v>
+      </c>
+      <c r="F124" t="s">
         <v>242</v>
       </c>
-      <c r="D124" t="s">
+      <c r="G124" t="s">
         <v>243</v>
       </c>
-      <c r="E124" t="s">
-        <v>165</v>
-      </c>
-      <c r="F124" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>244</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>237</v>
+      </c>
+      <c r="E125" t="s">
+        <v>163</v>
+      </c>
+      <c r="F125" t="s">
         <v>242</v>
       </c>
-      <c r="D125" t="s">
+      <c r="G125" t="s">
         <v>243</v>
       </c>
-      <c r="E125" t="s">
-        <v>165</v>
-      </c>
-      <c r="F125" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>245</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>237</v>
+      </c>
+      <c r="E126" t="s">
+        <v>163</v>
+      </c>
+      <c r="F126" t="s">
         <v>242</v>
       </c>
-      <c r="D126" t="s">
+      <c r="G126" t="s">
         <v>243</v>
       </c>
-      <c r="E126" t="s">
-        <v>165</v>
-      </c>
-      <c r="F126" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>246</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>237</v>
+      </c>
+      <c r="E127" t="s">
+        <v>163</v>
+      </c>
+      <c r="F127" t="s">
         <v>242</v>
       </c>
-      <c r="D127" t="s">
+      <c r="G127" t="s">
         <v>243</v>
       </c>
-      <c r="E127" t="s">
-        <v>165</v>
-      </c>
-      <c r="F127" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>247</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>237</v>
+      </c>
+      <c r="E128" t="s">
+        <v>163</v>
+      </c>
+      <c r="F128" t="s">
         <v>242</v>
       </c>
-      <c r="D128" t="s">
+      <c r="G128" t="s">
         <v>243</v>
-      </c>
-      <c r="E128" t="s">
-        <v>165</v>
-      </c>
-      <c r="F128" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4631,17 +4631,17 @@
       <c r="B129" t="s">
         <v>8</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>237</v>
+      </c>
+      <c r="E129" t="s">
+        <v>163</v>
+      </c>
+      <c r="F129" t="s">
+        <v>242</v>
+      </c>
+      <c r="G129" t="s">
         <v>249</v>
-      </c>
-      <c r="D129" t="s">
-        <v>243</v>
-      </c>
-      <c r="E129" t="s">
-        <v>165</v>
-      </c>
-      <c r="F129" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4651,17 +4651,17 @@
       <c r="B130" t="s">
         <v>8</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130" t="s">
+        <v>163</v>
+      </c>
+      <c r="F130" t="s">
+        <v>242</v>
+      </c>
+      <c r="G130" t="s">
         <v>251</v>
-      </c>
-      <c r="D130" t="s">
-        <v>243</v>
-      </c>
-      <c r="E130" t="s">
-        <v>165</v>
-      </c>
-      <c r="F130" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4671,17 +4671,17 @@
       <c r="B131" t="s">
         <v>8</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>237</v>
+      </c>
+      <c r="E131" t="s">
+        <v>163</v>
+      </c>
+      <c r="F131" t="s">
+        <v>242</v>
+      </c>
+      <c r="G131" t="s">
         <v>253</v>
-      </c>
-      <c r="D131" t="s">
-        <v>243</v>
-      </c>
-      <c r="E131" t="s">
-        <v>165</v>
-      </c>
-      <c r="F131" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4691,17 +4691,17 @@
       <c r="B132" t="s">
         <v>8</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>237</v>
+      </c>
+      <c r="E132" t="s">
+        <v>163</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
       </c>
-      <c r="D132" t="s">
+      <c r="G132" t="s">
         <v>256</v>
-      </c>
-      <c r="E132" t="s">
-        <v>165</v>
-      </c>
-      <c r="F132" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4711,17 +4711,17 @@
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="C133" t="s">
-        <v>189</v>
-      </c>
       <c r="D133" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="E133" t="s">
         <v>114</v>
       </c>
       <c r="F133" t="s">
-        <v>237</v>
+        <v>189</v>
+      </c>
+      <c r="G133" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4731,17 +4731,17 @@
       <c r="B134" t="s">
         <v>8</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>259</v>
+      </c>
+      <c r="E134" t="s">
+        <v>163</v>
+      </c>
+      <c r="F134" t="s">
         <v>175</v>
       </c>
-      <c r="D134" t="s">
+      <c r="G134" t="s">
         <v>176</v>
-      </c>
-      <c r="E134" t="s">
-        <v>165</v>
-      </c>
-      <c r="F134" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4751,17 +4751,17 @@
       <c r="B135" t="s">
         <v>8</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>259</v>
+      </c>
+      <c r="E135" t="s">
+        <v>163</v>
+      </c>
+      <c r="F135" t="s">
         <v>175</v>
       </c>
-      <c r="D135" t="s">
+      <c r="G135" t="s">
         <v>176</v>
-      </c>
-      <c r="E135" t="s">
-        <v>165</v>
-      </c>
-      <c r="F135" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4771,17 +4771,17 @@
       <c r="B136" t="s">
         <v>8</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>259</v>
+      </c>
+      <c r="E136" t="s">
+        <v>163</v>
+      </c>
+      <c r="F136" t="s">
         <v>175</v>
       </c>
-      <c r="D136" t="s">
+      <c r="G136" t="s">
         <v>176</v>
-      </c>
-      <c r="E136" t="s">
-        <v>165</v>
-      </c>
-      <c r="F136" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4791,17 +4791,17 @@
       <c r="B137" t="s">
         <v>8</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>259</v>
+      </c>
+      <c r="E137" t="s">
+        <v>163</v>
+      </c>
+      <c r="F137" t="s">
         <v>175</v>
       </c>
-      <c r="D137" t="s">
+      <c r="G137" t="s">
         <v>176</v>
-      </c>
-      <c r="E137" t="s">
-        <v>165</v>
-      </c>
-      <c r="F137" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4811,17 +4811,17 @@
       <c r="B138" t="s">
         <v>8</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>259</v>
+      </c>
+      <c r="E138" t="s">
+        <v>163</v>
+      </c>
+      <c r="F138" t="s">
         <v>175</v>
       </c>
-      <c r="D138" t="s">
+      <c r="G138" t="s">
         <v>176</v>
-      </c>
-      <c r="E138" t="s">
-        <v>165</v>
-      </c>
-      <c r="F138" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4831,17 +4831,17 @@
       <c r="B139" t="s">
         <v>8</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>259</v>
+      </c>
+      <c r="E139" t="s">
+        <v>223</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
       </c>
-      <c r="D139" t="s">
+      <c r="G139" t="s">
         <v>266</v>
-      </c>
-      <c r="E139" t="s">
-        <v>225</v>
-      </c>
-      <c r="F139" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4851,17 +4851,17 @@
       <c r="B140" t="s">
         <v>8</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>259</v>
+      </c>
+      <c r="E140" t="s">
+        <v>163</v>
+      </c>
+      <c r="F140" t="s">
         <v>175</v>
       </c>
-      <c r="D140" t="s">
+      <c r="G140" t="s">
         <v>176</v>
-      </c>
-      <c r="E140" t="s">
-        <v>165</v>
-      </c>
-      <c r="F140" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4878,7 +4878,7 @@
         <v>270</v>
       </c>
       <c r="E141" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F141" t="s">
         <v>271</v>
@@ -4901,7 +4901,7 @@
         <v>270</v>
       </c>
       <c r="E142" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F142" t="s">
         <v>271</v>
@@ -4918,19 +4918,19 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
+        <v>269</v>
+      </c>
+      <c r="D143" t="s">
+        <v>270</v>
+      </c>
+      <c r="E143" t="s">
+        <v>163</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
       </c>
-      <c r="D143" t="s">
+      <c r="G143" t="s">
         <v>276</v>
-      </c>
-      <c r="E143" t="s">
-        <v>165</v>
-      </c>
-      <c r="F143" t="s">
-        <v>271</v>
-      </c>
-      <c r="G143" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4941,19 +4941,19 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
+        <v>269</v>
+      </c>
+      <c r="D144" t="s">
+        <v>270</v>
+      </c>
+      <c r="E144" t="s">
+        <v>163</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
       </c>
-      <c r="D144" t="s">
+      <c r="G144" t="s">
         <v>276</v>
-      </c>
-      <c r="E144" t="s">
-        <v>165</v>
-      </c>
-      <c r="F144" t="s">
-        <v>271</v>
-      </c>
-      <c r="G144" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4964,19 +4964,19 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
+        <v>269</v>
+      </c>
+      <c r="D145" t="s">
+        <v>270</v>
+      </c>
+      <c r="E145" t="s">
+        <v>163</v>
+      </c>
+      <c r="F145" t="s">
         <v>275</v>
       </c>
-      <c r="D145" t="s">
+      <c r="G145" t="s">
         <v>276</v>
-      </c>
-      <c r="E145" t="s">
-        <v>165</v>
-      </c>
-      <c r="F145" t="s">
-        <v>271</v>
-      </c>
-      <c r="G145" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4993,7 +4993,7 @@
         <v>270</v>
       </c>
       <c r="E146" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F146" t="s">
         <v>271</v>
@@ -5010,19 +5010,19 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D147" t="s">
         <v>270</v>
       </c>
       <c r="E147" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F147" t="s">
         <v>271</v>
       </c>
       <c r="G147" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5033,19 +5033,19 @@
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D148" t="s">
         <v>270</v>
       </c>
       <c r="E148" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F148" t="s">
         <v>271</v>
       </c>
       <c r="G148" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5056,19 +5056,19 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D149" t="s">
         <v>270</v>
       </c>
       <c r="E149" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F149" t="s">
         <v>271</v>
       </c>
       <c r="G149" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5079,19 +5079,19 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D150" t="s">
         <v>270</v>
       </c>
       <c r="E150" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F150" t="s">
         <v>271</v>
       </c>
       <c r="G150" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5102,19 +5102,19 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D151" t="s">
         <v>270</v>
       </c>
       <c r="E151" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F151" t="s">
         <v>271</v>
       </c>
       <c r="G151" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5125,19 +5125,19 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D152" t="s">
         <v>270</v>
       </c>
       <c r="E152" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F152" t="s">
         <v>271</v>
       </c>
       <c r="G152" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5148,19 +5148,19 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D153" t="s">
         <v>270</v>
       </c>
       <c r="E153" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F153" t="s">
         <v>271</v>
       </c>
       <c r="G153" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5171,19 +5171,19 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D154" t="s">
         <v>270</v>
       </c>
       <c r="E154" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F154" t="s">
         <v>271</v>
       </c>
       <c r="G154" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5194,19 +5194,19 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D155" t="s">
         <v>270</v>
       </c>
       <c r="E155" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F155" t="s">
         <v>271</v>
       </c>
       <c r="G155" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5217,19 +5217,19 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D156" t="s">
         <v>270</v>
       </c>
       <c r="E156" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F156" t="s">
         <v>271</v>
       </c>
       <c r="G156" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5240,19 +5240,19 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D157" t="s">
         <v>270</v>
       </c>
       <c r="E157" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F157" t="s">
         <v>271</v>
       </c>
       <c r="G157" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5263,19 +5263,19 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D158" t="s">
         <v>270</v>
       </c>
       <c r="E158" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F158" t="s">
         <v>271</v>
       </c>
       <c r="G158" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5286,19 +5286,19 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D159" t="s">
         <v>270</v>
       </c>
       <c r="E159" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F159" t="s">
         <v>271</v>
       </c>
       <c r="G159" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5309,19 +5309,19 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D160" t="s">
         <v>270</v>
       </c>
       <c r="E160" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F160" t="s">
         <v>271</v>
       </c>
       <c r="G160" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5332,19 +5332,19 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D161" t="s">
         <v>270</v>
       </c>
       <c r="E161" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F161" t="s">
         <v>271</v>
       </c>
       <c r="G161" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5355,19 +5355,19 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="D162" t="s">
         <v>270</v>
       </c>
       <c r="E162" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F162" t="s">
         <v>271</v>
       </c>
       <c r="G162" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5384,7 +5384,7 @@
         <v>270</v>
       </c>
       <c r="E163" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F163" t="s">
         <v>271</v>
@@ -5401,19 +5401,19 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="D164" t="s">
         <v>270</v>
       </c>
       <c r="E164" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F164" t="s">
         <v>271</v>
       </c>
       <c r="G164" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5424,19 +5424,19 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="D165" t="s">
         <v>270</v>
       </c>
       <c r="E165" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F165" t="s">
         <v>271</v>
       </c>
       <c r="G165" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5447,19 +5447,19 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="D166" t="s">
         <v>270</v>
       </c>
       <c r="E166" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F166" t="s">
         <v>271</v>
       </c>
       <c r="G166" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5470,19 +5470,19 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="D167" t="s">
         <v>270</v>
       </c>
       <c r="E167" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F167" t="s">
         <v>271</v>
       </c>
       <c r="G167" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5493,19 +5493,19 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D168" t="s">
         <v>270</v>
       </c>
       <c r="E168" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F168" t="s">
         <v>271</v>
       </c>
       <c r="G168" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5516,19 +5516,19 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D169" t="s">
         <v>270</v>
       </c>
       <c r="E169" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F169" t="s">
         <v>271</v>
       </c>
       <c r="G169" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5539,19 +5539,19 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="D170" t="s">
         <v>270</v>
       </c>
       <c r="E170" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F170" t="s">
         <v>271</v>
       </c>
       <c r="G170" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5561,17 +5561,17 @@
       <c r="B171" t="s">
         <v>8</v>
       </c>
-      <c r="C171" t="s">
-        <v>163</v>
-      </c>
       <c r="D171" t="s">
+        <v>313</v>
+      </c>
+      <c r="E171" t="s">
+        <v>163</v>
+      </c>
+      <c r="F171" t="s">
         <v>164</v>
       </c>
-      <c r="E171" t="s">
+      <c r="G171" t="s">
         <v>165</v>
-      </c>
-      <c r="F171" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5581,17 +5581,17 @@
       <c r="B172" t="s">
         <v>8</v>
       </c>
-      <c r="C172" t="s">
-        <v>118</v>
-      </c>
       <c r="D172" t="s">
-        <v>119</v>
+        <v>313</v>
       </c>
       <c r="E172" t="s">
         <v>114</v>
       </c>
       <c r="F172" t="s">
-        <v>313</v>
+        <v>118</v>
+      </c>
+      <c r="G172" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5601,17 +5601,17 @@
       <c r="B173" t="s">
         <v>8</v>
       </c>
-      <c r="C173" t="s">
-        <v>163</v>
-      </c>
       <c r="D173" t="s">
+        <v>313</v>
+      </c>
+      <c r="E173" t="s">
+        <v>163</v>
+      </c>
+      <c r="F173" t="s">
         <v>164</v>
       </c>
-      <c r="E173" t="s">
+      <c r="G173" t="s">
         <v>165</v>
-      </c>
-      <c r="F173" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5621,17 +5621,17 @@
       <c r="B174" t="s">
         <v>8</v>
       </c>
-      <c r="C174" t="s">
-        <v>163</v>
-      </c>
       <c r="D174" t="s">
+        <v>313</v>
+      </c>
+      <c r="E174" t="s">
+        <v>163</v>
+      </c>
+      <c r="F174" t="s">
         <v>164</v>
       </c>
-      <c r="E174" t="s">
+      <c r="G174" t="s">
         <v>165</v>
-      </c>
-      <c r="F174" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5641,17 +5641,17 @@
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="C175" t="s">
-        <v>163</v>
-      </c>
       <c r="D175" t="s">
+        <v>313</v>
+      </c>
+      <c r="E175" t="s">
+        <v>163</v>
+      </c>
+      <c r="F175" t="s">
         <v>164</v>
       </c>
-      <c r="E175" t="s">
+      <c r="G175" t="s">
         <v>165</v>
-      </c>
-      <c r="F175" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5661,17 +5661,17 @@
       <c r="B176" t="s">
         <v>8</v>
       </c>
-      <c r="C176" t="s">
-        <v>163</v>
-      </c>
       <c r="D176" t="s">
+        <v>313</v>
+      </c>
+      <c r="E176" t="s">
+        <v>163</v>
+      </c>
+      <c r="F176" t="s">
         <v>164</v>
       </c>
-      <c r="E176" t="s">
+      <c r="G176" t="s">
         <v>165</v>
-      </c>
-      <c r="F176" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5681,17 +5681,17 @@
       <c r="B177" t="s">
         <v>8</v>
       </c>
-      <c r="C177" t="s">
-        <v>163</v>
-      </c>
       <c r="D177" t="s">
+        <v>320</v>
+      </c>
+      <c r="E177" t="s">
+        <v>163</v>
+      </c>
+      <c r="F177" t="s">
         <v>164</v>
       </c>
-      <c r="E177" t="s">
+      <c r="G177" t="s">
         <v>165</v>
-      </c>
-      <c r="F177" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5701,17 +5701,17 @@
       <c r="B178" t="s">
         <v>8</v>
       </c>
-      <c r="C178" t="s">
-        <v>163</v>
-      </c>
       <c r="D178" t="s">
+        <v>320</v>
+      </c>
+      <c r="E178" t="s">
+        <v>163</v>
+      </c>
+      <c r="F178" t="s">
         <v>164</v>
       </c>
-      <c r="E178" t="s">
+      <c r="G178" t="s">
         <v>165</v>
-      </c>
-      <c r="F178" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5721,17 +5721,17 @@
       <c r="B179" t="s">
         <v>8</v>
       </c>
-      <c r="C179" t="s">
-        <v>163</v>
-      </c>
       <c r="D179" t="s">
+        <v>320</v>
+      </c>
+      <c r="E179" t="s">
+        <v>163</v>
+      </c>
+      <c r="F179" t="s">
         <v>164</v>
       </c>
-      <c r="E179" t="s">
+      <c r="G179" t="s">
         <v>165</v>
-      </c>
-      <c r="F179" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5741,17 +5741,17 @@
       <c r="B180" t="s">
         <v>8</v>
       </c>
-      <c r="C180" t="s">
-        <v>163</v>
-      </c>
       <c r="D180" t="s">
+        <v>320</v>
+      </c>
+      <c r="E180" t="s">
+        <v>163</v>
+      </c>
+      <c r="F180" t="s">
         <v>164</v>
       </c>
-      <c r="E180" t="s">
+      <c r="G180" t="s">
         <v>165</v>
-      </c>
-      <c r="F180" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5768,7 +5768,7 @@
         <v>326</v>
       </c>
       <c r="E181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F181" t="s">
         <v>327</v>
@@ -5791,7 +5791,7 @@
         <v>326</v>
       </c>
       <c r="E182" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F182" t="s">
         <v>327</v>
@@ -5814,7 +5814,7 @@
         <v>326</v>
       </c>
       <c r="E183" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F183" t="s">
         <v>327</v>
@@ -5837,7 +5837,7 @@
         <v>326</v>
       </c>
       <c r="E184" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F184" t="s">
         <v>327</v>
@@ -5860,7 +5860,7 @@
         <v>326</v>
       </c>
       <c r="E185" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F185" t="s">
         <v>327</v>
@@ -5883,7 +5883,7 @@
         <v>326</v>
       </c>
       <c r="E186" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F186" t="s">
         <v>327</v>
@@ -5906,7 +5906,7 @@
         <v>326</v>
       </c>
       <c r="E187" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F187" t="s">
         <v>327</v>
@@ -5929,7 +5929,7 @@
         <v>326</v>
       </c>
       <c r="E188" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F188" t="s">
         <v>327</v>
@@ -5952,7 +5952,7 @@
         <v>326</v>
       </c>
       <c r="E189" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F189" t="s">
         <v>327</v>
@@ -5975,7 +5975,7 @@
         <v>326</v>
       </c>
       <c r="E190" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F190" t="s">
         <v>327</v>
@@ -5998,7 +5998,7 @@
         <v>326</v>
       </c>
       <c r="E191" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F191" t="s">
         <v>327</v>
@@ -6021,7 +6021,7 @@
         <v>326</v>
       </c>
       <c r="E192" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F192" t="s">
         <v>327</v>
@@ -6038,19 +6038,19 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
+        <v>325</v>
+      </c>
+      <c r="D193" t="s">
+        <v>326</v>
+      </c>
+      <c r="E193" t="s">
+        <v>163</v>
+      </c>
+      <c r="F193" t="s">
+        <v>275</v>
+      </c>
+      <c r="G193" t="s">
         <v>341</v>
-      </c>
-      <c r="D193" t="s">
-        <v>276</v>
-      </c>
-      <c r="E193" t="s">
-        <v>165</v>
-      </c>
-      <c r="F193" t="s">
-        <v>327</v>
-      </c>
-      <c r="G193" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6067,7 +6067,7 @@
         <v>326</v>
       </c>
       <c r="E194" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F194" t="s">
         <v>327</v>
@@ -6090,7 +6090,7 @@
         <v>326</v>
       </c>
       <c r="E195" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F195" t="s">
         <v>327</v>
@@ -6113,7 +6113,7 @@
         <v>326</v>
       </c>
       <c r="E196" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F196" t="s">
         <v>327</v>
@@ -6136,7 +6136,7 @@
         <v>326</v>
       </c>
       <c r="E197" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F197" t="s">
         <v>327</v>
@@ -6159,7 +6159,7 @@
         <v>326</v>
       </c>
       <c r="E198" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F198" t="s">
         <v>327</v>
@@ -6182,7 +6182,7 @@
         <v>326</v>
       </c>
       <c r="E199" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F199" t="s">
         <v>327</v>
@@ -6205,7 +6205,7 @@
         <v>326</v>
       </c>
       <c r="E200" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F200" t="s">
         <v>327</v>
@@ -6228,7 +6228,7 @@
         <v>326</v>
       </c>
       <c r="E201" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F201" t="s">
         <v>327</v>
@@ -6251,7 +6251,7 @@
         <v>326</v>
       </c>
       <c r="E202" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F202" t="s">
         <v>327</v>
@@ -6268,19 +6268,19 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
+        <v>348</v>
+      </c>
+      <c r="D203" t="s">
+        <v>326</v>
+      </c>
+      <c r="E203" t="s">
+        <v>163</v>
+      </c>
+      <c r="F203" t="s">
+        <v>275</v>
+      </c>
+      <c r="G203" t="s">
         <v>341</v>
-      </c>
-      <c r="D203" t="s">
-        <v>276</v>
-      </c>
-      <c r="E203" t="s">
-        <v>165</v>
-      </c>
-      <c r="F203" t="s">
-        <v>327</v>
-      </c>
-      <c r="G203" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6297,7 +6297,7 @@
         <v>326</v>
       </c>
       <c r="E204" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F204" t="s">
         <v>327</v>
@@ -6320,7 +6320,7 @@
         <v>326</v>
       </c>
       <c r="E205" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F205" t="s">
         <v>327</v>
@@ -6343,7 +6343,7 @@
         <v>326</v>
       </c>
       <c r="E206" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F206" t="s">
         <v>327</v>
@@ -6366,7 +6366,7 @@
         <v>326</v>
       </c>
       <c r="E207" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F207" t="s">
         <v>327</v>
@@ -6383,19 +6383,19 @@
         <v>8</v>
       </c>
       <c r="C208" t="s">
+        <v>356</v>
+      </c>
+      <c r="D208" t="s">
+        <v>326</v>
+      </c>
+      <c r="E208" t="s">
+        <v>163</v>
+      </c>
+      <c r="F208" t="s">
+        <v>275</v>
+      </c>
+      <c r="G208" t="s">
         <v>341</v>
-      </c>
-      <c r="D208" t="s">
-        <v>276</v>
-      </c>
-      <c r="E208" t="s">
-        <v>165</v>
-      </c>
-      <c r="F208" t="s">
-        <v>327</v>
-      </c>
-      <c r="G208" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6412,7 +6412,7 @@
         <v>326</v>
       </c>
       <c r="E209" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F209" t="s">
         <v>327</v>
@@ -6435,7 +6435,7 @@
         <v>364</v>
       </c>
       <c r="E210" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F210" t="s">
         <v>365</v>
@@ -6458,7 +6458,7 @@
         <v>364</v>
       </c>
       <c r="E211" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F211" t="s">
         <v>365</v>
@@ -6481,7 +6481,7 @@
         <v>364</v>
       </c>
       <c r="E212" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F212" t="s">
         <v>365</v>
@@ -6504,7 +6504,7 @@
         <v>364</v>
       </c>
       <c r="E213" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F213" t="s">
         <v>365</v>
@@ -6527,7 +6527,7 @@
         <v>364</v>
       </c>
       <c r="E214" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F214" t="s">
         <v>365</v>
@@ -6544,19 +6544,19 @@
         <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D215" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="E215" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F215" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="G215" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6573,7 +6573,7 @@
         <v>364</v>
       </c>
       <c r="E216" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F216" t="s">
         <v>365</v>
@@ -6596,7 +6596,7 @@
         <v>364</v>
       </c>
       <c r="E217" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F217" t="s">
         <v>365</v>
@@ -6619,7 +6619,7 @@
         <v>364</v>
       </c>
       <c r="E218" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F218" t="s">
         <v>365</v>
@@ -6642,7 +6642,7 @@
         <v>364</v>
       </c>
       <c r="E219" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F219" t="s">
         <v>365</v>
@@ -6659,19 +6659,19 @@
         <v>8</v>
       </c>
       <c r="C220" t="s">
+        <v>363</v>
+      </c>
+      <c r="D220" t="s">
+        <v>364</v>
+      </c>
+      <c r="E220" t="s">
+        <v>163</v>
+      </c>
+      <c r="F220" t="s">
+        <v>271</v>
+      </c>
+      <c r="G220" t="s">
         <v>309</v>
-      </c>
-      <c r="D220" t="s">
-        <v>270</v>
-      </c>
-      <c r="E220" t="s">
-        <v>165</v>
-      </c>
-      <c r="F220" t="s">
-        <v>365</v>
-      </c>
-      <c r="G220" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6688,7 +6688,7 @@
         <v>364</v>
       </c>
       <c r="E221" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F221" t="s">
         <v>365</v>
@@ -6711,7 +6711,7 @@
         <v>364</v>
       </c>
       <c r="E222" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F222" t="s">
         <v>365</v>
@@ -6734,7 +6734,7 @@
         <v>364</v>
       </c>
       <c r="E223" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F223" t="s">
         <v>365</v>
@@ -6757,7 +6757,7 @@
         <v>364</v>
       </c>
       <c r="E224" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F224" t="s">
         <v>365</v>
@@ -6780,7 +6780,7 @@
         <v>364</v>
       </c>
       <c r="E225" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F225" t="s">
         <v>365</v>
@@ -6797,19 +6797,19 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
+        <v>363</v>
+      </c>
+      <c r="D226" t="s">
+        <v>364</v>
+      </c>
+      <c r="E226" t="s">
+        <v>163</v>
+      </c>
+      <c r="F226" t="s">
         <v>275</v>
       </c>
-      <c r="D226" t="s">
+      <c r="G226" t="s">
         <v>276</v>
-      </c>
-      <c r="E226" t="s">
-        <v>165</v>
-      </c>
-      <c r="F226" t="s">
-        <v>365</v>
-      </c>
-      <c r="G226" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6826,7 +6826,7 @@
         <v>364</v>
       </c>
       <c r="E227" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F227" t="s">
         <v>365</v>
@@ -6843,19 +6843,19 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="D228" t="s">
+        <v>364</v>
+      </c>
+      <c r="E228" t="s">
+        <v>163</v>
+      </c>
+      <c r="F228" t="s">
         <v>164</v>
       </c>
-      <c r="E228" t="s">
+      <c r="G228" t="s">
         <v>165</v>
-      </c>
-      <c r="F228" t="s">
-        <v>365</v>
-      </c>
-      <c r="G228" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6872,7 +6872,7 @@
         <v>364</v>
       </c>
       <c r="E229" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F229" t="s">
         <v>365</v>
@@ -6895,7 +6895,7 @@
         <v>364</v>
       </c>
       <c r="E230" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F230" t="s">
         <v>365</v>
@@ -6912,19 +6912,19 @@
         <v>8</v>
       </c>
       <c r="C231" t="s">
+        <v>386</v>
+      </c>
+      <c r="D231" t="s">
+        <v>364</v>
+      </c>
+      <c r="E231" t="s">
+        <v>163</v>
+      </c>
+      <c r="F231" t="s">
+        <v>271</v>
+      </c>
+      <c r="G231" t="s">
         <v>293</v>
-      </c>
-      <c r="D231" t="s">
-        <v>270</v>
-      </c>
-      <c r="E231" t="s">
-        <v>165</v>
-      </c>
-      <c r="F231" t="s">
-        <v>365</v>
-      </c>
-      <c r="G231" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6935,19 +6935,19 @@
         <v>8</v>
       </c>
       <c r="C232" t="s">
+        <v>386</v>
+      </c>
+      <c r="D232" t="s">
+        <v>364</v>
+      </c>
+      <c r="E232" t="s">
+        <v>163</v>
+      </c>
+      <c r="F232" t="s">
+        <v>271</v>
+      </c>
+      <c r="G232" t="s">
         <v>309</v>
-      </c>
-      <c r="D232" t="s">
-        <v>270</v>
-      </c>
-      <c r="E232" t="s">
-        <v>165</v>
-      </c>
-      <c r="F232" t="s">
-        <v>365</v>
-      </c>
-      <c r="G232" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6964,7 +6964,7 @@
         <v>364</v>
       </c>
       <c r="E233" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F233" t="s">
         <v>365</v>
@@ -6987,7 +6987,7 @@
         <v>364</v>
       </c>
       <c r="E234" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F234" t="s">
         <v>365</v>
@@ -7010,7 +7010,7 @@
         <v>364</v>
       </c>
       <c r="E235" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F235" t="s">
         <v>365</v>
@@ -7033,7 +7033,7 @@
         <v>364</v>
       </c>
       <c r="E236" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F236" t="s">
         <v>365</v>
@@ -7056,7 +7056,7 @@
         <v>364</v>
       </c>
       <c r="E237" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F237" t="s">
         <v>365</v>
@@ -7079,7 +7079,7 @@
         <v>364</v>
       </c>
       <c r="E238" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F238" t="s">
         <v>365</v>
@@ -7102,7 +7102,7 @@
         <v>364</v>
       </c>
       <c r="E239" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F239" t="s">
         <v>365</v>
@@ -7119,19 +7119,19 @@
         <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="D240" t="s">
+        <v>402</v>
+      </c>
+      <c r="E240" t="s">
+        <v>163</v>
+      </c>
+      <c r="F240" t="s">
         <v>164</v>
       </c>
-      <c r="E240" t="s">
+      <c r="G240" t="s">
         <v>165</v>
-      </c>
-      <c r="F240" t="s">
-        <v>401</v>
-      </c>
-      <c r="G240" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7142,19 +7142,19 @@
         <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="D241" t="s">
+        <v>402</v>
+      </c>
+      <c r="E241" t="s">
+        <v>163</v>
+      </c>
+      <c r="F241" t="s">
         <v>164</v>
       </c>
-      <c r="E241" t="s">
+      <c r="G241" t="s">
         <v>165</v>
-      </c>
-      <c r="F241" t="s">
-        <v>401</v>
-      </c>
-      <c r="G241" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7165,19 +7165,19 @@
         <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="D242" t="s">
+        <v>402</v>
+      </c>
+      <c r="E242" t="s">
+        <v>163</v>
+      </c>
+      <c r="F242" t="s">
         <v>164</v>
       </c>
-      <c r="E242" t="s">
+      <c r="G242" t="s">
         <v>165</v>
-      </c>
-      <c r="F242" t="s">
-        <v>401</v>
-      </c>
-      <c r="G242" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7188,19 +7188,19 @@
         <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="D243" t="s">
+        <v>402</v>
+      </c>
+      <c r="E243" t="s">
+        <v>163</v>
+      </c>
+      <c r="F243" t="s">
         <v>164</v>
       </c>
-      <c r="E243" t="s">
+      <c r="G243" t="s">
         <v>165</v>
-      </c>
-      <c r="F243" t="s">
-        <v>401</v>
-      </c>
-      <c r="G243" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7211,19 +7211,19 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="D244" t="s">
+        <v>402</v>
+      </c>
+      <c r="E244" t="s">
+        <v>163</v>
+      </c>
+      <c r="F244" t="s">
         <v>164</v>
       </c>
-      <c r="E244" t="s">
+      <c r="G244" t="s">
         <v>165</v>
-      </c>
-      <c r="F244" t="s">
-        <v>401</v>
-      </c>
-      <c r="G244" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7234,19 +7234,19 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="D245" t="s">
+        <v>402</v>
+      </c>
+      <c r="E245" t="s">
+        <v>163</v>
+      </c>
+      <c r="F245" t="s">
         <v>164</v>
       </c>
-      <c r="E245" t="s">
+      <c r="G245" t="s">
         <v>165</v>
-      </c>
-      <c r="F245" t="s">
-        <v>401</v>
-      </c>
-      <c r="G245" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7260,13 +7260,13 @@
         <v>409</v>
       </c>
       <c r="D246" t="s">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="E246" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F246" t="s">
-        <v>401</v>
+        <v>255</v>
       </c>
       <c r="G246" t="s">
         <v>410</v>
@@ -7279,17 +7279,17 @@
       <c r="B247" t="s">
         <v>8</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
+        <v>412</v>
+      </c>
+      <c r="E247" t="s">
         <v>95</v>
       </c>
-      <c r="D247" t="s">
+      <c r="F247" t="s">
         <v>96</v>
       </c>
-      <c r="E247" t="s">
+      <c r="G247" t="s">
         <v>97</v>
-      </c>
-      <c r="F247" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7299,17 +7299,17 @@
       <c r="B248" t="s">
         <v>8</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
+        <v>412</v>
+      </c>
+      <c r="E248" t="s">
         <v>95</v>
       </c>
-      <c r="D248" t="s">
+      <c r="F248" t="s">
         <v>96</v>
       </c>
-      <c r="E248" t="s">
+      <c r="G248" t="s">
         <v>97</v>
-      </c>
-      <c r="F248" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7319,17 +7319,17 @@
       <c r="B249" t="s">
         <v>8</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
+        <v>412</v>
+      </c>
+      <c r="E249" t="s">
+        <v>95</v>
+      </c>
+      <c r="F249" t="s">
         <v>415</v>
       </c>
-      <c r="D249" t="s">
+      <c r="G249" t="s">
         <v>416</v>
-      </c>
-      <c r="E249" t="s">
-        <v>97</v>
-      </c>
-      <c r="F249" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7339,17 +7339,17 @@
       <c r="B250" t="s">
         <v>8</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
+        <v>412</v>
+      </c>
+      <c r="E250" t="s">
         <v>95</v>
       </c>
-      <c r="D250" t="s">
+      <c r="F250" t="s">
         <v>96</v>
       </c>
-      <c r="E250" t="s">
+      <c r="G250" t="s">
         <v>97</v>
-      </c>
-      <c r="F250" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7359,17 +7359,17 @@
       <c r="B251" t="s">
         <v>8</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
+        <v>412</v>
+      </c>
+      <c r="E251" t="s">
         <v>95</v>
       </c>
-      <c r="D251" t="s">
+      <c r="F251" t="s">
         <v>96</v>
       </c>
-      <c r="E251" t="s">
+      <c r="G251" t="s">
         <v>97</v>
-      </c>
-      <c r="F251" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7379,17 +7379,17 @@
       <c r="B252" t="s">
         <v>8</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
+        <v>412</v>
+      </c>
+      <c r="E252" t="s">
         <v>95</v>
       </c>
-      <c r="D252" t="s">
+      <c r="F252" t="s">
         <v>96</v>
       </c>
-      <c r="E252" t="s">
+      <c r="G252" t="s">
         <v>97</v>
-      </c>
-      <c r="F252" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7399,16 +7399,16 @@
       <c r="B253" t="s">
         <v>8</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>421</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
+        <v>163</v>
+      </c>
+      <c r="F253" t="s">
         <v>422</v>
       </c>
-      <c r="E253" t="s">
-        <v>165</v>
-      </c>
-      <c r="F253" t="s">
+      <c r="G253" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7419,17 +7419,17 @@
       <c r="B254" t="s">
         <v>8</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
+        <v>421</v>
+      </c>
+      <c r="E254" t="s">
+        <v>91</v>
+      </c>
+      <c r="F254" t="s">
         <v>219</v>
       </c>
-      <c r="D254" t="s">
+      <c r="G254" t="s">
         <v>220</v>
-      </c>
-      <c r="E254" t="s">
-        <v>92</v>
-      </c>
-      <c r="F254" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7439,17 +7439,17 @@
       <c r="B255" t="s">
         <v>8</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
+        <v>421</v>
+      </c>
+      <c r="E255" t="s">
+        <v>91</v>
+      </c>
+      <c r="F255" t="s">
         <v>426</v>
       </c>
-      <c r="D255" t="s">
+      <c r="G255" t="s">
         <v>427</v>
-      </c>
-      <c r="E255" t="s">
-        <v>92</v>
-      </c>
-      <c r="F255" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7459,817 +7459,817 @@
       <c r="B256" t="s">
         <v>8</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
+        <v>421</v>
+      </c>
+      <c r="E256" t="s">
+        <v>91</v>
+      </c>
+      <c r="F256" t="s">
         <v>426</v>
       </c>
-      <c r="D256" t="s">
+      <c r="G256" t="s">
         <v>427</v>
       </c>
-      <c r="E256" t="s">
-        <v>92</v>
-      </c>
-      <c r="F256" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>429</v>
       </c>
       <c r="B257" t="s">
         <v>8</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
+        <v>421</v>
+      </c>
+      <c r="E257" t="s">
+        <v>91</v>
+      </c>
+      <c r="F257" t="s">
         <v>426</v>
       </c>
-      <c r="D257" t="s">
+      <c r="G257" t="s">
         <v>427</v>
       </c>
-      <c r="E257" t="s">
-        <v>92</v>
-      </c>
-      <c r="F257" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>430</v>
       </c>
       <c r="B258" t="s">
         <v>8</v>
       </c>
-      <c r="C258" t="s">
-        <v>325</v>
-      </c>
       <c r="D258" t="s">
-        <v>326</v>
+        <v>421</v>
       </c>
       <c r="E258" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F258" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+        <v>327</v>
+      </c>
+      <c r="G258" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>431</v>
       </c>
       <c r="B259" t="s">
         <v>8</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
+        <v>421</v>
+      </c>
+      <c r="E259" t="s">
+        <v>91</v>
+      </c>
+      <c r="F259" t="s">
         <v>426</v>
       </c>
-      <c r="D259" t="s">
+      <c r="G259" t="s">
         <v>427</v>
       </c>
-      <c r="E259" t="s">
-        <v>92</v>
-      </c>
-      <c r="F259" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
         <v>432</v>
       </c>
       <c r="B260" t="s">
         <v>8</v>
       </c>
-      <c r="C260" t="s">
-        <v>163</v>
-      </c>
       <c r="D260" t="s">
+        <v>421</v>
+      </c>
+      <c r="E260" t="s">
+        <v>163</v>
+      </c>
+      <c r="F260" t="s">
         <v>164</v>
       </c>
-      <c r="E260" t="s">
+      <c r="G260" t="s">
         <v>165</v>
       </c>
-      <c r="F260" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>433</v>
       </c>
       <c r="B261" t="s">
         <v>8</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
+        <v>421</v>
+      </c>
+      <c r="E261" t="s">
+        <v>195</v>
+      </c>
+      <c r="F261" t="s">
         <v>434</v>
       </c>
-      <c r="D261" t="s">
+      <c r="G261" t="s">
         <v>435</v>
       </c>
-      <c r="E261" t="s">
-        <v>197</v>
-      </c>
-      <c r="F261" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>436</v>
       </c>
       <c r="B262" t="s">
         <v>8</v>
       </c>
-      <c r="C262" t="s">
-        <v>163</v>
-      </c>
       <c r="D262" t="s">
+        <v>421</v>
+      </c>
+      <c r="E262" t="s">
+        <v>163</v>
+      </c>
+      <c r="F262" t="s">
         <v>164</v>
       </c>
-      <c r="E262" t="s">
+      <c r="G262" t="s">
         <v>165</v>
       </c>
-      <c r="F262" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>437</v>
       </c>
       <c r="B263" t="s">
         <v>8</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
+        <v>421</v>
+      </c>
+      <c r="E263" t="s">
+        <v>182</v>
+      </c>
+      <c r="F263" t="s">
         <v>438</v>
       </c>
-      <c r="D263" t="s">
+      <c r="G263" t="s">
         <v>439</v>
       </c>
-      <c r="E263" t="s">
-        <v>184</v>
-      </c>
-      <c r="F263" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>440</v>
       </c>
       <c r="B264" t="s">
         <v>8</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
+        <v>421</v>
+      </c>
+      <c r="E264" t="s">
         <v>31</v>
       </c>
-      <c r="D264" t="s">
+      <c r="F264" t="s">
         <v>32</v>
       </c>
-      <c r="E264" t="s">
+      <c r="G264" t="s">
         <v>33</v>
       </c>
-      <c r="F264" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
         <v>441</v>
       </c>
       <c r="B265" t="s">
         <v>8</v>
       </c>
-      <c r="C265" t="s">
-        <v>9</v>
-      </c>
       <c r="D265" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="E265" t="s">
         <v>11</v>
       </c>
       <c r="F265" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>442</v>
       </c>
       <c r="B266" t="s">
         <v>8</v>
       </c>
-      <c r="C266" t="s">
-        <v>443</v>
-      </c>
       <c r="D266" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="E266" t="s">
         <v>114</v>
       </c>
       <c r="F266" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+        <v>443</v>
+      </c>
+      <c r="G266" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>445</v>
       </c>
       <c r="B267" t="s">
         <v>8</v>
       </c>
-      <c r="C267" t="s">
-        <v>118</v>
-      </c>
       <c r="D267" t="s">
-        <v>119</v>
+        <v>446</v>
       </c>
       <c r="E267" t="s">
         <v>114</v>
       </c>
       <c r="F267" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+        <v>118</v>
+      </c>
+      <c r="G267" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>447</v>
       </c>
       <c r="B268" t="s">
         <v>8</v>
       </c>
-      <c r="C268" t="s">
-        <v>202</v>
-      </c>
       <c r="D268" t="s">
+        <v>448</v>
+      </c>
+      <c r="E268" t="s">
+        <v>182</v>
+      </c>
+      <c r="F268" t="s">
         <v>203</v>
       </c>
-      <c r="E268" t="s">
-        <v>184</v>
-      </c>
-      <c r="F268" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="G268" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>449</v>
       </c>
       <c r="B269" t="s">
         <v>8</v>
       </c>
-      <c r="C269" t="s">
-        <v>118</v>
-      </c>
       <c r="D269" t="s">
-        <v>119</v>
+        <v>450</v>
       </c>
       <c r="E269" t="s">
         <v>114</v>
       </c>
       <c r="F269" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+        <v>118</v>
+      </c>
+      <c r="G269" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>451</v>
       </c>
       <c r="B270" t="s">
         <v>8</v>
       </c>
-      <c r="C270" t="s">
-        <v>118</v>
-      </c>
       <c r="D270" t="s">
-        <v>119</v>
+        <v>450</v>
       </c>
       <c r="E270" t="s">
         <v>114</v>
       </c>
       <c r="F270" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
+        <v>118</v>
+      </c>
+      <c r="G270" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>452</v>
       </c>
       <c r="B271" t="s">
         <v>8</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>453</v>
-      </c>
-      <c r="D271" t="s">
-        <v>454</v>
       </c>
       <c r="E271" t="s">
         <v>114</v>
       </c>
       <c r="F271" t="s">
+        <v>454</v>
+      </c>
+      <c r="G271" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>456</v>
       </c>
       <c r="B272" t="s">
         <v>8</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>453</v>
-      </c>
-      <c r="D272" t="s">
-        <v>454</v>
       </c>
       <c r="E272" t="s">
         <v>114</v>
       </c>
       <c r="F272" t="s">
+        <v>454</v>
+      </c>
+      <c r="G272" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>457</v>
       </c>
       <c r="B273" t="s">
         <v>8</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>453</v>
-      </c>
-      <c r="D273" t="s">
-        <v>454</v>
       </c>
       <c r="E273" t="s">
         <v>114</v>
       </c>
       <c r="F273" t="s">
+        <v>454</v>
+      </c>
+      <c r="G273" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>458</v>
       </c>
       <c r="B274" t="s">
         <v>8</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>453</v>
-      </c>
-      <c r="D274" t="s">
-        <v>454</v>
       </c>
       <c r="E274" t="s">
         <v>114</v>
       </c>
       <c r="F274" t="s">
+        <v>454</v>
+      </c>
+      <c r="G274" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>459</v>
       </c>
       <c r="B275" t="s">
         <v>8</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>453</v>
-      </c>
-      <c r="D275" t="s">
-        <v>454</v>
       </c>
       <c r="E275" t="s">
         <v>114</v>
       </c>
       <c r="F275" t="s">
+        <v>454</v>
+      </c>
+      <c r="G275" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>460</v>
       </c>
       <c r="B276" t="s">
         <v>8</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>453</v>
-      </c>
-      <c r="D276" t="s">
-        <v>454</v>
       </c>
       <c r="E276" t="s">
         <v>114</v>
       </c>
       <c r="F276" t="s">
+        <v>454</v>
+      </c>
+      <c r="G276" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>461</v>
       </c>
       <c r="B277" t="s">
         <v>8</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>453</v>
-      </c>
-      <c r="D277" t="s">
-        <v>454</v>
       </c>
       <c r="E277" t="s">
         <v>114</v>
       </c>
       <c r="F277" t="s">
+        <v>454</v>
+      </c>
+      <c r="G277" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>462</v>
       </c>
       <c r="B278" t="s">
         <v>8</v>
       </c>
-      <c r="C278" t="s">
-        <v>202</v>
-      </c>
       <c r="D278" t="s">
+        <v>463</v>
+      </c>
+      <c r="E278" t="s">
+        <v>182</v>
+      </c>
+      <c r="F278" t="s">
         <v>203</v>
       </c>
-      <c r="E278" t="s">
-        <v>184</v>
-      </c>
-      <c r="F278" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="G278" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>464</v>
       </c>
       <c r="B279" t="s">
         <v>8</v>
       </c>
-      <c r="C279" t="s">
-        <v>51</v>
-      </c>
       <c r="D279" t="s">
-        <v>52</v>
+        <v>463</v>
       </c>
       <c r="E279" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F279" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="G279" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>465</v>
       </c>
       <c r="B280" t="s">
         <v>8</v>
       </c>
-      <c r="C280" t="s">
-        <v>9</v>
-      </c>
       <c r="D280" t="s">
-        <v>10</v>
+        <v>463</v>
       </c>
       <c r="E280" t="s">
         <v>11</v>
       </c>
       <c r="F280" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>466</v>
       </c>
       <c r="B281" t="s">
         <v>8</v>
       </c>
-      <c r="C281" t="s">
-        <v>170</v>
-      </c>
       <c r="D281" t="s">
-        <v>171</v>
+        <v>463</v>
       </c>
       <c r="E281" t="s">
         <v>114</v>
       </c>
       <c r="F281" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="G281" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>467</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
+        <v>463</v>
+      </c>
+      <c r="E282" t="s">
         <v>124</v>
       </c>
-      <c r="D282" t="s">
+      <c r="F282" t="s">
         <v>125</v>
       </c>
-      <c r="E282" t="s">
+      <c r="G282" t="s">
         <v>126</v>
       </c>
-      <c r="F282" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>468</v>
       </c>
       <c r="B283" t="s">
         <v>8</v>
       </c>
-      <c r="C283" t="s">
-        <v>398</v>
-      </c>
       <c r="D283" t="s">
-        <v>364</v>
+        <v>469</v>
       </c>
       <c r="E283" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F283" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+        <v>365</v>
+      </c>
+      <c r="G283" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>470</v>
       </c>
       <c r="B284" t="s">
         <v>8</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
+        <v>471</v>
+      </c>
+      <c r="E284" t="s">
         <v>124</v>
       </c>
-      <c r="D284" t="s">
+      <c r="F284" t="s">
         <v>125</v>
       </c>
-      <c r="E284" t="s">
+      <c r="G284" t="s">
         <v>126</v>
       </c>
-      <c r="F284" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>472</v>
       </c>
       <c r="B285" t="s">
         <v>8</v>
       </c>
-      <c r="C285" t="s">
-        <v>170</v>
-      </c>
       <c r="D285" t="s">
-        <v>171</v>
+        <v>473</v>
       </c>
       <c r="E285" t="s">
         <v>114</v>
       </c>
       <c r="F285" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="G285" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>474</v>
       </c>
       <c r="B286" t="s">
         <v>8</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
+        <v>475</v>
+      </c>
+      <c r="E286" t="s">
+        <v>182</v>
+      </c>
+      <c r="F286" t="s">
         <v>438</v>
       </c>
-      <c r="D286" t="s">
+      <c r="G286" t="s">
         <v>439</v>
       </c>
-      <c r="E286" t="s">
-        <v>184</v>
-      </c>
-      <c r="F286" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>476</v>
       </c>
       <c r="B287" t="s">
         <v>8</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
+        <v>475</v>
+      </c>
+      <c r="E287" t="s">
+        <v>182</v>
+      </c>
+      <c r="F287" t="s">
         <v>438</v>
       </c>
-      <c r="D287" t="s">
+      <c r="G287" t="s">
         <v>439</v>
       </c>
-      <c r="E287" t="s">
-        <v>184</v>
-      </c>
-      <c r="F287" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>477</v>
       </c>
       <c r="B288" t="s">
         <v>8</v>
       </c>
-      <c r="C288" t="s">
-        <v>41</v>
-      </c>
       <c r="D288" t="s">
-        <v>42</v>
+        <v>475</v>
       </c>
       <c r="E288" t="s">
         <v>11</v>
       </c>
       <c r="F288" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="G288" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>478</v>
       </c>
       <c r="B289" t="s">
         <v>8</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
+        <v>475</v>
+      </c>
+      <c r="E289" t="s">
         <v>31</v>
       </c>
-      <c r="D289" t="s">
+      <c r="F289" t="s">
         <v>32</v>
       </c>
-      <c r="E289" t="s">
+      <c r="G289" t="s">
         <v>33</v>
       </c>
-      <c r="F289" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>479</v>
       </c>
       <c r="B290" t="s">
         <v>8</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
+        <v>475</v>
+      </c>
+      <c r="E290" t="s">
         <v>31</v>
       </c>
-      <c r="D290" t="s">
+      <c r="F290" t="s">
         <v>32</v>
       </c>
-      <c r="E290" t="s">
+      <c r="G290" t="s">
         <v>33</v>
       </c>
-      <c r="F290" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
         <v>480</v>
       </c>
       <c r="B291" t="s">
         <v>8</v>
       </c>
-      <c r="C291" t="s">
-        <v>170</v>
-      </c>
       <c r="D291" t="s">
-        <v>171</v>
+        <v>475</v>
       </c>
       <c r="E291" t="s">
         <v>114</v>
       </c>
       <c r="F291" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="G291" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
         <v>481</v>
       </c>
       <c r="B292" t="s">
         <v>8</v>
       </c>
-      <c r="C292" t="s">
-        <v>170</v>
-      </c>
       <c r="D292" t="s">
-        <v>171</v>
+        <v>475</v>
       </c>
       <c r="E292" t="s">
         <v>114</v>
       </c>
       <c r="F292" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="G292" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>482</v>
       </c>
       <c r="B293" t="s">
         <v>8</v>
       </c>
-      <c r="C293" t="s">
-        <v>170</v>
-      </c>
       <c r="D293" t="s">
-        <v>171</v>
+        <v>475</v>
       </c>
       <c r="E293" t="s">
         <v>114</v>
       </c>
       <c r="F293" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="G293" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>483</v>
       </c>
       <c r="B294" t="s">
         <v>8</v>
       </c>
-      <c r="C294" t="s">
-        <v>170</v>
-      </c>
       <c r="D294" t="s">
-        <v>171</v>
+        <v>475</v>
       </c>
       <c r="E294" t="s">
         <v>114</v>
       </c>
       <c r="F294" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="G294" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>484</v>
       </c>
       <c r="B295" t="s">
         <v>8</v>
       </c>
-      <c r="C295" t="s">
-        <v>170</v>
-      </c>
       <c r="D295" t="s">
-        <v>171</v>
+        <v>485</v>
       </c>
       <c r="E295" t="s">
         <v>114</v>
       </c>
       <c r="F295" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="G295" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>486</v>
       </c>
       <c r="B296" t="s">
         <v>8</v>
       </c>
-      <c r="C296" t="s">
-        <v>170</v>
-      </c>
       <c r="D296" t="s">
-        <v>171</v>
+        <v>485</v>
       </c>
       <c r="E296" t="s">
         <v>114</v>
       </c>
       <c r="F296" t="s">
-        <v>485</v>
+        <v>170</v>
+      </c>
+      <c r="G296" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/api/2/xlsx/es/SectorCOFOG.xlsx
+++ b/api/2/xlsx/es/SectorCOFOG.xlsx
@@ -25,18 +25,18 @@
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:cofog-group</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-division</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-class</t>
+  </si>
+  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
-    <t>codeforiati:cofog-division</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-group</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-class</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>111</t>
   </si>
   <si>
+    <t>09.8 - Education n.e.c.</t>
+  </si>
+  <si>
+    <t>09 - Education</t>
+  </si>
+  <si>
+    <t>09.8.0 - Education n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
-    <t>09 - Education</t>
-  </si>
-  <si>
-    <t>09.8 - Education n.e.c.</t>
-  </si>
-  <si>
-    <t>09.8.0 - Education n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -109,12 +109,12 @@
     <t>11250</t>
   </si>
   <si>
+    <t>07.4 - Public health services</t>
+  </si>
+  <si>
     <t>07 - Health</t>
   </si>
   <si>
-    <t>07.4 - Public health services</t>
-  </si>
-  <si>
     <t>07.4.0 - Public health services (IS)</t>
   </si>
   <si>
@@ -172,15 +172,15 @@
     <t>121</t>
   </si>
   <si>
+    <t>07.6 - Health n.e.c.</t>
+  </si>
+  <si>
+    <t>07.6.0 - Health n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
-    <t>07.6 - Health n.e.c.</t>
-  </si>
-  <si>
-    <t>07.6.0 - Health n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -286,27 +286,27 @@
     <t>14010</t>
   </si>
   <si>
+    <t>06.3 - Water supply</t>
+  </si>
+  <si>
+    <t>06 - Housing and community amenities</t>
+  </si>
+  <si>
+    <t>06.3.0 - Water supply (CS)</t>
+  </si>
+  <si>
     <t>140</t>
   </si>
   <si>
-    <t>06 - Housing and community amenities</t>
-  </si>
-  <si>
-    <t>06.3 - Water supply</t>
-  </si>
-  <si>
-    <t>06.3.0 - Water supply (CS)</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
+    <t>05.6 - Environmental protection n.e.c.</t>
+  </si>
+  <si>
     <t>05 - Environmental protection</t>
   </si>
   <si>
-    <t>05.6 - Environmental protection n.e.c.</t>
-  </si>
-  <si>
     <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
   </si>
   <si>
@@ -355,18 +355,18 @@
     <t>151</t>
   </si>
   <si>
+    <t>01.3 - General services</t>
+  </si>
+  <si>
+    <t>01 - General public services</t>
+  </si>
+  <si>
+    <t>01.3.1 - General personnel services (CS)</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
-    <t>01 - General public services</t>
-  </si>
-  <si>
-    <t>01.3 - General services</t>
-  </si>
-  <si>
-    <t>01.3.1 - General personnel services (CS)</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -388,12 +388,12 @@
     <t>15113</t>
   </si>
   <si>
+    <t>03.6 - Public order and safety n.e.c.</t>
+  </si>
+  <si>
     <t>03 - Public order and safety</t>
   </si>
   <si>
-    <t>03.6 - Public order and safety n.e.c.</t>
-  </si>
-  <si>
     <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
   </si>
   <si>
@@ -505,12 +505,12 @@
     <t>15142</t>
   </si>
   <si>
+    <t>04.1 - General economic, commercial and labour affairs</t>
+  </si>
+  <si>
     <t>04 - Economic affairs</t>
   </si>
   <si>
-    <t>04.1 - General economic, commercial and labour affairs</t>
-  </si>
-  <si>
     <t>04.1.1 - General economic and commercial affairs (CS)</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>15170</t>
   </si>
   <si>
+    <t>10.7 - Social exclusion n.e.c.</t>
+  </si>
+  <si>
     <t>10 - Social protection</t>
   </si>
   <si>
-    <t>10.7 - Social exclusion n.e.c.</t>
-  </si>
-  <si>
     <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
   </si>
   <si>
@@ -601,12 +601,12 @@
     <t>15230</t>
   </si>
   <si>
+    <t>02.3 - Foreign military aid</t>
+  </si>
+  <si>
     <t>02 - Defence</t>
   </si>
   <si>
-    <t>02.3 - Foreign military aid</t>
-  </si>
-  <si>
     <t>02.3.0 - Foreign military aid (CS)</t>
   </si>
   <si>
@@ -622,15 +622,15 @@
     <t>16010</t>
   </si>
   <si>
+    <t>10.9 - Social protection n.e.c.</t>
+  </si>
+  <si>
+    <t>10.9.0 - Social protection n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
-    <t>10.9 - Social protection n.e.c.</t>
-  </si>
-  <si>
-    <t>10.9.0 - Social protection n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>16011</t>
   </si>
   <si>
@@ -685,12 +685,12 @@
     <t>16061</t>
   </si>
   <si>
+    <t>08.2 - Cultural services</t>
+  </si>
+  <si>
     <t>08 - Recreation, culture and religion</t>
   </si>
   <si>
-    <t>08.2 - Cultural services</t>
-  </si>
-  <si>
     <t>08.2.0 - Cultural services (IS)</t>
   </si>
   <si>
@@ -826,15 +826,15 @@
     <t>231</t>
   </si>
   <si>
+    <t>04.3 - Fuel and energy</t>
+  </si>
+  <si>
+    <t>04.3.5 - Electricity (CS)</t>
+  </si>
+  <si>
     <t>230</t>
   </si>
   <si>
-    <t>04.3 - Fuel and energy</t>
-  </si>
-  <si>
-    <t>04.3.5 - Electricity (CS)</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
@@ -994,15 +994,15 @@
     <t>311</t>
   </si>
   <si>
+    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
+  </si>
+  <si>
+    <t>04.2.1 - Agriculture (CS)</t>
+  </si>
+  <si>
     <t>310</t>
   </si>
   <si>
-    <t>04.2 - Agriculture, forestry, fishing and hunting</t>
-  </si>
-  <si>
-    <t>04.2.1 - Agriculture (CS)</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1108,15 +1108,15 @@
     <t>321</t>
   </si>
   <si>
+    <t>04.4 - Mining, manufacturing and construction</t>
+  </si>
+  <si>
+    <t>04.4.2 - Manufacturing (CS)</t>
+  </si>
+  <si>
     <t>320</t>
   </si>
   <si>
-    <t>04.4 - Mining, manufacturing and construction</t>
-  </si>
-  <si>
-    <t>04.4.2 - Manufacturing (CS)</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1279,15 +1279,15 @@
     <t>43010</t>
   </si>
   <si>
+    <t>04.9 - Economic affairs n.e.c.</t>
+  </si>
+  <si>
+    <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
-    <t>04.9 - Economic affairs n.e.c.</t>
-  </si>
-  <si>
-    <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1375,13 +1375,13 @@
     <t>60010</t>
   </si>
   <si>
+    <t>01.7 - Public debt transactions</t>
+  </si>
+  <si>
+    <t>01.7.0 - Public debt transactions (CS)</t>
+  </si>
+  <si>
     <t>600</t>
-  </si>
-  <si>
-    <t>01.7 - Public debt transactions</t>
-  </si>
-  <si>
-    <t>01.7.0 - Public debt transactions (CS)</t>
   </si>
   <si>
     <t>60020</t>
@@ -1869,16 +1869,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1915,16 +1915,16 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1938,16 +1938,16 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1984,16 +1984,16 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2007,16 +2007,16 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2030,16 +2030,16 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2053,16 +2053,16 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2076,16 +2076,16 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2099,16 +2099,16 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2122,16 +2122,16 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2145,16 +2145,16 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2168,16 +2168,16 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2194,7 +2194,7 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
@@ -2217,7 +2217,7 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
@@ -2237,16 +2237,16 @@
         <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2260,16 +2260,16 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2286,7 +2286,7 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
@@ -2306,16 +2306,16 @@
         <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2329,16 +2329,16 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2352,16 +2352,16 @@
         <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2375,16 +2375,16 @@
         <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2398,16 +2398,16 @@
         <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2421,16 +2421,16 @@
         <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2444,16 +2444,16 @@
         <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2467,16 +2467,16 @@
         <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2493,7 +2493,7 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
@@ -2513,16 +2513,16 @@
         <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2536,16 +2536,16 @@
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2559,16 +2559,16 @@
         <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2582,16 +2582,16 @@
         <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2605,16 +2605,16 @@
         <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2628,16 +2628,16 @@
         <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2648,16 +2648,16 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
         <v>83</v>
-      </c>
-      <c r="E37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2668,16 +2668,16 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
         <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2688,16 +2688,16 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
         <v>83</v>
-      </c>
-      <c r="E39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2708,16 +2708,16 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s">
         <v>83</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2728,16 +2728,16 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
         <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2748,16 +2748,16 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
         <v>83</v>
-      </c>
-      <c r="E42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2788,16 +2788,16 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2848,16 +2848,16 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2908,16 +2908,16 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G50" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2948,16 +2948,16 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2968,7 +2968,7 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -2977,7 +2977,7 @@
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3014,16 +3014,16 @@
         <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
         <v>114</v>
       </c>
       <c r="F55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3037,16 +3037,16 @@
         <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E56" t="s">
         <v>114</v>
       </c>
       <c r="F56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3060,16 +3060,16 @@
         <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G57" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3083,16 +3083,16 @@
         <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E58" t="s">
         <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3106,16 +3106,16 @@
         <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E59" t="s">
         <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3129,16 +3129,16 @@
         <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E60" t="s">
         <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3152,16 +3152,16 @@
         <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E61" t="s">
         <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3175,16 +3175,16 @@
         <v>112</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E62" t="s">
         <v>114</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3198,16 +3198,16 @@
         <v>112</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E63" t="s">
         <v>114</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="G63" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3221,16 +3221,16 @@
         <v>112</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
         <v>114</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="G64" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3244,16 +3244,16 @@
         <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E65" t="s">
         <v>114</v>
       </c>
       <c r="F65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G65" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3290,16 +3290,16 @@
         <v>112</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E67" t="s">
         <v>114</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3319,10 +3319,10 @@
         <v>114</v>
       </c>
       <c r="F68" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="G68" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3342,10 +3342,10 @@
         <v>114</v>
       </c>
       <c r="F69" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="G69" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3359,16 +3359,16 @@
         <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E70" t="s">
         <v>114</v>
       </c>
       <c r="F70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G70" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3382,16 +3382,16 @@
         <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E71" t="s">
         <v>114</v>
       </c>
       <c r="F71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G71" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3428,16 +3428,16 @@
         <v>112</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="E73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G73" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3451,16 +3451,16 @@
         <v>112</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F74" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G74" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3474,16 +3474,16 @@
         <v>112</v>
       </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="E75" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G75" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3497,16 +3497,16 @@
         <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G76" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3520,16 +3520,16 @@
         <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G77" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3543,16 +3543,16 @@
         <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G78" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3566,16 +3566,16 @@
         <v>112</v>
       </c>
       <c r="D79" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G79" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3589,16 +3589,16 @@
         <v>112</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G80" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3612,16 +3612,16 @@
         <v>112</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G81" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3635,16 +3635,16 @@
         <v>112</v>
       </c>
       <c r="D82" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G82" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3664,10 +3664,10 @@
         <v>114</v>
       </c>
       <c r="F83" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="G83" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3681,16 +3681,16 @@
         <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="E84" t="s">
         <v>114</v>
       </c>
       <c r="F84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G84" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3704,16 +3704,16 @@
         <v>112</v>
       </c>
       <c r="D85" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E85" t="s">
         <v>114</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="G85" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3727,16 +3727,16 @@
         <v>112</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G86" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3750,16 +3750,16 @@
         <v>112</v>
       </c>
       <c r="D87" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E87" t="s">
         <v>114</v>
       </c>
       <c r="F87" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="G87" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3773,16 +3773,16 @@
         <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E88" t="s">
         <v>114</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3796,16 +3796,16 @@
         <v>112</v>
       </c>
       <c r="D89" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E89" t="s">
         <v>114</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3819,16 +3819,16 @@
         <v>112</v>
       </c>
       <c r="D90" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E90" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G90" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3842,16 +3842,16 @@
         <v>112</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G91" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3865,16 +3865,16 @@
         <v>112</v>
       </c>
       <c r="D92" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G92" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3888,16 +3888,16 @@
         <v>112</v>
       </c>
       <c r="D93" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E93" t="s">
         <v>114</v>
       </c>
       <c r="F93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G93" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3911,16 +3911,16 @@
         <v>112</v>
       </c>
       <c r="D94" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F94" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G94" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3934,16 +3934,16 @@
         <v>112</v>
       </c>
       <c r="D95" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="E95" t="s">
         <v>114</v>
       </c>
       <c r="F95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G95" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3957,16 +3957,16 @@
         <v>192</v>
       </c>
       <c r="D96" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E96" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F96" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G96" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3980,16 +3980,16 @@
         <v>192</v>
       </c>
       <c r="D97" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G97" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4003,16 +4003,16 @@
         <v>192</v>
       </c>
       <c r="D98" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G98" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4026,16 +4026,16 @@
         <v>192</v>
       </c>
       <c r="D99" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E99" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F99" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G99" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4049,16 +4049,16 @@
         <v>192</v>
       </c>
       <c r="D100" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="E100" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F100" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G100" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4072,16 +4072,16 @@
         <v>192</v>
       </c>
       <c r="D101" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F101" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G101" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4095,7 +4095,7 @@
         <v>202</v>
       </c>
       <c r="E102" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F102" t="s">
         <v>203</v>
@@ -4115,7 +4115,7 @@
         <v>202</v>
       </c>
       <c r="E103" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F103" t="s">
         <v>203</v>
@@ -4135,7 +4135,7 @@
         <v>202</v>
       </c>
       <c r="E104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F104" t="s">
         <v>203</v>
@@ -4152,16 +4152,16 @@
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E105" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G105" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4175,7 +4175,7 @@
         <v>202</v>
       </c>
       <c r="E106" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F106" t="s">
         <v>203</v>
@@ -4192,16 +4192,16 @@
         <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="E107" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F107" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G107" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4212,16 +4212,16 @@
         <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E108" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F108" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G108" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4232,16 +4232,16 @@
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="E109" t="s">
         <v>91</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G109" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4252,16 +4252,16 @@
         <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="E110" t="s">
         <v>91</v>
       </c>
       <c r="F110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G110" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4275,7 +4275,7 @@
         <v>202</v>
       </c>
       <c r="E111" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F111" t="s">
         <v>203</v>
@@ -4292,16 +4292,16 @@
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G112" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4312,16 +4312,16 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="E113" t="s">
         <v>114</v>
       </c>
       <c r="F113" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="G113" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4332,16 +4332,16 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="E114" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F114" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G114" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4352,16 +4352,16 @@
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="E115" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F115" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G115" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4372,16 +4372,16 @@
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G116" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4392,16 +4392,16 @@
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G117" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4412,16 +4412,16 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E118" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F118" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="G118" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4432,16 +4432,16 @@
         <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="E119" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F119" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G119" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4452,16 +4452,16 @@
         <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="E120" t="s">
         <v>114</v>
       </c>
       <c r="F120" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G120" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4472,16 +4472,16 @@
         <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c r="E121" t="s">
         <v>114</v>
       </c>
       <c r="F121" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="G121" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4492,16 +4492,16 @@
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="E122" t="s">
         <v>114</v>
       </c>
       <c r="F122" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G122" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4512,16 +4512,16 @@
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="E123" t="s">
         <v>114</v>
       </c>
       <c r="F123" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G123" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4532,16 +4532,16 @@
         <v>8</v>
       </c>
       <c r="D124" t="s">
+        <v>242</v>
+      </c>
+      <c r="E124" t="s">
+        <v>164</v>
+      </c>
+      <c r="F124" t="s">
+        <v>243</v>
+      </c>
+      <c r="G124" t="s">
         <v>237</v>
-      </c>
-      <c r="E124" t="s">
-        <v>163</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
-      </c>
-      <c r="G124" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4552,16 +4552,16 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
+        <v>242</v>
+      </c>
+      <c r="E125" t="s">
+        <v>164</v>
+      </c>
+      <c r="F125" t="s">
+        <v>243</v>
+      </c>
+      <c r="G125" t="s">
         <v>237</v>
-      </c>
-      <c r="E125" t="s">
-        <v>163</v>
-      </c>
-      <c r="F125" t="s">
-        <v>242</v>
-      </c>
-      <c r="G125" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4572,16 +4572,16 @@
         <v>8</v>
       </c>
       <c r="D126" t="s">
+        <v>242</v>
+      </c>
+      <c r="E126" t="s">
+        <v>164</v>
+      </c>
+      <c r="F126" t="s">
+        <v>243</v>
+      </c>
+      <c r="G126" t="s">
         <v>237</v>
-      </c>
-      <c r="E126" t="s">
-        <v>163</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
-      </c>
-      <c r="G126" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4592,16 +4592,16 @@
         <v>8</v>
       </c>
       <c r="D127" t="s">
+        <v>242</v>
+      </c>
+      <c r="E127" t="s">
+        <v>164</v>
+      </c>
+      <c r="F127" t="s">
+        <v>243</v>
+      </c>
+      <c r="G127" t="s">
         <v>237</v>
-      </c>
-      <c r="E127" t="s">
-        <v>163</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
-      </c>
-      <c r="G127" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4612,16 +4612,16 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
+        <v>242</v>
+      </c>
+      <c r="E128" t="s">
+        <v>164</v>
+      </c>
+      <c r="F128" t="s">
+        <v>243</v>
+      </c>
+      <c r="G128" t="s">
         <v>237</v>
-      </c>
-      <c r="E128" t="s">
-        <v>163</v>
-      </c>
-      <c r="F128" t="s">
-        <v>242</v>
-      </c>
-      <c r="G128" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4632,16 +4632,16 @@
         <v>8</v>
       </c>
       <c r="D129" t="s">
+        <v>242</v>
+      </c>
+      <c r="E129" t="s">
+        <v>164</v>
+      </c>
+      <c r="F129" t="s">
+        <v>249</v>
+      </c>
+      <c r="G129" t="s">
         <v>237</v>
-      </c>
-      <c r="E129" t="s">
-        <v>163</v>
-      </c>
-      <c r="F129" t="s">
-        <v>242</v>
-      </c>
-      <c r="G129" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4652,16 +4652,16 @@
         <v>8</v>
       </c>
       <c r="D130" t="s">
+        <v>242</v>
+      </c>
+      <c r="E130" t="s">
+        <v>164</v>
+      </c>
+      <c r="F130" t="s">
+        <v>251</v>
+      </c>
+      <c r="G130" t="s">
         <v>237</v>
-      </c>
-      <c r="E130" t="s">
-        <v>163</v>
-      </c>
-      <c r="F130" t="s">
-        <v>242</v>
-      </c>
-      <c r="G130" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4672,16 +4672,16 @@
         <v>8</v>
       </c>
       <c r="D131" t="s">
+        <v>242</v>
+      </c>
+      <c r="E131" t="s">
+        <v>164</v>
+      </c>
+      <c r="F131" t="s">
+        <v>253</v>
+      </c>
+      <c r="G131" t="s">
         <v>237</v>
-      </c>
-      <c r="E131" t="s">
-        <v>163</v>
-      </c>
-      <c r="F131" t="s">
-        <v>242</v>
-      </c>
-      <c r="G131" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4692,16 +4692,16 @@
         <v>8</v>
       </c>
       <c r="D132" t="s">
+        <v>255</v>
+      </c>
+      <c r="E132" t="s">
+        <v>164</v>
+      </c>
+      <c r="F132" t="s">
+        <v>256</v>
+      </c>
+      <c r="G132" t="s">
         <v>237</v>
-      </c>
-      <c r="E132" t="s">
-        <v>163</v>
-      </c>
-      <c r="F132" t="s">
-        <v>255</v>
-      </c>
-      <c r="G132" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4712,16 +4712,16 @@
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="E133" t="s">
         <v>114</v>
       </c>
       <c r="F133" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G133" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4732,16 +4732,16 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
+        <v>175</v>
+      </c>
+      <c r="E134" t="s">
+        <v>164</v>
+      </c>
+      <c r="F134" t="s">
+        <v>176</v>
+      </c>
+      <c r="G134" t="s">
         <v>259</v>
-      </c>
-      <c r="E134" t="s">
-        <v>163</v>
-      </c>
-      <c r="F134" t="s">
-        <v>175</v>
-      </c>
-      <c r="G134" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4752,16 +4752,16 @@
         <v>8</v>
       </c>
       <c r="D135" t="s">
+        <v>175</v>
+      </c>
+      <c r="E135" t="s">
+        <v>164</v>
+      </c>
+      <c r="F135" t="s">
+        <v>176</v>
+      </c>
+      <c r="G135" t="s">
         <v>259</v>
-      </c>
-      <c r="E135" t="s">
-        <v>163</v>
-      </c>
-      <c r="F135" t="s">
-        <v>175</v>
-      </c>
-      <c r="G135" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4772,16 +4772,16 @@
         <v>8</v>
       </c>
       <c r="D136" t="s">
+        <v>175</v>
+      </c>
+      <c r="E136" t="s">
+        <v>164</v>
+      </c>
+      <c r="F136" t="s">
+        <v>176</v>
+      </c>
+      <c r="G136" t="s">
         <v>259</v>
-      </c>
-      <c r="E136" t="s">
-        <v>163</v>
-      </c>
-      <c r="F136" t="s">
-        <v>175</v>
-      </c>
-      <c r="G136" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4792,16 +4792,16 @@
         <v>8</v>
       </c>
       <c r="D137" t="s">
+        <v>175</v>
+      </c>
+      <c r="E137" t="s">
+        <v>164</v>
+      </c>
+      <c r="F137" t="s">
+        <v>176</v>
+      </c>
+      <c r="G137" t="s">
         <v>259</v>
-      </c>
-      <c r="E137" t="s">
-        <v>163</v>
-      </c>
-      <c r="F137" t="s">
-        <v>175</v>
-      </c>
-      <c r="G137" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4812,16 +4812,16 @@
         <v>8</v>
       </c>
       <c r="D138" t="s">
+        <v>175</v>
+      </c>
+      <c r="E138" t="s">
+        <v>164</v>
+      </c>
+      <c r="F138" t="s">
+        <v>176</v>
+      </c>
+      <c r="G138" t="s">
         <v>259</v>
-      </c>
-      <c r="E138" t="s">
-        <v>163</v>
-      </c>
-      <c r="F138" t="s">
-        <v>175</v>
-      </c>
-      <c r="G138" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4832,16 +4832,16 @@
         <v>8</v>
       </c>
       <c r="D139" t="s">
+        <v>265</v>
+      </c>
+      <c r="E139" t="s">
+        <v>224</v>
+      </c>
+      <c r="F139" t="s">
+        <v>266</v>
+      </c>
+      <c r="G139" t="s">
         <v>259</v>
-      </c>
-      <c r="E139" t="s">
-        <v>223</v>
-      </c>
-      <c r="F139" t="s">
-        <v>265</v>
-      </c>
-      <c r="G139" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4852,16 +4852,16 @@
         <v>8</v>
       </c>
       <c r="D140" t="s">
+        <v>175</v>
+      </c>
+      <c r="E140" t="s">
+        <v>164</v>
+      </c>
+      <c r="F140" t="s">
+        <v>176</v>
+      </c>
+      <c r="G140" t="s">
         <v>259</v>
-      </c>
-      <c r="E140" t="s">
-        <v>163</v>
-      </c>
-      <c r="F140" t="s">
-        <v>175</v>
-      </c>
-      <c r="G140" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4878,7 +4878,7 @@
         <v>270</v>
       </c>
       <c r="E141" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F141" t="s">
         <v>271</v>
@@ -4901,7 +4901,7 @@
         <v>270</v>
       </c>
       <c r="E142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F142" t="s">
         <v>271</v>
@@ -4921,16 +4921,16 @@
         <v>269</v>
       </c>
       <c r="D143" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E143" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F143" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G143" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4944,16 +4944,16 @@
         <v>269</v>
       </c>
       <c r="D144" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E144" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G144" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4967,16 +4967,16 @@
         <v>269</v>
       </c>
       <c r="D145" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E145" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F145" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G145" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4993,7 +4993,7 @@
         <v>270</v>
       </c>
       <c r="E146" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F146" t="s">
         <v>271</v>
@@ -5016,7 +5016,7 @@
         <v>270</v>
       </c>
       <c r="E147" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F147" t="s">
         <v>271</v>
@@ -5039,7 +5039,7 @@
         <v>270</v>
       </c>
       <c r="E148" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F148" t="s">
         <v>271</v>
@@ -5062,7 +5062,7 @@
         <v>270</v>
       </c>
       <c r="E149" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F149" t="s">
         <v>271</v>
@@ -5085,7 +5085,7 @@
         <v>270</v>
       </c>
       <c r="E150" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F150" t="s">
         <v>271</v>
@@ -5108,7 +5108,7 @@
         <v>270</v>
       </c>
       <c r="E151" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F151" t="s">
         <v>271</v>
@@ -5131,7 +5131,7 @@
         <v>270</v>
       </c>
       <c r="E152" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F152" t="s">
         <v>271</v>
@@ -5154,7 +5154,7 @@
         <v>270</v>
       </c>
       <c r="E153" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F153" t="s">
         <v>271</v>
@@ -5177,7 +5177,7 @@
         <v>270</v>
       </c>
       <c r="E154" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F154" t="s">
         <v>271</v>
@@ -5200,7 +5200,7 @@
         <v>270</v>
       </c>
       <c r="E155" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F155" t="s">
         <v>271</v>
@@ -5223,7 +5223,7 @@
         <v>270</v>
       </c>
       <c r="E156" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F156" t="s">
         <v>271</v>
@@ -5246,13 +5246,13 @@
         <v>270</v>
       </c>
       <c r="E157" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F157" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G157" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5269,7 +5269,7 @@
         <v>270</v>
       </c>
       <c r="E158" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F158" t="s">
         <v>271</v>
@@ -5292,7 +5292,7 @@
         <v>270</v>
       </c>
       <c r="E159" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F159" t="s">
         <v>271</v>
@@ -5315,7 +5315,7 @@
         <v>270</v>
       </c>
       <c r="E160" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F160" t="s">
         <v>271</v>
@@ -5338,7 +5338,7 @@
         <v>270</v>
       </c>
       <c r="E161" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F161" t="s">
         <v>271</v>
@@ -5361,7 +5361,7 @@
         <v>270</v>
       </c>
       <c r="E162" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F162" t="s">
         <v>271</v>
@@ -5384,13 +5384,13 @@
         <v>270</v>
       </c>
       <c r="E163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F163" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="G163" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5407,7 +5407,7 @@
         <v>270</v>
       </c>
       <c r="E164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F164" t="s">
         <v>271</v>
@@ -5430,7 +5430,7 @@
         <v>270</v>
       </c>
       <c r="E165" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F165" t="s">
         <v>271</v>
@@ -5453,7 +5453,7 @@
         <v>270</v>
       </c>
       <c r="E166" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F166" t="s">
         <v>271</v>
@@ -5476,7 +5476,7 @@
         <v>270</v>
       </c>
       <c r="E167" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F167" t="s">
         <v>271</v>
@@ -5499,13 +5499,13 @@
         <v>270</v>
       </c>
       <c r="E168" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F168" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G168" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5522,13 +5522,13 @@
         <v>270</v>
       </c>
       <c r="E169" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F169" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G169" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5545,7 +5545,7 @@
         <v>270</v>
       </c>
       <c r="E170" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F170" t="s">
         <v>271</v>
@@ -5562,16 +5562,16 @@
         <v>8</v>
       </c>
       <c r="D171" t="s">
+        <v>163</v>
+      </c>
+      <c r="E171" t="s">
+        <v>164</v>
+      </c>
+      <c r="F171" t="s">
+        <v>165</v>
+      </c>
+      <c r="G171" t="s">
         <v>313</v>
-      </c>
-      <c r="E171" t="s">
-        <v>163</v>
-      </c>
-      <c r="F171" t="s">
-        <v>164</v>
-      </c>
-      <c r="G171" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5582,16 +5582,16 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>313</v>
+        <v>118</v>
       </c>
       <c r="E172" t="s">
         <v>114</v>
       </c>
       <c r="F172" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G172" t="s">
-        <v>119</v>
+        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5602,16 +5602,16 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
+        <v>163</v>
+      </c>
+      <c r="E173" t="s">
+        <v>164</v>
+      </c>
+      <c r="F173" t="s">
+        <v>165</v>
+      </c>
+      <c r="G173" t="s">
         <v>313</v>
-      </c>
-      <c r="E173" t="s">
-        <v>163</v>
-      </c>
-      <c r="F173" t="s">
-        <v>164</v>
-      </c>
-      <c r="G173" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5622,16 +5622,16 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
+        <v>163</v>
+      </c>
+      <c r="E174" t="s">
+        <v>164</v>
+      </c>
+      <c r="F174" t="s">
+        <v>165</v>
+      </c>
+      <c r="G174" t="s">
         <v>313</v>
-      </c>
-      <c r="E174" t="s">
-        <v>163</v>
-      </c>
-      <c r="F174" t="s">
-        <v>164</v>
-      </c>
-      <c r="G174" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5642,16 +5642,16 @@
         <v>8</v>
       </c>
       <c r="D175" t="s">
+        <v>163</v>
+      </c>
+      <c r="E175" t="s">
+        <v>164</v>
+      </c>
+      <c r="F175" t="s">
+        <v>165</v>
+      </c>
+      <c r="G175" t="s">
         <v>313</v>
-      </c>
-      <c r="E175" t="s">
-        <v>163</v>
-      </c>
-      <c r="F175" t="s">
-        <v>164</v>
-      </c>
-      <c r="G175" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5662,16 +5662,16 @@
         <v>8</v>
       </c>
       <c r="D176" t="s">
+        <v>163</v>
+      </c>
+      <c r="E176" t="s">
+        <v>164</v>
+      </c>
+      <c r="F176" t="s">
+        <v>165</v>
+      </c>
+      <c r="G176" t="s">
         <v>313</v>
-      </c>
-      <c r="E176" t="s">
-        <v>163</v>
-      </c>
-      <c r="F176" t="s">
-        <v>164</v>
-      </c>
-      <c r="G176" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5682,16 +5682,16 @@
         <v>8</v>
       </c>
       <c r="D177" t="s">
+        <v>163</v>
+      </c>
+      <c r="E177" t="s">
+        <v>164</v>
+      </c>
+      <c r="F177" t="s">
+        <v>165</v>
+      </c>
+      <c r="G177" t="s">
         <v>320</v>
-      </c>
-      <c r="E177" t="s">
-        <v>163</v>
-      </c>
-      <c r="F177" t="s">
-        <v>164</v>
-      </c>
-      <c r="G177" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5702,16 +5702,16 @@
         <v>8</v>
       </c>
       <c r="D178" t="s">
+        <v>163</v>
+      </c>
+      <c r="E178" t="s">
+        <v>164</v>
+      </c>
+      <c r="F178" t="s">
+        <v>165</v>
+      </c>
+      <c r="G178" t="s">
         <v>320</v>
-      </c>
-      <c r="E178" t="s">
-        <v>163</v>
-      </c>
-      <c r="F178" t="s">
-        <v>164</v>
-      </c>
-      <c r="G178" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5722,16 +5722,16 @@
         <v>8</v>
       </c>
       <c r="D179" t="s">
+        <v>163</v>
+      </c>
+      <c r="E179" t="s">
+        <v>164</v>
+      </c>
+      <c r="F179" t="s">
+        <v>165</v>
+      </c>
+      <c r="G179" t="s">
         <v>320</v>
-      </c>
-      <c r="E179" t="s">
-        <v>163</v>
-      </c>
-      <c r="F179" t="s">
-        <v>164</v>
-      </c>
-      <c r="G179" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5742,16 +5742,16 @@
         <v>8</v>
       </c>
       <c r="D180" t="s">
+        <v>163</v>
+      </c>
+      <c r="E180" t="s">
+        <v>164</v>
+      </c>
+      <c r="F180" t="s">
+        <v>165</v>
+      </c>
+      <c r="G180" t="s">
         <v>320</v>
-      </c>
-      <c r="E180" t="s">
-        <v>163</v>
-      </c>
-      <c r="F180" t="s">
-        <v>164</v>
-      </c>
-      <c r="G180" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5768,7 +5768,7 @@
         <v>326</v>
       </c>
       <c r="E181" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F181" t="s">
         <v>327</v>
@@ -5791,7 +5791,7 @@
         <v>326</v>
       </c>
       <c r="E182" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F182" t="s">
         <v>327</v>
@@ -5814,7 +5814,7 @@
         <v>326</v>
       </c>
       <c r="E183" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F183" t="s">
         <v>327</v>
@@ -5837,7 +5837,7 @@
         <v>326</v>
       </c>
       <c r="E184" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F184" t="s">
         <v>327</v>
@@ -5860,7 +5860,7 @@
         <v>326</v>
       </c>
       <c r="E185" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F185" t="s">
         <v>327</v>
@@ -5883,7 +5883,7 @@
         <v>326</v>
       </c>
       <c r="E186" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F186" t="s">
         <v>327</v>
@@ -5906,7 +5906,7 @@
         <v>326</v>
       </c>
       <c r="E187" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F187" t="s">
         <v>327</v>
@@ -5929,7 +5929,7 @@
         <v>326</v>
       </c>
       <c r="E188" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F188" t="s">
         <v>327</v>
@@ -5952,7 +5952,7 @@
         <v>326</v>
       </c>
       <c r="E189" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F189" t="s">
         <v>327</v>
@@ -5975,7 +5975,7 @@
         <v>326</v>
       </c>
       <c r="E190" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F190" t="s">
         <v>327</v>
@@ -5998,7 +5998,7 @@
         <v>326</v>
       </c>
       <c r="E191" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F191" t="s">
         <v>327</v>
@@ -6021,7 +6021,7 @@
         <v>326</v>
       </c>
       <c r="E192" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F192" t="s">
         <v>327</v>
@@ -6041,16 +6041,16 @@
         <v>325</v>
       </c>
       <c r="D193" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="E193" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F193" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="G193" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6067,7 +6067,7 @@
         <v>326</v>
       </c>
       <c r="E194" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F194" t="s">
         <v>327</v>
@@ -6090,7 +6090,7 @@
         <v>326</v>
       </c>
       <c r="E195" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F195" t="s">
         <v>327</v>
@@ -6113,7 +6113,7 @@
         <v>326</v>
       </c>
       <c r="E196" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F196" t="s">
         <v>327</v>
@@ -6136,7 +6136,7 @@
         <v>326</v>
       </c>
       <c r="E197" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F197" t="s">
         <v>327</v>
@@ -6159,7 +6159,7 @@
         <v>326</v>
       </c>
       <c r="E198" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F198" t="s">
         <v>327</v>
@@ -6182,13 +6182,13 @@
         <v>326</v>
       </c>
       <c r="E199" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F199" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G199" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6205,13 +6205,13 @@
         <v>326</v>
       </c>
       <c r="E200" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F200" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G200" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6228,13 +6228,13 @@
         <v>326</v>
       </c>
       <c r="E201" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F201" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G201" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6251,13 +6251,13 @@
         <v>326</v>
       </c>
       <c r="E202" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F202" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G202" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6271,16 +6271,16 @@
         <v>348</v>
       </c>
       <c r="D203" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="E203" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F203" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="G203" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6297,13 +6297,13 @@
         <v>326</v>
       </c>
       <c r="E204" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F204" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G204" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6320,13 +6320,13 @@
         <v>326</v>
       </c>
       <c r="E205" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F205" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="G205" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6343,13 +6343,13 @@
         <v>326</v>
       </c>
       <c r="E206" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F206" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="G206" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6366,13 +6366,13 @@
         <v>326</v>
       </c>
       <c r="E207" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F207" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="G207" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6386,16 +6386,16 @@
         <v>356</v>
       </c>
       <c r="D208" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="E208" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F208" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="G208" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6412,13 +6412,13 @@
         <v>326</v>
       </c>
       <c r="E209" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F209" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="G209" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6435,7 +6435,7 @@
         <v>364</v>
       </c>
       <c r="E210" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F210" t="s">
         <v>365</v>
@@ -6458,7 +6458,7 @@
         <v>364</v>
       </c>
       <c r="E211" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F211" t="s">
         <v>365</v>
@@ -6481,7 +6481,7 @@
         <v>364</v>
       </c>
       <c r="E212" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F212" t="s">
         <v>365</v>
@@ -6504,7 +6504,7 @@
         <v>364</v>
       </c>
       <c r="E213" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F213" t="s">
         <v>365</v>
@@ -6527,7 +6527,7 @@
         <v>364</v>
       </c>
       <c r="E214" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F214" t="s">
         <v>365</v>
@@ -6547,16 +6547,16 @@
         <v>363</v>
       </c>
       <c r="D215" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="E215" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F215" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G215" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6573,7 +6573,7 @@
         <v>364</v>
       </c>
       <c r="E216" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F216" t="s">
         <v>365</v>
@@ -6596,7 +6596,7 @@
         <v>364</v>
       </c>
       <c r="E217" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F217" t="s">
         <v>365</v>
@@ -6619,7 +6619,7 @@
         <v>364</v>
       </c>
       <c r="E218" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F218" t="s">
         <v>365</v>
@@ -6642,7 +6642,7 @@
         <v>364</v>
       </c>
       <c r="E219" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F219" t="s">
         <v>365</v>
@@ -6662,16 +6662,16 @@
         <v>363</v>
       </c>
       <c r="D220" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="E220" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F220" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G220" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6688,7 +6688,7 @@
         <v>364</v>
       </c>
       <c r="E221" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F221" t="s">
         <v>365</v>
@@ -6711,7 +6711,7 @@
         <v>364</v>
       </c>
       <c r="E222" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F222" t="s">
         <v>365</v>
@@ -6734,7 +6734,7 @@
         <v>364</v>
       </c>
       <c r="E223" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F223" t="s">
         <v>365</v>
@@ -6757,7 +6757,7 @@
         <v>364</v>
       </c>
       <c r="E224" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F224" t="s">
         <v>365</v>
@@ -6780,7 +6780,7 @@
         <v>364</v>
       </c>
       <c r="E225" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F225" t="s">
         <v>365</v>
@@ -6800,16 +6800,16 @@
         <v>363</v>
       </c>
       <c r="D226" t="s">
-        <v>364</v>
+        <v>275</v>
       </c>
       <c r="E226" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F226" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G226" t="s">
-        <v>276</v>
+        <v>366</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6826,7 +6826,7 @@
         <v>364</v>
       </c>
       <c r="E227" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F227" t="s">
         <v>365</v>
@@ -6846,16 +6846,16 @@
         <v>363</v>
       </c>
       <c r="D228" t="s">
-        <v>364</v>
+        <v>163</v>
       </c>
       <c r="E228" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F228" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G228" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6872,13 +6872,13 @@
         <v>364</v>
       </c>
       <c r="E229" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F229" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G229" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6895,13 +6895,13 @@
         <v>364</v>
       </c>
       <c r="E230" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F230" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G230" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6915,16 +6915,16 @@
         <v>386</v>
       </c>
       <c r="D231" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="E231" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F231" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G231" t="s">
-        <v>293</v>
+        <v>366</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6938,16 +6938,16 @@
         <v>386</v>
       </c>
       <c r="D232" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="E232" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F232" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G232" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6964,13 +6964,13 @@
         <v>364</v>
       </c>
       <c r="E233" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F233" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G233" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6987,13 +6987,13 @@
         <v>364</v>
       </c>
       <c r="E234" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F234" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G234" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7010,13 +7010,13 @@
         <v>364</v>
       </c>
       <c r="E235" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F235" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G235" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7033,13 +7033,13 @@
         <v>364</v>
       </c>
       <c r="E236" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F236" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G236" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7056,13 +7056,13 @@
         <v>364</v>
       </c>
       <c r="E237" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F237" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G237" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7079,13 +7079,13 @@
         <v>364</v>
       </c>
       <c r="E238" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F238" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G238" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7102,13 +7102,13 @@
         <v>364</v>
       </c>
       <c r="E239" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F239" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="G239" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7122,16 +7122,16 @@
         <v>401</v>
       </c>
       <c r="D240" t="s">
+        <v>163</v>
+      </c>
+      <c r="E240" t="s">
+        <v>164</v>
+      </c>
+      <c r="F240" t="s">
+        <v>165</v>
+      </c>
+      <c r="G240" t="s">
         <v>402</v>
-      </c>
-      <c r="E240" t="s">
-        <v>163</v>
-      </c>
-      <c r="F240" t="s">
-        <v>164</v>
-      </c>
-      <c r="G240" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7145,16 +7145,16 @@
         <v>401</v>
       </c>
       <c r="D241" t="s">
+        <v>163</v>
+      </c>
+      <c r="E241" t="s">
+        <v>164</v>
+      </c>
+      <c r="F241" t="s">
+        <v>165</v>
+      </c>
+      <c r="G241" t="s">
         <v>402</v>
-      </c>
-      <c r="E241" t="s">
-        <v>163</v>
-      </c>
-      <c r="F241" t="s">
-        <v>164</v>
-      </c>
-      <c r="G241" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7168,16 +7168,16 @@
         <v>401</v>
       </c>
       <c r="D242" t="s">
+        <v>163</v>
+      </c>
+      <c r="E242" t="s">
+        <v>164</v>
+      </c>
+      <c r="F242" t="s">
+        <v>165</v>
+      </c>
+      <c r="G242" t="s">
         <v>402</v>
-      </c>
-      <c r="E242" t="s">
-        <v>163</v>
-      </c>
-      <c r="F242" t="s">
-        <v>164</v>
-      </c>
-      <c r="G242" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7191,16 +7191,16 @@
         <v>401</v>
       </c>
       <c r="D243" t="s">
+        <v>163</v>
+      </c>
+      <c r="E243" t="s">
+        <v>164</v>
+      </c>
+      <c r="F243" t="s">
+        <v>165</v>
+      </c>
+      <c r="G243" t="s">
         <v>402</v>
-      </c>
-      <c r="E243" t="s">
-        <v>163</v>
-      </c>
-      <c r="F243" t="s">
-        <v>164</v>
-      </c>
-      <c r="G243" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7214,16 +7214,16 @@
         <v>401</v>
       </c>
       <c r="D244" t="s">
+        <v>163</v>
+      </c>
+      <c r="E244" t="s">
+        <v>164</v>
+      </c>
+      <c r="F244" t="s">
+        <v>165</v>
+      </c>
+      <c r="G244" t="s">
         <v>402</v>
-      </c>
-      <c r="E244" t="s">
-        <v>163</v>
-      </c>
-      <c r="F244" t="s">
-        <v>164</v>
-      </c>
-      <c r="G244" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7237,16 +7237,16 @@
         <v>401</v>
       </c>
       <c r="D245" t="s">
+        <v>163</v>
+      </c>
+      <c r="E245" t="s">
+        <v>164</v>
+      </c>
+      <c r="F245" t="s">
+        <v>165</v>
+      </c>
+      <c r="G245" t="s">
         <v>402</v>
-      </c>
-      <c r="E245" t="s">
-        <v>163</v>
-      </c>
-      <c r="F245" t="s">
-        <v>164</v>
-      </c>
-      <c r="G245" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7260,16 +7260,16 @@
         <v>409</v>
       </c>
       <c r="D246" t="s">
+        <v>255</v>
+      </c>
+      <c r="E246" t="s">
+        <v>164</v>
+      </c>
+      <c r="F246" t="s">
+        <v>410</v>
+      </c>
+      <c r="G246" t="s">
         <v>402</v>
-      </c>
-      <c r="E246" t="s">
-        <v>163</v>
-      </c>
-      <c r="F246" t="s">
-        <v>255</v>
-      </c>
-      <c r="G246" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7280,16 +7280,16 @@
         <v>8</v>
       </c>
       <c r="D247" t="s">
+        <v>95</v>
+      </c>
+      <c r="E247" t="s">
+        <v>96</v>
+      </c>
+      <c r="F247" t="s">
+        <v>97</v>
+      </c>
+      <c r="G247" t="s">
         <v>412</v>
-      </c>
-      <c r="E247" t="s">
-        <v>95</v>
-      </c>
-      <c r="F247" t="s">
-        <v>96</v>
-      </c>
-      <c r="G247" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7300,16 +7300,16 @@
         <v>8</v>
       </c>
       <c r="D248" t="s">
+        <v>95</v>
+      </c>
+      <c r="E248" t="s">
+        <v>96</v>
+      </c>
+      <c r="F248" t="s">
+        <v>97</v>
+      </c>
+      <c r="G248" t="s">
         <v>412</v>
-      </c>
-      <c r="E248" t="s">
-        <v>95</v>
-      </c>
-      <c r="F248" t="s">
-        <v>96</v>
-      </c>
-      <c r="G248" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7320,16 +7320,16 @@
         <v>8</v>
       </c>
       <c r="D249" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" t="s">
+        <v>96</v>
+      </c>
+      <c r="F249" t="s">
+        <v>416</v>
+      </c>
+      <c r="G249" t="s">
         <v>412</v>
-      </c>
-      <c r="E249" t="s">
-        <v>95</v>
-      </c>
-      <c r="F249" t="s">
-        <v>415</v>
-      </c>
-      <c r="G249" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7340,16 +7340,16 @@
         <v>8</v>
       </c>
       <c r="D250" t="s">
+        <v>95</v>
+      </c>
+      <c r="E250" t="s">
+        <v>96</v>
+      </c>
+      <c r="F250" t="s">
+        <v>97</v>
+      </c>
+      <c r="G250" t="s">
         <v>412</v>
-      </c>
-      <c r="E250" t="s">
-        <v>95</v>
-      </c>
-      <c r="F250" t="s">
-        <v>96</v>
-      </c>
-      <c r="G250" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7360,16 +7360,16 @@
         <v>8</v>
       </c>
       <c r="D251" t="s">
+        <v>95</v>
+      </c>
+      <c r="E251" t="s">
+        <v>96</v>
+      </c>
+      <c r="F251" t="s">
+        <v>97</v>
+      </c>
+      <c r="G251" t="s">
         <v>412</v>
-      </c>
-      <c r="E251" t="s">
-        <v>95</v>
-      </c>
-      <c r="F251" t="s">
-        <v>96</v>
-      </c>
-      <c r="G251" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7380,16 +7380,16 @@
         <v>8</v>
       </c>
       <c r="D252" t="s">
+        <v>95</v>
+      </c>
+      <c r="E252" t="s">
+        <v>96</v>
+      </c>
+      <c r="F252" t="s">
+        <v>97</v>
+      </c>
+      <c r="G252" t="s">
         <v>412</v>
-      </c>
-      <c r="E252" t="s">
-        <v>95</v>
-      </c>
-      <c r="F252" t="s">
-        <v>96</v>
-      </c>
-      <c r="G252" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7403,7 +7403,7 @@
         <v>421</v>
       </c>
       <c r="E253" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F253" t="s">
         <v>422</v>
@@ -7420,16 +7420,16 @@
         <v>8</v>
       </c>
       <c r="D254" t="s">
-        <v>421</v>
+        <v>219</v>
       </c>
       <c r="E254" t="s">
         <v>91</v>
       </c>
       <c r="F254" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G254" t="s">
-        <v>220</v>
+        <v>423</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7440,16 +7440,16 @@
         <v>8</v>
       </c>
       <c r="D255" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E255" t="s">
         <v>91</v>
       </c>
       <c r="F255" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G255" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7460,16 +7460,16 @@
         <v>8</v>
       </c>
       <c r="D256" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E256" t="s">
         <v>91</v>
       </c>
       <c r="F256" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G256" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7480,16 +7480,16 @@
         <v>8</v>
       </c>
       <c r="D257" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E257" t="s">
         <v>91</v>
       </c>
       <c r="F257" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G257" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7500,16 +7500,16 @@
         <v>8</v>
       </c>
       <c r="D258" t="s">
-        <v>421</v>
+        <v>326</v>
       </c>
       <c r="E258" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F258" t="s">
         <v>327</v>
       </c>
       <c r="G258" t="s">
-        <v>328</v>
+        <v>423</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7520,16 +7520,16 @@
         <v>8</v>
       </c>
       <c r="D259" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E259" t="s">
         <v>91</v>
       </c>
       <c r="F259" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G259" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7540,16 +7540,16 @@
         <v>8</v>
       </c>
       <c r="D260" t="s">
-        <v>421</v>
+        <v>163</v>
       </c>
       <c r="E260" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F260" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G260" t="s">
-        <v>165</v>
+        <v>423</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7560,16 +7560,16 @@
         <v>8</v>
       </c>
       <c r="D261" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="E261" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F261" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G261" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7580,16 +7580,16 @@
         <v>8</v>
       </c>
       <c r="D262" t="s">
-        <v>421</v>
+        <v>163</v>
       </c>
       <c r="E262" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F262" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G262" t="s">
-        <v>165</v>
+        <v>423</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7600,16 +7600,16 @@
         <v>8</v>
       </c>
       <c r="D263" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="E263" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F263" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G263" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7620,16 +7620,16 @@
         <v>8</v>
       </c>
       <c r="D264" t="s">
-        <v>421</v>
+        <v>31</v>
       </c>
       <c r="E264" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F264" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G264" t="s">
-        <v>33</v>
+        <v>423</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7640,7 +7640,7 @@
         <v>8</v>
       </c>
       <c r="D265" t="s">
-        <v>421</v>
+        <v>10</v>
       </c>
       <c r="E265" t="s">
         <v>11</v>
@@ -7649,7 +7649,7 @@
         <v>12</v>
       </c>
       <c r="G265" t="s">
-        <v>13</v>
+        <v>423</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7660,16 +7660,16 @@
         <v>8</v>
       </c>
       <c r="D266" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="E266" t="s">
         <v>114</v>
       </c>
       <c r="F266" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G266" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7680,16 +7680,16 @@
         <v>8</v>
       </c>
       <c r="D267" t="s">
-        <v>446</v>
+        <v>118</v>
       </c>
       <c r="E267" t="s">
         <v>114</v>
       </c>
       <c r="F267" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G267" t="s">
-        <v>119</v>
+        <v>446</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7700,16 +7700,16 @@
         <v>8</v>
       </c>
       <c r="D268" t="s">
-        <v>448</v>
+        <v>202</v>
       </c>
       <c r="E268" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F268" t="s">
         <v>203</v>
       </c>
       <c r="G268" t="s">
-        <v>204</v>
+        <v>448</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -7720,16 +7720,16 @@
         <v>8</v>
       </c>
       <c r="D269" t="s">
-        <v>450</v>
+        <v>118</v>
       </c>
       <c r="E269" t="s">
         <v>114</v>
       </c>
       <c r="F269" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G269" t="s">
-        <v>119</v>
+        <v>450</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7740,16 +7740,16 @@
         <v>8</v>
       </c>
       <c r="D270" t="s">
-        <v>450</v>
+        <v>118</v>
       </c>
       <c r="E270" t="s">
         <v>114</v>
       </c>
       <c r="F270" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G270" t="s">
-        <v>119</v>
+        <v>450</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -7900,16 +7900,16 @@
         <v>8</v>
       </c>
       <c r="D278" t="s">
-        <v>463</v>
+        <v>202</v>
       </c>
       <c r="E278" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F278" t="s">
         <v>203</v>
       </c>
       <c r="G278" t="s">
-        <v>204</v>
+        <v>463</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7920,16 +7920,16 @@
         <v>8</v>
       </c>
       <c r="D279" t="s">
-        <v>463</v>
+        <v>52</v>
       </c>
       <c r="E279" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F279" t="s">
         <v>53</v>
       </c>
       <c r="G279" t="s">
-        <v>54</v>
+        <v>463</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7940,7 +7940,7 @@
         <v>8</v>
       </c>
       <c r="D280" t="s">
-        <v>463</v>
+        <v>10</v>
       </c>
       <c r="E280" t="s">
         <v>11</v>
@@ -7949,7 +7949,7 @@
         <v>12</v>
       </c>
       <c r="G280" t="s">
-        <v>13</v>
+        <v>463</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -7960,16 +7960,16 @@
         <v>8</v>
       </c>
       <c r="D281" t="s">
-        <v>463</v>
+        <v>170</v>
       </c>
       <c r="E281" t="s">
         <v>114</v>
       </c>
       <c r="F281" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G281" t="s">
-        <v>171</v>
+        <v>463</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -7980,16 +7980,16 @@
         <v>8</v>
       </c>
       <c r="D282" t="s">
+        <v>124</v>
+      </c>
+      <c r="E282" t="s">
+        <v>125</v>
+      </c>
+      <c r="F282" t="s">
+        <v>126</v>
+      </c>
+      <c r="G282" t="s">
         <v>463</v>
-      </c>
-      <c r="E282" t="s">
-        <v>124</v>
-      </c>
-      <c r="F282" t="s">
-        <v>125</v>
-      </c>
-      <c r="G282" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8000,16 +8000,16 @@
         <v>8</v>
       </c>
       <c r="D283" t="s">
+        <v>364</v>
+      </c>
+      <c r="E283" t="s">
+        <v>164</v>
+      </c>
+      <c r="F283" t="s">
+        <v>399</v>
+      </c>
+      <c r="G283" t="s">
         <v>469</v>
-      </c>
-      <c r="E283" t="s">
-        <v>163</v>
-      </c>
-      <c r="F283" t="s">
-        <v>365</v>
-      </c>
-      <c r="G283" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8020,16 +8020,16 @@
         <v>8</v>
       </c>
       <c r="D284" t="s">
+        <v>124</v>
+      </c>
+      <c r="E284" t="s">
+        <v>125</v>
+      </c>
+      <c r="F284" t="s">
+        <v>126</v>
+      </c>
+      <c r="G284" t="s">
         <v>471</v>
-      </c>
-      <c r="E284" t="s">
-        <v>124</v>
-      </c>
-      <c r="F284" t="s">
-        <v>125</v>
-      </c>
-      <c r="G284" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8040,16 +8040,16 @@
         <v>8</v>
       </c>
       <c r="D285" t="s">
-        <v>473</v>
+        <v>170</v>
       </c>
       <c r="E285" t="s">
         <v>114</v>
       </c>
       <c r="F285" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G285" t="s">
-        <v>171</v>
+        <v>473</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8060,16 +8060,16 @@
         <v>8</v>
       </c>
       <c r="D286" t="s">
+        <v>438</v>
+      </c>
+      <c r="E286" t="s">
+        <v>183</v>
+      </c>
+      <c r="F286" t="s">
+        <v>439</v>
+      </c>
+      <c r="G286" t="s">
         <v>475</v>
-      </c>
-      <c r="E286" t="s">
-        <v>182</v>
-      </c>
-      <c r="F286" t="s">
-        <v>438</v>
-      </c>
-      <c r="G286" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8080,16 +8080,16 @@
         <v>8</v>
       </c>
       <c r="D287" t="s">
+        <v>438</v>
+      </c>
+      <c r="E287" t="s">
+        <v>183</v>
+      </c>
+      <c r="F287" t="s">
+        <v>439</v>
+      </c>
+      <c r="G287" t="s">
         <v>475</v>
-      </c>
-      <c r="E287" t="s">
-        <v>182</v>
-      </c>
-      <c r="F287" t="s">
-        <v>438</v>
-      </c>
-      <c r="G287" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8100,16 +8100,16 @@
         <v>8</v>
       </c>
       <c r="D288" t="s">
-        <v>475</v>
+        <v>41</v>
       </c>
       <c r="E288" t="s">
         <v>11</v>
       </c>
       <c r="F288" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G288" t="s">
-        <v>42</v>
+        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8120,16 +8120,16 @@
         <v>8</v>
       </c>
       <c r="D289" t="s">
+        <v>31</v>
+      </c>
+      <c r="E289" t="s">
+        <v>32</v>
+      </c>
+      <c r="F289" t="s">
+        <v>33</v>
+      </c>
+      <c r="G289" t="s">
         <v>475</v>
-      </c>
-      <c r="E289" t="s">
-        <v>31</v>
-      </c>
-      <c r="F289" t="s">
-        <v>32</v>
-      </c>
-      <c r="G289" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -8140,16 +8140,16 @@
         <v>8</v>
       </c>
       <c r="D290" t="s">
+        <v>31</v>
+      </c>
+      <c r="E290" t="s">
+        <v>32</v>
+      </c>
+      <c r="F290" t="s">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
         <v>475</v>
-      </c>
-      <c r="E290" t="s">
-        <v>31</v>
-      </c>
-      <c r="F290" t="s">
-        <v>32</v>
-      </c>
-      <c r="G290" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8160,16 +8160,16 @@
         <v>8</v>
       </c>
       <c r="D291" t="s">
-        <v>475</v>
+        <v>170</v>
       </c>
       <c r="E291" t="s">
         <v>114</v>
       </c>
       <c r="F291" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G291" t="s">
-        <v>171</v>
+        <v>475</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8180,16 +8180,16 @@
         <v>8</v>
       </c>
       <c r="D292" t="s">
-        <v>475</v>
+        <v>170</v>
       </c>
       <c r="E292" t="s">
         <v>114</v>
       </c>
       <c r="F292" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G292" t="s">
-        <v>171</v>
+        <v>475</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8200,16 +8200,16 @@
         <v>8</v>
       </c>
       <c r="D293" t="s">
-        <v>475</v>
+        <v>170</v>
       </c>
       <c r="E293" t="s">
         <v>114</v>
       </c>
       <c r="F293" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G293" t="s">
-        <v>171</v>
+        <v>475</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8220,16 +8220,16 @@
         <v>8</v>
       </c>
       <c r="D294" t="s">
-        <v>475</v>
+        <v>170</v>
       </c>
       <c r="E294" t="s">
         <v>114</v>
       </c>
       <c r="F294" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G294" t="s">
-        <v>171</v>
+        <v>475</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8240,16 +8240,16 @@
         <v>8</v>
       </c>
       <c r="D295" t="s">
-        <v>485</v>
+        <v>170</v>
       </c>
       <c r="E295" t="s">
         <v>114</v>
       </c>
       <c r="F295" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G295" t="s">
-        <v>171</v>
+        <v>485</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -8260,16 +8260,16 @@
         <v>8</v>
       </c>
       <c r="D296" t="s">
-        <v>485</v>
+        <v>170</v>
       </c>
       <c r="E296" t="s">
         <v>114</v>
       </c>
       <c r="F296" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G296" t="s">
-        <v>171</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/api/2/xlsx/es/SectorCOFOG.xlsx
+++ b/api/2/xlsx/es/SectorCOFOG.xlsx
@@ -22,75 +22,75 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:cofog-division</t>
+  </si>
+  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
+    <t>codeforiati:cofog-class</t>
+  </si>
+  <si>
     <t>codeforiati:cofog-group</t>
   </si>
   <si>
-    <t>codeforiati:cofog-division</t>
-  </si>
-  <si>
-    <t>codeforiati:cofog-class</t>
-  </si>
-  <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
     <t>active</t>
   </si>
   <si>
+    <t>09 - Education</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>09.8.0 - Education n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>09.8 - Education n.e.c.</t>
   </si>
   <si>
-    <t>09 - Education</t>
-  </si>
-  <si>
-    <t>09.8.0 - Education n.e.c. (CS)</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
+    <t>09.6.0 - Subsidiary services to education (IS)</t>
+  </si>
+  <si>
     <t>09.6 - Subsidiary services to education</t>
   </si>
   <si>
-    <t>09.6.0 - Subsidiary services to education (IS)</t>
-  </si>
-  <si>
     <t>11130</t>
   </si>
   <si>
     <t>11182</t>
   </si>
   <si>
+    <t>09.7.0 - R&amp;D Education (CS)</t>
+  </si>
+  <si>
     <t>09.7 - R&amp;D Education</t>
   </si>
   <si>
-    <t>09.7.0 - R&amp;D Education (CS)</t>
-  </si>
-  <si>
     <t>11220</t>
   </si>
   <si>
     <t>112</t>
   </si>
   <si>
+    <t>09.1.2 - Primary education (IS)</t>
+  </si>
+  <si>
     <t>09.1 - Pre‐primary and primary education</t>
   </si>
   <si>
-    <t>09.1.2 - Primary education (IS)</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -109,24 +109,24 @@
     <t>11250</t>
   </si>
   <si>
+    <t>07 - Health</t>
+  </si>
+  <si>
+    <t>07.4.0 - Public health services (IS)</t>
+  </si>
+  <si>
     <t>07.4 - Public health services</t>
   </si>
   <si>
-    <t>07 - Health</t>
-  </si>
-  <si>
-    <t>07.4.0 - Public health services (IS)</t>
-  </si>
-  <si>
     <t>11260</t>
   </si>
   <si>
+    <t>09.2.1 - Lower‐secondary education (IS)</t>
+  </si>
+  <si>
     <t>09.2 - Secondary education</t>
   </si>
   <si>
-    <t>09.2.1 - Lower‐secondary education (IS)</t>
-  </si>
-  <si>
     <t>11320</t>
   </si>
   <si>
@@ -139,69 +139,69 @@
     <t>11330</t>
   </si>
   <si>
+    <t>09.5.0 - Education not definable by level (IS)</t>
+  </si>
+  <si>
     <t>09.5 - Education not definable by level</t>
   </si>
   <si>
-    <t>09.5.0 - Education not definable by level (IS)</t>
-  </si>
-  <si>
     <t>11420</t>
   </si>
   <si>
     <t>114</t>
   </si>
   <si>
+    <t>09.4.1 - First stage of tertiary education (IS)</t>
+  </si>
+  <si>
     <t>09.4 - Tertiary education</t>
   </si>
   <si>
-    <t>09.4.1 - First stage of tertiary education (IS)</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
+    <t>09.3.0 - Post‐secondary non‐tertiary education (IS)</t>
+  </si>
+  <si>
     <t>09.3 - Post‐secondary non‐tertiary education</t>
   </si>
   <si>
-    <t>09.3.0 - Post‐secondary non‐tertiary education (IS)</t>
-  </si>
-  <si>
     <t>12110</t>
   </si>
   <si>
     <t>121</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>07.6.0 - Health n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>07.6 - Health n.e.c.</t>
   </si>
   <si>
-    <t>07.6.0 - Health n.e.c. (CS)</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
     <t>12182</t>
   </si>
   <si>
+    <t>07.5.0 - R&amp;D Health (CS)</t>
+  </si>
+  <si>
     <t>07.5 - R&amp;D Health</t>
   </si>
   <si>
-    <t>07.5.0 - R&amp;D Health (CS)</t>
-  </si>
-  <si>
     <t>12191</t>
   </si>
   <si>
+    <t>07.2.1 - General medical services (IS)</t>
+  </si>
+  <si>
     <t>07.2 - Outpatient services</t>
   </si>
   <si>
-    <t>07.2.1 - General medical services (IS)</t>
-  </si>
-  <si>
     <t>12196</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>12230</t>
   </si>
   <si>
+    <t>07.3.1 - General hospital services (IS)</t>
+  </si>
+  <si>
     <t>07.3 - Hospital services</t>
   </si>
   <si>
-    <t>07.3.1 - General hospital services (IS)</t>
-  </si>
-  <si>
     <t>12240</t>
   </si>
   <si>
@@ -286,30 +286,30 @@
     <t>14010</t>
   </si>
   <si>
+    <t>06 - Housing and community amenities</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>06.3.0 - Water supply (CS)</t>
+  </si>
+  <si>
     <t>06.3 - Water supply</t>
   </si>
   <si>
-    <t>06 - Housing and community amenities</t>
-  </si>
-  <si>
-    <t>06.3.0 - Water supply (CS)</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
+    <t>05 - Environmental protection</t>
+  </si>
+  <si>
+    <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>05.6 - Environmental protection n.e.c.</t>
   </si>
   <si>
-    <t>05 - Environmental protection</t>
-  </si>
-  <si>
-    <t>05.6.0 - Environmental protection n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>14020</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>14022</t>
   </si>
   <si>
+    <t>05.2.0 - Waste water management (CS)</t>
+  </si>
+  <si>
     <t>05.2 - Waste water management</t>
   </si>
   <si>
-    <t>05.2.0 - Waste water management (CS)</t>
-  </si>
-  <si>
     <t>14030</t>
   </si>
   <si>
@@ -340,63 +340,63 @@
     <t>14050</t>
   </si>
   <si>
+    <t>05.1.0 - Waste management (CS)</t>
+  </si>
+  <si>
     <t>05.1 - Waste management</t>
   </si>
   <si>
-    <t>05.1.0 - Waste management (CS)</t>
-  </si>
-  <si>
     <t>14081</t>
   </si>
   <si>
     <t>15110</t>
   </si>
   <si>
+    <t>01 - General public services</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>01.3.1 - General personnel services (CS)</t>
+  </si>
+  <si>
     <t>01.3 - General services</t>
   </si>
   <si>
-    <t>01 - General public services</t>
-  </si>
-  <si>
-    <t>01.3.1 - General personnel services (CS)</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
+    <t>01.1.2 - Financial and fiscal affairs (CS)</t>
+  </si>
+  <si>
     <t>01.1 - Executive and legislative organs, financial and fiscal affairs, external affairs</t>
   </si>
   <si>
-    <t>01.1.2 - Financial and fiscal affairs (CS)</t>
-  </si>
-  <si>
     <t>15112</t>
   </si>
   <si>
+    <t>01.8.0 - Transfers of a general character between different levels of government (CS)</t>
+  </si>
+  <si>
     <t>01.8 - Transfers of a general character between different levels of government</t>
   </si>
   <si>
-    <t>01.8.0 - Transfers of a general character between different levels of government (CS)</t>
-  </si>
-  <si>
     <t>15113</t>
   </si>
   <si>
+    <t>03 - Public order and safety</t>
+  </si>
+  <si>
+    <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>03.6 - Public order and safety n.e.c.</t>
   </si>
   <si>
-    <t>03 - Public order and safety</t>
-  </si>
-  <si>
-    <t>03.6.0 - Public order and safety n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>15114</t>
   </si>
   <si>
@@ -424,12 +424,12 @@
     <t>15123</t>
   </si>
   <si>
+    <t>01.2.2 - Economic aid routed through international organizations (CS)</t>
+  </si>
+  <si>
     <t>01.2 - Foreign economic aid</t>
   </si>
   <si>
-    <t>01.2.2 - Economic aid routed through international organizations (CS)</t>
-  </si>
-  <si>
     <t>15124</t>
   </si>
   <si>
@@ -460,30 +460,30 @@
     <t>15131</t>
   </si>
   <si>
+    <t>03.3.0 - Law courts (CS)</t>
+  </si>
+  <si>
     <t>03.3 - Law courts</t>
   </si>
   <si>
-    <t>03.3.0 - Law courts (CS)</t>
-  </si>
-  <si>
     <t>15132</t>
   </si>
   <si>
+    <t>03.1.0 - Police services (CS)</t>
+  </si>
+  <si>
     <t>03.1 - Police services</t>
   </si>
   <si>
-    <t>03.1.0 - Police services (CS)</t>
-  </si>
-  <si>
     <t>15133</t>
   </si>
   <si>
+    <t>03.2.0 - Fire‐protection services (CS)</t>
+  </si>
+  <si>
     <t>03.2 - Fire‐protection services</t>
   </si>
   <si>
-    <t>03.2.0 - Fire‐protection services (CS)</t>
-  </si>
-  <si>
     <t>15134</t>
   </si>
   <si>
@@ -496,24 +496,24 @@
     <t>15137</t>
   </si>
   <si>
+    <t>03.4.0 - Prisons (CS)</t>
+  </si>
+  <si>
     <t>03.4 - Prisons</t>
   </si>
   <si>
-    <t>03.4.0 - Prisons (CS)</t>
-  </si>
-  <si>
     <t>15142</t>
   </si>
   <si>
+    <t>04 - Economic affairs</t>
+  </si>
+  <si>
+    <t>04.1.1 - General economic and commercial affairs (CS)</t>
+  </si>
+  <si>
     <t>04.1 - General economic, commercial and labour affairs</t>
   </si>
   <si>
-    <t>04 - Economic affairs</t>
-  </si>
-  <si>
-    <t>04.1.1 - General economic and commercial affairs (CS)</t>
-  </si>
-  <si>
     <t>15143</t>
   </si>
   <si>
@@ -526,12 +526,12 @@
     <t>15151</t>
   </si>
   <si>
+    <t>01.6.0 - General public services n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>01.6 - General public services n.e.c.</t>
   </si>
   <si>
-    <t>01.6.0 - General public services n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>15152</t>
   </si>
   <si>
@@ -541,12 +541,12 @@
     <t>15153</t>
   </si>
   <si>
+    <t>04.6.0 - Communication (CS)</t>
+  </si>
+  <si>
     <t>04.6 - Communication</t>
   </si>
   <si>
-    <t>04.6.0 - Communication (CS)</t>
-  </si>
-  <si>
     <t>15154</t>
   </si>
   <si>
@@ -562,15 +562,15 @@
     <t>15170</t>
   </si>
   <si>
+    <t>10 - Social protection</t>
+  </si>
+  <si>
+    <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
+  </si>
+  <si>
     <t>10.7 - Social exclusion n.e.c.</t>
   </si>
   <si>
-    <t>10 - Social protection</t>
-  </si>
-  <si>
-    <t>10.7.0 - Social exclusion n.e.c. (IS)</t>
-  </si>
-  <si>
     <t>15180</t>
   </si>
   <si>
@@ -583,12 +583,12 @@
     <t>15196</t>
   </si>
   <si>
+    <t>01.5.0 - R&amp;D General public services (CS)</t>
+  </si>
+  <si>
     <t>01.5 - R&amp;D General public services</t>
   </si>
   <si>
-    <t>01.5.0 - R&amp;D General public services (CS)</t>
-  </si>
-  <si>
     <t>15210</t>
   </si>
   <si>
@@ -601,15 +601,15 @@
     <t>15230</t>
   </si>
   <si>
+    <t>02 - Defence</t>
+  </si>
+  <si>
+    <t>02.3.0 - Foreign military aid (CS)</t>
+  </si>
+  <si>
     <t>02.3 - Foreign military aid</t>
   </si>
   <si>
-    <t>02 - Defence</t>
-  </si>
-  <si>
-    <t>02.3.0 - Foreign military aid (CS)</t>
-  </si>
-  <si>
     <t>15240</t>
   </si>
   <si>
@@ -622,15 +622,15 @@
     <t>16010</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>10.9.0 - Social protection n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>10.9 - Social protection n.e.c.</t>
   </si>
   <si>
-    <t>10.9.0 - Social protection n.e.c. (CS)</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16011</t>
   </si>
   <si>
@@ -640,12 +640,12 @@
     <t>16013</t>
   </si>
   <si>
+    <t>10.2.0 - Old age (IS)</t>
+  </si>
+  <si>
     <t>10.2 - Old age</t>
   </si>
   <si>
-    <t>10.2.0 - Old age (IS)</t>
-  </si>
-  <si>
     <t>16014</t>
   </si>
   <si>
@@ -655,45 +655,45 @@
     <t>16020</t>
   </si>
   <si>
+    <t>10.5.0 - Unemployment (IS)</t>
+  </si>
+  <si>
     <t>10.5 - Unemployment</t>
   </si>
   <si>
-    <t>10.5.0 - Unemployment (IS)</t>
-  </si>
-  <si>
     <t>16030</t>
   </si>
   <si>
+    <t>06.6.0 - Housing and community amenities n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>06.6 - Housing and community amenities n.e.c.</t>
   </si>
   <si>
-    <t>06.6.0 - Housing and community amenities n.e.c. (CS)</t>
-  </si>
-  <si>
     <t>16040</t>
   </si>
   <si>
+    <t>06.1.0 - Housing development (CS)</t>
+  </si>
+  <si>
     <t>06.1 - Housing development</t>
   </si>
   <si>
-    <t>06.1.0 - Housing development (CS)</t>
-  </si>
-  <si>
     <t>16050</t>
   </si>
   <si>
     <t>16061</t>
   </si>
   <si>
+    <t>08 - Recreation, culture and religion</t>
+  </si>
+  <si>
+    <t>08.2.0 - Cultural services (IS)</t>
+  </si>
+  <si>
     <t>08.2 - Cultural services</t>
   </si>
   <si>
-    <t>08 - Recreation, culture and religion</t>
-  </si>
-  <si>
-    <t>08.2.0 - Cultural services (IS)</t>
-  </si>
-  <si>
     <t>16062</t>
   </si>
   <si>
@@ -706,12 +706,12 @@
     <t>16065</t>
   </si>
   <si>
+    <t>08.1.0 - Recreational and sporting services (IS)</t>
+  </si>
+  <si>
     <t>08.1 - Recreational and sporting services</t>
   </si>
   <si>
-    <t>08.1.0 - Recreational and sporting services (IS)</t>
-  </si>
-  <si>
     <t>16066</t>
   </si>
   <si>
@@ -742,12 +742,12 @@
     <t>21020</t>
   </si>
   <si>
+    <t>04.5.1 - Road transport (CS)</t>
+  </si>
+  <si>
     <t>04.5 - Transport</t>
   </si>
   <si>
-    <t>04.5.1 - Road transport (CS)</t>
-  </si>
-  <si>
     <t>21021</t>
   </si>
   <si>
@@ -781,12 +781,12 @@
     <t>21061</t>
   </si>
   <si>
+    <t>04.7.1 - Distributive trades, storage and warehousing (CS)</t>
+  </si>
+  <si>
     <t>04.7 - Other industries</t>
   </si>
   <si>
-    <t>04.7.1 - Distributive trades, storage and warehousing (CS)</t>
-  </si>
-  <si>
     <t>21081</t>
   </si>
   <si>
@@ -811,12 +811,12 @@
     <t>22030</t>
   </si>
   <si>
+    <t>08.3.0 - Broadcasting and publishing services (CS)</t>
+  </si>
+  <si>
     <t>08.3 - Broadcasting and publishing services</t>
   </si>
   <si>
-    <t>08.3.0 - Broadcasting and publishing services (CS)</t>
-  </si>
-  <si>
     <t>22040</t>
   </si>
   <si>
@@ -826,27 +826,27 @@
     <t>231</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>04.3.5 - Electricity (CS)</t>
+  </si>
+  <si>
     <t>04.3 - Fuel and energy</t>
   </si>
   <si>
-    <t>04.3.5 - Electricity (CS)</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>23111</t>
   </si>
   <si>
     <t>23112</t>
   </si>
   <si>
+    <t>04.8.3 - R&amp;D Fuel and energy (CS)</t>
+  </si>
+  <si>
     <t>04.8 - R&amp;D Economic affairs</t>
   </si>
   <si>
-    <t>04.8.3 - R&amp;D Fuel and energy (CS)</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -994,15 +994,15 @@
     <t>311</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>04.2.1 - Agriculture (CS)</t>
+  </si>
+  <si>
     <t>04.2 - Agriculture, forestry, fishing and hunting</t>
   </si>
   <si>
-    <t>04.2.1 - Agriculture (CS)</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1108,15 +1108,15 @@
     <t>321</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>04.4.2 - Manufacturing (CS)</t>
+  </si>
+  <si>
     <t>04.4 - Mining, manufacturing and construction</t>
   </si>
   <si>
-    <t>04.4.2 - Manufacturing (CS)</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1261,12 +1261,12 @@
     <t>41030</t>
   </si>
   <si>
+    <t>05.4.0 - Protection of biodiversity and landscape (CS)</t>
+  </si>
+  <si>
     <t>05.4 - Protection of biodiversity and landscape</t>
   </si>
   <si>
-    <t>05.4.0 - Protection of biodiversity and landscape (CS)</t>
-  </si>
-  <si>
     <t>41040</t>
   </si>
   <si>
@@ -1279,27 +1279,27 @@
     <t>43010</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
+  </si>
+  <si>
     <t>04.9 - Economic affairs n.e.c.</t>
   </si>
   <si>
-    <t>04.9.0 - Economic affairs n.e.c. (CS)</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
     <t>43031</t>
   </si>
   <si>
+    <t>06.2.0 - Community development (CS)</t>
+  </si>
+  <si>
     <t>06.2 - Community development</t>
   </si>
   <si>
-    <t>06.2.0 - Community development (CS)</t>
-  </si>
-  <si>
     <t>43032</t>
   </si>
   <si>
@@ -1318,24 +1318,24 @@
     <t>43060</t>
   </si>
   <si>
+    <t>02.2.0 - Civil defence (CS)</t>
+  </si>
+  <si>
     <t>02.2 - Civil defence</t>
   </si>
   <si>
-    <t>02.2.0 - Civil defence (CS)</t>
-  </si>
-  <si>
     <t>43071</t>
   </si>
   <si>
     <t>43072</t>
   </si>
   <si>
+    <t>10.4.0 - Family and children (IS)</t>
+  </si>
+  <si>
     <t>10.4 - Family and children</t>
   </si>
   <si>
-    <t>10.4.0 - Family and children (IS)</t>
-  </si>
-  <si>
     <t>43073</t>
   </si>
   <si>
@@ -1345,12 +1345,12 @@
     <t>43082</t>
   </si>
   <si>
+    <t>01.4.0 - Basic research (CS)</t>
+  </si>
+  <si>
     <t>01.4 - Basic research</t>
   </si>
   <si>
-    <t>01.4.0 - Basic research (CS)</t>
-  </si>
-  <si>
     <t>51010</t>
   </si>
   <si>
@@ -1375,13 +1375,13 @@
     <t>60010</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>01.7.0 - Public debt transactions (CS)</t>
+  </si>
+  <si>
     <t>01.7 - Public debt transactions</t>
-  </si>
-  <si>
-    <t>01.7.0 - Public debt transactions (CS)</t>
-  </si>
-  <si>
-    <t>600</t>
   </si>
   <si>
     <t>60020</t>
@@ -1869,16 +1869,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1915,16 +1915,16 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1935,19 +1935,19 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1958,10 +1958,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1981,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2004,19 +2004,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2027,10 +2027,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -2039,7 +2039,7 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2050,19 +2050,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2073,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2096,10 +2096,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -2108,7 +2108,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2119,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
         <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2142,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
         <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2165,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
         <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2188,13 +2188,13 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
@@ -2211,13 +2211,13 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
@@ -2234,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
         <v>57</v>
       </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>58</v>
-      </c>
-      <c r="G19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2257,19 +2257,19 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>61</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2280,13 +2280,13 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>52</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
@@ -2303,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
       <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2326,19 +2326,19 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
         <v>66</v>
       </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2349,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
       <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2372,19 +2372,19 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
         <v>64</v>
       </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
       <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2395,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
         <v>64</v>
       </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
       <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>32</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2418,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>32</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>33</v>
-      </c>
-      <c r="G27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2441,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
         <v>64</v>
       </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>32</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>33</v>
-      </c>
-      <c r="G28" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2464,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
         <v>64</v>
       </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
       <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>32</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>33</v>
-      </c>
-      <c r="G29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2487,13 +2487,13 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>52</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
@@ -2510,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
         <v>76</v>
       </c>
-      <c r="D31" t="s">
-        <v>31</v>
-      </c>
       <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
         <v>32</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2533,19 +2533,19 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
         <v>76</v>
       </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
       <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>33</v>
-      </c>
-      <c r="G32" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2556,19 +2556,19 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
         <v>76</v>
       </c>
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
       <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
         <v>32</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2579,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
         <v>76</v>
       </c>
-      <c r="D34" t="s">
-        <v>31</v>
-      </c>
       <c r="E34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
         <v>32</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2602,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
       <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
         <v>32</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2625,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
         <v>76</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
         <v>57</v>
       </c>
-      <c r="E36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>58</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2647,17 +2647,17 @@
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>31</v>
       </c>
       <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
         <v>32</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>33</v>
-      </c>
-      <c r="G37" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2667,17 +2667,17 @@
       <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>31</v>
       </c>
       <c r="E38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
         <v>32</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>33</v>
-      </c>
-      <c r="G38" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2687,17 +2687,17 @@
       <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C39" t="s">
         <v>31</v>
       </c>
       <c r="E39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" t="s">
         <v>32</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>33</v>
-      </c>
-      <c r="G39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2707,17 +2707,17 @@
       <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>31</v>
       </c>
       <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
         <v>32</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>33</v>
-      </c>
-      <c r="G40" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2727,17 +2727,17 @@
       <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" t="s">
-        <v>52</v>
+      <c r="C41" t="s">
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s">
         <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2747,17 +2747,17 @@
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" t="s">
         <v>57</v>
       </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>58</v>
-      </c>
-      <c r="G42" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2767,7 +2767,7 @@
       <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s">
         <v>90</v>
       </c>
       <c r="E43" t="s">
@@ -2787,17 +2787,17 @@
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C44" t="s">
         <v>95</v>
       </c>
       <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
         <v>96</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>97</v>
-      </c>
-      <c r="G44" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2807,7 +2807,7 @@
       <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C45" t="s">
         <v>90</v>
       </c>
       <c r="E45" t="s">
@@ -2827,7 +2827,7 @@
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s">
         <v>90</v>
       </c>
       <c r="E46" t="s">
@@ -2847,17 +2847,17 @@
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" t="s">
         <v>101</v>
       </c>
-      <c r="E47" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>102</v>
-      </c>
-      <c r="G47" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2867,7 +2867,7 @@
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C48" t="s">
         <v>90</v>
       </c>
       <c r="E48" t="s">
@@ -2887,7 +2887,7 @@
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C49" t="s">
         <v>90</v>
       </c>
       <c r="E49" t="s">
@@ -2907,17 +2907,17 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" t="s">
         <v>101</v>
       </c>
-      <c r="E50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>102</v>
-      </c>
-      <c r="G50" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2927,7 +2927,7 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>90</v>
       </c>
       <c r="E51" t="s">
@@ -2947,17 +2947,17 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" t="s">
         <v>108</v>
       </c>
-      <c r="E52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>109</v>
-      </c>
-      <c r="G52" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2967,17 +2967,17 @@
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="D53" t="s">
-        <v>10</v>
+      <c r="C53" t="s">
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3014,16 +3014,16 @@
         <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E55" t="s">
         <v>114</v>
       </c>
       <c r="F55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" t="s">
         <v>119</v>
-      </c>
-      <c r="G55" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3037,16 +3037,16 @@
         <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
         <v>114</v>
       </c>
       <c r="F56" t="s">
+        <v>121</v>
+      </c>
+      <c r="G56" t="s">
         <v>122</v>
-      </c>
-      <c r="G56" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3057,19 +3057,19 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" t="s">
         <v>125</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>126</v>
-      </c>
-      <c r="G57" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3083,16 +3083,16 @@
         <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>114</v>
       </c>
       <c r="F58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G58" t="s">
         <v>119</v>
-      </c>
-      <c r="G58" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3106,16 +3106,16 @@
         <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>114</v>
       </c>
       <c r="F59" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" t="s">
         <v>119</v>
-      </c>
-      <c r="G59" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3129,16 +3129,16 @@
         <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>114</v>
       </c>
       <c r="F60" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" t="s">
         <v>119</v>
-      </c>
-      <c r="G60" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3152,16 +3152,16 @@
         <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>114</v>
       </c>
       <c r="F61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" t="s">
         <v>119</v>
-      </c>
-      <c r="G61" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3175,16 +3175,16 @@
         <v>112</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>114</v>
       </c>
       <c r="F62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" t="s">
         <v>119</v>
-      </c>
-      <c r="G62" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3198,7 +3198,7 @@
         <v>112</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>114</v>
@@ -3207,7 +3207,7 @@
         <v>133</v>
       </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3221,7 +3221,7 @@
         <v>112</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
         <v>114</v>
@@ -3230,7 +3230,7 @@
         <v>133</v>
       </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3244,16 +3244,16 @@
         <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E65" t="s">
         <v>114</v>
       </c>
       <c r="F65" t="s">
+        <v>136</v>
+      </c>
+      <c r="G65" t="s">
         <v>137</v>
-      </c>
-      <c r="G65" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3290,16 +3290,16 @@
         <v>112</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
         <v>114</v>
       </c>
       <c r="F67" t="s">
+        <v>118</v>
+      </c>
+      <c r="G67" t="s">
         <v>119</v>
-      </c>
-      <c r="G67" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3359,16 +3359,16 @@
         <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E70" t="s">
         <v>114</v>
       </c>
       <c r="F70" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70" t="s">
         <v>122</v>
-      </c>
-      <c r="G70" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3382,16 +3382,16 @@
         <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E71" t="s">
         <v>114</v>
       </c>
       <c r="F71" t="s">
+        <v>121</v>
+      </c>
+      <c r="G71" t="s">
         <v>122</v>
-      </c>
-      <c r="G71" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3425,19 +3425,19 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" t="s">
         <v>148</v>
       </c>
-      <c r="E73" t="s">
-        <v>125</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>149</v>
-      </c>
-      <c r="G73" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3448,19 +3448,19 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" t="s">
         <v>151</v>
       </c>
-      <c r="E74" t="s">
-        <v>125</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>152</v>
-      </c>
-      <c r="G74" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3471,19 +3471,19 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" t="s">
         <v>154</v>
       </c>
-      <c r="E75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>155</v>
-      </c>
-      <c r="G75" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3494,19 +3494,19 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" t="s">
         <v>148</v>
       </c>
-      <c r="E76" t="s">
-        <v>125</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>149</v>
-      </c>
-      <c r="G76" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3517,19 +3517,19 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" t="s">
         <v>148</v>
       </c>
-      <c r="E77" t="s">
-        <v>125</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>149</v>
-      </c>
-      <c r="G77" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3540,19 +3540,19 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
       </c>
-      <c r="E78" t="s">
-        <v>125</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>152</v>
-      </c>
-      <c r="G78" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3563,19 +3563,19 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" t="s">
         <v>160</v>
       </c>
-      <c r="E79" t="s">
-        <v>125</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>161</v>
-      </c>
-      <c r="G79" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3586,19 +3586,19 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="E80" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80" t="s">
         <v>164</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>165</v>
-      </c>
-      <c r="G80" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3609,19 +3609,19 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="E81" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" t="s">
         <v>164</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>165</v>
-      </c>
-      <c r="G81" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3632,19 +3632,19 @@
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="E82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F82" t="s">
         <v>164</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>165</v>
-      </c>
-      <c r="G82" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3681,16 +3681,16 @@
         <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="E84" t="s">
         <v>114</v>
       </c>
       <c r="F84" t="s">
+        <v>170</v>
+      </c>
+      <c r="G84" t="s">
         <v>171</v>
-      </c>
-      <c r="G84" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3704,7 +3704,7 @@
         <v>112</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E85" t="s">
         <v>114</v>
@@ -3713,7 +3713,7 @@
         <v>173</v>
       </c>
       <c r="G85" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3724,19 +3724,19 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D86" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" t="s">
+        <v>114</v>
+      </c>
+      <c r="F86" t="s">
         <v>175</v>
       </c>
-      <c r="E86" t="s">
-        <v>164</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>176</v>
-      </c>
-      <c r="G86" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3750,7 +3750,7 @@
         <v>112</v>
       </c>
       <c r="D87" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E87" t="s">
         <v>114</v>
@@ -3759,7 +3759,7 @@
         <v>173</v>
       </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3773,16 +3773,16 @@
         <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E88" t="s">
         <v>114</v>
       </c>
       <c r="F88" t="s">
+        <v>118</v>
+      </c>
+      <c r="G88" t="s">
         <v>119</v>
-      </c>
-      <c r="G88" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3796,16 +3796,16 @@
         <v>112</v>
       </c>
       <c r="D89" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E89" t="s">
         <v>114</v>
       </c>
       <c r="F89" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" t="s">
         <v>119</v>
-      </c>
-      <c r="G89" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3816,19 +3816,19 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E90" t="s">
+        <v>114</v>
+      </c>
+      <c r="F90" t="s">
         <v>125</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>126</v>
-      </c>
-      <c r="G90" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3839,19 +3839,19 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="E91" t="s">
+        <v>114</v>
+      </c>
+      <c r="F91" t="s">
         <v>183</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>184</v>
-      </c>
-      <c r="G91" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3862,19 +3862,19 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E92" t="s">
+        <v>114</v>
+      </c>
+      <c r="F92" t="s">
         <v>125</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>126</v>
-      </c>
-      <c r="G92" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3888,16 +3888,16 @@
         <v>112</v>
       </c>
       <c r="D93" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E93" t="s">
         <v>114</v>
       </c>
       <c r="F93" t="s">
+        <v>121</v>
+      </c>
+      <c r="G93" t="s">
         <v>122</v>
-      </c>
-      <c r="G93" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3908,19 +3908,19 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E94" t="s">
+        <v>114</v>
+      </c>
+      <c r="F94" t="s">
         <v>125</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>126</v>
-      </c>
-      <c r="G94" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3934,16 +3934,16 @@
         <v>112</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="E95" t="s">
         <v>114</v>
       </c>
       <c r="F95" t="s">
+        <v>189</v>
+      </c>
+      <c r="G95" t="s">
         <v>190</v>
-      </c>
-      <c r="G95" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3954,19 +3954,19 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" t="s">
         <v>192</v>
       </c>
-      <c r="D96" t="s">
-        <v>124</v>
-      </c>
       <c r="E96" t="s">
+        <v>114</v>
+      </c>
+      <c r="F96" t="s">
         <v>125</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>126</v>
-      </c>
-      <c r="G96" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3977,19 +3977,19 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" t="s">
         <v>192</v>
       </c>
-      <c r="D97" t="s">
-        <v>124</v>
-      </c>
       <c r="E97" t="s">
+        <v>114</v>
+      </c>
+      <c r="F97" t="s">
         <v>125</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>126</v>
-      </c>
-      <c r="G97" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4000,19 +4000,19 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" t="s">
         <v>192</v>
       </c>
-      <c r="D98" t="s">
-        <v>195</v>
-      </c>
       <c r="E98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" t="s">
         <v>196</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>197</v>
-      </c>
-      <c r="G98" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4023,19 +4023,19 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" t="s">
         <v>192</v>
       </c>
-      <c r="D99" t="s">
-        <v>124</v>
-      </c>
       <c r="E99" t="s">
+        <v>114</v>
+      </c>
+      <c r="F99" t="s">
         <v>125</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>126</v>
-      </c>
-      <c r="G99" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4046,19 +4046,19 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" t="s">
         <v>192</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
+        <v>114</v>
+      </c>
+      <c r="F100" t="s">
         <v>154</v>
       </c>
-      <c r="E100" t="s">
-        <v>125</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>155</v>
-      </c>
-      <c r="G100" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4069,19 +4069,19 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" t="s">
         <v>192</v>
       </c>
-      <c r="D101" t="s">
-        <v>124</v>
-      </c>
       <c r="E101" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101" t="s">
         <v>125</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>126</v>
-      </c>
-      <c r="G101" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4091,11 +4091,11 @@
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="D102" t="s">
+      <c r="C102" t="s">
+        <v>182</v>
+      </c>
+      <c r="E102" t="s">
         <v>202</v>
-      </c>
-      <c r="E102" t="s">
-        <v>183</v>
       </c>
       <c r="F102" t="s">
         <v>203</v>
@@ -4111,11 +4111,11 @@
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="D103" t="s">
+      <c r="C103" t="s">
+        <v>182</v>
+      </c>
+      <c r="E103" t="s">
         <v>202</v>
-      </c>
-      <c r="E103" t="s">
-        <v>183</v>
       </c>
       <c r="F103" t="s">
         <v>203</v>
@@ -4131,11 +4131,11 @@
       <c r="B104" t="s">
         <v>8</v>
       </c>
-      <c r="D104" t="s">
+      <c r="C104" t="s">
+        <v>182</v>
+      </c>
+      <c r="E104" t="s">
         <v>202</v>
-      </c>
-      <c r="E104" t="s">
-        <v>183</v>
       </c>
       <c r="F104" t="s">
         <v>203</v>
@@ -4151,17 +4151,17 @@
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="D105" t="s">
+      <c r="C105" t="s">
+        <v>182</v>
+      </c>
+      <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>208</v>
       </c>
-      <c r="E105" t="s">
-        <v>183</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>209</v>
-      </c>
-      <c r="G105" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4171,11 +4171,11 @@
       <c r="B106" t="s">
         <v>8</v>
       </c>
-      <c r="D106" t="s">
+      <c r="C106" t="s">
+        <v>182</v>
+      </c>
+      <c r="E106" t="s">
         <v>202</v>
-      </c>
-      <c r="E106" t="s">
-        <v>183</v>
       </c>
       <c r="F106" t="s">
         <v>203</v>
@@ -4191,17 +4191,17 @@
       <c r="B107" t="s">
         <v>8</v>
       </c>
-      <c r="D107" t="s">
+      <c r="C107" t="s">
         <v>182</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>183</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>184</v>
-      </c>
-      <c r="G107" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4211,17 +4211,17 @@
       <c r="B108" t="s">
         <v>8</v>
       </c>
-      <c r="D108" t="s">
+      <c r="C108" t="s">
+        <v>182</v>
+      </c>
+      <c r="E108" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
       </c>
-      <c r="E108" t="s">
-        <v>183</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>214</v>
-      </c>
-      <c r="G108" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4231,17 +4231,17 @@
       <c r="B109" t="s">
         <v>8</v>
       </c>
-      <c r="D109" t="s">
+      <c r="C109" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" t="s">
         <v>216</v>
       </c>
-      <c r="E109" t="s">
-        <v>91</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>217</v>
-      </c>
-      <c r="G109" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4251,17 +4251,17 @@
       <c r="B110" t="s">
         <v>8</v>
       </c>
-      <c r="D110" t="s">
+      <c r="C110" t="s">
+        <v>90</v>
+      </c>
+      <c r="E110" t="s">
+        <v>202</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
       </c>
-      <c r="E110" t="s">
-        <v>91</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>220</v>
-      </c>
-      <c r="G110" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4271,11 +4271,11 @@
       <c r="B111" t="s">
         <v>8</v>
       </c>
-      <c r="D111" t="s">
+      <c r="C111" t="s">
+        <v>182</v>
+      </c>
+      <c r="E111" t="s">
         <v>202</v>
-      </c>
-      <c r="E111" t="s">
-        <v>183</v>
       </c>
       <c r="F111" t="s">
         <v>203</v>
@@ -4291,17 +4291,17 @@
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="D112" t="s">
+      <c r="C112" t="s">
         <v>223</v>
       </c>
       <c r="E112" t="s">
+        <v>202</v>
+      </c>
+      <c r="F112" t="s">
         <v>224</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>225</v>
-      </c>
-      <c r="G112" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4311,17 +4311,17 @@
       <c r="B113" t="s">
         <v>8</v>
       </c>
-      <c r="D113" t="s">
-        <v>113</v>
+      <c r="C113" t="s">
+        <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="F113" t="s">
         <v>143</v>
       </c>
       <c r="G113" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4331,17 +4331,17 @@
       <c r="B114" t="s">
         <v>8</v>
       </c>
-      <c r="D114" t="s">
+      <c r="C114" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" t="s">
+        <v>202</v>
+      </c>
+      <c r="F114" t="s">
         <v>151</v>
       </c>
-      <c r="E114" t="s">
-        <v>125</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>152</v>
-      </c>
-      <c r="G114" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4351,17 +4351,17 @@
       <c r="B115" t="s">
         <v>8</v>
       </c>
-      <c r="D115" t="s">
+      <c r="C115" t="s">
         <v>182</v>
       </c>
       <c r="E115" t="s">
+        <v>202</v>
+      </c>
+      <c r="F115" t="s">
         <v>183</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>184</v>
-      </c>
-      <c r="G115" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4371,17 +4371,17 @@
       <c r="B116" t="s">
         <v>8</v>
       </c>
-      <c r="D116" t="s">
+      <c r="C116" t="s">
+        <v>223</v>
+      </c>
+      <c r="E116" t="s">
+        <v>202</v>
+      </c>
+      <c r="F116" t="s">
         <v>230</v>
       </c>
-      <c r="E116" t="s">
-        <v>224</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>231</v>
-      </c>
-      <c r="G116" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4391,17 +4391,17 @@
       <c r="B117" t="s">
         <v>8</v>
       </c>
-      <c r="D117" t="s">
+      <c r="C117" t="s">
         <v>223</v>
       </c>
       <c r="E117" t="s">
+        <v>202</v>
+      </c>
+      <c r="F117" t="s">
         <v>224</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>225</v>
-      </c>
-      <c r="G117" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4411,17 +4411,17 @@
       <c r="B118" t="s">
         <v>8</v>
       </c>
-      <c r="D118" t="s">
+      <c r="C118" t="s">
         <v>163</v>
       </c>
       <c r="E118" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="F118" t="s">
         <v>234</v>
       </c>
       <c r="G118" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4431,17 +4431,17 @@
       <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="D119" t="s">
+      <c r="C119" t="s">
         <v>182</v>
       </c>
       <c r="E119" t="s">
+        <v>202</v>
+      </c>
+      <c r="F119" t="s">
         <v>183</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>184</v>
-      </c>
-      <c r="G119" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4451,17 +4451,17 @@
       <c r="B120" t="s">
         <v>8</v>
       </c>
-      <c r="D120" t="s">
+      <c r="C120" t="s">
+        <v>112</v>
+      </c>
+      <c r="E120" t="s">
+        <v>237</v>
+      </c>
+      <c r="F120" t="s">
         <v>170</v>
       </c>
-      <c r="E120" t="s">
-        <v>114</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>171</v>
-      </c>
-      <c r="G120" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4471,17 +4471,17 @@
       <c r="B121" t="s">
         <v>8</v>
       </c>
-      <c r="D121" t="s">
-        <v>113</v>
+      <c r="C121" t="s">
+        <v>112</v>
       </c>
       <c r="E121" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
         <v>143</v>
       </c>
       <c r="G121" t="s">
-        <v>237</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4491,17 +4491,17 @@
       <c r="B122" t="s">
         <v>8</v>
       </c>
-      <c r="D122" t="s">
+      <c r="C122" t="s">
+        <v>112</v>
+      </c>
+      <c r="E122" t="s">
+        <v>237</v>
+      </c>
+      <c r="F122" t="s">
         <v>170</v>
       </c>
-      <c r="E122" t="s">
-        <v>114</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>171</v>
-      </c>
-      <c r="G122" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4511,17 +4511,17 @@
       <c r="B123" t="s">
         <v>8</v>
       </c>
-      <c r="D123" t="s">
+      <c r="C123" t="s">
+        <v>112</v>
+      </c>
+      <c r="E123" t="s">
+        <v>237</v>
+      </c>
+      <c r="F123" t="s">
         <v>170</v>
       </c>
-      <c r="E123" t="s">
-        <v>114</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>171</v>
-      </c>
-      <c r="G123" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4531,17 +4531,17 @@
       <c r="B124" t="s">
         <v>8</v>
       </c>
-      <c r="D124" t="s">
+      <c r="C124" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124" t="s">
+        <v>237</v>
+      </c>
+      <c r="F124" t="s">
         <v>242</v>
       </c>
-      <c r="E124" t="s">
-        <v>164</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>243</v>
-      </c>
-      <c r="G124" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4551,17 +4551,17 @@
       <c r="B125" t="s">
         <v>8</v>
       </c>
-      <c r="D125" t="s">
+      <c r="C125" t="s">
+        <v>163</v>
+      </c>
+      <c r="E125" t="s">
+        <v>237</v>
+      </c>
+      <c r="F125" t="s">
         <v>242</v>
       </c>
-      <c r="E125" t="s">
-        <v>164</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>243</v>
-      </c>
-      <c r="G125" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4571,17 +4571,17 @@
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="D126" t="s">
+      <c r="C126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E126" t="s">
+        <v>237</v>
+      </c>
+      <c r="F126" t="s">
         <v>242</v>
       </c>
-      <c r="E126" t="s">
-        <v>164</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>243</v>
-      </c>
-      <c r="G126" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4591,17 +4591,17 @@
       <c r="B127" t="s">
         <v>8</v>
       </c>
-      <c r="D127" t="s">
+      <c r="C127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E127" t="s">
+        <v>237</v>
+      </c>
+      <c r="F127" t="s">
         <v>242</v>
       </c>
-      <c r="E127" t="s">
-        <v>164</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>243</v>
-      </c>
-      <c r="G127" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4611,17 +4611,17 @@
       <c r="B128" t="s">
         <v>8</v>
       </c>
-      <c r="D128" t="s">
+      <c r="C128" t="s">
+        <v>163</v>
+      </c>
+      <c r="E128" t="s">
+        <v>237</v>
+      </c>
+      <c r="F128" t="s">
         <v>242</v>
       </c>
-      <c r="E128" t="s">
-        <v>164</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>243</v>
-      </c>
-      <c r="G128" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4631,17 +4631,17 @@
       <c r="B129" t="s">
         <v>8</v>
       </c>
-      <c r="D129" t="s">
-        <v>242</v>
+      <c r="C129" t="s">
+        <v>163</v>
       </c>
       <c r="E129" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="F129" t="s">
         <v>249</v>
       </c>
       <c r="G129" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4651,17 +4651,17 @@
       <c r="B130" t="s">
         <v>8</v>
       </c>
-      <c r="D130" t="s">
-        <v>242</v>
+      <c r="C130" t="s">
+        <v>163</v>
       </c>
       <c r="E130" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
         <v>251</v>
       </c>
       <c r="G130" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4671,17 +4671,17 @@
       <c r="B131" t="s">
         <v>8</v>
       </c>
-      <c r="D131" t="s">
-        <v>242</v>
+      <c r="C131" t="s">
+        <v>163</v>
       </c>
       <c r="E131" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="F131" t="s">
         <v>253</v>
       </c>
       <c r="G131" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4691,17 +4691,17 @@
       <c r="B132" t="s">
         <v>8</v>
       </c>
-      <c r="D132" t="s">
+      <c r="C132" t="s">
+        <v>163</v>
+      </c>
+      <c r="E132" t="s">
+        <v>237</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
       </c>
-      <c r="E132" t="s">
-        <v>164</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>256</v>
-      </c>
-      <c r="G132" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4711,17 +4711,17 @@
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="D133" t="s">
+      <c r="C133" t="s">
+        <v>112</v>
+      </c>
+      <c r="E133" t="s">
+        <v>237</v>
+      </c>
+      <c r="F133" t="s">
         <v>189</v>
       </c>
-      <c r="E133" t="s">
-        <v>114</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>190</v>
-      </c>
-      <c r="G133" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4731,17 +4731,17 @@
       <c r="B134" t="s">
         <v>8</v>
       </c>
-      <c r="D134" t="s">
+      <c r="C134" t="s">
+        <v>163</v>
+      </c>
+      <c r="E134" t="s">
+        <v>259</v>
+      </c>
+      <c r="F134" t="s">
         <v>175</v>
       </c>
-      <c r="E134" t="s">
-        <v>164</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>176</v>
-      </c>
-      <c r="G134" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4751,17 +4751,17 @@
       <c r="B135" t="s">
         <v>8</v>
       </c>
-      <c r="D135" t="s">
+      <c r="C135" t="s">
+        <v>163</v>
+      </c>
+      <c r="E135" t="s">
+        <v>259</v>
+      </c>
+      <c r="F135" t="s">
         <v>175</v>
       </c>
-      <c r="E135" t="s">
-        <v>164</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>176</v>
-      </c>
-      <c r="G135" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4771,17 +4771,17 @@
       <c r="B136" t="s">
         <v>8</v>
       </c>
-      <c r="D136" t="s">
+      <c r="C136" t="s">
+        <v>163</v>
+      </c>
+      <c r="E136" t="s">
+        <v>259</v>
+      </c>
+      <c r="F136" t="s">
         <v>175</v>
       </c>
-      <c r="E136" t="s">
-        <v>164</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>176</v>
-      </c>
-      <c r="G136" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4791,17 +4791,17 @@
       <c r="B137" t="s">
         <v>8</v>
       </c>
-      <c r="D137" t="s">
+      <c r="C137" t="s">
+        <v>163</v>
+      </c>
+      <c r="E137" t="s">
+        <v>259</v>
+      </c>
+      <c r="F137" t="s">
         <v>175</v>
       </c>
-      <c r="E137" t="s">
-        <v>164</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>176</v>
-      </c>
-      <c r="G137" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4811,17 +4811,17 @@
       <c r="B138" t="s">
         <v>8</v>
       </c>
-      <c r="D138" t="s">
+      <c r="C138" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" t="s">
+        <v>259</v>
+      </c>
+      <c r="F138" t="s">
         <v>175</v>
       </c>
-      <c r="E138" t="s">
-        <v>164</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>176</v>
-      </c>
-      <c r="G138" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4831,17 +4831,17 @@
       <c r="B139" t="s">
         <v>8</v>
       </c>
-      <c r="D139" t="s">
+      <c r="C139" t="s">
+        <v>223</v>
+      </c>
+      <c r="E139" t="s">
+        <v>259</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
       </c>
-      <c r="E139" t="s">
-        <v>224</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>266</v>
-      </c>
-      <c r="G139" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4851,17 +4851,17 @@
       <c r="B140" t="s">
         <v>8</v>
       </c>
-      <c r="D140" t="s">
+      <c r="C140" t="s">
+        <v>163</v>
+      </c>
+      <c r="E140" t="s">
+        <v>259</v>
+      </c>
+      <c r="F140" t="s">
         <v>175</v>
       </c>
-      <c r="E140" t="s">
-        <v>164</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>176</v>
-      </c>
-      <c r="G140" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4872,13 +4872,13 @@
         <v>8</v>
       </c>
       <c r="C141" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141" t="s">
         <v>269</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>270</v>
-      </c>
-      <c r="E141" t="s">
-        <v>164</v>
       </c>
       <c r="F141" t="s">
         <v>271</v>
@@ -4895,13 +4895,13 @@
         <v>8</v>
       </c>
       <c r="C142" t="s">
+        <v>163</v>
+      </c>
+      <c r="D142" t="s">
         <v>269</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>270</v>
-      </c>
-      <c r="E142" t="s">
-        <v>164</v>
       </c>
       <c r="F142" t="s">
         <v>271</v>
@@ -4918,19 +4918,19 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
+        <v>163</v>
+      </c>
+      <c r="D143" t="s">
         <v>269</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
+        <v>270</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
       </c>
-      <c r="E143" t="s">
-        <v>164</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>276</v>
-      </c>
-      <c r="G143" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4941,19 +4941,19 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
+        <v>163</v>
+      </c>
+      <c r="D144" t="s">
         <v>269</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
+        <v>270</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
       </c>
-      <c r="E144" t="s">
-        <v>164</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>276</v>
-      </c>
-      <c r="G144" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4964,19 +4964,19 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
+        <v>163</v>
+      </c>
+      <c r="D145" t="s">
         <v>269</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
+        <v>270</v>
+      </c>
+      <c r="F145" t="s">
         <v>275</v>
       </c>
-      <c r="E145" t="s">
-        <v>164</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>276</v>
-      </c>
-      <c r="G145" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4987,13 +4987,13 @@
         <v>8</v>
       </c>
       <c r="C146" t="s">
+        <v>163</v>
+      </c>
+      <c r="D146" t="s">
         <v>269</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>270</v>
-      </c>
-      <c r="E146" t="s">
-        <v>164</v>
       </c>
       <c r="F146" t="s">
         <v>271</v>
@@ -5010,13 +5010,13 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
+        <v>163</v>
+      </c>
+      <c r="D147" t="s">
         <v>281</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>270</v>
-      </c>
-      <c r="E147" t="s">
-        <v>164</v>
       </c>
       <c r="F147" t="s">
         <v>271</v>
@@ -5033,13 +5033,13 @@
         <v>8</v>
       </c>
       <c r="C148" t="s">
+        <v>163</v>
+      </c>
+      <c r="D148" t="s">
         <v>281</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>270</v>
-      </c>
-      <c r="E148" t="s">
-        <v>164</v>
       </c>
       <c r="F148" t="s">
         <v>271</v>
@@ -5056,13 +5056,13 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
+        <v>163</v>
+      </c>
+      <c r="D149" t="s">
         <v>281</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>270</v>
-      </c>
-      <c r="E149" t="s">
-        <v>164</v>
       </c>
       <c r="F149" t="s">
         <v>271</v>
@@ -5079,13 +5079,13 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" t="s">
         <v>281</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>270</v>
-      </c>
-      <c r="E150" t="s">
-        <v>164</v>
       </c>
       <c r="F150" t="s">
         <v>271</v>
@@ -5102,13 +5102,13 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
+        <v>163</v>
+      </c>
+      <c r="D151" t="s">
         <v>281</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>270</v>
-      </c>
-      <c r="E151" t="s">
-        <v>164</v>
       </c>
       <c r="F151" t="s">
         <v>271</v>
@@ -5125,13 +5125,13 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
+        <v>163</v>
+      </c>
+      <c r="D152" t="s">
         <v>281</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>270</v>
-      </c>
-      <c r="E152" t="s">
-        <v>164</v>
       </c>
       <c r="F152" t="s">
         <v>271</v>
@@ -5148,13 +5148,13 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
+        <v>163</v>
+      </c>
+      <c r="D153" t="s">
         <v>281</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>270</v>
-      </c>
-      <c r="E153" t="s">
-        <v>164</v>
       </c>
       <c r="F153" t="s">
         <v>271</v>
@@ -5171,13 +5171,13 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
+        <v>163</v>
+      </c>
+      <c r="D154" t="s">
         <v>281</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>270</v>
-      </c>
-      <c r="E154" t="s">
-        <v>164</v>
       </c>
       <c r="F154" t="s">
         <v>271</v>
@@ -5194,13 +5194,13 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
+        <v>163</v>
+      </c>
+      <c r="D155" t="s">
         <v>281</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>270</v>
-      </c>
-      <c r="E155" t="s">
-        <v>164</v>
       </c>
       <c r="F155" t="s">
         <v>271</v>
@@ -5217,13 +5217,13 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
+        <v>163</v>
+      </c>
+      <c r="D156" t="s">
         <v>291</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>270</v>
-      </c>
-      <c r="E156" t="s">
-        <v>164</v>
       </c>
       <c r="F156" t="s">
         <v>271</v>
@@ -5240,13 +5240,13 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
+        <v>163</v>
+      </c>
+      <c r="D157" t="s">
         <v>291</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>270</v>
-      </c>
-      <c r="E157" t="s">
-        <v>164</v>
       </c>
       <c r="F157" t="s">
         <v>293</v>
@@ -5263,13 +5263,13 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
+        <v>163</v>
+      </c>
+      <c r="D158" t="s">
         <v>291</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>270</v>
-      </c>
-      <c r="E158" t="s">
-        <v>164</v>
       </c>
       <c r="F158" t="s">
         <v>271</v>
@@ -5286,13 +5286,13 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
+        <v>163</v>
+      </c>
+      <c r="D159" t="s">
         <v>291</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>270</v>
-      </c>
-      <c r="E159" t="s">
-        <v>164</v>
       </c>
       <c r="F159" t="s">
         <v>271</v>
@@ -5309,13 +5309,13 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160" t="s">
         <v>291</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>270</v>
-      </c>
-      <c r="E160" t="s">
-        <v>164</v>
       </c>
       <c r="F160" t="s">
         <v>271</v>
@@ -5332,13 +5332,13 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
+        <v>163</v>
+      </c>
+      <c r="D161" t="s">
         <v>291</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>270</v>
-      </c>
-      <c r="E161" t="s">
-        <v>164</v>
       </c>
       <c r="F161" t="s">
         <v>271</v>
@@ -5355,13 +5355,13 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
+        <v>163</v>
+      </c>
+      <c r="D162" t="s">
         <v>299</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>270</v>
-      </c>
-      <c r="E162" t="s">
-        <v>164</v>
       </c>
       <c r="F162" t="s">
         <v>271</v>
@@ -5378,13 +5378,13 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
+        <v>163</v>
+      </c>
+      <c r="D163" t="s">
         <v>301</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>270</v>
-      </c>
-      <c r="E163" t="s">
-        <v>164</v>
       </c>
       <c r="F163" t="s">
         <v>302</v>
@@ -5401,13 +5401,13 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
+        <v>163</v>
+      </c>
+      <c r="D164" t="s">
         <v>304</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>270</v>
-      </c>
-      <c r="E164" t="s">
-        <v>164</v>
       </c>
       <c r="F164" t="s">
         <v>271</v>
@@ -5424,13 +5424,13 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
+        <v>163</v>
+      </c>
+      <c r="D165" t="s">
         <v>304</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>270</v>
-      </c>
-      <c r="E165" t="s">
-        <v>164</v>
       </c>
       <c r="F165" t="s">
         <v>271</v>
@@ -5447,13 +5447,13 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166" t="s">
         <v>304</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>270</v>
-      </c>
-      <c r="E166" t="s">
-        <v>164</v>
       </c>
       <c r="F166" t="s">
         <v>271</v>
@@ -5470,13 +5470,13 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
+        <v>163</v>
+      </c>
+      <c r="D167" t="s">
         <v>304</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>270</v>
-      </c>
-      <c r="E167" t="s">
-        <v>164</v>
       </c>
       <c r="F167" t="s">
         <v>271</v>
@@ -5493,13 +5493,13 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
+        <v>163</v>
+      </c>
+      <c r="D168" t="s">
         <v>304</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>270</v>
-      </c>
-      <c r="E168" t="s">
-        <v>164</v>
       </c>
       <c r="F168" t="s">
         <v>309</v>
@@ -5516,13 +5516,13 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
+        <v>163</v>
+      </c>
+      <c r="D169" t="s">
         <v>304</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>270</v>
-      </c>
-      <c r="E169" t="s">
-        <v>164</v>
       </c>
       <c r="F169" t="s">
         <v>309</v>
@@ -5539,13 +5539,13 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
+        <v>163</v>
+      </c>
+      <c r="D170" t="s">
         <v>304</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>270</v>
-      </c>
-      <c r="E170" t="s">
-        <v>164</v>
       </c>
       <c r="F170" t="s">
         <v>271</v>
@@ -5561,17 +5561,17 @@
       <c r="B171" t="s">
         <v>8</v>
       </c>
-      <c r="D171" t="s">
+      <c r="C171" t="s">
         <v>163</v>
       </c>
       <c r="E171" t="s">
+        <v>313</v>
+      </c>
+      <c r="F171" t="s">
         <v>164</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>165</v>
-      </c>
-      <c r="G171" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5581,17 +5581,17 @@
       <c r="B172" t="s">
         <v>8</v>
       </c>
-      <c r="D172" t="s">
+      <c r="C172" t="s">
+        <v>112</v>
+      </c>
+      <c r="E172" t="s">
+        <v>313</v>
+      </c>
+      <c r="F172" t="s">
         <v>118</v>
       </c>
-      <c r="E172" t="s">
-        <v>114</v>
-      </c>
-      <c r="F172" t="s">
+      <c r="G172" t="s">
         <v>119</v>
-      </c>
-      <c r="G172" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5601,17 +5601,17 @@
       <c r="B173" t="s">
         <v>8</v>
       </c>
-      <c r="D173" t="s">
+      <c r="C173" t="s">
         <v>163</v>
       </c>
       <c r="E173" t="s">
+        <v>313</v>
+      </c>
+      <c r="F173" t="s">
         <v>164</v>
       </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>165</v>
-      </c>
-      <c r="G173" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5621,17 +5621,17 @@
       <c r="B174" t="s">
         <v>8</v>
       </c>
-      <c r="D174" t="s">
+      <c r="C174" t="s">
         <v>163</v>
       </c>
       <c r="E174" t="s">
+        <v>313</v>
+      </c>
+      <c r="F174" t="s">
         <v>164</v>
       </c>
-      <c r="F174" t="s">
+      <c r="G174" t="s">
         <v>165</v>
-      </c>
-      <c r="G174" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5641,17 +5641,17 @@
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="D175" t="s">
+      <c r="C175" t="s">
         <v>163</v>
       </c>
       <c r="E175" t="s">
+        <v>313</v>
+      </c>
+      <c r="F175" t="s">
         <v>164</v>
       </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
         <v>165</v>
-      </c>
-      <c r="G175" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5661,17 +5661,17 @@
       <c r="B176" t="s">
         <v>8</v>
       </c>
-      <c r="D176" t="s">
+      <c r="C176" t="s">
         <v>163</v>
       </c>
       <c r="E176" t="s">
+        <v>313</v>
+      </c>
+      <c r="F176" t="s">
         <v>164</v>
       </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
         <v>165</v>
-      </c>
-      <c r="G176" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5681,17 +5681,17 @@
       <c r="B177" t="s">
         <v>8</v>
       </c>
-      <c r="D177" t="s">
+      <c r="C177" t="s">
         <v>163</v>
       </c>
       <c r="E177" t="s">
+        <v>320</v>
+      </c>
+      <c r="F177" t="s">
         <v>164</v>
       </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
         <v>165</v>
-      </c>
-      <c r="G177" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5701,17 +5701,17 @@
       <c r="B178" t="s">
         <v>8</v>
       </c>
-      <c r="D178" t="s">
+      <c r="C178" t="s">
         <v>163</v>
       </c>
       <c r="E178" t="s">
+        <v>320</v>
+      </c>
+      <c r="F178" t="s">
         <v>164</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
         <v>165</v>
-      </c>
-      <c r="G178" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5721,17 +5721,17 @@
       <c r="B179" t="s">
         <v>8</v>
       </c>
-      <c r="D179" t="s">
+      <c r="C179" t="s">
         <v>163</v>
       </c>
       <c r="E179" t="s">
+        <v>320</v>
+      </c>
+      <c r="F179" t="s">
         <v>164</v>
       </c>
-      <c r="F179" t="s">
+      <c r="G179" t="s">
         <v>165</v>
-      </c>
-      <c r="G179" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5741,17 +5741,17 @@
       <c r="B180" t="s">
         <v>8</v>
       </c>
-      <c r="D180" t="s">
+      <c r="C180" t="s">
         <v>163</v>
       </c>
       <c r="E180" t="s">
+        <v>320</v>
+      </c>
+      <c r="F180" t="s">
         <v>164</v>
       </c>
-      <c r="F180" t="s">
+      <c r="G180" t="s">
         <v>165</v>
-      </c>
-      <c r="G180" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5762,13 +5762,13 @@
         <v>8</v>
       </c>
       <c r="C181" t="s">
+        <v>163</v>
+      </c>
+      <c r="D181" t="s">
         <v>325</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>326</v>
-      </c>
-      <c r="E181" t="s">
-        <v>164</v>
       </c>
       <c r="F181" t="s">
         <v>327</v>
@@ -5785,13 +5785,13 @@
         <v>8</v>
       </c>
       <c r="C182" t="s">
+        <v>163</v>
+      </c>
+      <c r="D182" t="s">
         <v>325</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>326</v>
-      </c>
-      <c r="E182" t="s">
-        <v>164</v>
       </c>
       <c r="F182" t="s">
         <v>327</v>
@@ -5808,13 +5808,13 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
+        <v>163</v>
+      </c>
+      <c r="D183" t="s">
         <v>325</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>326</v>
-      </c>
-      <c r="E183" t="s">
-        <v>164</v>
       </c>
       <c r="F183" t="s">
         <v>327</v>
@@ -5831,13 +5831,13 @@
         <v>8</v>
       </c>
       <c r="C184" t="s">
+        <v>163</v>
+      </c>
+      <c r="D184" t="s">
         <v>325</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>326</v>
-      </c>
-      <c r="E184" t="s">
-        <v>164</v>
       </c>
       <c r="F184" t="s">
         <v>327</v>
@@ -5854,13 +5854,13 @@
         <v>8</v>
       </c>
       <c r="C185" t="s">
+        <v>163</v>
+      </c>
+      <c r="D185" t="s">
         <v>325</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>326</v>
-      </c>
-      <c r="E185" t="s">
-        <v>164</v>
       </c>
       <c r="F185" t="s">
         <v>327</v>
@@ -5877,13 +5877,13 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
+        <v>163</v>
+      </c>
+      <c r="D186" t="s">
         <v>325</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>326</v>
-      </c>
-      <c r="E186" t="s">
-        <v>164</v>
       </c>
       <c r="F186" t="s">
         <v>327</v>
@@ -5900,13 +5900,13 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
+        <v>163</v>
+      </c>
+      <c r="D187" t="s">
         <v>325</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>326</v>
-      </c>
-      <c r="E187" t="s">
-        <v>164</v>
       </c>
       <c r="F187" t="s">
         <v>327</v>
@@ -5923,13 +5923,13 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
+        <v>163</v>
+      </c>
+      <c r="D188" t="s">
         <v>325</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>326</v>
-      </c>
-      <c r="E188" t="s">
-        <v>164</v>
       </c>
       <c r="F188" t="s">
         <v>327</v>
@@ -5946,13 +5946,13 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
+        <v>163</v>
+      </c>
+      <c r="D189" t="s">
         <v>325</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>326</v>
-      </c>
-      <c r="E189" t="s">
-        <v>164</v>
       </c>
       <c r="F189" t="s">
         <v>327</v>
@@ -5969,13 +5969,13 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
+        <v>163</v>
+      </c>
+      <c r="D190" t="s">
         <v>325</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>326</v>
-      </c>
-      <c r="E190" t="s">
-        <v>164</v>
       </c>
       <c r="F190" t="s">
         <v>327</v>
@@ -5992,13 +5992,13 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
+        <v>163</v>
+      </c>
+      <c r="D191" t="s">
         <v>325</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>326</v>
-      </c>
-      <c r="E191" t="s">
-        <v>164</v>
       </c>
       <c r="F191" t="s">
         <v>327</v>
@@ -6015,13 +6015,13 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
+        <v>163</v>
+      </c>
+      <c r="D192" t="s">
         <v>325</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>326</v>
-      </c>
-      <c r="E192" t="s">
-        <v>164</v>
       </c>
       <c r="F192" t="s">
         <v>327</v>
@@ -6038,19 +6038,19 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
+        <v>163</v>
+      </c>
+      <c r="D193" t="s">
         <v>325</v>
       </c>
-      <c r="D193" t="s">
-        <v>275</v>
-      </c>
       <c r="E193" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="F193" t="s">
         <v>341</v>
       </c>
       <c r="G193" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6061,13 +6061,13 @@
         <v>8</v>
       </c>
       <c r="C194" t="s">
+        <v>163</v>
+      </c>
+      <c r="D194" t="s">
         <v>325</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>326</v>
-      </c>
-      <c r="E194" t="s">
-        <v>164</v>
       </c>
       <c r="F194" t="s">
         <v>327</v>
@@ -6084,13 +6084,13 @@
         <v>8</v>
       </c>
       <c r="C195" t="s">
+        <v>163</v>
+      </c>
+      <c r="D195" t="s">
         <v>325</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>326</v>
-      </c>
-      <c r="E195" t="s">
-        <v>164</v>
       </c>
       <c r="F195" t="s">
         <v>327</v>
@@ -6107,13 +6107,13 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
+        <v>163</v>
+      </c>
+      <c r="D196" t="s">
         <v>325</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>326</v>
-      </c>
-      <c r="E196" t="s">
-        <v>164</v>
       </c>
       <c r="F196" t="s">
         <v>327</v>
@@ -6130,13 +6130,13 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
+        <v>163</v>
+      </c>
+      <c r="D197" t="s">
         <v>325</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>326</v>
-      </c>
-      <c r="E197" t="s">
-        <v>164</v>
       </c>
       <c r="F197" t="s">
         <v>327</v>
@@ -6153,13 +6153,13 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
+        <v>163</v>
+      </c>
+      <c r="D198" t="s">
         <v>325</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>326</v>
-      </c>
-      <c r="E198" t="s">
-        <v>164</v>
       </c>
       <c r="F198" t="s">
         <v>327</v>
@@ -6176,13 +6176,13 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
+        <v>163</v>
+      </c>
+      <c r="D199" t="s">
         <v>348</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>326</v>
-      </c>
-      <c r="E199" t="s">
-        <v>164</v>
       </c>
       <c r="F199" t="s">
         <v>349</v>
@@ -6199,13 +6199,13 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
+        <v>163</v>
+      </c>
+      <c r="D200" t="s">
         <v>348</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>326</v>
-      </c>
-      <c r="E200" t="s">
-        <v>164</v>
       </c>
       <c r="F200" t="s">
         <v>349</v>
@@ -6222,13 +6222,13 @@
         <v>8</v>
       </c>
       <c r="C201" t="s">
+        <v>163</v>
+      </c>
+      <c r="D201" t="s">
         <v>348</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>326</v>
-      </c>
-      <c r="E201" t="s">
-        <v>164</v>
       </c>
       <c r="F201" t="s">
         <v>349</v>
@@ -6245,13 +6245,13 @@
         <v>8</v>
       </c>
       <c r="C202" t="s">
+        <v>163</v>
+      </c>
+      <c r="D202" t="s">
         <v>348</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>326</v>
-      </c>
-      <c r="E202" t="s">
-        <v>164</v>
       </c>
       <c r="F202" t="s">
         <v>349</v>
@@ -6268,19 +6268,19 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
+        <v>163</v>
+      </c>
+      <c r="D203" t="s">
         <v>348</v>
       </c>
-      <c r="D203" t="s">
-        <v>275</v>
-      </c>
       <c r="E203" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="F203" t="s">
         <v>341</v>
       </c>
       <c r="G203" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6291,13 +6291,13 @@
         <v>8</v>
       </c>
       <c r="C204" t="s">
+        <v>163</v>
+      </c>
+      <c r="D204" t="s">
         <v>348</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>326</v>
-      </c>
-      <c r="E204" t="s">
-        <v>164</v>
       </c>
       <c r="F204" t="s">
         <v>349</v>
@@ -6314,13 +6314,13 @@
         <v>8</v>
       </c>
       <c r="C205" t="s">
+        <v>163</v>
+      </c>
+      <c r="D205" t="s">
         <v>356</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>326</v>
-      </c>
-      <c r="E205" t="s">
-        <v>164</v>
       </c>
       <c r="F205" t="s">
         <v>357</v>
@@ -6337,13 +6337,13 @@
         <v>8</v>
       </c>
       <c r="C206" t="s">
+        <v>163</v>
+      </c>
+      <c r="D206" t="s">
         <v>356</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>326</v>
-      </c>
-      <c r="E206" t="s">
-        <v>164</v>
       </c>
       <c r="F206" t="s">
         <v>357</v>
@@ -6360,13 +6360,13 @@
         <v>8</v>
       </c>
       <c r="C207" t="s">
+        <v>163</v>
+      </c>
+      <c r="D207" t="s">
         <v>356</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>326</v>
-      </c>
-      <c r="E207" t="s">
-        <v>164</v>
       </c>
       <c r="F207" t="s">
         <v>357</v>
@@ -6383,19 +6383,19 @@
         <v>8</v>
       </c>
       <c r="C208" t="s">
+        <v>163</v>
+      </c>
+      <c r="D208" t="s">
         <v>356</v>
       </c>
-      <c r="D208" t="s">
-        <v>275</v>
-      </c>
       <c r="E208" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="F208" t="s">
         <v>341</v>
       </c>
       <c r="G208" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6406,13 +6406,13 @@
         <v>8</v>
       </c>
       <c r="C209" t="s">
+        <v>163</v>
+      </c>
+      <c r="D209" t="s">
         <v>356</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>326</v>
-      </c>
-      <c r="E209" t="s">
-        <v>164</v>
       </c>
       <c r="F209" t="s">
         <v>357</v>
@@ -6429,13 +6429,13 @@
         <v>8</v>
       </c>
       <c r="C210" t="s">
+        <v>163</v>
+      </c>
+      <c r="D210" t="s">
         <v>363</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>364</v>
-      </c>
-      <c r="E210" t="s">
-        <v>164</v>
       </c>
       <c r="F210" t="s">
         <v>365</v>
@@ -6452,13 +6452,13 @@
         <v>8</v>
       </c>
       <c r="C211" t="s">
+        <v>163</v>
+      </c>
+      <c r="D211" t="s">
         <v>363</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>364</v>
-      </c>
-      <c r="E211" t="s">
-        <v>164</v>
       </c>
       <c r="F211" t="s">
         <v>365</v>
@@ -6475,13 +6475,13 @@
         <v>8</v>
       </c>
       <c r="C212" t="s">
+        <v>163</v>
+      </c>
+      <c r="D212" t="s">
         <v>363</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>364</v>
-      </c>
-      <c r="E212" t="s">
-        <v>164</v>
       </c>
       <c r="F212" t="s">
         <v>365</v>
@@ -6498,13 +6498,13 @@
         <v>8</v>
       </c>
       <c r="C213" t="s">
+        <v>163</v>
+      </c>
+      <c r="D213" t="s">
         <v>363</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>364</v>
-      </c>
-      <c r="E213" t="s">
-        <v>164</v>
       </c>
       <c r="F213" t="s">
         <v>365</v>
@@ -6521,13 +6521,13 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
+        <v>163</v>
+      </c>
+      <c r="D214" t="s">
         <v>363</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>364</v>
-      </c>
-      <c r="E214" t="s">
-        <v>164</v>
       </c>
       <c r="F214" t="s">
         <v>365</v>
@@ -6544,19 +6544,19 @@
         <v>8</v>
       </c>
       <c r="C215" t="s">
+        <v>163</v>
+      </c>
+      <c r="D215" t="s">
         <v>363</v>
       </c>
-      <c r="D215" t="s">
-        <v>326</v>
-      </c>
       <c r="E215" t="s">
-        <v>164</v>
+        <v>364</v>
       </c>
       <c r="F215" t="s">
         <v>349</v>
       </c>
       <c r="G215" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6567,13 +6567,13 @@
         <v>8</v>
       </c>
       <c r="C216" t="s">
+        <v>163</v>
+      </c>
+      <c r="D216" t="s">
         <v>363</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>364</v>
-      </c>
-      <c r="E216" t="s">
-        <v>164</v>
       </c>
       <c r="F216" t="s">
         <v>365</v>
@@ -6590,13 +6590,13 @@
         <v>8</v>
       </c>
       <c r="C217" t="s">
+        <v>163</v>
+      </c>
+      <c r="D217" t="s">
         <v>363</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>364</v>
-      </c>
-      <c r="E217" t="s">
-        <v>164</v>
       </c>
       <c r="F217" t="s">
         <v>365</v>
@@ -6613,13 +6613,13 @@
         <v>8</v>
       </c>
       <c r="C218" t="s">
+        <v>163</v>
+      </c>
+      <c r="D218" t="s">
         <v>363</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>364</v>
-      </c>
-      <c r="E218" t="s">
-        <v>164</v>
       </c>
       <c r="F218" t="s">
         <v>365</v>
@@ -6636,13 +6636,13 @@
         <v>8</v>
       </c>
       <c r="C219" t="s">
+        <v>163</v>
+      </c>
+      <c r="D219" t="s">
         <v>363</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>364</v>
-      </c>
-      <c r="E219" t="s">
-        <v>164</v>
       </c>
       <c r="F219" t="s">
         <v>365</v>
@@ -6659,19 +6659,19 @@
         <v>8</v>
       </c>
       <c r="C220" t="s">
+        <v>163</v>
+      </c>
+      <c r="D220" t="s">
         <v>363</v>
       </c>
-      <c r="D220" t="s">
-        <v>270</v>
-      </c>
       <c r="E220" t="s">
-        <v>164</v>
+        <v>364</v>
       </c>
       <c r="F220" t="s">
         <v>309</v>
       </c>
       <c r="G220" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6682,13 +6682,13 @@
         <v>8</v>
       </c>
       <c r="C221" t="s">
+        <v>163</v>
+      </c>
+      <c r="D221" t="s">
         <v>363</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>364</v>
-      </c>
-      <c r="E221" t="s">
-        <v>164</v>
       </c>
       <c r="F221" t="s">
         <v>365</v>
@@ -6705,13 +6705,13 @@
         <v>8</v>
       </c>
       <c r="C222" t="s">
+        <v>163</v>
+      </c>
+      <c r="D222" t="s">
         <v>363</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>364</v>
-      </c>
-      <c r="E222" t="s">
-        <v>164</v>
       </c>
       <c r="F222" t="s">
         <v>365</v>
@@ -6728,13 +6728,13 @@
         <v>8</v>
       </c>
       <c r="C223" t="s">
+        <v>163</v>
+      </c>
+      <c r="D223" t="s">
         <v>363</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>364</v>
-      </c>
-      <c r="E223" t="s">
-        <v>164</v>
       </c>
       <c r="F223" t="s">
         <v>365</v>
@@ -6751,13 +6751,13 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
+        <v>163</v>
+      </c>
+      <c r="D224" t="s">
         <v>363</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>364</v>
-      </c>
-      <c r="E224" t="s">
-        <v>164</v>
       </c>
       <c r="F224" t="s">
         <v>365</v>
@@ -6774,13 +6774,13 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
+        <v>163</v>
+      </c>
+      <c r="D225" t="s">
         <v>363</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>364</v>
-      </c>
-      <c r="E225" t="s">
-        <v>164</v>
       </c>
       <c r="F225" t="s">
         <v>365</v>
@@ -6797,19 +6797,19 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
+        <v>163</v>
+      </c>
+      <c r="D226" t="s">
         <v>363</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
+        <v>364</v>
+      </c>
+      <c r="F226" t="s">
         <v>275</v>
       </c>
-      <c r="E226" t="s">
-        <v>164</v>
-      </c>
-      <c r="F226" t="s">
+      <c r="G226" t="s">
         <v>276</v>
-      </c>
-      <c r="G226" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6820,13 +6820,13 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
+        <v>163</v>
+      </c>
+      <c r="D227" t="s">
         <v>363</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>364</v>
-      </c>
-      <c r="E227" t="s">
-        <v>164</v>
       </c>
       <c r="F227" t="s">
         <v>365</v>
@@ -6843,19 +6843,19 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
+        <v>163</v>
+      </c>
+      <c r="D228" t="s">
         <v>363</v>
       </c>
-      <c r="D228" t="s">
-        <v>163</v>
-      </c>
       <c r="E228" t="s">
+        <v>364</v>
+      </c>
+      <c r="F228" t="s">
         <v>164</v>
       </c>
-      <c r="F228" t="s">
+      <c r="G228" t="s">
         <v>165</v>
-      </c>
-      <c r="G228" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6866,13 +6866,13 @@
         <v>8</v>
       </c>
       <c r="C229" t="s">
+        <v>163</v>
+      </c>
+      <c r="D229" t="s">
         <v>386</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>364</v>
-      </c>
-      <c r="E229" t="s">
-        <v>164</v>
       </c>
       <c r="F229" t="s">
         <v>387</v>
@@ -6889,13 +6889,13 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
+        <v>163</v>
+      </c>
+      <c r="D230" t="s">
         <v>386</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>364</v>
-      </c>
-      <c r="E230" t="s">
-        <v>164</v>
       </c>
       <c r="F230" t="s">
         <v>387</v>
@@ -6912,19 +6912,19 @@
         <v>8</v>
       </c>
       <c r="C231" t="s">
+        <v>163</v>
+      </c>
+      <c r="D231" t="s">
         <v>386</v>
       </c>
-      <c r="D231" t="s">
-        <v>270</v>
-      </c>
       <c r="E231" t="s">
-        <v>164</v>
+        <v>364</v>
       </c>
       <c r="F231" t="s">
         <v>293</v>
       </c>
       <c r="G231" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6935,19 +6935,19 @@
         <v>8</v>
       </c>
       <c r="C232" t="s">
+        <v>163</v>
+      </c>
+      <c r="D232" t="s">
         <v>386</v>
       </c>
-      <c r="D232" t="s">
-        <v>270</v>
-      </c>
       <c r="E232" t="s">
-        <v>164</v>
+        <v>364</v>
       </c>
       <c r="F232" t="s">
         <v>309</v>
       </c>
       <c r="G232" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6958,13 +6958,13 @@
         <v>8</v>
       </c>
       <c r="C233" t="s">
+        <v>163</v>
+      </c>
+      <c r="D233" t="s">
         <v>386</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
         <v>364</v>
-      </c>
-      <c r="E233" t="s">
-        <v>164</v>
       </c>
       <c r="F233" t="s">
         <v>387</v>
@@ -6981,13 +6981,13 @@
         <v>8</v>
       </c>
       <c r="C234" t="s">
+        <v>163</v>
+      </c>
+      <c r="D234" t="s">
         <v>386</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E234" t="s">
         <v>364</v>
-      </c>
-      <c r="E234" t="s">
-        <v>164</v>
       </c>
       <c r="F234" t="s">
         <v>387</v>
@@ -7004,13 +7004,13 @@
         <v>8</v>
       </c>
       <c r="C235" t="s">
+        <v>163</v>
+      </c>
+      <c r="D235" t="s">
         <v>386</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>364</v>
-      </c>
-      <c r="E235" t="s">
-        <v>164</v>
       </c>
       <c r="F235" t="s">
         <v>387</v>
@@ -7027,13 +7027,13 @@
         <v>8</v>
       </c>
       <c r="C236" t="s">
+        <v>163</v>
+      </c>
+      <c r="D236" t="s">
         <v>386</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>364</v>
-      </c>
-      <c r="E236" t="s">
-        <v>164</v>
       </c>
       <c r="F236" t="s">
         <v>387</v>
@@ -7050,13 +7050,13 @@
         <v>8</v>
       </c>
       <c r="C237" t="s">
+        <v>163</v>
+      </c>
+      <c r="D237" t="s">
         <v>386</v>
       </c>
-      <c r="D237" t="s">
+      <c r="E237" t="s">
         <v>364</v>
-      </c>
-      <c r="E237" t="s">
-        <v>164</v>
       </c>
       <c r="F237" t="s">
         <v>387</v>
@@ -7073,13 +7073,13 @@
         <v>8</v>
       </c>
       <c r="C238" t="s">
+        <v>163</v>
+      </c>
+      <c r="D238" t="s">
         <v>386</v>
       </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
         <v>364</v>
-      </c>
-      <c r="E238" t="s">
-        <v>164</v>
       </c>
       <c r="F238" t="s">
         <v>387</v>
@@ -7096,13 +7096,13 @@
         <v>8</v>
       </c>
       <c r="C239" t="s">
+        <v>163</v>
+      </c>
+      <c r="D239" t="s">
         <v>398</v>
       </c>
-      <c r="D239" t="s">
+      <c r="E239" t="s">
         <v>364</v>
-      </c>
-      <c r="E239" t="s">
-        <v>164</v>
       </c>
       <c r="F239" t="s">
         <v>399</v>
@@ -7119,19 +7119,19 @@
         <v>8</v>
       </c>
       <c r="C240" t="s">
+        <v>163</v>
+      </c>
+      <c r="D240" t="s">
         <v>401</v>
       </c>
-      <c r="D240" t="s">
-        <v>163</v>
-      </c>
       <c r="E240" t="s">
+        <v>402</v>
+      </c>
+      <c r="F240" t="s">
         <v>164</v>
       </c>
-      <c r="F240" t="s">
+      <c r="G240" t="s">
         <v>165</v>
-      </c>
-      <c r="G240" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7142,19 +7142,19 @@
         <v>8</v>
       </c>
       <c r="C241" t="s">
+        <v>163</v>
+      </c>
+      <c r="D241" t="s">
         <v>401</v>
       </c>
-      <c r="D241" t="s">
-        <v>163</v>
-      </c>
       <c r="E241" t="s">
+        <v>402</v>
+      </c>
+      <c r="F241" t="s">
         <v>164</v>
       </c>
-      <c r="F241" t="s">
+      <c r="G241" t="s">
         <v>165</v>
-      </c>
-      <c r="G241" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7165,19 +7165,19 @@
         <v>8</v>
       </c>
       <c r="C242" t="s">
+        <v>163</v>
+      </c>
+      <c r="D242" t="s">
         <v>401</v>
       </c>
-      <c r="D242" t="s">
-        <v>163</v>
-      </c>
       <c r="E242" t="s">
+        <v>402</v>
+      </c>
+      <c r="F242" t="s">
         <v>164</v>
       </c>
-      <c r="F242" t="s">
+      <c r="G242" t="s">
         <v>165</v>
-      </c>
-      <c r="G242" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7188,19 +7188,19 @@
         <v>8</v>
       </c>
       <c r="C243" t="s">
+        <v>163</v>
+      </c>
+      <c r="D243" t="s">
         <v>401</v>
       </c>
-      <c r="D243" t="s">
-        <v>163</v>
-      </c>
       <c r="E243" t="s">
+        <v>402</v>
+      </c>
+      <c r="F243" t="s">
         <v>164</v>
       </c>
-      <c r="F243" t="s">
+      <c r="G243" t="s">
         <v>165</v>
-      </c>
-      <c r="G243" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7211,19 +7211,19 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
+        <v>163</v>
+      </c>
+      <c r="D244" t="s">
         <v>401</v>
       </c>
-      <c r="D244" t="s">
-        <v>163</v>
-      </c>
       <c r="E244" t="s">
+        <v>402</v>
+      </c>
+      <c r="F244" t="s">
         <v>164</v>
       </c>
-      <c r="F244" t="s">
+      <c r="G244" t="s">
         <v>165</v>
-      </c>
-      <c r="G244" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7234,19 +7234,19 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
+        <v>163</v>
+      </c>
+      <c r="D245" t="s">
         <v>401</v>
       </c>
-      <c r="D245" t="s">
-        <v>163</v>
-      </c>
       <c r="E245" t="s">
+        <v>402</v>
+      </c>
+      <c r="F245" t="s">
         <v>164</v>
       </c>
-      <c r="F245" t="s">
+      <c r="G245" t="s">
         <v>165</v>
-      </c>
-      <c r="G245" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7257,19 +7257,19 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
+        <v>163</v>
+      </c>
+      <c r="D246" t="s">
         <v>409</v>
       </c>
-      <c r="D246" t="s">
-        <v>255</v>
-      </c>
       <c r="E246" t="s">
-        <v>164</v>
+        <v>402</v>
       </c>
       <c r="F246" t="s">
         <v>410</v>
       </c>
       <c r="G246" t="s">
-        <v>402</v>
+        <v>256</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7279,17 +7279,17 @@
       <c r="B247" t="s">
         <v>8</v>
       </c>
-      <c r="D247" t="s">
+      <c r="C247" t="s">
         <v>95</v>
       </c>
       <c r="E247" t="s">
+        <v>412</v>
+      </c>
+      <c r="F247" t="s">
         <v>96</v>
       </c>
-      <c r="F247" t="s">
+      <c r="G247" t="s">
         <v>97</v>
-      </c>
-      <c r="G247" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7299,17 +7299,17 @@
       <c r="B248" t="s">
         <v>8</v>
       </c>
-      <c r="D248" t="s">
+      <c r="C248" t="s">
         <v>95</v>
       </c>
       <c r="E248" t="s">
+        <v>412</v>
+      </c>
+      <c r="F248" t="s">
         <v>96</v>
       </c>
-      <c r="F248" t="s">
+      <c r="G248" t="s">
         <v>97</v>
-      </c>
-      <c r="G248" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7319,17 +7319,17 @@
       <c r="B249" t="s">
         <v>8</v>
       </c>
-      <c r="D249" t="s">
+      <c r="C249" t="s">
+        <v>95</v>
+      </c>
+      <c r="E249" t="s">
+        <v>412</v>
+      </c>
+      <c r="F249" t="s">
         <v>415</v>
       </c>
-      <c r="E249" t="s">
-        <v>96</v>
-      </c>
-      <c r="F249" t="s">
+      <c r="G249" t="s">
         <v>416</v>
-      </c>
-      <c r="G249" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7339,17 +7339,17 @@
       <c r="B250" t="s">
         <v>8</v>
       </c>
-      <c r="D250" t="s">
+      <c r="C250" t="s">
         <v>95</v>
       </c>
       <c r="E250" t="s">
+        <v>412</v>
+      </c>
+      <c r="F250" t="s">
         <v>96</v>
       </c>
-      <c r="F250" t="s">
+      <c r="G250" t="s">
         <v>97</v>
-      </c>
-      <c r="G250" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7359,17 +7359,17 @@
       <c r="B251" t="s">
         <v>8</v>
       </c>
-      <c r="D251" t="s">
+      <c r="C251" t="s">
         <v>95</v>
       </c>
       <c r="E251" t="s">
+        <v>412</v>
+      </c>
+      <c r="F251" t="s">
         <v>96</v>
       </c>
-      <c r="F251" t="s">
+      <c r="G251" t="s">
         <v>97</v>
-      </c>
-      <c r="G251" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7379,17 +7379,17 @@
       <c r="B252" t="s">
         <v>8</v>
       </c>
-      <c r="D252" t="s">
+      <c r="C252" t="s">
         <v>95</v>
       </c>
       <c r="E252" t="s">
+        <v>412</v>
+      </c>
+      <c r="F252" t="s">
         <v>96</v>
       </c>
-      <c r="F252" t="s">
+      <c r="G252" t="s">
         <v>97</v>
-      </c>
-      <c r="G252" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7399,11 +7399,11 @@
       <c r="B253" t="s">
         <v>8</v>
       </c>
-      <c r="D253" t="s">
+      <c r="C253" t="s">
+        <v>163</v>
+      </c>
+      <c r="E253" t="s">
         <v>421</v>
-      </c>
-      <c r="E253" t="s">
-        <v>164</v>
       </c>
       <c r="F253" t="s">
         <v>422</v>
@@ -7419,17 +7419,17 @@
       <c r="B254" t="s">
         <v>8</v>
       </c>
-      <c r="D254" t="s">
+      <c r="C254" t="s">
+        <v>90</v>
+      </c>
+      <c r="E254" t="s">
+        <v>421</v>
+      </c>
+      <c r="F254" t="s">
         <v>219</v>
       </c>
-      <c r="E254" t="s">
-        <v>91</v>
-      </c>
-      <c r="F254" t="s">
+      <c r="G254" t="s">
         <v>220</v>
-      </c>
-      <c r="G254" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7439,17 +7439,17 @@
       <c r="B255" t="s">
         <v>8</v>
       </c>
-      <c r="D255" t="s">
+      <c r="C255" t="s">
+        <v>90</v>
+      </c>
+      <c r="E255" t="s">
+        <v>421</v>
+      </c>
+      <c r="F255" t="s">
         <v>426</v>
       </c>
-      <c r="E255" t="s">
-        <v>91</v>
-      </c>
-      <c r="F255" t="s">
+      <c r="G255" t="s">
         <v>427</v>
-      </c>
-      <c r="G255" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7459,17 +7459,17 @@
       <c r="B256" t="s">
         <v>8</v>
       </c>
-      <c r="D256" t="s">
+      <c r="C256" t="s">
+        <v>90</v>
+      </c>
+      <c r="E256" t="s">
+        <v>421</v>
+      </c>
+      <c r="F256" t="s">
         <v>426</v>
       </c>
-      <c r="E256" t="s">
-        <v>91</v>
-      </c>
-      <c r="F256" t="s">
+      <c r="G256" t="s">
         <v>427</v>
-      </c>
-      <c r="G256" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7479,17 +7479,17 @@
       <c r="B257" t="s">
         <v>8</v>
       </c>
-      <c r="D257" t="s">
+      <c r="C257" t="s">
+        <v>90</v>
+      </c>
+      <c r="E257" t="s">
+        <v>421</v>
+      </c>
+      <c r="F257" t="s">
         <v>426</v>
       </c>
-      <c r="E257" t="s">
-        <v>91</v>
-      </c>
-      <c r="F257" t="s">
+      <c r="G257" t="s">
         <v>427</v>
-      </c>
-      <c r="G257" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7499,17 +7499,17 @@
       <c r="B258" t="s">
         <v>8</v>
       </c>
-      <c r="D258" t="s">
-        <v>326</v>
+      <c r="C258" t="s">
+        <v>163</v>
       </c>
       <c r="E258" t="s">
-        <v>164</v>
+        <v>421</v>
       </c>
       <c r="F258" t="s">
         <v>327</v>
       </c>
       <c r="G258" t="s">
-        <v>423</v>
+        <v>328</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7519,17 +7519,17 @@
       <c r="B259" t="s">
         <v>8</v>
       </c>
-      <c r="D259" t="s">
+      <c r="C259" t="s">
+        <v>90</v>
+      </c>
+      <c r="E259" t="s">
+        <v>421</v>
+      </c>
+      <c r="F259" t="s">
         <v>426</v>
       </c>
-      <c r="E259" t="s">
-        <v>91</v>
-      </c>
-      <c r="F259" t="s">
+      <c r="G259" t="s">
         <v>427</v>
-      </c>
-      <c r="G259" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7539,17 +7539,17 @@
       <c r="B260" t="s">
         <v>8</v>
       </c>
-      <c r="D260" t="s">
+      <c r="C260" t="s">
         <v>163</v>
       </c>
       <c r="E260" t="s">
+        <v>421</v>
+      </c>
+      <c r="F260" t="s">
         <v>164</v>
       </c>
-      <c r="F260" t="s">
+      <c r="G260" t="s">
         <v>165</v>
-      </c>
-      <c r="G260" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7559,17 +7559,17 @@
       <c r="B261" t="s">
         <v>8</v>
       </c>
-      <c r="D261" t="s">
+      <c r="C261" t="s">
+        <v>195</v>
+      </c>
+      <c r="E261" t="s">
+        <v>421</v>
+      </c>
+      <c r="F261" t="s">
         <v>434</v>
       </c>
-      <c r="E261" t="s">
-        <v>196</v>
-      </c>
-      <c r="F261" t="s">
+      <c r="G261" t="s">
         <v>435</v>
-      </c>
-      <c r="G261" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7579,17 +7579,17 @@
       <c r="B262" t="s">
         <v>8</v>
       </c>
-      <c r="D262" t="s">
+      <c r="C262" t="s">
         <v>163</v>
       </c>
       <c r="E262" t="s">
+        <v>421</v>
+      </c>
+      <c r="F262" t="s">
         <v>164</v>
       </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
         <v>165</v>
-      </c>
-      <c r="G262" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7599,17 +7599,17 @@
       <c r="B263" t="s">
         <v>8</v>
       </c>
-      <c r="D263" t="s">
+      <c r="C263" t="s">
+        <v>182</v>
+      </c>
+      <c r="E263" t="s">
+        <v>421</v>
+      </c>
+      <c r="F263" t="s">
         <v>438</v>
       </c>
-      <c r="E263" t="s">
-        <v>183</v>
-      </c>
-      <c r="F263" t="s">
+      <c r="G263" t="s">
         <v>439</v>
-      </c>
-      <c r="G263" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7619,17 +7619,17 @@
       <c r="B264" t="s">
         <v>8</v>
       </c>
-      <c r="D264" t="s">
+      <c r="C264" t="s">
         <v>31</v>
       </c>
       <c r="E264" t="s">
+        <v>421</v>
+      </c>
+      <c r="F264" t="s">
         <v>32</v>
       </c>
-      <c r="F264" t="s">
+      <c r="G264" t="s">
         <v>33</v>
-      </c>
-      <c r="G264" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7639,17 +7639,17 @@
       <c r="B265" t="s">
         <v>8</v>
       </c>
-      <c r="D265" t="s">
-        <v>10</v>
+      <c r="C265" t="s">
+        <v>9</v>
       </c>
       <c r="E265" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="F265" t="s">
         <v>12</v>
       </c>
       <c r="G265" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7659,17 +7659,17 @@
       <c r="B266" t="s">
         <v>8</v>
       </c>
-      <c r="D266" t="s">
+      <c r="C266" t="s">
+        <v>112</v>
+      </c>
+      <c r="E266" t="s">
+        <v>421</v>
+      </c>
+      <c r="F266" t="s">
         <v>443</v>
       </c>
-      <c r="E266" t="s">
-        <v>114</v>
-      </c>
-      <c r="F266" t="s">
+      <c r="G266" t="s">
         <v>444</v>
-      </c>
-      <c r="G266" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7679,17 +7679,17 @@
       <c r="B267" t="s">
         <v>8</v>
       </c>
-      <c r="D267" t="s">
+      <c r="C267" t="s">
+        <v>112</v>
+      </c>
+      <c r="E267" t="s">
+        <v>446</v>
+      </c>
+      <c r="F267" t="s">
         <v>118</v>
       </c>
-      <c r="E267" t="s">
-        <v>114</v>
-      </c>
-      <c r="F267" t="s">
+      <c r="G267" t="s">
         <v>119</v>
-      </c>
-      <c r="G267" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7699,17 +7699,17 @@
       <c r="B268" t="s">
         <v>8</v>
       </c>
-      <c r="D268" t="s">
-        <v>202</v>
+      <c r="C268" t="s">
+        <v>182</v>
       </c>
       <c r="E268" t="s">
-        <v>183</v>
+        <v>448</v>
       </c>
       <c r="F268" t="s">
         <v>203</v>
       </c>
       <c r="G268" t="s">
-        <v>448</v>
+        <v>204</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -7719,17 +7719,17 @@
       <c r="B269" t="s">
         <v>8</v>
       </c>
-      <c r="D269" t="s">
+      <c r="C269" t="s">
+        <v>112</v>
+      </c>
+      <c r="E269" t="s">
+        <v>450</v>
+      </c>
+      <c r="F269" t="s">
         <v>118</v>
       </c>
-      <c r="E269" t="s">
-        <v>114</v>
-      </c>
-      <c r="F269" t="s">
+      <c r="G269" t="s">
         <v>119</v>
-      </c>
-      <c r="G269" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7739,17 +7739,17 @@
       <c r="B270" t="s">
         <v>8</v>
       </c>
-      <c r="D270" t="s">
+      <c r="C270" t="s">
+        <v>112</v>
+      </c>
+      <c r="E270" t="s">
+        <v>450</v>
+      </c>
+      <c r="F270" t="s">
         <v>118</v>
       </c>
-      <c r="E270" t="s">
-        <v>114</v>
-      </c>
-      <c r="F270" t="s">
+      <c r="G270" t="s">
         <v>119</v>
-      </c>
-      <c r="G270" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -7759,11 +7759,11 @@
       <c r="B271" t="s">
         <v>8</v>
       </c>
-      <c r="D271" t="s">
+      <c r="C271" t="s">
+        <v>112</v>
+      </c>
+      <c r="E271" t="s">
         <v>453</v>
-      </c>
-      <c r="E271" t="s">
-        <v>114</v>
       </c>
       <c r="F271" t="s">
         <v>454</v>
@@ -7779,11 +7779,11 @@
       <c r="B272" t="s">
         <v>8</v>
       </c>
-      <c r="D272" t="s">
+      <c r="C272" t="s">
+        <v>112</v>
+      </c>
+      <c r="E272" t="s">
         <v>453</v>
-      </c>
-      <c r="E272" t="s">
-        <v>114</v>
       </c>
       <c r="F272" t="s">
         <v>454</v>
@@ -7799,11 +7799,11 @@
       <c r="B273" t="s">
         <v>8</v>
       </c>
-      <c r="D273" t="s">
+      <c r="C273" t="s">
+        <v>112</v>
+      </c>
+      <c r="E273" t="s">
         <v>453</v>
-      </c>
-      <c r="E273" t="s">
-        <v>114</v>
       </c>
       <c r="F273" t="s">
         <v>454</v>
@@ -7819,11 +7819,11 @@
       <c r="B274" t="s">
         <v>8</v>
       </c>
-      <c r="D274" t="s">
+      <c r="C274" t="s">
+        <v>112</v>
+      </c>
+      <c r="E274" t="s">
         <v>453</v>
-      </c>
-      <c r="E274" t="s">
-        <v>114</v>
       </c>
       <c r="F274" t="s">
         <v>454</v>
@@ -7839,11 +7839,11 @@
       <c r="B275" t="s">
         <v>8</v>
       </c>
-      <c r="D275" t="s">
+      <c r="C275" t="s">
+        <v>112</v>
+      </c>
+      <c r="E275" t="s">
         <v>453</v>
-      </c>
-      <c r="E275" t="s">
-        <v>114</v>
       </c>
       <c r="F275" t="s">
         <v>454</v>
@@ -7859,11 +7859,11 @@
       <c r="B276" t="s">
         <v>8</v>
       </c>
-      <c r="D276" t="s">
+      <c r="C276" t="s">
+        <v>112</v>
+      </c>
+      <c r="E276" t="s">
         <v>453</v>
-      </c>
-      <c r="E276" t="s">
-        <v>114</v>
       </c>
       <c r="F276" t="s">
         <v>454</v>
@@ -7879,11 +7879,11 @@
       <c r="B277" t="s">
         <v>8</v>
       </c>
-      <c r="D277" t="s">
+      <c r="C277" t="s">
+        <v>112</v>
+      </c>
+      <c r="E277" t="s">
         <v>453</v>
-      </c>
-      <c r="E277" t="s">
-        <v>114</v>
       </c>
       <c r="F277" t="s">
         <v>454</v>
@@ -7899,17 +7899,17 @@
       <c r="B278" t="s">
         <v>8</v>
       </c>
-      <c r="D278" t="s">
-        <v>202</v>
+      <c r="C278" t="s">
+        <v>182</v>
       </c>
       <c r="E278" t="s">
-        <v>183</v>
+        <v>463</v>
       </c>
       <c r="F278" t="s">
         <v>203</v>
       </c>
       <c r="G278" t="s">
-        <v>463</v>
+        <v>204</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7919,17 +7919,17 @@
       <c r="B279" t="s">
         <v>8</v>
       </c>
-      <c r="D279" t="s">
-        <v>52</v>
+      <c r="C279" t="s">
+        <v>31</v>
       </c>
       <c r="E279" t="s">
-        <v>32</v>
+        <v>463</v>
       </c>
       <c r="F279" t="s">
         <v>53</v>
       </c>
       <c r="G279" t="s">
-        <v>463</v>
+        <v>54</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7939,17 +7939,17 @@
       <c r="B280" t="s">
         <v>8</v>
       </c>
-      <c r="D280" t="s">
-        <v>10</v>
+      <c r="C280" t="s">
+        <v>9</v>
       </c>
       <c r="E280" t="s">
-        <v>11</v>
+        <v>463</v>
       </c>
       <c r="F280" t="s">
         <v>12</v>
       </c>
       <c r="G280" t="s">
-        <v>463</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -7959,17 +7959,17 @@
       <c r="B281" t="s">
         <v>8</v>
       </c>
-      <c r="D281" t="s">
+      <c r="C281" t="s">
+        <v>112</v>
+      </c>
+      <c r="E281" t="s">
+        <v>463</v>
+      </c>
+      <c r="F281" t="s">
         <v>170</v>
       </c>
-      <c r="E281" t="s">
-        <v>114</v>
-      </c>
-      <c r="F281" t="s">
+      <c r="G281" t="s">
         <v>171</v>
-      </c>
-      <c r="G281" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -7979,17 +7979,17 @@
       <c r="B282" t="s">
         <v>8</v>
       </c>
-      <c r="D282" t="s">
+      <c r="C282" t="s">
         <v>124</v>
       </c>
       <c r="E282" t="s">
+        <v>463</v>
+      </c>
+      <c r="F282" t="s">
         <v>125</v>
       </c>
-      <c r="F282" t="s">
+      <c r="G282" t="s">
         <v>126</v>
-      </c>
-      <c r="G282" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -7999,17 +7999,17 @@
       <c r="B283" t="s">
         <v>8</v>
       </c>
-      <c r="D283" t="s">
-        <v>364</v>
+      <c r="C283" t="s">
+        <v>163</v>
       </c>
       <c r="E283" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
       <c r="F283" t="s">
         <v>399</v>
       </c>
       <c r="G283" t="s">
-        <v>469</v>
+        <v>366</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8019,17 +8019,17 @@
       <c r="B284" t="s">
         <v>8</v>
       </c>
-      <c r="D284" t="s">
+      <c r="C284" t="s">
         <v>124</v>
       </c>
       <c r="E284" t="s">
+        <v>471</v>
+      </c>
+      <c r="F284" t="s">
         <v>125</v>
       </c>
-      <c r="F284" t="s">
+      <c r="G284" t="s">
         <v>126</v>
-      </c>
-      <c r="G284" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8039,17 +8039,17 @@
       <c r="B285" t="s">
         <v>8</v>
       </c>
-      <c r="D285" t="s">
+      <c r="C285" t="s">
+        <v>112</v>
+      </c>
+      <c r="E285" t="s">
+        <v>473</v>
+      </c>
+      <c r="F285" t="s">
         <v>170</v>
       </c>
-      <c r="E285" t="s">
-        <v>114</v>
-      </c>
-      <c r="F285" t="s">
+      <c r="G285" t="s">
         <v>171</v>
-      </c>
-      <c r="G285" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8059,17 +8059,17 @@
       <c r="B286" t="s">
         <v>8</v>
       </c>
-      <c r="D286" t="s">
+      <c r="C286" t="s">
+        <v>182</v>
+      </c>
+      <c r="E286" t="s">
+        <v>475</v>
+      </c>
+      <c r="F286" t="s">
         <v>438</v>
       </c>
-      <c r="E286" t="s">
-        <v>183</v>
-      </c>
-      <c r="F286" t="s">
+      <c r="G286" t="s">
         <v>439</v>
-      </c>
-      <c r="G286" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8079,17 +8079,17 @@
       <c r="B287" t="s">
         <v>8</v>
       </c>
-      <c r="D287" t="s">
+      <c r="C287" t="s">
+        <v>182</v>
+      </c>
+      <c r="E287" t="s">
+        <v>475</v>
+      </c>
+      <c r="F287" t="s">
         <v>438</v>
       </c>
-      <c r="E287" t="s">
-        <v>183</v>
-      </c>
-      <c r="F287" t="s">
+      <c r="G287" t="s">
         <v>439</v>
-      </c>
-      <c r="G287" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8099,17 +8099,17 @@
       <c r="B288" t="s">
         <v>8</v>
       </c>
-      <c r="D288" t="s">
+      <c r="C288" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" t="s">
+        <v>475</v>
+      </c>
+      <c r="F288" t="s">
         <v>41</v>
       </c>
-      <c r="E288" t="s">
-        <v>11</v>
-      </c>
-      <c r="F288" t="s">
+      <c r="G288" t="s">
         <v>42</v>
-      </c>
-      <c r="G288" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8119,17 +8119,17 @@
       <c r="B289" t="s">
         <v>8</v>
       </c>
-      <c r="D289" t="s">
+      <c r="C289" t="s">
         <v>31</v>
       </c>
       <c r="E289" t="s">
+        <v>475</v>
+      </c>
+      <c r="F289" t="s">
         <v>32</v>
       </c>
-      <c r="F289" t="s">
+      <c r="G289" t="s">
         <v>33</v>
-      </c>
-      <c r="G289" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -8139,17 +8139,17 @@
       <c r="B290" t="s">
         <v>8</v>
       </c>
-      <c r="D290" t="s">
+      <c r="C290" t="s">
         <v>31</v>
       </c>
       <c r="E290" t="s">
+        <v>475</v>
+      </c>
+      <c r="F290" t="s">
         <v>32</v>
       </c>
-      <c r="F290" t="s">
+      <c r="G290" t="s">
         <v>33</v>
-      </c>
-      <c r="G290" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8159,17 +8159,17 @@
       <c r="B291" t="s">
         <v>8</v>
       </c>
-      <c r="D291" t="s">
+      <c r="C291" t="s">
+        <v>112</v>
+      </c>
+      <c r="E291" t="s">
+        <v>475</v>
+      </c>
+      <c r="F291" t="s">
         <v>170</v>
       </c>
-      <c r="E291" t="s">
-        <v>114</v>
-      </c>
-      <c r="F291" t="s">
+      <c r="G291" t="s">
         <v>171</v>
-      </c>
-      <c r="G291" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8179,17 +8179,17 @@
       <c r="B292" t="s">
         <v>8</v>
       </c>
-      <c r="D292" t="s">
+      <c r="C292" t="s">
+        <v>112</v>
+      </c>
+      <c r="E292" t="s">
+        <v>475</v>
+      </c>
+      <c r="F292" t="s">
         <v>170</v>
       </c>
-      <c r="E292" t="s">
-        <v>114</v>
-      </c>
-      <c r="F292" t="s">
+      <c r="G292" t="s">
         <v>171</v>
-      </c>
-      <c r="G292" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8199,17 +8199,17 @@
       <c r="B293" t="s">
         <v>8</v>
       </c>
-      <c r="D293" t="s">
+      <c r="C293" t="s">
+        <v>112</v>
+      </c>
+      <c r="E293" t="s">
+        <v>475</v>
+      </c>
+      <c r="F293" t="s">
         <v>170</v>
       </c>
-      <c r="E293" t="s">
-        <v>114</v>
-      </c>
-      <c r="F293" t="s">
+      <c r="G293" t="s">
         <v>171</v>
-      </c>
-      <c r="G293" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8219,17 +8219,17 @@
       <c r="B294" t="s">
         <v>8</v>
       </c>
-      <c r="D294" t="s">
+      <c r="C294" t="s">
+        <v>112</v>
+      </c>
+      <c r="E294" t="s">
+        <v>475</v>
+      </c>
+      <c r="F294" t="s">
         <v>170</v>
       </c>
-      <c r="E294" t="s">
-        <v>114</v>
-      </c>
-      <c r="F294" t="s">
+      <c r="G294" t="s">
         <v>171</v>
-      </c>
-      <c r="G294" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8239,17 +8239,17 @@
       <c r="B295" t="s">
         <v>8</v>
       </c>
-      <c r="D295" t="s">
+      <c r="C295" t="s">
+        <v>112</v>
+      </c>
+      <c r="E295" t="s">
+        <v>485</v>
+      </c>
+      <c r="F295" t="s">
         <v>170</v>
       </c>
-      <c r="E295" t="s">
-        <v>114</v>
-      </c>
-      <c r="F295" t="s">
+      <c r="G295" t="s">
         <v>171</v>
-      </c>
-      <c r="G295" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -8259,17 +8259,17 @@
       <c r="B296" t="s">
         <v>8</v>
       </c>
-      <c r="D296" t="s">
+      <c r="C296" t="s">
+        <v>112</v>
+      </c>
+      <c r="E296" t="s">
+        <v>485</v>
+      </c>
+      <c r="F296" t="s">
         <v>170</v>
       </c>
-      <c r="E296" t="s">
-        <v>114</v>
-      </c>
-      <c r="F296" t="s">
+      <c r="G296" t="s">
         <v>171</v>
-      </c>
-      <c r="G296" t="s">
-        <v>485</v>
       </c>
     </row>
   </sheetData>
